--- a/Documents/HU, HT, PB, SB.xlsx
+++ b/Documents/HU, HT, PB, SB.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ff47571d30268be/Documentos/6/APLICACIONE II/Proyecto/SIGDCOLTA/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1529DF72-A3DE-466E-97C9-837D61FF45BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{1529DF72-A3DE-466E-97C9-837D61FF45BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A97973B-AEAA-4991-8C8B-B212378CB00D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D7927580-9A21-4766-84F0-58BE9C7E4DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{D7927580-9A21-4766-84F0-58BE9C7E4DF7}"/>
   </bookViews>
   <sheets>
-    <sheet name="HT" sheetId="3" r:id="rId1"/>
-    <sheet name="HU" sheetId="4" r:id="rId2"/>
-    <sheet name="PB" sheetId="1" r:id="rId3"/>
-    <sheet name="SB" sheetId="2" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId1"/>
+    <sheet name="HT" sheetId="3" r:id="rId2"/>
+    <sheet name="HU" sheetId="4" r:id="rId3"/>
+    <sheet name="PB" sheetId="1" r:id="rId4"/>
+    <sheet name="SB" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="566">
   <si>
     <t>Identificador (ID) de la Historia</t>
   </si>
@@ -381,9 +382,6 @@
     <t>La arquitectura definida debe ser escalable para futuras expansiones.</t>
   </si>
   <si>
-    <t>El modelo de base de datos debe reflejar con precisión la estructura requerida.</t>
-  </si>
-  <si>
     <t>La conexión de datos debe establecerse correctamente sin errores.</t>
   </si>
   <si>
@@ -426,9 +424,6 @@
     <t>Se deben establecer índices y claves foráneas según las mejores prácticas.</t>
   </si>
   <si>
-    <t>Las operaciones CRUD en la base de datos deben funcionar sin problemas.</t>
-  </si>
-  <si>
     <t>Las rutas deben estar configuradas correctamente para las operaciones principales.</t>
   </si>
   <si>
@@ -468,9 +463,6 @@
     <t>Se deben realizar pruebas de rendimiento en consultas de base de datos.</t>
   </si>
   <si>
-    <t>Se deben implementar mecanismos de manejo de errores en caso de falla de conexión.</t>
-  </si>
-  <si>
     <t>El backend debe manejar de manera efectiva los errores y excepciones.</t>
   </si>
   <si>
@@ -507,9 +499,6 @@
     <t>La documentación del modelo de datos debe estar actualizada.</t>
   </si>
   <si>
-    <t>Se debe realizar una prueba de estrés en la conexión de datos.</t>
-  </si>
-  <si>
     <t>Las funciones principales del backend deben estar cubiertas por pruebas unitarias.</t>
   </si>
   <si>
@@ -564,9 +553,6 @@
     <t>En caso de interrupciones temporales en la conexión.</t>
   </si>
   <si>
-    <t>En caso de que se prevean picos de carga en el sistema.</t>
-  </si>
-  <si>
     <t>En caso de cambios en las versiones de las dependencias.</t>
   </si>
   <si>
@@ -1428,9 +1414,6 @@
     <t>SB14</t>
   </si>
   <si>
-    <t>Implementar opción de registro mediante redes sociales</t>
-  </si>
-  <si>
     <t>Agregar verificación de correo electrónico al registro</t>
   </si>
   <si>
@@ -1729,13 +1712,37 @@
   </si>
   <si>
     <t>Al realizar operaciones CRUD mediante SQL en el entorno de desarrollo.</t>
+  </si>
+  <si>
+    <t>El modelo de base de datos debe reflejar la estructura requerida.</t>
+  </si>
+  <si>
+    <t>Investigacion Sobre el ORM de Laravel</t>
+  </si>
+  <si>
+    <t>Las operaciones CRUD en la base de datos</t>
+  </si>
+  <si>
+    <t>Se deben implementar mensajes de manejo de errores en caso de falla de conexión.</t>
+  </si>
+  <si>
+    <t>Se debe realizar una prueba de estrés en la conexión de datos y en las operaciones CRUD.</t>
+  </si>
+  <si>
+    <t>En caso de que se prevean errores de sistema</t>
+  </si>
+  <si>
+    <t>Implementar opción de registro mediante gmail</t>
+  </si>
+  <si>
+    <t>Sprint 3-4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1796,6 +1803,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1881,7 +1896,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2108,11 +2123,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2286,6 +2332,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2319,6 +2371,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2394,21 +2455,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2722,11 +2784,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158A66CF-5D6C-4B15-B8B5-3066AF31B14F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9B023D-957F-4AAE-9E3E-1343C14F2EF3}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="B38" sqref="A38:XFD38"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2745,18 +2819,18 @@
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87" t="s">
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -2789,11 +2863,11 @@
     </row>
     <row r="3" spans="1:9" s="37" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -2801,16 +2875,16 @@
       <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="79" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="26">
@@ -2820,81 +2894,81 @@
         <v>112</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="26">
         <v>2</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
       <c r="E6" s="26">
         <v>3</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
-      <c r="B8" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
+      <c r="B8" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -2902,258 +2976,258 @@
       <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="69" t="s">
         <v>77</v>
       </c>
       <c r="E9" s="26">
         <v>1</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="26">
         <v>2</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="26">
         <v>3</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
       <c r="E12" s="43"/>
       <c r="F12" s="23" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="43"/>
-      <c r="F13" s="97" t="s">
-        <v>554</v>
+      <c r="F13" s="61" t="s">
+        <v>548</v>
       </c>
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="43"/>
       <c r="F14" s="44" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="26">
         <v>4</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
-      <c r="B16" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
+      <c r="B16" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="98"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="70" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="26">
         <v>1</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="68"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="26">
         <v>2</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="68"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="43"/>
       <c r="F19" s="44" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="68"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="26">
         <v>3</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="68"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="26">
         <v>4</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="68"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="43"/>
       <c r="F22" s="44" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
@@ -3161,11 +3235,11 @@
     </row>
     <row r="23" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
-      <c r="B23" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63"/>
+      <c r="B23" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="27"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
@@ -3173,16 +3247,16 @@
       <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="79" t="s">
         <v>73</v>
       </c>
       <c r="E24" s="26">
@@ -3193,78 +3267,78 @@
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="34">
         <v>2</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="26">
         <v>3</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="26">
         <v>4</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
-      <c r="B28" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
+      <c r="B28" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -3272,1234 +3346,1250 @@
       <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="81" t="s">
+      <c r="D29" s="86" t="s">
         <v>75</v>
       </c>
       <c r="E29" s="26">
         <v>1</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>114</v>
+        <v>558</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="82"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="26">
         <v>2</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="82"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="87"/>
       <c r="E31" s="26">
         <v>3</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="83"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="88"/>
       <c r="E32" s="26">
         <v>4</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
-      <c r="B33" s="64" t="s">
-        <v>336</v>
-      </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="66"/>
+      <c r="B33" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
+    <row r="34" spans="1:9" s="103" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="34"/>
+      <c r="F34" s="102" t="s">
+        <v>559</v>
+      </c>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+    </row>
+    <row r="35" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="72"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="26">
         <v>1</v>
       </c>
-      <c r="F34" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="I34" s="23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="26">
-        <v>2</v>
-      </c>
       <c r="F35" s="23" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="72"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="26">
+        <v>2</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="72"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="26">
+        <v>3</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="73"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="26">
+        <v>4</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="G38" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="I35" s="23" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="26">
-        <v>3</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="26">
-        <v>4</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="64" t="s">
-        <v>338</v>
-      </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-    </row>
-    <row r="39" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+      <c r="H38" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+      <c r="B39" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="C39" s="67"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+    </row>
+    <row r="40" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="68" t="s">
+      <c r="B40" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="67" t="s">
+      <c r="C40" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D40" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E40" s="26">
         <v>1</v>
       </c>
-      <c r="F39" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="26">
-        <v>2</v>
-      </c>
       <c r="F40" s="24" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G40" s="24"/>
       <c r="H40" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="72"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="26">
+        <v>2</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="72"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="26">
+        <v>3</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="73"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="26">
+        <v>4</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="C44" s="67"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="26">
+        <v>1</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="72"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="26">
+        <v>2</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="72"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="26">
+        <v>3</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H47" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I47" s="24" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="26">
+    <row r="48" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="73"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="26">
+        <v>4</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" s="67"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+    </row>
+    <row r="50" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="26">
+        <v>1</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="72"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="26">
+        <v>2</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="72"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="26">
         <v>3</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F52" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="73"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="26">
+        <v>4</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="C54" s="67"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+    </row>
+    <row r="55" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="26">
+        <v>1</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="72"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="26">
+        <v>2</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="72"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="26">
+        <v>3</v>
+      </c>
+      <c r="F57" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G41" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="H41" s="24" t="s">
+      <c r="G57" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="73"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="26">
+        <v>4</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="H58" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="I41" s="24" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="26">
+      <c r="I58" s="24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="32"/>
+      <c r="B59" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="C59" s="67"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+    </row>
+    <row r="60" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="26">
+        <v>1</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="72"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="26">
+        <v>2</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="72"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="26">
+        <v>3</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="73"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="26">
         <v>4</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F63" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G42" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="I42" s="24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="64" t="s">
+      <c r="G63" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="32"/>
+      <c r="B64" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="C64" s="67"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+    </row>
+    <row r="65" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="26">
+        <v>1</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="72"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="26">
+        <v>2</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="H66" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="72"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="26">
+        <v>3</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="73"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="26">
+        <v>4</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="32"/>
+      <c r="B69" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-    </row>
-    <row r="44" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="26">
+      <c r="C69" s="67"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+    </row>
+    <row r="70" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="26">
         <v>1</v>
       </c>
-      <c r="F44" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="I44" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="26">
+      <c r="F70" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="72"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="26">
         <v>2</v>
       </c>
-      <c r="F45" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="I45" s="24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="26">
-        <v>3</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="H46" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="26">
-        <v>4</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-    </row>
-    <row r="49" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="26">
-        <v>1</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="26">
-        <v>2</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="I50" s="24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="70"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="26">
-        <v>3</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="H51" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="26">
-        <v>4</v>
-      </c>
-      <c r="F52" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="H52" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="64" t="s">
-        <v>341</v>
-      </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-    </row>
-    <row r="54" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="26">
-        <v>1</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="I54" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="70"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="26">
-        <v>2</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="G55" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="26">
-        <v>3</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="G56" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="H56" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="I56" s="24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="26">
-        <v>4</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="H57" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="I57" s="24" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-    </row>
-    <row r="59" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="26">
-        <v>1</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="I59" s="24" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="26">
-        <v>2</v>
-      </c>
-      <c r="F60" s="24" t="s">
+      <c r="F71" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="G60" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="H60" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="I60" s="24" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="26">
-        <v>3</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="H61" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="I61" s="24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="26">
-        <v>4</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="G62" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="H62" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="I62" s="24" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="64" t="s">
-        <v>343</v>
-      </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-    </row>
-    <row r="64" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" s="26">
-        <v>1</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G64" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="H64" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="I64" s="24" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="70"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="26">
-        <v>2</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="G65" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="H65" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="I65" s="24" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="70"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="26">
-        <v>3</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="G66" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="H66" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="I66" s="24" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="26">
-        <v>4</v>
-      </c>
-      <c r="F67" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G67" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="H67" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="I67" s="24" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="C68" s="65"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-    </row>
-    <row r="69" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="D69" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="E69" s="26">
-        <v>1</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G69" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="H69" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="I69" s="24" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="70"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="26">
-        <v>2</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="I70" s="24" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="70"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="26">
-        <v>3</v>
-      </c>
-      <c r="F71" s="24" t="s">
-        <v>150</v>
       </c>
       <c r="G71" s="24"/>
       <c r="H71" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="72"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="26">
+        <v>3</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="73"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="26">
+        <v>4</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="32"/>
+      <c r="B74" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="C74" s="67"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+    </row>
+    <row r="75" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" s="26">
+        <v>1</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="72"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="26">
+        <v>2</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G76" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="H76" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="I76" s="24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="72"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="26">
+        <v>3</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="I77" s="24" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="73"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="26">
+        <v>4</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="H78" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="I71" s="24" t="s">
+      <c r="I78" s="24" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
-      <c r="B72" s="68"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="26">
+    <row r="79" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="32"/>
+      <c r="B79" s="66" t="s">
+        <v>341</v>
+      </c>
+      <c r="C79" s="67"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+    </row>
+    <row r="80" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="26">
+        <v>1</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="I80" s="24" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="72"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="26">
+        <v>2</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="72"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="26">
+        <v>3</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="I82" s="24" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="73"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="26">
         <v>4</v>
       </c>
-      <c r="F72" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="G72" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="H72" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="I72" s="24" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
-      <c r="B73" s="64" t="s">
-        <v>345</v>
-      </c>
-      <c r="C73" s="65"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="33"/>
-    </row>
-    <row r="74" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="B74" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="E74" s="26">
+      <c r="F83" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="32"/>
+      <c r="B84" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="C84" s="67"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+    </row>
+    <row r="85" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="26">
         <v>1</v>
       </c>
-      <c r="F74" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G74" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="H74" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="I74" s="24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="70"/>
-      <c r="B75" s="68"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="26">
+      <c r="F85" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="I85" s="24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="72"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="26">
         <v>2</v>
       </c>
-      <c r="F75" s="24" t="s">
+      <c r="F86" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="G75" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="I75" s="24" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="70"/>
-      <c r="B76" s="68"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="26">
+      <c r="G86" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="H86" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="I86" s="24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="72"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="26">
         <v>3</v>
       </c>
-      <c r="F76" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="G76" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="H76" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="I76" s="24" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="26">
+      <c r="F87" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="H87" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="I87" s="24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="73"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="26">
         <v>4</v>
       </c>
-      <c r="F77" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="G77" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="H77" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="I77" s="24" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
-      <c r="B78" s="64" t="s">
-        <v>346</v>
-      </c>
-      <c r="C78" s="65"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-    </row>
-    <row r="79" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="E79" s="26">
-        <v>1</v>
-      </c>
-      <c r="F79" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G79" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="H79" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="I79" s="24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="70"/>
-      <c r="B80" s="68"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="26">
-        <v>2</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G80" s="24" t="s">
+      <c r="F88" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G88" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="H80" s="24" t="s">
+      <c r="H88" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="I80" s="24" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="70"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="26">
-        <v>3</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="G81" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="H81" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="I81" s="24" t="s">
+      <c r="I88" s="24" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
-      <c r="B82" s="68"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="26">
-        <v>4</v>
-      </c>
-      <c r="F82" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G82" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H82" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="I82" s="24" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
-      <c r="B83" s="64" t="s">
-        <v>347</v>
-      </c>
-      <c r="C83" s="65"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-    </row>
-    <row r="84" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="B84" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="C84" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="D84" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="E84" s="26">
-        <v>1</v>
-      </c>
-      <c r="F84" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G84" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="H84" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="I84" s="24" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="70"/>
-      <c r="B85" s="68"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="26">
-        <v>2</v>
-      </c>
-      <c r="F85" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="G85" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="H85" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="I85" s="24" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="70"/>
-      <c r="B86" s="68"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="67"/>
-      <c r="E86" s="26">
-        <v>3</v>
-      </c>
-      <c r="F86" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G86" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="H86" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="I86" s="24" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="71"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="26">
-        <v>4</v>
-      </c>
-      <c r="F87" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="G87" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="H87" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="I87" s="24" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A34:A38"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A4:A7"/>
@@ -4507,76 +4597,73 @@
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A17:A22"/>
     <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
     <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B50:B53"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="D17:D22"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C50:C53"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="C85:C88"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="D9:D15"/>
@@ -4588,7 +4675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9DDE2-59FE-48B0-912A-9F161DB7D708}">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -4611,18 +4698,18 @@
   <sheetData>
     <row r="1" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87" t="s">
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -4655,11 +4742,11 @@
     </row>
     <row r="3" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -4667,60 +4754,60 @@
       <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="78" t="s">
-        <v>468</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>469</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>470</v>
+      <c r="B4" s="83" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>464</v>
       </c>
       <c r="E4" s="40">
         <v>1</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="40">
         <v>2</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="40">
         <v>3</v>
       </c>
@@ -4730,10 +4817,10 @@
       <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="40">
         <v>4</v>
       </c>
@@ -4744,11 +4831,11 @@
     </row>
     <row r="8" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="92" t="s">
-        <v>333</v>
-      </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="97" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="98"/>
+      <c r="D8" s="99"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -4756,60 +4843,60 @@
       <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="78" t="s">
-        <v>471</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>472</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>473</v>
+      <c r="B9" s="83" t="s">
+        <v>465</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>466</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>467</v>
       </c>
       <c r="E9" s="40">
         <v>1</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="34">
         <v>2</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="40">
         <v>3</v>
       </c>
@@ -4819,10 +4906,10 @@
       <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="40">
         <v>4</v>
       </c>
@@ -4833,11 +4920,11 @@
     </row>
     <row r="13" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="35"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
@@ -4845,81 +4932,81 @@
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="78" t="s">
-        <v>474</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>475</v>
-      </c>
-      <c r="D14" s="78" t="s">
-        <v>476</v>
+      <c r="B14" s="83" t="s">
+        <v>468</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>469</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>470</v>
       </c>
       <c r="E14" s="40">
         <v>1</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="40">
         <v>2</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="40">
         <v>3</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="40">
         <v>4</v>
       </c>
@@ -4930,11 +5017,11 @@
     </row>
     <row r="18" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
@@ -4942,81 +5029,81 @@
       <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="78" t="s">
-        <v>474</v>
-      </c>
-      <c r="C19" s="78" t="s">
-        <v>477</v>
-      </c>
-      <c r="D19" s="78" t="s">
-        <v>478</v>
+      <c r="B19" s="83" t="s">
+        <v>468</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>471</v>
+      </c>
+      <c r="D19" s="83" t="s">
+        <v>472</v>
       </c>
       <c r="E19" s="40">
         <v>1</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="40">
         <v>2</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="40">
         <v>3</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="I21" s="41" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="40">
         <v>4</v>
       </c>
@@ -5027,11 +5114,11 @@
     </row>
     <row r="23" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
       <c r="E23" s="35"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
@@ -5039,137 +5126,137 @@
       <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="75" t="s">
-        <v>479</v>
-      </c>
-      <c r="C24" s="75" t="s">
-        <v>480</v>
-      </c>
-      <c r="D24" s="75" t="s">
-        <v>481</v>
+      <c r="B24" s="80" t="s">
+        <v>473</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>474</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>475</v>
       </c>
       <c r="E24" s="40">
         <v>1</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="I24" s="41" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="40">
         <v>2</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I25" s="41" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="40">
         <v>3</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="I26" s="41" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="40">
         <v>4</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="40">
         <v>5</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="40">
         <v>6</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -5207,12 +5294,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBA4C7C-1B75-4CC3-9108-DB4740564B4D}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5237,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
@@ -5263,10 +5350,10 @@
     </row>
     <row r="2" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C2" s="54" t="s">
         <v>7</v>
@@ -5287,7 +5374,7 @@
         <v>31</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J2" s="39" t="s">
         <v>36</v>
@@ -5295,19 +5382,19 @@
     </row>
     <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F3" s="54" t="s">
         <v>27</v>
@@ -5316,10 +5403,10 @@
         <v>30</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>39</v>
@@ -5327,10 +5414,10 @@
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C4" s="54" t="s">
         <v>8</v>
@@ -5351,7 +5438,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J4" s="39" t="s">
         <v>38</v>
@@ -5359,10 +5446,10 @@
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C5" s="54" t="s">
         <v>9</v>
@@ -5374,7 +5461,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>29</v>
+        <v>565</v>
       </c>
       <c r="G5" s="53" t="s">
         <v>30</v>
@@ -5383,7 +5470,7 @@
         <v>33</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>40</v>
@@ -5391,179 +5478,179 @@
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C6" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>379</v>
-      </c>
       <c r="F6" s="54" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="39" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C7" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>380</v>
-      </c>
       <c r="F7" s="54" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="39" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B8" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="E8" s="39" t="s">
         <v>376</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>381</v>
-      </c>
       <c r="F8" s="54" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="39" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="J8" s="52" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C9" s="52" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="E9" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>382</v>
-      </c>
       <c r="F9" s="54" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="39" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="J9" s="52" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F10" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" s="39" t="s">
         <v>394</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>399</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="39" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="J10" s="52" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="39" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J11" s="52" t="s">
         <v>67</v>
@@ -5571,29 +5658,29 @@
     </row>
     <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="39" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J12" s="52" t="s">
         <v>98</v>
@@ -5601,29 +5688,29 @@
     </row>
     <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G13" s="39" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="39" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J13" s="52" t="s">
         <v>102</v>
@@ -5631,29 +5718,29 @@
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="39" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J14" s="52" t="s">
         <v>106</v>
@@ -5661,29 +5748,29 @@
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G15" s="39" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="39" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J15" s="52" t="s">
         <v>109</v>
@@ -5696,65 +5783,66 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E916DD94-D1B0-4F5A-A52B-CD3DDE50A874}">
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
     <col min="3" max="3" width="62.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="7" width="5.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="2" style="13" customWidth="1"/>
-    <col min="9" max="10" width="5.42578125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="2" style="13" customWidth="1"/>
-    <col min="12" max="13" width="5.42578125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="2" style="13" customWidth="1"/>
-    <col min="15" max="16" width="5.42578125" style="13" customWidth="1"/>
-    <col min="17" max="17" width="2" style="13" customWidth="1"/>
-    <col min="18" max="19" width="5.42578125" style="13" customWidth="1"/>
-    <col min="20" max="20" width="2" style="13" customWidth="1"/>
-    <col min="21" max="22" width="5.42578125" style="13" customWidth="1"/>
-    <col min="23" max="23" width="2" style="13" customWidth="1"/>
-    <col min="24" max="27" width="5.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10" style="6" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="5.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="2" style="13" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="5.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="2" style="13" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="5.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="2" style="13" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="5.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="2" style="13" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="5.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="2" style="13" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="5.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="2" style="13" hidden="1" customWidth="1"/>
+    <col min="25" max="28" width="5.42578125" style="13" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="95" t="s">
+    <row r="1" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="I1" s="95" t="s">
+      <c r="H1" s="101"/>
+      <c r="J1" s="100" t="s">
+        <v>346</v>
+      </c>
+      <c r="K1" s="101"/>
+      <c r="M1" s="100" t="s">
+        <v>347</v>
+      </c>
+      <c r="N1" s="101"/>
+      <c r="P1" s="100" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q1" s="101"/>
+      <c r="S1" s="100" t="s">
+        <v>349</v>
+      </c>
+      <c r="T1" s="101"/>
+      <c r="V1" s="100" t="s">
+        <v>350</v>
+      </c>
+      <c r="W1" s="101"/>
+      <c r="Y1" s="100" t="s">
         <v>351</v>
       </c>
-      <c r="J1" s="96"/>
-      <c r="L1" s="95" t="s">
-        <v>352</v>
-      </c>
-      <c r="M1" s="96"/>
-      <c r="O1" s="95" t="s">
-        <v>353</v>
-      </c>
-      <c r="P1" s="96"/>
-      <c r="R1" s="95" t="s">
-        <v>354</v>
-      </c>
-      <c r="S1" s="96"/>
-      <c r="U1" s="95" t="s">
-        <v>355</v>
-      </c>
-      <c r="V1" s="96"/>
-      <c r="X1" s="95" t="s">
-        <v>356</v>
-      </c>
-      <c r="Y1" s="96"/>
-    </row>
-    <row r="2" spans="1:27" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z1" s="101"/>
+    </row>
+    <row r="2" spans="1:31" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -5764,70 +5852,73 @@
       <c r="C2" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="12"/>
+      <c r="V2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="W2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Z2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AA2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AB2" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>7</v>
@@ -5835,395 +5926,420 @@
       <c r="C3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="14">
+      <c r="G3" s="14">
         <v>2</v>
       </c>
-      <c r="G3" s="14">
-        <f>E3-F3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14">
-        <f t="shared" ref="J3:J18" si="0">G3-I3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14">
-        <f t="shared" ref="M3:M18" si="1">J3-L3</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14">
-        <f t="shared" ref="P3:P18" si="2">M3-O3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14">
-        <f t="shared" ref="S3:S18" si="3">P3-R3</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14">
-        <f t="shared" ref="V3:V18" si="4">S3-U3</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="15"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14">
-        <f t="shared" ref="Y3:Y18" si="5">V3-X3</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="16">
-        <f>F3+I3+L3+O3+R3+U3+X3</f>
+      <c r="H3" s="14">
+        <f>F3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14">
+        <f t="shared" ref="K3:K18" si="0">H3-J3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14">
+        <f t="shared" ref="N3:N18" si="1">K3-M3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14">
+        <f t="shared" ref="Q3:Q18" si="2">N3-P3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="15"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14">
+        <f t="shared" ref="T3:T18" si="3">Q3-S3</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="15"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14">
+        <f t="shared" ref="W3:W18" si="4">T3-V3</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14">
+        <f t="shared" ref="Z3:Z18" si="5">W3-Y3</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="16">
+        <f>G3+J3+M3+P3+S3+V3+Y3</f>
         <v>2</v>
       </c>
-      <c r="AA3" s="16">
-        <f t="shared" ref="AA3:AA16" si="6">E3-Z3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB3" s="16">
+        <f t="shared" ref="AB3:AB16" si="6">F3-AA3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="57"/>
       <c r="C4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="14">
+      <c r="G4" s="14">
         <v>2</v>
       </c>
-      <c r="G4" s="14">
-        <f t="shared" ref="G4:G60" si="7">E4-F4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14">
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H60" si="7">F4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14">
+      <c r="L4" s="15"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14">
+      <c r="O4" s="15"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14">
+      <c r="R4" s="15"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14">
+      <c r="U4" s="15"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14">
+      <c r="X4" s="15"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="16">
-        <f t="shared" ref="Z4:Z22" si="8">F4+I4+L4+O4+R4+U4+X4</f>
+      <c r="AA4" s="16">
+        <f t="shared" ref="AA4:AA22" si="8">G4+J4+M4+P4+S4+V4+Y4</f>
         <v>2</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AB4" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="57"/>
       <c r="C5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="14">
+      <c r="G5" s="14">
         <v>2</v>
       </c>
-      <c r="G5" s="14">
+      <c r="H5" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14">
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14">
+      <c r="L5" s="15"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14">
+      <c r="O5" s="15"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14">
+      <c r="R5" s="15"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14">
+      <c r="U5" s="15"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14">
+      <c r="X5" s="15"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="16">
+      <c r="AA5" s="16">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AA5" s="16">
+      <c r="AB5" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="57"/>
       <c r="C6" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="14">
+      <c r="G6" s="14">
         <v>3</v>
       </c>
-      <c r="G6" s="14">
+      <c r="H6" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14">
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14">
+      <c r="L6" s="15"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14">
+      <c r="O6" s="15"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14">
+      <c r="R6" s="15"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14">
+      <c r="U6" s="15"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W6" s="15"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14">
+      <c r="X6" s="15"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="16">
+      <c r="AA6" s="16">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AA6" s="16">
+      <c r="AB6" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE6" s="107"/>
+    </row>
+    <row r="7" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>365</v>
-      </c>
-      <c r="D7" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15"/>
       <c r="S7" s="14"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="15"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="15"/>
       <c r="Y7" s="14"/>
-      <c r="Z7" s="16"/>
+      <c r="Z7" s="14"/>
       <c r="AA7" s="16"/>
-    </row>
-    <row r="8" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB7" s="16"/>
+    </row>
+    <row r="8" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="57"/>
       <c r="C8" s="50" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="15"/>
       <c r="S8" s="14"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="15"/>
       <c r="V8" s="14"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="15"/>
       <c r="Y8" s="14"/>
-      <c r="Z8" s="16"/>
+      <c r="Z8" s="14"/>
       <c r="AA8" s="16"/>
-    </row>
-    <row r="9" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB8" s="16"/>
+    </row>
+    <row r="9" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="57"/>
       <c r="C9" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="D9" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15"/>
       <c r="S9" s="14"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="15"/>
       <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="15"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="16"/>
+      <c r="Z9" s="14"/>
       <c r="AA9" s="16"/>
-    </row>
-    <row r="10" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB9" s="16"/>
+    </row>
+    <row r="10" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="57"/>
       <c r="C10" s="50" t="s">
-        <v>368</v>
-      </c>
-      <c r="D10" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="14"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="15"/>
       <c r="V10" s="14"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="15"/>
       <c r="Y10" s="14"/>
-      <c r="Z10" s="16"/>
+      <c r="Z10" s="14"/>
       <c r="AA10" s="16"/>
-    </row>
-    <row r="11" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB10" s="16"/>
+    </row>
+    <row r="11" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B11" s="56" t="s">
         <v>8</v>
@@ -6231,243 +6347,255 @@
       <c r="C11" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14">
+      <c r="F11" s="2"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14">
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14">
+      <c r="L11" s="15"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14">
+      <c r="O11" s="15"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14">
+      <c r="R11" s="15"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T11" s="15"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14">
+      <c r="U11" s="15"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W11" s="15"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14">
+      <c r="X11" s="15"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="16">
+      <c r="AA11" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="16">
+      <c r="AB11" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="57"/>
       <c r="C12" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14">
+      <c r="F12" s="2"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14">
+      <c r="I12" s="15"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14">
+      <c r="L12" s="15"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14">
+      <c r="O12" s="15"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14">
+      <c r="R12" s="15"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T12" s="15"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14">
+      <c r="U12" s="15"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14">
+      <c r="X12" s="15"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="16">
+      <c r="AA12" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AB12" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="57"/>
       <c r="C13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14">
+      <c r="F13" s="2"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14">
+      <c r="I13" s="15"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14">
+      <c r="L13" s="15"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14">
+      <c r="O13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14">
+      <c r="R13" s="15"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T13" s="15"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14">
+      <c r="U13" s="15"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W13" s="15"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14">
+      <c r="X13" s="15"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="16">
+      <c r="AA13" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="16">
+      <c r="AB13" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="57"/>
       <c r="C14" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14">
+      <c r="F14" s="2"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14">
+      <c r="I14" s="15"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14">
+      <c r="L14" s="15"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14">
+      <c r="O14" s="15"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14">
+      <c r="R14" s="15"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T14" s="15"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14">
+      <c r="U14" s="15"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W14" s="15"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14">
+      <c r="X14" s="15"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="16">
+      <c r="AA14" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="16">
+      <c r="AB14" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B15" s="56" t="s">
         <v>9</v>
@@ -6475,2005 +6603,2144 @@
       <c r="C15" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14">
+      <c r="F15" s="2"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14">
+      <c r="I15" s="15"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14">
+      <c r="L15" s="15"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14">
+      <c r="O15" s="15"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14">
+      <c r="R15" s="15"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T15" s="15"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14">
+      <c r="U15" s="15"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W15" s="15"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14">
+      <c r="X15" s="15"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="16">
+      <c r="AA15" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="16">
+      <c r="AB15" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="57"/>
       <c r="C16" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14">
+      <c r="F16" s="2"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14">
+      <c r="I16" s="15"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14">
+      <c r="L16" s="15"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14">
+      <c r="O16" s="15"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14">
+      <c r="R16" s="15"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T16" s="15"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14">
+      <c r="U16" s="15"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W16" s="15"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14">
+      <c r="X16" s="15"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="16">
+      <c r="AA16" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="16">
+      <c r="AB16" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="57"/>
       <c r="C17" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14">
+      <c r="F17" s="2"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14">
+      <c r="I17" s="15"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14">
+      <c r="L17" s="15"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14">
+      <c r="O17" s="15"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14">
+      <c r="R17" s="15"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T17" s="15"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14">
+      <c r="U17" s="15"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W17" s="15"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14">
+      <c r="X17" s="15"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="16">
+      <c r="AA17" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="16">
-        <f t="shared" ref="AA17:AA22" si="9">E17-Z17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB17" s="16">
+        <f t="shared" ref="AB17:AB22" si="9">F17-AA17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="57"/>
       <c r="C18" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14">
+      <c r="F18" s="2"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14">
+      <c r="I18" s="15"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14">
+      <c r="L18" s="15"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="15"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14">
+      <c r="O18" s="15"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14">
+      <c r="R18" s="15"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T18" s="15"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14">
+      <c r="U18" s="15"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W18" s="15"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14">
+      <c r="X18" s="15"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="16">
+      <c r="AA18" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="16">
+      <c r="AB18" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="58"/>
       <c r="C19" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="54" t="s">
+        <v>385</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="14">
+      <c r="F19" s="4"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="38"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="15"/>
       <c r="M19" s="38"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="38"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="15"/>
       <c r="S19" s="38"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="15"/>
       <c r="V19" s="38"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="15"/>
       <c r="Y19" s="38"/>
-      <c r="Z19" s="16">
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="16">
+      <c r="AB19" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="58"/>
       <c r="C20" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="54" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="14">
+      <c r="F20" s="4"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="38"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="38"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="15"/>
       <c r="M20" s="38"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="15"/>
       <c r="P20" s="38"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="15"/>
       <c r="S20" s="38"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="15"/>
       <c r="V20" s="38"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="15"/>
       <c r="Y20" s="38"/>
-      <c r="Z20" s="16">
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="16">
+      <c r="AB20" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="58"/>
       <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="54" t="s">
+        <v>385</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="14">
+      <c r="F21" s="4"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="38"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="15"/>
       <c r="M21" s="38"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="15"/>
       <c r="P21" s="38"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="15"/>
       <c r="S21" s="38"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="15"/>
       <c r="V21" s="38"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="15"/>
       <c r="Y21" s="38"/>
-      <c r="Z21" s="16">
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="16">
+      <c r="AB21" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="58"/>
       <c r="C22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="54" t="s">
+        <v>385</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="14">
+      <c r="F22" s="4"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="38"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="38"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="15"/>
       <c r="M22" s="38"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="15"/>
       <c r="P22" s="38"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="15"/>
       <c r="S22" s="38"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="15"/>
       <c r="V22" s="38"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="15"/>
       <c r="Y22" s="38"/>
-      <c r="Z22" s="16">
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="16">
+      <c r="AB22" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="14">
+        <v>417</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>386</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="38"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="38"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="15"/>
       <c r="M23" s="38"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="15"/>
       <c r="P23" s="38"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="15"/>
       <c r="S23" s="38"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="15"/>
       <c r="V23" s="38"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="15"/>
       <c r="Y23" s="38"/>
-      <c r="Z23" s="16">
-        <f t="shared" ref="Z23:Z36" si="10">F23+I23+L23+O23+R23+U23+X23</f>
-        <v>0</v>
-      </c>
+      <c r="Z23" s="38"/>
       <c r="AA23" s="16">
-        <f t="shared" ref="AA23:AA36" si="11">E23-Z23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AA23:AA36" si="10">G23+J23+M23+P23+S23+V23+Y23</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="16">
+        <f t="shared" ref="AB23:AB36" si="11">F23-AA23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="58"/>
       <c r="C24" s="52" t="s">
-        <v>423</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="14">
+        <v>418</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>386</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="38"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="38"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="15"/>
       <c r="M24" s="38"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="15"/>
       <c r="P24" s="38"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="15"/>
       <c r="S24" s="38"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="15"/>
       <c r="V24" s="38"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="15"/>
       <c r="Y24" s="38"/>
-      <c r="Z24" s="16"/>
+      <c r="Z24" s="38"/>
       <c r="AA24" s="16"/>
-    </row>
-    <row r="25" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB24" s="16"/>
+    </row>
+    <row r="25" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="58"/>
       <c r="C25" s="52" t="s">
-        <v>424</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="14">
+        <v>419</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="38"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="38"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="15"/>
       <c r="M25" s="38"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="15"/>
       <c r="P25" s="38"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="15"/>
       <c r="S25" s="38"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="15"/>
       <c r="V25" s="38"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="15"/>
       <c r="Y25" s="38"/>
-      <c r="Z25" s="16"/>
+      <c r="Z25" s="38"/>
       <c r="AA25" s="16"/>
-    </row>
-    <row r="26" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB25" s="16"/>
+    </row>
+    <row r="26" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="58"/>
       <c r="C26" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="14">
+        <v>564</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>386</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="38"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="38"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="15"/>
       <c r="M26" s="38"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="15"/>
       <c r="P26" s="38"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="15"/>
       <c r="S26" s="38"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="15"/>
       <c r="V26" s="38"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="15"/>
       <c r="Y26" s="38"/>
-      <c r="Z26" s="16"/>
+      <c r="Z26" s="38"/>
       <c r="AA26" s="16"/>
-    </row>
-    <row r="27" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB26" s="16"/>
+    </row>
+    <row r="27" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="58"/>
       <c r="C27" s="52" t="s">
-        <v>464</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="14">
+        <v>458</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>386</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="38"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="38"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="15"/>
       <c r="M27" s="38"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="15"/>
       <c r="P27" s="38"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="15"/>
       <c r="S27" s="38"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="15"/>
       <c r="V27" s="38"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="15"/>
       <c r="Y27" s="38"/>
-      <c r="Z27" s="16"/>
+      <c r="Z27" s="38"/>
       <c r="AA27" s="16"/>
-    </row>
-    <row r="28" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB27" s="16"/>
+    </row>
+    <row r="28" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="58"/>
       <c r="C28" s="52" t="s">
-        <v>465</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="14">
+        <v>459</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="38"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="38"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="15"/>
       <c r="M28" s="38"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="15"/>
       <c r="P28" s="38"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="15"/>
       <c r="S28" s="38"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="15"/>
       <c r="V28" s="38"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="15"/>
       <c r="Y28" s="38"/>
-      <c r="Z28" s="16"/>
+      <c r="Z28" s="38"/>
       <c r="AA28" s="16"/>
-    </row>
-    <row r="29" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB28" s="16"/>
+    </row>
+    <row r="29" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="58"/>
       <c r="C29" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="14">
+        <v>418</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>386</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="38"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="38"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="15"/>
       <c r="M29" s="38"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="15"/>
       <c r="P29" s="38"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="15"/>
       <c r="S29" s="38"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="15"/>
       <c r="V29" s="38"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="15"/>
       <c r="Y29" s="38"/>
-      <c r="Z29" s="16">
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="16">
+      <c r="AB29" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="58"/>
       <c r="C30" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="14">
+        <v>419</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>386</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="38"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="38"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="15"/>
       <c r="M30" s="38"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="15"/>
       <c r="P30" s="38"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="15"/>
       <c r="S30" s="38"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="15"/>
       <c r="V30" s="38"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="15"/>
       <c r="Y30" s="38"/>
-      <c r="Z30" s="16">
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="16">
+      <c r="AB30" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="14">
+        <v>420</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="38"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="38"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="15"/>
       <c r="M31" s="38"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="15"/>
       <c r="P31" s="38"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="15"/>
       <c r="S31" s="38"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="15"/>
       <c r="V31" s="38"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="15"/>
       <c r="Y31" s="38"/>
-      <c r="Z31" s="16">
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="16">
+      <c r="AB31" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="58"/>
       <c r="C32" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="14">
+        <v>421</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="38"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="38"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="15"/>
       <c r="M32" s="38"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="15"/>
       <c r="P32" s="38"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="15"/>
       <c r="S32" s="38"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="15"/>
       <c r="V32" s="38"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="15"/>
       <c r="Y32" s="38"/>
-      <c r="Z32" s="16">
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="16">
+      <c r="AB32" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="58"/>
       <c r="C33" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="14">
+        <v>422</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="38"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="38"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="15"/>
       <c r="M33" s="38"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="15"/>
       <c r="P33" s="38"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="15"/>
       <c r="S33" s="38"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="15"/>
       <c r="V33" s="38"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="15"/>
       <c r="Y33" s="38"/>
-      <c r="Z33" s="16">
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="16">
+      <c r="AB33" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="14">
+        <v>423</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="38"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="38"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="15"/>
       <c r="M34" s="38"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="15"/>
       <c r="P34" s="38"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="15"/>
       <c r="S34" s="38"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="15"/>
       <c r="V34" s="38"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="15"/>
       <c r="Y34" s="38"/>
-      <c r="Z34" s="16">
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="16">
+      <c r="AB34" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="58"/>
       <c r="C35" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="14">
+        <v>424</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="38"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="38"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="15"/>
       <c r="M35" s="38"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="15"/>
       <c r="P35" s="38"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="15"/>
       <c r="S35" s="38"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="15"/>
       <c r="V35" s="38"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="15"/>
       <c r="Y35" s="38"/>
-      <c r="Z35" s="16">
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="16">
+      <c r="AB35" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="58"/>
       <c r="C36" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="14">
+        <v>425</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="38"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="38"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="15"/>
       <c r="M36" s="38"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="15"/>
       <c r="P36" s="38"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="15"/>
       <c r="S36" s="38"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="15"/>
       <c r="V36" s="38"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="15"/>
       <c r="Y36" s="38"/>
-      <c r="Z36" s="16">
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="16">
+      <c r="AB36" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B37" s="58" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="14">
+        <v>426</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>388</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="38"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="38"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="15"/>
       <c r="M37" s="38"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="15"/>
       <c r="P37" s="38"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="15"/>
       <c r="S37" s="38"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="15"/>
       <c r="V37" s="38"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="15"/>
       <c r="Y37" s="38"/>
-      <c r="Z37" s="16">
-        <f t="shared" ref="Z37:Z60" si="12">F37+I37+L37+O37+R37+U37+X37</f>
-        <v>0</v>
-      </c>
+      <c r="Z37" s="38"/>
       <c r="AA37" s="16">
-        <f t="shared" ref="AA37:AA60" si="13">E37-Z37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AA37:AA60" si="12">G37+J37+M37+P37+S37+V37+Y37</f>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="16">
+        <f t="shared" ref="AB37:AB60" si="13">F37-AA37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="58"/>
       <c r="C38" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="14">
+        <v>427</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>388</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="38"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="38"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="15"/>
       <c r="M38" s="38"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="15"/>
       <c r="P38" s="38"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="15"/>
       <c r="S38" s="38"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="15"/>
       <c r="V38" s="38"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="15"/>
       <c r="Y38" s="38"/>
-      <c r="Z38" s="16">
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="16">
+      <c r="AB38" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="58"/>
       <c r="C39" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="14">
+        <v>428</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>388</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="38"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="38"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="15"/>
       <c r="M39" s="38"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="15"/>
       <c r="P39" s="38"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="15"/>
       <c r="S39" s="38"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="15"/>
       <c r="V39" s="38"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="15"/>
       <c r="Y39" s="38"/>
-      <c r="Z39" s="16">
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="16">
+      <c r="AB39" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="58"/>
       <c r="C40" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="14">
+        <v>429</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>388</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="38"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="38"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="15"/>
       <c r="M40" s="38"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="15"/>
       <c r="P40" s="38"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="15"/>
       <c r="S40" s="38"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="15"/>
       <c r="V40" s="38"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="15"/>
       <c r="Y40" s="38"/>
-      <c r="Z40" s="16">
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA40" s="16">
+      <c r="AB40" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B41" s="58" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="14">
+        <v>430</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="38"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="38"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="15"/>
       <c r="M41" s="38"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="15"/>
       <c r="P41" s="38"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="15"/>
       <c r="S41" s="38"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="15"/>
       <c r="V41" s="38"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="15"/>
       <c r="Y41" s="38"/>
-      <c r="Z41" s="16">
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA41" s="16">
+      <c r="AB41" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="58"/>
       <c r="C42" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="14">
+        <v>431</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="38"/>
+      <c r="I42" s="15"/>
       <c r="J42" s="38"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="15"/>
       <c r="M42" s="38"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="15"/>
       <c r="P42" s="38"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="15"/>
       <c r="S42" s="38"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="15"/>
       <c r="V42" s="38"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="15"/>
       <c r="Y42" s="38"/>
-      <c r="Z42" s="16">
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA42" s="16">
+      <c r="AB42" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="58"/>
       <c r="C43" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="14">
+        <v>432</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="38"/>
+      <c r="I43" s="15"/>
       <c r="J43" s="38"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="15"/>
       <c r="M43" s="38"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="15"/>
       <c r="P43" s="38"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="15"/>
       <c r="S43" s="38"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="15"/>
       <c r="V43" s="38"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="15"/>
       <c r="Y43" s="38"/>
-      <c r="Z43" s="16">
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA43" s="16">
+      <c r="AB43" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="14">
+        <v>433</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>390</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="38"/>
+      <c r="I44" s="15"/>
       <c r="J44" s="38"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="15"/>
       <c r="M44" s="38"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="15"/>
       <c r="P44" s="38"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="15"/>
       <c r="S44" s="38"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="15"/>
       <c r="V44" s="38"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="15"/>
       <c r="Y44" s="38"/>
-      <c r="Z44" s="16">
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA44" s="16">
+      <c r="AB44" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="58"/>
       <c r="C45" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="14">
+        <v>434</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>390</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="38"/>
+      <c r="I45" s="15"/>
       <c r="J45" s="38"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="15"/>
       <c r="M45" s="38"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="15"/>
       <c r="P45" s="38"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="15"/>
       <c r="S45" s="38"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="15"/>
       <c r="V45" s="38"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="15"/>
       <c r="Y45" s="38"/>
-      <c r="Z45" s="16">
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA45" s="16">
+      <c r="AB45" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="58"/>
       <c r="C46" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="D46" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="14">
+        <v>435</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>390</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="38"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="38"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="15"/>
       <c r="M46" s="38"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="15"/>
       <c r="P46" s="38"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="15"/>
       <c r="S46" s="38"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="15"/>
       <c r="V46" s="38"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="15"/>
       <c r="Y46" s="38"/>
-      <c r="Z46" s="16">
+      <c r="Z46" s="38"/>
+      <c r="AA46" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA46" s="16">
+      <c r="AB46" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="14">
+        <v>436</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="38"/>
+      <c r="I47" s="15"/>
       <c r="J47" s="38"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="15"/>
       <c r="M47" s="38"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="15"/>
       <c r="P47" s="38"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="15"/>
       <c r="S47" s="38"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="15"/>
       <c r="V47" s="38"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="15"/>
       <c r="Y47" s="38"/>
-      <c r="Z47" s="16">
+      <c r="Z47" s="38"/>
+      <c r="AA47" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA47" s="16">
+      <c r="AB47" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48"/>
       <c r="B48" s="58"/>
       <c r="C48" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="14">
+        <v>460</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="38"/>
+      <c r="I48" s="15"/>
       <c r="J48" s="38"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="15"/>
       <c r="M48" s="38"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="15"/>
       <c r="P48" s="38"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="15"/>
       <c r="S48" s="38"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="15"/>
       <c r="V48" s="38"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="15"/>
       <c r="Y48" s="38"/>
-      <c r="Z48" s="16"/>
+      <c r="Z48" s="38"/>
       <c r="AA48" s="16"/>
-    </row>
-    <row r="49" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB48" s="16"/>
+    </row>
+    <row r="49" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="58"/>
       <c r="C49" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="14">
+        <v>437</v>
+      </c>
+      <c r="D49" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="38"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="38"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="15"/>
       <c r="M49" s="38"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="15"/>
       <c r="P49" s="38"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="15"/>
       <c r="S49" s="38"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="15"/>
       <c r="V49" s="38"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="38"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="15"/>
       <c r="Y49" s="38"/>
-      <c r="Z49" s="16">
+      <c r="Z49" s="38"/>
+      <c r="AA49" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA49" s="16">
+      <c r="AB49" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="58"/>
       <c r="C50" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="14">
+        <v>461</v>
+      </c>
+      <c r="D50" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="38"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="38"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="15"/>
       <c r="M50" s="38"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="15"/>
       <c r="P50" s="38"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="15"/>
       <c r="S50" s="38"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="15"/>
       <c r="V50" s="38"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="15"/>
       <c r="Y50" s="38"/>
-      <c r="Z50" s="16"/>
+      <c r="Z50" s="38"/>
       <c r="AA50" s="16"/>
-    </row>
-    <row r="51" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB50" s="16"/>
+    </row>
+    <row r="51" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="58"/>
       <c r="C51" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="14">
+        <v>438</v>
+      </c>
+      <c r="D51" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="38"/>
+      <c r="I51" s="15"/>
       <c r="J51" s="38"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="15"/>
       <c r="M51" s="38"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="15"/>
       <c r="P51" s="38"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="15"/>
       <c r="S51" s="38"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="38"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="15"/>
       <c r="V51" s="38"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="15"/>
       <c r="Y51" s="38"/>
-      <c r="Z51" s="16">
+      <c r="Z51" s="38"/>
+      <c r="AA51" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA51" s="16">
+      <c r="AB51" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B52" s="58" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="14">
+        <v>439</v>
+      </c>
+      <c r="D52" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="38"/>
+      <c r="I52" s="15"/>
       <c r="J52" s="38"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="15"/>
       <c r="M52" s="38"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="15"/>
       <c r="P52" s="38"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="15"/>
       <c r="S52" s="38"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="38"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="15"/>
       <c r="V52" s="38"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="38"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="15"/>
       <c r="Y52" s="38"/>
-      <c r="Z52" s="16">
+      <c r="Z52" s="38"/>
+      <c r="AA52" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA52" s="16">
+      <c r="AB52" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="58"/>
       <c r="C53" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="14">
+        <v>440</v>
+      </c>
+      <c r="D53" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="38"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="38"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="15"/>
       <c r="M53" s="38"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="15"/>
       <c r="P53" s="38"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="15"/>
       <c r="S53" s="38"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="38"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="15"/>
       <c r="V53" s="38"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="38"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="15"/>
       <c r="Y53" s="38"/>
-      <c r="Z53" s="16">
+      <c r="Z53" s="38"/>
+      <c r="AA53" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA53" s="16">
+      <c r="AB53" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="58"/>
       <c r="C54" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="14">
+        <v>441</v>
+      </c>
+      <c r="D54" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="38"/>
+      <c r="I54" s="15"/>
       <c r="J54" s="38"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="15"/>
       <c r="M54" s="38"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="15"/>
       <c r="P54" s="38"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="15"/>
       <c r="S54" s="38"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="38"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="15"/>
       <c r="V54" s="38"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="38"/>
+      <c r="W54" s="38"/>
+      <c r="X54" s="15"/>
       <c r="Y54" s="38"/>
-      <c r="Z54" s="16">
+      <c r="Z54" s="38"/>
+      <c r="AA54" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA54" s="16">
+      <c r="AB54" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="D55" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="14">
+        <v>442</v>
+      </c>
+      <c r="D55" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="38"/>
+      <c r="I55" s="15"/>
       <c r="J55" s="38"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="15"/>
       <c r="M55" s="38"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="15"/>
       <c r="P55" s="38"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="38"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="15"/>
       <c r="S55" s="38"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="38"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="15"/>
       <c r="V55" s="38"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="38"/>
+      <c r="W55" s="38"/>
+      <c r="X55" s="15"/>
       <c r="Y55" s="38"/>
-      <c r="Z55" s="16">
+      <c r="Z55" s="38"/>
+      <c r="AA55" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA55" s="16">
+      <c r="AB55" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="58"/>
       <c r="C56" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="D56" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="14">
+        <v>443</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="38"/>
+      <c r="I56" s="15"/>
       <c r="J56" s="38"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="15"/>
       <c r="M56" s="38"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="15"/>
       <c r="P56" s="38"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="15"/>
       <c r="S56" s="38"/>
-      <c r="T56" s="15"/>
-      <c r="U56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="15"/>
       <c r="V56" s="38"/>
-      <c r="W56" s="15"/>
-      <c r="X56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="15"/>
       <c r="Y56" s="38"/>
-      <c r="Z56" s="16">
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA56" s="16">
+      <c r="AB56" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="58"/>
       <c r="C57" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="D57" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="14">
+        <v>444</v>
+      </c>
+      <c r="D57" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="38"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="38"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="15"/>
       <c r="M57" s="38"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="15"/>
       <c r="P57" s="38"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="15"/>
       <c r="S57" s="38"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="15"/>
       <c r="V57" s="38"/>
-      <c r="W57" s="15"/>
-      <c r="X57" s="38"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="15"/>
       <c r="Y57" s="38"/>
-      <c r="Z57" s="16">
+      <c r="Z57" s="38"/>
+      <c r="AA57" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA57" s="16">
+      <c r="AB57" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="D58" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="14">
+        <v>445</v>
+      </c>
+      <c r="D58" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="38"/>
+      <c r="I58" s="15"/>
       <c r="J58" s="38"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="15"/>
       <c r="M58" s="38"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="15"/>
       <c r="P58" s="38"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="38"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="15"/>
       <c r="S58" s="38"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="38"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="15"/>
       <c r="V58" s="38"/>
-      <c r="W58" s="15"/>
-      <c r="X58" s="38"/>
+      <c r="W58" s="38"/>
+      <c r="X58" s="15"/>
       <c r="Y58" s="38"/>
-      <c r="Z58" s="16">
+      <c r="Z58" s="38"/>
+      <c r="AA58" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA58" s="16">
+      <c r="AB58" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="14">
+        <v>446</v>
+      </c>
+      <c r="D59" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="38"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="38"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="15"/>
       <c r="M59" s="38"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="15"/>
       <c r="P59" s="38"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="15"/>
       <c r="S59" s="38"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="38"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="15"/>
       <c r="V59" s="38"/>
-      <c r="W59" s="15"/>
-      <c r="X59" s="38"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="15"/>
       <c r="Y59" s="38"/>
-      <c r="Z59" s="16">
+      <c r="Z59" s="38"/>
+      <c r="AA59" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA59" s="16">
+      <c r="AB59" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="14">
+        <v>447</v>
+      </c>
+      <c r="D60" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="38"/>
+      <c r="I60" s="15"/>
       <c r="J60" s="38"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="15"/>
       <c r="M60" s="38"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="15"/>
       <c r="P60" s="38"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="15"/>
       <c r="S60" s="38"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="38"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="15"/>
       <c r="V60" s="38"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="38"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="15"/>
       <c r="Y60" s="38"/>
-      <c r="Z60" s="16">
+      <c r="Z60" s="38"/>
+      <c r="AA60" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA60" s="16">
+      <c r="AB60" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/HU, HT, PB, SB.xlsx
+++ b/Documents/HU, HT, PB, SB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ff47571d30268be/Documentos/6/APLICACIONE II/Proyecto/SIGDCOLTA/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{1529DF72-A3DE-466E-97C9-837D61FF45BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A97973B-AEAA-4991-8C8B-B212378CB00D}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{1529DF72-A3DE-466E-97C9-837D61FF45BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D581C6E8-6281-4DEC-BA8D-3294EBCD2F2B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{D7927580-9A21-4766-84F0-58BE9C7E4DF7}"/>
   </bookViews>
@@ -139,9 +139,6 @@
     <t>La identificación de entidades se realizó con precisión, sentando las bases para un diseño de base de datos coherente y efectivo.</t>
   </si>
   <si>
-    <t>La identificación de entidades principales y atributos se llevó a cabo de manera eficiente</t>
-  </si>
-  <si>
     <t>HU</t>
   </si>
   <si>
@@ -1736,6 +1733,9 @@
   </si>
   <si>
     <t>Sprint 3-4</t>
+  </si>
+  <si>
+    <t>La identificación posibles errores en las operaciones CRUD</t>
   </si>
 </sst>
 </file>
@@ -2338,6 +2338,94 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2347,57 +2435,6 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2416,27 +2453,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2455,22 +2471,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2819,55 +2819,55 @@
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="94"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>53</v>
-      </c>
       <c r="F2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>57</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="37" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -2875,100 +2875,100 @@
       <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="D4" s="81" t="s">
         <v>69</v>
-      </c>
-      <c r="D4" s="79" t="s">
-        <v>70</v>
       </c>
       <c r="E4" s="26">
         <v>1</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="26">
         <v>2</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="26">
         <v>3</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
       <c r="F7" s="23" t="s">
+        <v>539</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="H7" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="I7" s="23" t="s">
         <v>542</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
-      <c r="B8" s="63" t="s">
-        <v>330</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
+      <c r="B8" s="93" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" s="94"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -2976,141 +2976,141 @@
       <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="69" t="s">
+      <c r="A9" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="92" t="s">
         <v>76</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>77</v>
       </c>
       <c r="E9" s="26">
         <v>1</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="26">
         <v>2</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="26">
         <v>3</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="43"/>
       <c r="F12" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="43"/>
       <c r="F13" s="61" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="43"/>
       <c r="F14" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="26">
         <v>4</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
-      <c r="B16" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
+      <c r="B16" s="86" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="27"/>
       <c r="F16" s="62"/>
       <c r="G16" s="28"/>
@@ -3118,116 +3118,116 @@
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="74" t="s">
+      <c r="A17" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="66" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" s="70" t="s">
-        <v>81</v>
       </c>
       <c r="E17" s="26">
         <v>1</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="70"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="26">
         <v>2</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="70"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="43"/>
       <c r="F19" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="70"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="26">
         <v>3</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="70"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="26">
         <v>4</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="70"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="43"/>
       <c r="F22" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
@@ -3235,11 +3235,11 @@
     </row>
     <row r="23" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
-      <c r="B23" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
+      <c r="B23" s="93" t="s">
+        <v>327</v>
+      </c>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
       <c r="E23" s="27"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
@@ -3247,98 +3247,98 @@
       <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="77" t="s">
+      <c r="A24" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="D24" s="81" t="s">
         <v>72</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>73</v>
       </c>
       <c r="E24" s="26">
         <v>1</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="34">
         <v>2</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="26">
         <v>3</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="26">
         <v>4</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
-      <c r="B28" s="63" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
+      <c r="B28" s="93" t="s">
+        <v>328</v>
+      </c>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -3346,214 +3346,214 @@
       <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="83" t="s">
+      <c r="A29" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="99" t="s">
         <v>74</v>
-      </c>
-      <c r="D29" s="86" t="s">
-        <v>75</v>
       </c>
       <c r="E29" s="26">
         <v>1</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="87"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="100"/>
       <c r="E30" s="26">
         <v>2</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="87"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="100"/>
       <c r="E31" s="26">
         <v>3</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="88"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="101"/>
       <c r="E32" s="26">
         <v>4</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
-      <c r="B33" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="68"/>
+      <c r="B33" s="86" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88"/>
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="103" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="70" t="s">
+    <row r="34" spans="1:9" s="64" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="104" t="s">
-        <v>79</v>
-      </c>
       <c r="E34" s="34"/>
-      <c r="F34" s="102" t="s">
-        <v>559</v>
-      </c>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
+      <c r="F34" s="63" t="s">
+        <v>558</v>
+      </c>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
     </row>
     <row r="35" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="105"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="26">
         <v>1</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="105"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="26">
         <v>2</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="72"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="105"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="26">
         <v>3</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="106"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="69"/>
       <c r="E38" s="26">
         <v>4</v>
       </c>
       <c r="F38" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="G38" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="G38" s="23" t="s">
-        <v>563</v>
-      </c>
       <c r="H38" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
-      <c r="B39" s="66" t="s">
-        <v>333</v>
-      </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="68"/>
+      <c r="B39" s="86" t="s">
+        <v>332</v>
+      </c>
+      <c r="C39" s="87"/>
+      <c r="D39" s="88"/>
       <c r="E39" s="27"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
@@ -3561,100 +3561,100 @@
       <c r="I39" s="28"/>
     </row>
     <row r="40" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="70" t="s">
+      <c r="A40" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="69" t="s">
+      <c r="D40" s="92" t="s">
         <v>83</v>
-      </c>
-      <c r="D40" s="69" t="s">
-        <v>84</v>
       </c>
       <c r="E40" s="26">
         <v>1</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G40" s="24"/>
       <c r="H40" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
       <c r="E41" s="26">
         <v>2</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G41" s="24"/>
       <c r="H41" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="72"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
       <c r="E42" s="26">
         <v>3</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
       <c r="E43" s="26">
         <v>4</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="66" t="s">
-        <v>334</v>
-      </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="68"/>
+      <c r="B44" s="86" t="s">
+        <v>333</v>
+      </c>
+      <c r="C44" s="87"/>
+      <c r="D44" s="88"/>
       <c r="E44" s="27"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -3662,104 +3662,104 @@
       <c r="I44" s="33"/>
     </row>
     <row r="45" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="69" t="s">
+      <c r="A45" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="92" t="s">
         <v>85</v>
-      </c>
-      <c r="D45" s="69" t="s">
-        <v>86</v>
       </c>
       <c r="E45" s="26">
         <v>1</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="72"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
       <c r="E46" s="26">
         <v>2</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
       <c r="E47" s="26">
         <v>3</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
+      <c r="A48" s="72"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
       <c r="E48" s="26">
         <v>4</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
-      <c r="B49" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="68"/>
+      <c r="B49" s="86" t="s">
+        <v>334</v>
+      </c>
+      <c r="C49" s="87"/>
+      <c r="D49" s="88"/>
       <c r="E49" s="27"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -3767,102 +3767,102 @@
       <c r="I49" s="33"/>
     </row>
     <row r="50" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="70" t="s">
+      <c r="A50" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="69" t="s">
+      <c r="D50" s="92" t="s">
         <v>88</v>
-      </c>
-      <c r="D50" s="69" t="s">
-        <v>89</v>
       </c>
       <c r="E50" s="26">
         <v>1</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
+      <c r="A51" s="71"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
       <c r="E51" s="26">
         <v>2</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G51" s="24"/>
       <c r="H51" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="72"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
       <c r="E52" s="26">
         <v>3</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
       <c r="E53" s="26">
         <v>4</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
-      <c r="B54" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="68"/>
+      <c r="B54" s="86" t="s">
+        <v>335</v>
+      </c>
+      <c r="C54" s="87"/>
+      <c r="D54" s="88"/>
       <c r="E54" s="27"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -3870,104 +3870,104 @@
       <c r="I54" s="33"/>
     </row>
     <row r="55" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="70" t="s">
+      <c r="A55" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="69" t="s">
+      <c r="D55" s="92" t="s">
         <v>91</v>
-      </c>
-      <c r="D55" s="69" t="s">
-        <v>92</v>
       </c>
       <c r="E55" s="26">
         <v>1</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="72"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
       <c r="E56" s="26">
         <v>2</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="72"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
       <c r="E57" s="26">
         <v>3</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="73"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
+      <c r="A58" s="72"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
       <c r="E58" s="26">
         <v>4</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
-      <c r="B59" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="68"/>
+      <c r="B59" s="86" t="s">
+        <v>336</v>
+      </c>
+      <c r="C59" s="87"/>
+      <c r="D59" s="88"/>
       <c r="E59" s="27"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -3975,102 +3975,102 @@
       <c r="I59" s="33"/>
     </row>
     <row r="60" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="69" t="s">
+      <c r="A60" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="92" t="s">
         <v>93</v>
-      </c>
-      <c r="D60" s="69" t="s">
-        <v>94</v>
       </c>
       <c r="E60" s="26">
         <v>1</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G60" s="24"/>
       <c r="H60" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="72"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
       <c r="E61" s="26">
         <v>2</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="72"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
       <c r="E62" s="26">
         <v>3</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="73"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
+      <c r="A63" s="72"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
       <c r="E63" s="26">
         <v>4</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
-      <c r="B64" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="68"/>
+      <c r="B64" s="86" t="s">
+        <v>337</v>
+      </c>
+      <c r="C64" s="87"/>
+      <c r="D64" s="88"/>
       <c r="E64" s="27"/>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -4078,104 +4078,104 @@
       <c r="I64" s="33"/>
     </row>
     <row r="65" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="70" t="s">
+      <c r="A65" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="69" t="s">
+      <c r="D65" s="92" t="s">
         <v>96</v>
-      </c>
-      <c r="D65" s="69" t="s">
-        <v>97</v>
       </c>
       <c r="E65" s="26">
         <v>1</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="72"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
       <c r="E66" s="26">
         <v>2</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="72"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
+      <c r="A67" s="71"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
       <c r="E67" s="26">
         <v>3</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="73"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
+      <c r="A68" s="72"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
       <c r="E68" s="26">
         <v>4</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
-      <c r="B69" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="68"/>
+      <c r="B69" s="86" t="s">
+        <v>338</v>
+      </c>
+      <c r="C69" s="87"/>
+      <c r="D69" s="88"/>
       <c r="E69" s="27"/>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -4183,100 +4183,100 @@
       <c r="I69" s="33"/>
     </row>
     <row r="70" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="71" t="s">
+      <c r="A70" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="70" t="s">
+      <c r="C70" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="69" t="s">
+      <c r="D70" s="92" t="s">
         <v>100</v>
-      </c>
-      <c r="D70" s="69" t="s">
-        <v>101</v>
       </c>
       <c r="E70" s="26">
         <v>1</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="72"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
+      <c r="A71" s="71"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
       <c r="E71" s="26">
         <v>2</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G71" s="24"/>
       <c r="H71" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="72"/>
-      <c r="B72" s="70"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
+      <c r="A72" s="71"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
       <c r="E72" s="26">
         <v>3</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G72" s="24"/>
       <c r="H72" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="73"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="69"/>
+      <c r="A73" s="72"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
       <c r="E73" s="26">
         <v>4</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I73" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32"/>
-      <c r="B74" s="66" t="s">
-        <v>340</v>
-      </c>
-      <c r="C74" s="67"/>
-      <c r="D74" s="68"/>
+      <c r="B74" s="86" t="s">
+        <v>339</v>
+      </c>
+      <c r="C74" s="87"/>
+      <c r="D74" s="88"/>
       <c r="E74" s="27"/>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -4284,104 +4284,104 @@
       <c r="I74" s="33"/>
     </row>
     <row r="75" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="70" t="s">
+      <c r="C75" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="69" t="s">
+      <c r="D75" s="92" t="s">
         <v>104</v>
-      </c>
-      <c r="D75" s="69" t="s">
-        <v>105</v>
       </c>
       <c r="E75" s="26">
         <v>1</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="72"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
+      <c r="A76" s="71"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="92"/>
       <c r="E76" s="26">
         <v>2</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="72"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
+      <c r="A77" s="71"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
       <c r="E77" s="26">
         <v>3</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="73"/>
-      <c r="B78" s="70"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
+      <c r="A78" s="72"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
       <c r="E78" s="26">
         <v>4</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
-      <c r="B79" s="66" t="s">
-        <v>341</v>
-      </c>
-      <c r="C79" s="67"/>
-      <c r="D79" s="68"/>
+      <c r="B79" s="86" t="s">
+        <v>340</v>
+      </c>
+      <c r="C79" s="87"/>
+      <c r="D79" s="88"/>
       <c r="E79" s="27"/>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -4389,104 +4389,104 @@
       <c r="I79" s="33"/>
     </row>
     <row r="80" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="71" t="s">
+      <c r="A80" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="B80" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C80" s="69" t="s">
+      <c r="D80" s="92" t="s">
         <v>107</v>
-      </c>
-      <c r="D80" s="69" t="s">
-        <v>108</v>
       </c>
       <c r="E80" s="26">
         <v>1</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="72"/>
-      <c r="B81" s="70"/>
-      <c r="C81" s="69"/>
-      <c r="D81" s="69"/>
+      <c r="A81" s="71"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
       <c r="E81" s="26">
         <v>2</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I81" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="72"/>
-      <c r="B82" s="70"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
+      <c r="A82" s="71"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="92"/>
       <c r="E82" s="26">
         <v>3</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="73"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="69"/>
-      <c r="D83" s="69"/>
+      <c r="A83" s="72"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="92"/>
       <c r="E83" s="26">
         <v>4</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I83" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
-      <c r="B84" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="C84" s="67"/>
-      <c r="D84" s="68"/>
+      <c r="B84" s="86" t="s">
+        <v>341</v>
+      </c>
+      <c r="C84" s="87"/>
+      <c r="D84" s="88"/>
       <c r="E84" s="27"/>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -4494,115 +4494,144 @@
       <c r="I84" s="33"/>
     </row>
     <row r="85" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="71" t="s">
+      <c r="A85" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="B85" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="69" t="s">
+      <c r="D85" s="92" t="s">
         <v>110</v>
-      </c>
-      <c r="D85" s="69" t="s">
-        <v>111</v>
       </c>
       <c r="E85" s="26">
         <v>1</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I85" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="72"/>
-      <c r="B86" s="70"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
+      <c r="A86" s="71"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="92"/>
       <c r="E86" s="26">
         <v>2</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I86" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="72"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
+      <c r="A87" s="71"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="92"/>
       <c r="E87" s="26">
         <v>3</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="73"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
+      <c r="A88" s="72"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="92"/>
       <c r="E88" s="26">
         <v>4</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I88" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="C60:C63"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="B16:D16"/>
@@ -4619,51 +4648,22 @@
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A9:A15"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="D9:D15"/>
@@ -4698,55 +4698,55 @@
   <sheetData>
     <row r="1" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="94"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="D2" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="E2" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="42" t="s">
-        <v>53</v>
-      </c>
       <c r="F2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>57</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -4754,60 +4754,60 @@
       <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" s="96" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="D4" s="96" t="s">
         <v>463</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>464</v>
       </c>
       <c r="E4" s="40">
         <v>1</v>
       </c>
       <c r="F4" s="41" t="s">
+        <v>475</v>
+      </c>
+      <c r="G4" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="H4" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="I4" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="I4" s="41" t="s">
-        <v>479</v>
-      </c>
     </row>
     <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="40">
         <v>2</v>
       </c>
       <c r="F5" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="G5" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="H5" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="I5" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="I5" s="41" t="s">
-        <v>483</v>
-      </c>
     </row>
     <row r="6" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="40">
         <v>3</v>
       </c>
@@ -4817,10 +4817,10 @@
       <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
       <c r="E7" s="40">
         <v>4</v>
       </c>
@@ -4831,11 +4831,11 @@
     </row>
     <row r="8" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="97" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
+      <c r="B8" s="103" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -4843,60 +4843,60 @@
       <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="83" t="s">
+      <c r="A9" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>464</v>
+      </c>
+      <c r="C9" s="96" t="s">
         <v>465</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="D9" s="96" t="s">
         <v>466</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>467</v>
       </c>
       <c r="E9" s="40">
         <v>1</v>
       </c>
       <c r="F9" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="G9" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="H9" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="I9" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="I9" s="41" t="s">
-        <v>487</v>
-      </c>
     </row>
     <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="34">
         <v>2</v>
       </c>
       <c r="F10" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="G10" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="H10" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="I10" s="41" t="s">
         <v>490</v>
       </c>
-      <c r="I10" s="41" t="s">
-        <v>491</v>
-      </c>
     </row>
     <row r="11" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="40">
         <v>3</v>
       </c>
@@ -4906,10 +4906,10 @@
       <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="40">
         <v>4</v>
       </c>
@@ -4920,11 +4920,11 @@
     </row>
     <row r="13" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="35"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
@@ -4932,81 +4932,81 @@
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="83" t="s">
+      <c r="A14" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>467</v>
+      </c>
+      <c r="C14" s="96" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="D14" s="96" t="s">
         <v>469</v>
-      </c>
-      <c r="D14" s="83" t="s">
-        <v>470</v>
       </c>
       <c r="E14" s="40">
         <v>1</v>
       </c>
       <c r="F14" s="41" t="s">
+        <v>491</v>
+      </c>
+      <c r="G14" s="41" t="s">
         <v>492</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="H14" s="41" t="s">
         <v>493</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="I14" s="41" t="s">
         <v>494</v>
       </c>
-      <c r="I14" s="41" t="s">
-        <v>495</v>
-      </c>
     </row>
     <row r="15" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
       <c r="E15" s="40">
         <v>2</v>
       </c>
       <c r="F15" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="G15" s="41" t="s">
         <v>496</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="H15" s="41" t="s">
         <v>497</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="I15" s="41" t="s">
         <v>498</v>
       </c>
-      <c r="I15" s="41" t="s">
-        <v>499</v>
-      </c>
     </row>
     <row r="16" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="40">
         <v>3</v>
       </c>
       <c r="F16" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="G16" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="H16" s="41" t="s">
         <v>501</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="I16" s="41" t="s">
         <v>502</v>
       </c>
-      <c r="I16" s="41" t="s">
-        <v>503</v>
-      </c>
     </row>
     <row r="17" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
       <c r="E17" s="40">
         <v>4</v>
       </c>
@@ -5017,11 +5017,11 @@
     </row>
     <row r="18" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
@@ -5029,81 +5029,81 @@
       <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>468</v>
-      </c>
-      <c r="C19" s="83" t="s">
+      <c r="A19" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="96" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>470</v>
+      </c>
+      <c r="D19" s="96" t="s">
         <v>471</v>
-      </c>
-      <c r="D19" s="83" t="s">
-        <v>472</v>
       </c>
       <c r="E19" s="40">
         <v>1</v>
       </c>
       <c r="F19" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="G19" s="41" t="s">
         <v>504</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="H19" s="41" t="s">
         <v>505</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="I19" s="41" t="s">
         <v>506</v>
       </c>
-      <c r="I19" s="41" t="s">
-        <v>507</v>
-      </c>
     </row>
     <row r="20" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
       <c r="E20" s="40">
         <v>2</v>
       </c>
       <c r="F20" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="G20" s="41" t="s">
         <v>508</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="H20" s="41" t="s">
         <v>509</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="I20" s="41" t="s">
         <v>510</v>
       </c>
-      <c r="I20" s="41" t="s">
-        <v>511</v>
-      </c>
     </row>
     <row r="21" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="40">
         <v>3</v>
       </c>
       <c r="F21" s="41" t="s">
+        <v>511</v>
+      </c>
+      <c r="G21" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="H21" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="I21" s="41" t="s">
         <v>514</v>
       </c>
-      <c r="I21" s="41" t="s">
-        <v>515</v>
-      </c>
     </row>
     <row r="22" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
       <c r="E22" s="40">
         <v>4</v>
       </c>
@@ -5114,11 +5114,11 @@
     </row>
     <row r="23" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="35"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
@@ -5126,154 +5126,141 @@
       <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="80" t="s">
+      <c r="A24" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="83" t="s">
+        <v>472</v>
+      </c>
+      <c r="C24" s="83" t="s">
         <v>473</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="D24" s="83" t="s">
         <v>474</v>
-      </c>
-      <c r="D24" s="80" t="s">
-        <v>475</v>
       </c>
       <c r="E24" s="40">
         <v>1</v>
       </c>
       <c r="F24" s="41" t="s">
+        <v>515</v>
+      </c>
+      <c r="G24" s="41" t="s">
         <v>516</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="H24" s="41" t="s">
         <v>517</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="I24" s="41" t="s">
         <v>518</v>
       </c>
-      <c r="I24" s="41" t="s">
-        <v>519</v>
-      </c>
     </row>
     <row r="25" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
       <c r="E25" s="40">
         <v>2</v>
       </c>
       <c r="F25" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="G25" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="H25" s="41" t="s">
         <v>521</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="I25" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="I25" s="41" t="s">
-        <v>523</v>
-      </c>
     </row>
     <row r="26" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
       <c r="E26" s="40">
         <v>3</v>
       </c>
       <c r="F26" s="41" t="s">
+        <v>523</v>
+      </c>
+      <c r="G26" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="H26" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="I26" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="I26" s="41" t="s">
-        <v>527</v>
-      </c>
     </row>
     <row r="27" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
       <c r="E27" s="40">
         <v>4</v>
       </c>
       <c r="F27" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="G27" s="41" t="s">
         <v>528</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="H27" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="I27" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="I27" s="41" t="s">
-        <v>531</v>
-      </c>
     </row>
     <row r="28" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
       <c r="E28" s="40">
         <v>5</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>535</v>
-      </c>
     </row>
     <row r="29" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
       <c r="E29" s="40">
         <v>6</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>538</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>539</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
     <mergeCell ref="D24:D29"/>
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="B24:B29"/>
@@ -5288,6 +5275,19 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5298,8 +5298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBA4C7C-1B75-4CC3-9108-DB4740564B4D}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5324,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
@@ -5342,24 +5342,24 @@
         <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C2" s="54" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>26</v>
@@ -5374,27 +5374,27 @@
         <v>31</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="53" t="s">
         <v>357</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>356</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>358</v>
       </c>
       <c r="F3" s="54" t="s">
         <v>27</v>
@@ -5403,27 +5403,27 @@
         <v>30</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C4" s="54" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>26</v>
@@ -5438,342 +5438,342 @@
         <v>32</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C5" s="54" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G5" s="53" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>33</v>
+        <v>565</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J8" s="52" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J9" s="52" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="J10" s="52" t="s">
         <v>382</v>
-      </c>
-      <c r="J10" s="52" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J11" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J12" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G13" s="39" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J13" s="52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B15" s="47" t="s">
+        <v>404</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="C15" s="52" t="s">
-        <v>342</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>406</v>
-      </c>
       <c r="E15" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G15" s="39" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J15" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -5787,8 +5787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E916DD94-D1B0-4F5A-A52B-CD3DDE50A874}">
   <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5813,112 +5813,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="101"/>
-      <c r="J1" s="100" t="s">
+      <c r="G1" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="107"/>
+      <c r="J1" s="106" t="s">
+        <v>345</v>
+      </c>
+      <c r="K1" s="107"/>
+      <c r="M1" s="106" t="s">
         <v>346</v>
       </c>
-      <c r="K1" s="101"/>
-      <c r="M1" s="100" t="s">
+      <c r="N1" s="107"/>
+      <c r="P1" s="106" t="s">
         <v>347</v>
       </c>
-      <c r="N1" s="101"/>
-      <c r="P1" s="100" t="s">
+      <c r="Q1" s="107"/>
+      <c r="S1" s="106" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" s="101"/>
-      <c r="S1" s="100" t="s">
+      <c r="T1" s="107"/>
+      <c r="V1" s="106" t="s">
         <v>349</v>
       </c>
-      <c r="T1" s="101"/>
-      <c r="V1" s="100" t="s">
+      <c r="W1" s="107"/>
+      <c r="Y1" s="106" t="s">
         <v>350</v>
       </c>
-      <c r="W1" s="101"/>
-      <c r="Y1" s="100" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z1" s="101"/>
+      <c r="Z1" s="107"/>
     </row>
     <row r="2" spans="1:31" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U2" s="12"/>
       <c r="V2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X2" s="12"/>
       <c r="Y2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>7</v>
@@ -5930,7 +5930,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
@@ -5997,7 +5997,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
@@ -6064,7 +6064,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -6131,7 +6131,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -6187,23 +6187,23 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="107"/>
+      <c r="AE6" s="65"/>
     </row>
     <row r="7" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D7" s="54" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="14"/>
@@ -6233,13 +6233,13 @@
       <c r="A8" s="2"/>
       <c r="B8" s="57"/>
       <c r="C8" s="50" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D8" s="54" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="14"/>
@@ -6269,13 +6269,13 @@
       <c r="A9" s="2"/>
       <c r="B9" s="57"/>
       <c r="C9" s="50" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D9" s="54" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="14"/>
@@ -6305,13 +6305,13 @@
       <c r="A10" s="2"/>
       <c r="B10" s="57"/>
       <c r="C10" s="50" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D10" s="54" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="14"/>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="11" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B11" s="56" t="s">
         <v>8</v>
@@ -6351,7 +6351,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="14"/>
@@ -6414,7 +6414,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="14"/>
@@ -6477,7 +6477,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="14"/>
@@ -6540,7 +6540,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="14"/>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="15" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B15" s="56" t="s">
         <v>9</v>
@@ -6607,7 +6607,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="14"/>
@@ -6670,7 +6670,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="14"/>
@@ -6733,7 +6733,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="14"/>
@@ -6796,7 +6796,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="14"/>
@@ -6856,10 +6856,10 @@
         <v>22</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>385</v>
+        <v>29</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="38"/>
@@ -6901,10 +6901,10 @@
         <v>23</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>385</v>
+        <v>29</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="38"/>
@@ -6946,10 +6946,10 @@
         <v>24</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>385</v>
+        <v>29</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="38"/>
@@ -6991,10 +6991,10 @@
         <v>25</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>385</v>
+        <v>29</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="38"/>
@@ -7031,19 +7031,19 @@
     </row>
     <row r="23" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="38"/>
@@ -7082,13 +7082,13 @@
       <c r="A24" s="2"/>
       <c r="B24" s="58"/>
       <c r="C24" s="52" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="38"/>
@@ -7121,13 +7121,13 @@
       <c r="A25" s="2"/>
       <c r="B25" s="58"/>
       <c r="C25" s="52" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="38"/>
@@ -7160,13 +7160,13 @@
       <c r="A26" s="2"/>
       <c r="B26" s="58"/>
       <c r="C26" s="52" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="38"/>
@@ -7199,13 +7199,13 @@
       <c r="A27" s="2"/>
       <c r="B27" s="58"/>
       <c r="C27" s="52" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="38"/>
@@ -7238,13 +7238,13 @@
       <c r="A28" s="2"/>
       <c r="B28" s="58"/>
       <c r="C28" s="52" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="38"/>
@@ -7277,13 +7277,13 @@
       <c r="A29" s="4"/>
       <c r="B29" s="58"/>
       <c r="C29" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="38"/>
@@ -7322,13 +7322,13 @@
       <c r="A30" s="4"/>
       <c r="B30" s="58"/>
       <c r="C30" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="38"/>
@@ -7365,19 +7365,19 @@
     </row>
     <row r="31" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="38"/>
@@ -7416,13 +7416,13 @@
       <c r="A32" s="2"/>
       <c r="B32" s="58"/>
       <c r="C32" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="38"/>
@@ -7461,13 +7461,13 @@
       <c r="A33" s="2"/>
       <c r="B33" s="58"/>
       <c r="C33" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="38"/>
@@ -7504,19 +7504,19 @@
     </row>
     <row r="34" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="38"/>
@@ -7554,13 +7554,13 @@
     <row r="35" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="58"/>
       <c r="C35" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D35" s="54" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="38"/>
@@ -7598,13 +7598,13 @@
     <row r="36" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="58"/>
       <c r="C36" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D36" s="54" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="38"/>
@@ -7641,19 +7641,19 @@
     </row>
     <row r="37" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B37" s="58" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D37" s="54" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="38"/>
@@ -7692,13 +7692,13 @@
       <c r="A38" s="2"/>
       <c r="B38" s="58"/>
       <c r="C38" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D38" s="54" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="38"/>
@@ -7737,13 +7737,13 @@
       <c r="A39" s="2"/>
       <c r="B39" s="58"/>
       <c r="C39" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D39" s="54" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="38"/>
@@ -7782,13 +7782,13 @@
       <c r="A40" s="2"/>
       <c r="B40" s="58"/>
       <c r="C40" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D40" s="54" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="38"/>
@@ -7825,19 +7825,19 @@
     </row>
     <row r="41" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B41" s="58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="38"/>
@@ -7875,13 +7875,13 @@
     <row r="42" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="58"/>
       <c r="C42" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D42" s="54" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="38"/>
@@ -7919,13 +7919,13 @@
     <row r="43" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="58"/>
       <c r="C43" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="38"/>
@@ -7962,19 +7962,19 @@
     </row>
     <row r="44" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D44" s="54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="38"/>
@@ -8013,13 +8013,13 @@
       <c r="A45" s="2"/>
       <c r="B45" s="58"/>
       <c r="C45" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="38"/>
@@ -8058,13 +8058,13 @@
       <c r="A46" s="2"/>
       <c r="B46" s="58"/>
       <c r="C46" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D46" s="54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="38"/>
@@ -8101,19 +8101,19 @@
     </row>
     <row r="47" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D47" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="38"/>
@@ -8152,13 +8152,13 @@
       <c r="A48" s="48"/>
       <c r="B48" s="58"/>
       <c r="C48" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D48" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="38"/>
@@ -8190,13 +8190,13 @@
     <row r="49" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="58"/>
       <c r="C49" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D49" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="38"/>
@@ -8234,13 +8234,13 @@
     <row r="50" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="58"/>
       <c r="C50" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D50" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="38"/>
@@ -8272,13 +8272,13 @@
     <row r="51" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="58"/>
       <c r="C51" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D51" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="38"/>
@@ -8315,19 +8315,19 @@
     </row>
     <row r="52" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B52" s="58" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D52" s="54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="38"/>
@@ -8366,13 +8366,13 @@
       <c r="A53" s="2"/>
       <c r="B53" s="58"/>
       <c r="C53" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D53" s="54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="38"/>
@@ -8411,13 +8411,13 @@
       <c r="A54" s="2"/>
       <c r="B54" s="58"/>
       <c r="C54" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D54" s="54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="38"/>
@@ -8454,19 +8454,19 @@
     </row>
     <row r="55" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D55" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="38"/>
@@ -8504,13 +8504,13 @@
     <row r="56" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="58"/>
       <c r="C56" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D56" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="38"/>
@@ -8549,13 +8549,13 @@
       <c r="A57" s="2"/>
       <c r="B57" s="58"/>
       <c r="C57" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D57" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="38"/>
@@ -8592,19 +8592,19 @@
     </row>
     <row r="58" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D58" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="38"/>
@@ -8643,13 +8643,13 @@
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D59" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="38"/>
@@ -8688,13 +8688,13 @@
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D60" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="38"/>

--- a/Documents/HU, HT, PB, SB.xlsx
+++ b/Documents/HU, HT, PB, SB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ff47571d30268be/Documentos/6/APLICACIONE II/Proyecto/SIGDCOLTA/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{1529DF72-A3DE-466E-97C9-837D61FF45BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D581C6E8-6281-4DEC-BA8D-3294EBCD2F2B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8397588-E4C4-45ED-874D-5417E68B970B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{D7927580-9A21-4766-84F0-58BE9C7E4DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{D7927580-9A21-4766-84F0-58BE9C7E4DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="566">
   <si>
     <t>Identificador (ID) de la Historia</t>
   </si>
@@ -139,6 +139,9 @@
     <t>La identificación de entidades se realizó con precisión, sentando las bases para un diseño de base de datos coherente y efectivo.</t>
   </si>
   <si>
+    <t>La identificación de entidades principales y atributos se llevó a cabo de manera eficiente</t>
+  </si>
+  <si>
     <t>HU</t>
   </si>
   <si>
@@ -1732,10 +1735,7 @@
     <t>Implementar opción de registro mediante gmail</t>
   </si>
   <si>
-    <t>Sprint 3-4</t>
-  </si>
-  <si>
-    <t>La identificación posibles errores en las operaciones CRUD</t>
+    <t>2 dias</t>
   </si>
 </sst>
 </file>
@@ -2158,7 +2158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2348,6 +2348,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2357,15 +2435,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2384,74 +2453,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2799,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9B023D-957F-4AAE-9E3E-1343C14F2EF3}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2819,55 +2822,55 @@
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="101"/>
     </row>
     <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="37" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -2875,100 +2878,100 @@
       <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="C4" s="82" t="s">
         <v>69</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>70</v>
       </c>
       <c r="E4" s="26">
         <v>1</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="26">
         <v>2</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="81"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="26">
         <v>3</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="81"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
-      <c r="B8" s="93" t="s">
-        <v>329</v>
-      </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
+      <c r="B8" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -2976,141 +2979,141 @@
       <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="92" t="s">
+      <c r="A9" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="74" t="s">
         <v>76</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>77</v>
       </c>
       <c r="E9" s="26">
         <v>1</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="26">
         <v>2</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
       <c r="E11" s="26">
         <v>3</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="43"/>
       <c r="F12" s="23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="43"/>
       <c r="F13" s="61" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="43"/>
       <c r="F14" s="44" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="26">
         <v>4</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
-      <c r="B16" s="86" t="s">
-        <v>331</v>
-      </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
+      <c r="B16" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="27"/>
       <c r="F16" s="62"/>
       <c r="G16" s="28"/>
@@ -3118,116 +3121,116 @@
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="66" t="s">
+      <c r="A17" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="75" t="s">
         <v>80</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>81</v>
       </c>
       <c r="E17" s="26">
         <v>1</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="66"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="26">
         <v>2</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="66"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="43"/>
       <c r="F19" s="44" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="66"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="26">
         <v>3</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="66"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="26">
         <v>4</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="66"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="43"/>
       <c r="F22" s="44" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
@@ -3235,11 +3238,11 @@
     </row>
     <row r="23" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
-      <c r="B23" s="93" t="s">
-        <v>327</v>
-      </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
+      <c r="B23" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="27"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
@@ -3247,98 +3250,98 @@
       <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="80" t="s">
+      <c r="A24" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="C24" s="82" t="s">
         <v>72</v>
+      </c>
+      <c r="D24" s="83" t="s">
+        <v>73</v>
       </c>
       <c r="E24" s="26">
         <v>1</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="34">
         <v>2</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="26">
         <v>3</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="26">
         <v>4</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
-      <c r="B28" s="93" t="s">
-        <v>328</v>
-      </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
+      <c r="B28" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="79"/>
+      <c r="D28" s="80"/>
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -3346,100 +3349,100 @@
       <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="99" t="s">
+      <c r="A29" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="87" t="s">
         <v>74</v>
+      </c>
+      <c r="D29" s="90" t="s">
+        <v>75</v>
       </c>
       <c r="E29" s="26">
         <v>1</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="100"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="26">
         <v>2</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="100"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="91"/>
       <c r="E31" s="26">
         <v>3</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="101"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="26">
         <v>4</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
-      <c r="B33" s="86" t="s">
-        <v>330</v>
-      </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
+      <c r="B33" s="71" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="72"/>
+      <c r="D33" s="73"/>
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
@@ -3447,113 +3450,113 @@
       <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" s="64" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="67" t="s">
+      <c r="A34" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="70" t="s">
         <v>78</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>79</v>
       </c>
       <c r="E34" s="34"/>
       <c r="F34" s="63" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G34" s="63"/>
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
     </row>
     <row r="35" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="68"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="94"/>
       <c r="E35" s="26">
         <v>1</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="68"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="94"/>
       <c r="E36" s="26">
         <v>2</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="23" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="68"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="26">
         <v>3</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="72"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="69"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="95"/>
       <c r="E38" s="26">
         <v>4</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
-      <c r="B39" s="86" t="s">
-        <v>332</v>
-      </c>
-      <c r="C39" s="87"/>
-      <c r="D39" s="88"/>
+      <c r="B39" s="71" t="s">
+        <v>333</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="73"/>
       <c r="E39" s="27"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
@@ -3561,100 +3564,100 @@
       <c r="I39" s="28"/>
     </row>
     <row r="40" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="92" t="s">
+      <c r="A40" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="92" t="s">
+      <c r="C40" s="74" t="s">
         <v>83</v>
+      </c>
+      <c r="D40" s="74" t="s">
+        <v>84</v>
       </c>
       <c r="E40" s="26">
         <v>1</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G40" s="24"/>
       <c r="H40" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="26">
         <v>2</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G41" s="24"/>
       <c r="H41" s="24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="26">
         <v>3</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="72"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
       <c r="E43" s="26">
         <v>4</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="86" t="s">
-        <v>333</v>
-      </c>
-      <c r="C44" s="87"/>
-      <c r="D44" s="88"/>
+      <c r="B44" s="71" t="s">
+        <v>334</v>
+      </c>
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
       <c r="E44" s="27"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -3662,104 +3665,104 @@
       <c r="I44" s="33"/>
     </row>
     <row r="45" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="92" t="s">
+      <c r="A45" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="74" t="s">
         <v>85</v>
+      </c>
+      <c r="D45" s="74" t="s">
+        <v>86</v>
       </c>
       <c r="E45" s="26">
         <v>1</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
       <c r="E46" s="26">
         <v>2</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
       <c r="E47" s="26">
         <v>3</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="72"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="26">
         <v>4</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
-      <c r="B49" s="86" t="s">
-        <v>334</v>
-      </c>
-      <c r="C49" s="87"/>
-      <c r="D49" s="88"/>
+      <c r="B49" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" s="72"/>
+      <c r="D49" s="73"/>
       <c r="E49" s="27"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -3767,102 +3770,102 @@
       <c r="I49" s="33"/>
     </row>
     <row r="50" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="92" t="s">
+      <c r="A50" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="92" t="s">
+      <c r="C50" s="74" t="s">
         <v>88</v>
+      </c>
+      <c r="D50" s="74" t="s">
+        <v>89</v>
       </c>
       <c r="E50" s="26">
         <v>1</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
       <c r="E51" s="26">
         <v>2</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G51" s="24"/>
       <c r="H51" s="24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
       <c r="E52" s="26">
         <v>3</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
       <c r="E53" s="26">
         <v>4</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
-      <c r="B54" s="86" t="s">
-        <v>335</v>
-      </c>
-      <c r="C54" s="87"/>
-      <c r="D54" s="88"/>
+      <c r="B54" s="71" t="s">
+        <v>336</v>
+      </c>
+      <c r="C54" s="72"/>
+      <c r="D54" s="73"/>
       <c r="E54" s="27"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -3870,104 +3873,104 @@
       <c r="I54" s="33"/>
     </row>
     <row r="55" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="92" t="s">
+      <c r="A55" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="92" t="s">
+      <c r="C55" s="74" t="s">
         <v>91</v>
+      </c>
+      <c r="D55" s="74" t="s">
+        <v>92</v>
       </c>
       <c r="E55" s="26">
         <v>1</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
+      <c r="A56" s="68"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="26">
         <v>2</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
+      <c r="A57" s="68"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
       <c r="E57" s="26">
         <v>3</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="72"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
       <c r="E58" s="26">
         <v>4</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
-      <c r="B59" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="C59" s="87"/>
-      <c r="D59" s="88"/>
+      <c r="B59" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="C59" s="72"/>
+      <c r="D59" s="73"/>
       <c r="E59" s="27"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -3975,102 +3978,102 @@
       <c r="I59" s="33"/>
     </row>
     <row r="60" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" s="92" t="s">
+      <c r="A60" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="74" t="s">
         <v>93</v>
+      </c>
+      <c r="D60" s="74" t="s">
+        <v>94</v>
       </c>
       <c r="E60" s="26">
         <v>1</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G60" s="24"/>
       <c r="H60" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
+      <c r="A61" s="68"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
       <c r="E61" s="26">
         <v>2</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="92"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
       <c r="E62" s="26">
         <v>3</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="72"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="92"/>
+      <c r="A63" s="69"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
       <c r="E63" s="26">
         <v>4</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
-      <c r="B64" s="86" t="s">
-        <v>337</v>
-      </c>
-      <c r="C64" s="87"/>
-      <c r="D64" s="88"/>
+      <c r="B64" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="C64" s="72"/>
+      <c r="D64" s="73"/>
       <c r="E64" s="27"/>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -4078,104 +4081,104 @@
       <c r="I64" s="33"/>
     </row>
     <row r="65" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" s="92" t="s">
+      <c r="A65" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="D65" s="92" t="s">
+      <c r="C65" s="74" t="s">
         <v>96</v>
+      </c>
+      <c r="D65" s="74" t="s">
+        <v>97</v>
       </c>
       <c r="E65" s="26">
         <v>1</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="71"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
+      <c r="A66" s="68"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
       <c r="E66" s="26">
         <v>2</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
+      <c r="A67" s="68"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
       <c r="E67" s="26">
         <v>3</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="72"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
+      <c r="A68" s="69"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
       <c r="E68" s="26">
         <v>4</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
-      <c r="B69" s="86" t="s">
-        <v>338</v>
-      </c>
-      <c r="C69" s="87"/>
-      <c r="D69" s="88"/>
+      <c r="B69" s="71" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69" s="72"/>
+      <c r="D69" s="73"/>
       <c r="E69" s="27"/>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -4183,100 +4186,100 @@
       <c r="I69" s="33"/>
     </row>
     <row r="70" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="B70" s="66" t="s">
+      <c r="A70" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="92" t="s">
+      <c r="B70" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="92" t="s">
+      <c r="C70" s="74" t="s">
         <v>100</v>
+      </c>
+      <c r="D70" s="74" t="s">
+        <v>101</v>
       </c>
       <c r="E70" s="26">
         <v>1</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="92"/>
+      <c r="A71" s="68"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
       <c r="E71" s="26">
         <v>2</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G71" s="24"/>
       <c r="H71" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="92"/>
+      <c r="A72" s="68"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
       <c r="E72" s="26">
         <v>3</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G72" s="24"/>
       <c r="H72" s="24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="72"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
+      <c r="A73" s="69"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
       <c r="E73" s="26">
         <v>4</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I73" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32"/>
-      <c r="B74" s="86" t="s">
-        <v>339</v>
-      </c>
-      <c r="C74" s="87"/>
-      <c r="D74" s="88"/>
+      <c r="B74" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="C74" s="72"/>
+      <c r="D74" s="73"/>
       <c r="E74" s="27"/>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -4284,104 +4287,104 @@
       <c r="I74" s="33"/>
     </row>
     <row r="75" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" s="66" t="s">
+      <c r="A75" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="92" t="s">
+      <c r="B75" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="92" t="s">
+      <c r="C75" s="74" t="s">
         <v>104</v>
+      </c>
+      <c r="D75" s="74" t="s">
+        <v>105</v>
       </c>
       <c r="E75" s="26">
         <v>1</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="92"/>
-      <c r="D76" s="92"/>
+      <c r="A76" s="68"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
       <c r="E76" s="26">
         <v>2</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
-      <c r="B77" s="66"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="92"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
       <c r="E77" s="26">
         <v>3</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="72"/>
-      <c r="B78" s="66"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
       <c r="E78" s="26">
         <v>4</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
-      <c r="B79" s="86" t="s">
-        <v>340</v>
-      </c>
-      <c r="C79" s="87"/>
-      <c r="D79" s="88"/>
+      <c r="B79" s="71" t="s">
+        <v>341</v>
+      </c>
+      <c r="C79" s="72"/>
+      <c r="D79" s="73"/>
       <c r="E79" s="27"/>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -4389,104 +4392,104 @@
       <c r="I79" s="33"/>
     </row>
     <row r="80" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="B80" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" s="92" t="s">
+      <c r="A80" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="D80" s="92" t="s">
+      <c r="B80" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="74" t="s">
         <v>107</v>
+      </c>
+      <c r="D80" s="74" t="s">
+        <v>108</v>
       </c>
       <c r="E80" s="26">
         <v>1</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="92"/>
+      <c r="A81" s="68"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
       <c r="E81" s="26">
         <v>2</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I81" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
-      <c r="B82" s="66"/>
-      <c r="C82" s="92"/>
-      <c r="D82" s="92"/>
+      <c r="A82" s="68"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
       <c r="E82" s="26">
         <v>3</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="72"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="92"/>
+      <c r="A83" s="69"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
       <c r="E83" s="26">
         <v>4</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I83" s="24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
-      <c r="B84" s="86" t="s">
-        <v>341</v>
-      </c>
-      <c r="C84" s="87"/>
-      <c r="D84" s="88"/>
+      <c r="B84" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="C84" s="72"/>
+      <c r="D84" s="73"/>
       <c r="E84" s="27"/>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -4494,99 +4497,165 @@
       <c r="I84" s="33"/>
     </row>
     <row r="85" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="B85" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85" s="92" t="s">
+      <c r="A85" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="D85" s="92" t="s">
+      <c r="B85" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="74" t="s">
         <v>110</v>
+      </c>
+      <c r="D85" s="74" t="s">
+        <v>111</v>
       </c>
       <c r="E85" s="26">
         <v>1</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I85" s="24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="71"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="92"/>
+      <c r="A86" s="68"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="74"/>
       <c r="E86" s="26">
         <v>2</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I86" s="24" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="71"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92"/>
+      <c r="A87" s="68"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="74"/>
       <c r="E87" s="26">
         <v>3</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="72"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="92"/>
-      <c r="D88" s="92"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="74"/>
       <c r="E88" s="26">
         <v>4</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I88" s="24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="B65:B68"/>
     <mergeCell ref="A85:A88"/>
     <mergeCell ref="A80:A83"/>
     <mergeCell ref="A75:A78"/>
@@ -4603,72 +4672,6 @@
     <mergeCell ref="D80:D83"/>
     <mergeCell ref="D75:D78"/>
     <mergeCell ref="C85:C88"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B9:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4679,7 +4682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9DDE2-59FE-48B0-912A-9F161DB7D708}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:A29"/>
     </sheetView>
   </sheetViews>
@@ -4698,55 +4701,55 @@
   <sheetData>
     <row r="1" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="101"/>
     </row>
     <row r="2" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -4754,60 +4757,60 @@
       <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>461</v>
-      </c>
-      <c r="C4" s="96" t="s">
+      <c r="A4" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>462</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="C4" s="87" t="s">
         <v>463</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>464</v>
       </c>
       <c r="E4" s="40">
         <v>1</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="40">
         <v>2</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="40">
         <v>3</v>
       </c>
@@ -4817,10 +4820,10 @@
       <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="40">
         <v>4</v>
       </c>
@@ -4831,11 +4834,11 @@
     </row>
     <row r="8" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="103" t="s">
-        <v>327</v>
-      </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105"/>
+      <c r="B8" s="104" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -4843,60 +4846,60 @@
       <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="96" t="s">
-        <v>464</v>
-      </c>
-      <c r="C9" s="96" t="s">
+      <c r="A9" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="87" t="s">
         <v>465</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="C9" s="87" t="s">
         <v>466</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>467</v>
       </c>
       <c r="E9" s="40">
         <v>1</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
       <c r="E10" s="34">
         <v>2</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="40">
         <v>3</v>
       </c>
@@ -4906,10 +4909,10 @@
       <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
       <c r="E12" s="40">
         <v>4</v>
       </c>
@@ -4920,11 +4923,11 @@
     </row>
     <row r="13" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="35"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
@@ -4932,81 +4935,81 @@
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="96" t="s">
-        <v>467</v>
-      </c>
-      <c r="C14" s="96" t="s">
+      <c r="A14" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="87" t="s">
         <v>468</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="C14" s="87" t="s">
         <v>469</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>470</v>
       </c>
       <c r="E14" s="40">
         <v>1</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="40">
         <v>2</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="40">
         <v>3</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
       <c r="E17" s="40">
         <v>4</v>
       </c>
@@ -5017,11 +5020,11 @@
     </row>
     <row r="18" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
@@ -5029,81 +5032,81 @@
       <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="96" t="s">
-        <v>467</v>
-      </c>
-      <c r="C19" s="96" t="s">
-        <v>470</v>
-      </c>
-      <c r="D19" s="96" t="s">
+      <c r="A19" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>468</v>
+      </c>
+      <c r="C19" s="87" t="s">
         <v>471</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>472</v>
       </c>
       <c r="E19" s="40">
         <v>1</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
       <c r="E20" s="40">
         <v>2</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="40">
         <v>3</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I21" s="41" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="40">
         <v>4</v>
       </c>
@@ -5114,11 +5117,11 @@
     </row>
     <row r="23" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
       <c r="E23" s="35"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
@@ -5126,141 +5129,154 @@
       <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="83" t="s">
-        <v>472</v>
-      </c>
-      <c r="C24" s="83" t="s">
+      <c r="A24" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="84" t="s">
         <v>473</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="C24" s="84" t="s">
         <v>474</v>
+      </c>
+      <c r="D24" s="84" t="s">
+        <v>475</v>
       </c>
       <c r="E24" s="40">
         <v>1</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I24" s="41" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
       <c r="E25" s="40">
         <v>2</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I25" s="41" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
       <c r="E26" s="40">
         <v>3</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I26" s="41" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="40">
         <v>4</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
       <c r="E28" s="40">
         <v>5</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="40">
         <v>6</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
     <mergeCell ref="D24:D29"/>
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="B24:B29"/>
@@ -5275,19 +5291,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5296,10 +5299,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBA4C7C-1B75-4CC3-9108-DB4740564B4D}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5324,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
@@ -5342,24 +5345,24 @@
         <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C2" s="54" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>26</v>
@@ -5374,103 +5377,73 @@
         <v>31</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>356</v>
-      </c>
+      <c r="A3" s="10"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="54" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>357</v>
+        <v>565</v>
       </c>
       <c r="F3" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+    </row>
+    <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+    </row>
+    <row r="5" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="I3" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" s="54" t="s">
-        <v>564</v>
+        <v>27</v>
       </c>
       <c r="G5" s="53" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>565</v>
+        <v>359</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>39</v>
@@ -5478,259 +5451,263 @@
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>398</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>368</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>373</v>
+        <v>367</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>26</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>385</v>
-      </c>
-      <c r="G6" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="I6" s="39" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>383</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>399</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>374</v>
+        <v>368</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>26</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>386</v>
-      </c>
-      <c r="G7" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I7" s="39" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>382</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>393</v>
+        <v>30</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="39" t="s">
-        <v>379</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>393</v>
+        <v>30</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="J9" s="52" t="s">
-        <v>382</v>
+        <v>379</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>376</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J10" s="52" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J11" s="52" t="s">
-        <v>66</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="39" t="s">
         <v>382</v>
       </c>
       <c r="J12" s="52" t="s">
-        <v>97</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F13" s="54" t="s">
         <v>390</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>30</v>
+        <v>394</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="39" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J13" s="52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>391</v>
@@ -5740,40 +5717,100 @@
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="39" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B15" s="47" t="s">
         <v>404</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G15" s="39" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="39" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J15" s="52" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5787,8 +5824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E916DD94-D1B0-4F5A-A52B-CD3DDE50A874}">
   <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5813,112 +5850,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="106" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="107"/>
-      <c r="J1" s="106" t="s">
-        <v>345</v>
-      </c>
-      <c r="K1" s="107"/>
-      <c r="M1" s="106" t="s">
+      <c r="G1" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="108"/>
+      <c r="J1" s="107" t="s">
         <v>346</v>
       </c>
-      <c r="N1" s="107"/>
-      <c r="P1" s="106" t="s">
+      <c r="K1" s="108"/>
+      <c r="M1" s="107" t="s">
         <v>347</v>
       </c>
-      <c r="Q1" s="107"/>
-      <c r="S1" s="106" t="s">
+      <c r="N1" s="108"/>
+      <c r="P1" s="107" t="s">
         <v>348</v>
       </c>
-      <c r="T1" s="107"/>
-      <c r="V1" s="106" t="s">
+      <c r="Q1" s="108"/>
+      <c r="S1" s="107" t="s">
         <v>349</v>
       </c>
-      <c r="W1" s="107"/>
-      <c r="Y1" s="106" t="s">
+      <c r="T1" s="108"/>
+      <c r="V1" s="107" t="s">
         <v>350</v>
       </c>
-      <c r="Z1" s="107"/>
+      <c r="W1" s="108"/>
+      <c r="Y1" s="107" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z1" s="108"/>
     </row>
     <row r="2" spans="1:31" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U2" s="12"/>
       <c r="V2" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X2" s="12"/>
       <c r="Y2" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>7</v>
@@ -5930,7 +5967,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
@@ -5997,7 +6034,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
@@ -6064,7 +6101,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -6131,7 +6168,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -6191,19 +6228,19 @@
     </row>
     <row r="7" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D7" s="54" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="14"/>
@@ -6233,13 +6270,13 @@
       <c r="A8" s="2"/>
       <c r="B8" s="57"/>
       <c r="C8" s="50" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D8" s="54" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="14"/>
@@ -6269,13 +6306,13 @@
       <c r="A9" s="2"/>
       <c r="B9" s="57"/>
       <c r="C9" s="50" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D9" s="54" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="14"/>
@@ -6305,13 +6342,13 @@
       <c r="A10" s="2"/>
       <c r="B10" s="57"/>
       <c r="C10" s="50" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D10" s="54" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="14"/>
@@ -6339,7 +6376,7 @@
     </row>
     <row r="11" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B11" s="56" t="s">
         <v>8</v>
@@ -6351,7 +6388,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="14"/>
@@ -6414,7 +6451,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="14"/>
@@ -6477,7 +6514,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="14"/>
@@ -6540,7 +6577,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="14"/>
@@ -6595,7 +6632,7 @@
     </row>
     <row r="15" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B15" s="56" t="s">
         <v>9</v>
@@ -6607,7 +6644,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="14"/>
@@ -6670,7 +6707,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="14"/>
@@ -6733,7 +6770,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="14"/>
@@ -6796,7 +6833,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="14"/>
@@ -6859,7 +6896,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="38"/>
@@ -6904,7 +6941,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="38"/>
@@ -6949,7 +6986,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="38"/>
@@ -6994,7 +7031,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="38"/>
@@ -7031,19 +7068,19 @@
     </row>
     <row r="23" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="38"/>
@@ -7082,13 +7119,13 @@
       <c r="A24" s="2"/>
       <c r="B24" s="58"/>
       <c r="C24" s="52" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="38"/>
@@ -7121,13 +7158,13 @@
       <c r="A25" s="2"/>
       <c r="B25" s="58"/>
       <c r="C25" s="52" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="38"/>
@@ -7160,13 +7197,13 @@
       <c r="A26" s="2"/>
       <c r="B26" s="58"/>
       <c r="C26" s="52" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="38"/>
@@ -7199,13 +7236,13 @@
       <c r="A27" s="2"/>
       <c r="B27" s="58"/>
       <c r="C27" s="52" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="38"/>
@@ -7238,13 +7275,13 @@
       <c r="A28" s="2"/>
       <c r="B28" s="58"/>
       <c r="C28" s="52" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="38"/>
@@ -7277,13 +7314,13 @@
       <c r="A29" s="4"/>
       <c r="B29" s="58"/>
       <c r="C29" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="38"/>
@@ -7322,13 +7359,13 @@
       <c r="A30" s="4"/>
       <c r="B30" s="58"/>
       <c r="C30" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="38"/>
@@ -7365,19 +7402,19 @@
     </row>
     <row r="31" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="38"/>
@@ -7416,13 +7453,13 @@
       <c r="A32" s="2"/>
       <c r="B32" s="58"/>
       <c r="C32" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="38"/>
@@ -7461,13 +7498,13 @@
       <c r="A33" s="2"/>
       <c r="B33" s="58"/>
       <c r="C33" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="38"/>
@@ -7504,19 +7541,19 @@
     </row>
     <row r="34" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="38"/>
@@ -7554,13 +7591,13 @@
     <row r="35" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="58"/>
       <c r="C35" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D35" s="54" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="38"/>
@@ -7598,13 +7635,13 @@
     <row r="36" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="58"/>
       <c r="C36" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D36" s="54" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="38"/>
@@ -7641,19 +7678,19 @@
     </row>
     <row r="37" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B37" s="58" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D37" s="54" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="38"/>
@@ -7692,13 +7729,13 @@
       <c r="A38" s="2"/>
       <c r="B38" s="58"/>
       <c r="C38" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D38" s="54" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="38"/>
@@ -7737,13 +7774,13 @@
       <c r="A39" s="2"/>
       <c r="B39" s="58"/>
       <c r="C39" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D39" s="54" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="38"/>
@@ -7782,13 +7819,13 @@
       <c r="A40" s="2"/>
       <c r="B40" s="58"/>
       <c r="C40" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D40" s="54" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="38"/>
@@ -7825,19 +7862,19 @@
     </row>
     <row r="41" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B41" s="58" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="38"/>
@@ -7875,13 +7912,13 @@
     <row r="42" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="58"/>
       <c r="C42" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D42" s="54" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="38"/>
@@ -7919,13 +7956,13 @@
     <row r="43" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="58"/>
       <c r="C43" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="38"/>
@@ -7962,19 +7999,19 @@
     </row>
     <row r="44" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D44" s="54" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="38"/>
@@ -8013,13 +8050,13 @@
       <c r="A45" s="2"/>
       <c r="B45" s="58"/>
       <c r="C45" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="38"/>
@@ -8058,13 +8095,13 @@
       <c r="A46" s="2"/>
       <c r="B46" s="58"/>
       <c r="C46" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D46" s="54" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="38"/>
@@ -8101,19 +8138,19 @@
     </row>
     <row r="47" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D47" s="54" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="38"/>
@@ -8152,13 +8189,13 @@
       <c r="A48" s="48"/>
       <c r="B48" s="58"/>
       <c r="C48" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D48" s="54" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="38"/>
@@ -8190,13 +8227,13 @@
     <row r="49" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="58"/>
       <c r="C49" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D49" s="54" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="38"/>
@@ -8234,13 +8271,13 @@
     <row r="50" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="58"/>
       <c r="C50" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D50" s="54" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="38"/>
@@ -8272,13 +8309,13 @@
     <row r="51" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="58"/>
       <c r="C51" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D51" s="54" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="38"/>
@@ -8315,19 +8352,19 @@
     </row>
     <row r="52" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B52" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D52" s="54" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="38"/>
@@ -8366,13 +8403,13 @@
       <c r="A53" s="2"/>
       <c r="B53" s="58"/>
       <c r="C53" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D53" s="54" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="38"/>
@@ -8411,13 +8448,13 @@
       <c r="A54" s="2"/>
       <c r="B54" s="58"/>
       <c r="C54" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D54" s="54" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="38"/>
@@ -8454,19 +8491,19 @@
     </row>
     <row r="55" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D55" s="54" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="38"/>
@@ -8504,13 +8541,13 @@
     <row r="56" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="58"/>
       <c r="C56" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D56" s="54" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="38"/>
@@ -8549,13 +8586,13 @@
       <c r="A57" s="2"/>
       <c r="B57" s="58"/>
       <c r="C57" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D57" s="54" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="38"/>
@@ -8592,19 +8629,19 @@
     </row>
     <row r="58" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D58" s="54" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="38"/>
@@ -8643,13 +8680,13 @@
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D59" s="54" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="38"/>
@@ -8688,13 +8725,13 @@
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D60" s="54" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="38"/>

--- a/Documents/HU, HT, PB, SB.xlsx
+++ b/Documents/HU, HT, PB, SB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8397588-E4C4-45ED-874D-5417E68B970B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B847C3-5FA9-4B61-8A34-2D7110580CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{D7927580-9A21-4766-84F0-58BE9C7E4DF7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="568">
   <si>
     <t>Identificador (ID) de la Historia</t>
   </si>
@@ -1736,6 +1736,12 @@
   </si>
   <si>
     <t>2 dias</t>
+  </si>
+  <si>
+    <t>4 dias</t>
+  </si>
+  <si>
+    <t>Ht4</t>
   </si>
 </sst>
 </file>
@@ -2158,7 +2164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2348,6 +2354,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2357,20 +2375,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2381,33 +2447,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2426,36 +2465,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2473,6 +2482,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2802,7 +2814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9B023D-957F-4AAE-9E3E-1343C14F2EF3}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
@@ -2822,18 +2834,18 @@
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="101"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -2866,11 +2878,11 @@
     </row>
     <row r="3" spans="1:9" s="37" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -2878,16 +2890,16 @@
       <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="82" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="26">
@@ -2907,10 +2919,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="26">
         <v>2</v>
       </c>
@@ -2926,10 +2938,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="26">
         <v>3</v>
       </c>
@@ -2945,10 +2957,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -2967,11 +2979,11 @@
     </row>
     <row r="8" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="84" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -2979,16 +2991,16 @@
       <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="90" t="s">
         <v>77</v>
       </c>
       <c r="E9" s="26">
@@ -3006,10 +3018,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
       <c r="E10" s="26">
         <v>2</v>
       </c>
@@ -3027,10 +3039,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="26">
         <v>3</v>
       </c>
@@ -3048,10 +3060,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="43"/>
       <c r="F12" s="23" t="s">
         <v>547</v>
@@ -3061,10 +3073,10 @@
       <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
       <c r="E13" s="43"/>
       <c r="F13" s="61" t="s">
         <v>548</v>
@@ -3074,10 +3086,10 @@
       <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="43"/>
       <c r="F14" s="44" t="s">
         <v>549</v>
@@ -3087,10 +3099,10 @@
       <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="26">
         <v>4</v>
       </c>
@@ -3109,11 +3121,11 @@
     </row>
     <row r="16" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="87" t="s">
         <v>332</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="27"/>
       <c r="F16" s="62"/>
       <c r="G16" s="28"/>
@@ -3121,16 +3133,16 @@
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="91" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="26">
@@ -3150,10 +3162,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="70"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="26">
         <v>2</v>
       </c>
@@ -3169,10 +3181,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="70"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="43"/>
       <c r="F19" s="44" t="s">
         <v>553</v>
@@ -3182,10 +3194,10 @@
       <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="70"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="26">
         <v>3</v>
       </c>
@@ -3203,10 +3215,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="70"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="26">
         <v>4</v>
       </c>
@@ -3224,10 +3236,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="70"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="91"/>
       <c r="E22" s="43"/>
       <c r="F22" s="44" t="s">
         <v>556</v>
@@ -3238,11 +3250,11 @@
     </row>
     <row r="23" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="84" t="s">
         <v>328</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="27"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
@@ -3250,16 +3262,16 @@
       <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="82" t="s">
         <v>73</v>
       </c>
       <c r="E24" s="26">
@@ -3277,10 +3289,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="34">
         <v>2</v>
       </c>
@@ -3296,10 +3308,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="26">
         <v>3</v>
       </c>
@@ -3315,10 +3327,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
       <c r="E27" s="26">
         <v>4</v>
       </c>
@@ -3337,11 +3349,11 @@
     </row>
     <row r="28" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="84" t="s">
         <v>329</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -3349,16 +3361,16 @@
       <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="90" t="s">
+      <c r="D29" s="101" t="s">
         <v>75</v>
       </c>
       <c r="E29" s="26">
@@ -3376,10 +3388,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="91"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="102"/>
       <c r="E30" s="26">
         <v>2</v>
       </c>
@@ -3395,10 +3407,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="91"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="102"/>
       <c r="E31" s="26">
         <v>3</v>
       </c>
@@ -3416,10 +3428,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="92"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="103"/>
       <c r="E32" s="26">
         <v>4</v>
       </c>
@@ -3438,11 +3450,11 @@
     </row>
     <row r="33" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="87" t="s">
         <v>331</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="89"/>
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
@@ -3450,16 +3462,16 @@
       <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" s="64" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="93" t="s">
+      <c r="D34" s="68" t="s">
         <v>79</v>
       </c>
       <c r="E34" s="34"/>
@@ -3471,10 +3483,10 @@
       <c r="I34" s="63"/>
     </row>
     <row r="35" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="94"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="69"/>
       <c r="E35" s="26">
         <v>1</v>
       </c>
@@ -3490,10 +3502,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="94"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="26">
         <v>2</v>
       </c>
@@ -3509,10 +3521,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="94"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="69"/>
       <c r="E37" s="26">
         <v>3</v>
       </c>
@@ -3530,10 +3542,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="95"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="70"/>
       <c r="E38" s="26">
         <v>4</v>
       </c>
@@ -3552,11 +3564,11 @@
     </row>
     <row r="39" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="73"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="89"/>
       <c r="E39" s="27"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
@@ -3564,16 +3576,16 @@
       <c r="I39" s="28"/>
     </row>
     <row r="40" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="74" t="s">
+      <c r="C40" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="74" t="s">
+      <c r="D40" s="90" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="26">
@@ -3591,10 +3603,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
       <c r="E41" s="26">
         <v>2</v>
       </c>
@@ -3610,10 +3622,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="68"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
       <c r="E42" s="26">
         <v>3</v>
       </c>
@@ -3631,10 +3643,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="90"/>
       <c r="E43" s="26">
         <v>4</v>
       </c>
@@ -3653,11 +3665,11 @@
     </row>
     <row r="44" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="87" t="s">
         <v>334</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="73"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="89"/>
       <c r="E44" s="27"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -3665,16 +3677,16 @@
       <c r="I44" s="33"/>
     </row>
     <row r="45" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="67" t="s">
+      <c r="A45" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="74" t="s">
+      <c r="C45" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="74" t="s">
+      <c r="D45" s="90" t="s">
         <v>86</v>
       </c>
       <c r="E45" s="26">
@@ -3694,10 +3706,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="68"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
       <c r="E46" s="26">
         <v>2</v>
       </c>
@@ -3715,10 +3727,10 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="68"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="90"/>
       <c r="E47" s="26">
         <v>3</v>
       </c>
@@ -3736,10 +3748,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
       <c r="E48" s="26">
         <v>4</v>
       </c>
@@ -3758,11 +3770,11 @@
     </row>
     <row r="49" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="87" t="s">
         <v>335</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="73"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="89"/>
       <c r="E49" s="27"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -3770,16 +3782,16 @@
       <c r="I49" s="33"/>
     </row>
     <row r="50" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="70" t="s">
+      <c r="B50" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="74" t="s">
+      <c r="C50" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="74" t="s">
+      <c r="D50" s="90" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="26">
@@ -3799,10 +3811,10 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="68"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
       <c r="E51" s="26">
         <v>2</v>
       </c>
@@ -3818,10 +3830,10 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="68"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="74"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="90"/>
       <c r="E52" s="26">
         <v>3</v>
       </c>
@@ -3839,10 +3851,10 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
       <c r="E53" s="26">
         <v>4</v>
       </c>
@@ -3861,11 +3873,11 @@
     </row>
     <row r="54" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
-      <c r="B54" s="71" t="s">
+      <c r="B54" s="87" t="s">
         <v>336</v>
       </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="73"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="89"/>
       <c r="E54" s="27"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -3873,16 +3885,16 @@
       <c r="I54" s="33"/>
     </row>
     <row r="55" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="74" t="s">
+      <c r="D55" s="90" t="s">
         <v>92</v>
       </c>
       <c r="E55" s="26">
@@ -3902,10 +3914,10 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="68"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
+      <c r="A56" s="72"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="90"/>
       <c r="E56" s="26">
         <v>2</v>
       </c>
@@ -3923,10 +3935,10 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="68"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
+      <c r="A57" s="72"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
       <c r="E57" s="26">
         <v>3</v>
       </c>
@@ -3944,10 +3956,10 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
       <c r="E58" s="26">
         <v>4</v>
       </c>
@@ -3966,11 +3978,11 @@
     </row>
     <row r="59" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="87" t="s">
         <v>337</v>
       </c>
-      <c r="C59" s="72"/>
-      <c r="D59" s="73"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="89"/>
       <c r="E59" s="27"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -3978,16 +3990,16 @@
       <c r="I59" s="33"/>
     </row>
     <row r="60" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="67" t="s">
+      <c r="A60" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="74" t="s">
+      <c r="C60" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="D60" s="74" t="s">
+      <c r="D60" s="90" t="s">
         <v>94</v>
       </c>
       <c r="E60" s="26">
@@ -4005,10 +4017,10 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="68"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="90"/>
       <c r="E61" s="26">
         <v>2</v>
       </c>
@@ -4026,10 +4038,10 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="68"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
       <c r="E62" s="26">
         <v>3</v>
       </c>
@@ -4047,10 +4059,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="69"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
+      <c r="A63" s="73"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
       <c r="E63" s="26">
         <v>4</v>
       </c>
@@ -4069,11 +4081,11 @@
     </row>
     <row r="64" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
-      <c r="B64" s="71" t="s">
+      <c r="B64" s="87" t="s">
         <v>338</v>
       </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="73"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="89"/>
       <c r="E64" s="27"/>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -4081,16 +4093,16 @@
       <c r="I64" s="33"/>
     </row>
     <row r="65" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="67" t="s">
+      <c r="A65" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="70" t="s">
+      <c r="B65" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="74" t="s">
+      <c r="D65" s="90" t="s">
         <v>97</v>
       </c>
       <c r="E65" s="26">
@@ -4110,10 +4122,10 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="68"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
+      <c r="A66" s="72"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="90"/>
       <c r="E66" s="26">
         <v>2</v>
       </c>
@@ -4131,10 +4143,10 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="68"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
+      <c r="A67" s="72"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
       <c r="E67" s="26">
         <v>3</v>
       </c>
@@ -4152,10 +4164,10 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="69"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
+      <c r="A68" s="73"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="90"/>
       <c r="E68" s="26">
         <v>4</v>
       </c>
@@ -4174,11 +4186,11 @@
     </row>
     <row r="69" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
-      <c r="B69" s="71" t="s">
+      <c r="B69" s="87" t="s">
         <v>339</v>
       </c>
-      <c r="C69" s="72"/>
-      <c r="D69" s="73"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="89"/>
       <c r="E69" s="27"/>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -4186,16 +4198,16 @@
       <c r="I69" s="33"/>
     </row>
     <row r="70" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="70" t="s">
+      <c r="B70" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="74" t="s">
+      <c r="C70" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="74" t="s">
+      <c r="D70" s="90" t="s">
         <v>101</v>
       </c>
       <c r="E70" s="26">
@@ -4215,10 +4227,10 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="68"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
+      <c r="A71" s="72"/>
+      <c r="B71" s="91"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="90"/>
       <c r="E71" s="26">
         <v>2</v>
       </c>
@@ -4234,10 +4246,10 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="68"/>
-      <c r="B72" s="70"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
+      <c r="A72" s="72"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="90"/>
       <c r="E72" s="26">
         <v>3</v>
       </c>
@@ -4253,10 +4265,10 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="69"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
+      <c r="A73" s="73"/>
+      <c r="B73" s="91"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="90"/>
       <c r="E73" s="26">
         <v>4</v>
       </c>
@@ -4275,11 +4287,11 @@
     </row>
     <row r="74" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32"/>
-      <c r="B74" s="71" t="s">
+      <c r="B74" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="C74" s="72"/>
-      <c r="D74" s="73"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="89"/>
       <c r="E74" s="27"/>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -4287,16 +4299,16 @@
       <c r="I74" s="33"/>
     </row>
     <row r="75" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="67" t="s">
+      <c r="A75" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="74" t="s">
+      <c r="D75" s="90" t="s">
         <v>105</v>
       </c>
       <c r="E75" s="26">
@@ -4316,10 +4328,10 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="68"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
+      <c r="A76" s="72"/>
+      <c r="B76" s="91"/>
+      <c r="C76" s="90"/>
+      <c r="D76" s="90"/>
       <c r="E76" s="26">
         <v>2</v>
       </c>
@@ -4337,10 +4349,10 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="68"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
+      <c r="A77" s="72"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="90"/>
+      <c r="D77" s="90"/>
       <c r="E77" s="26">
         <v>3</v>
       </c>
@@ -4358,10 +4370,10 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="69"/>
-      <c r="B78" s="70"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="90"/>
+      <c r="D78" s="90"/>
       <c r="E78" s="26">
         <v>4</v>
       </c>
@@ -4380,11 +4392,11 @@
     </row>
     <row r="79" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
-      <c r="B79" s="71" t="s">
+      <c r="B79" s="87" t="s">
         <v>341</v>
       </c>
-      <c r="C79" s="72"/>
-      <c r="D79" s="73"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="89"/>
       <c r="E79" s="27"/>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -4392,16 +4404,16 @@
       <c r="I79" s="33"/>
     </row>
     <row r="80" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="67" t="s">
+      <c r="A80" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="B80" s="70" t="s">
+      <c r="B80" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C80" s="74" t="s">
+      <c r="C80" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="74" t="s">
+      <c r="D80" s="90" t="s">
         <v>108</v>
       </c>
       <c r="E80" s="26">
@@ -4421,10 +4433,10 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="68"/>
-      <c r="B81" s="70"/>
-      <c r="C81" s="74"/>
-      <c r="D81" s="74"/>
+      <c r="A81" s="72"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="90"/>
+      <c r="D81" s="90"/>
       <c r="E81" s="26">
         <v>2</v>
       </c>
@@ -4442,10 +4454,10 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="68"/>
-      <c r="B82" s="70"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="74"/>
+      <c r="A82" s="72"/>
+      <c r="B82" s="91"/>
+      <c r="C82" s="90"/>
+      <c r="D82" s="90"/>
       <c r="E82" s="26">
         <v>3</v>
       </c>
@@ -4463,10 +4475,10 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="69"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
+      <c r="A83" s="73"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="90"/>
       <c r="E83" s="26">
         <v>4</v>
       </c>
@@ -4485,11 +4497,11 @@
     </row>
     <row r="84" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
-      <c r="B84" s="71" t="s">
+      <c r="B84" s="87" t="s">
         <v>342</v>
       </c>
-      <c r="C84" s="72"/>
-      <c r="D84" s="73"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="89"/>
       <c r="E84" s="27"/>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -4497,16 +4509,16 @@
       <c r="I84" s="33"/>
     </row>
     <row r="85" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="67" t="s">
+      <c r="A85" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="B85" s="70" t="s">
+      <c r="B85" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="74" t="s">
+      <c r="C85" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="D85" s="74" t="s">
+      <c r="D85" s="90" t="s">
         <v>111</v>
       </c>
       <c r="E85" s="26">
@@ -4526,10 +4538,10 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="68"/>
-      <c r="B86" s="70"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="74"/>
+      <c r="A86" s="72"/>
+      <c r="B86" s="91"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="90"/>
       <c r="E86" s="26">
         <v>2</v>
       </c>
@@ -4547,10 +4559,10 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="68"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="74"/>
-      <c r="D87" s="74"/>
+      <c r="A87" s="72"/>
+      <c r="B87" s="91"/>
+      <c r="C87" s="90"/>
+      <c r="D87" s="90"/>
       <c r="E87" s="26">
         <v>3</v>
       </c>
@@ -4568,10 +4580,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="69"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="74"/>
-      <c r="D88" s="74"/>
+      <c r="A88" s="73"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="90"/>
+      <c r="D88" s="90"/>
       <c r="E88" s="26">
         <v>4</v>
       </c>
@@ -4590,26 +4602,52 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="C60:C63"/>
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="C17:C22"/>
@@ -4626,52 +4664,26 @@
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="C34:C38"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B9:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4701,18 +4713,18 @@
   <sheetData>
     <row r="1" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="101"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -4745,11 +4757,11 @@
     </row>
     <row r="3" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -4757,16 +4769,16 @@
       <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="98" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="98" t="s">
         <v>463</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="98" t="s">
         <v>464</v>
       </c>
       <c r="E4" s="40">
@@ -4786,10 +4798,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="40">
         <v>2</v>
       </c>
@@ -4807,10 +4819,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="40">
         <v>3</v>
       </c>
@@ -4820,10 +4832,10 @@
       <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="40">
         <v>4</v>
       </c>
@@ -4834,11 +4846,11 @@
     </row>
     <row r="8" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="105" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="107"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -4846,16 +4858,16 @@
       <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="98" t="s">
         <v>465</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="98" t="s">
         <v>466</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="98" t="s">
         <v>467</v>
       </c>
       <c r="E9" s="40">
@@ -4875,10 +4887,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
       <c r="E10" s="34">
         <v>2</v>
       </c>
@@ -4896,10 +4908,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
       <c r="E11" s="40">
         <v>3</v>
       </c>
@@ -4909,10 +4921,10 @@
       <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
       <c r="E12" s="40">
         <v>4</v>
       </c>
@@ -4923,11 +4935,11 @@
     </row>
     <row r="13" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="35"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
@@ -4935,16 +4947,16 @@
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="98" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="98" t="s">
         <v>469</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="98" t="s">
         <v>470</v>
       </c>
       <c r="E14" s="40">
@@ -4964,10 +4976,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="40">
         <v>2</v>
       </c>
@@ -4985,10 +4997,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="40">
         <v>3</v>
       </c>
@@ -5006,10 +5018,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
       <c r="E17" s="40">
         <v>4</v>
       </c>
@@ -5020,11 +5032,11 @@
     </row>
     <row r="18" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
@@ -5032,16 +5044,16 @@
       <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="98" t="s">
         <v>468</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="98" t="s">
         <v>471</v>
       </c>
-      <c r="D19" s="87" t="s">
+      <c r="D19" s="98" t="s">
         <v>472</v>
       </c>
       <c r="E19" s="40">
@@ -5061,10 +5073,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
       <c r="E20" s="40">
         <v>2</v>
       </c>
@@ -5082,10 +5094,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
       <c r="E21" s="40">
         <v>3</v>
       </c>
@@ -5103,10 +5115,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
       <c r="E22" s="40">
         <v>4</v>
       </c>
@@ -5117,11 +5129,11 @@
     </row>
     <row r="23" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="35"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
@@ -5129,16 +5141,16 @@
       <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="92" t="s">
         <v>473</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="92" t="s">
         <v>474</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="92" t="s">
         <v>475</v>
       </c>
       <c r="E24" s="40">
@@ -5158,10 +5170,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="40">
         <v>2</v>
       </c>
@@ -5179,10 +5191,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
       <c r="E26" s="40">
         <v>3</v>
       </c>
@@ -5200,10 +5212,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
       <c r="E27" s="40">
         <v>4</v>
       </c>
@@ -5221,10 +5233,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
       <c r="E28" s="40">
         <v>5</v>
       </c>
@@ -5242,10 +5254,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
       <c r="E29" s="40">
         <v>6</v>
       </c>
@@ -5264,19 +5276,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
     <mergeCell ref="D24:D29"/>
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="B24:B29"/>
@@ -5291,6 +5290,19 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5301,7 +5313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBA4C7C-1B75-4CC3-9108-DB4740564B4D}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -5398,24 +5410,40 @@
       <c r="F3" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="53" t="s">
+        <v>30</v>
+      </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
+      <c r="I3" s="67" t="s">
+        <v>383</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="110" t="s">
         <v>332</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="53"/>
+      <c r="E4" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>30</v>
+      </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="I4" s="67" t="s">
+        <v>383</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -5424,7 +5452,7 @@
       <c r="B5" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="110" t="s">
         <v>356</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -5850,34 +5878,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="J1" s="107" t="s">
+      <c r="H1" s="109"/>
+      <c r="J1" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="M1" s="107" t="s">
+      <c r="K1" s="109"/>
+      <c r="M1" s="108" t="s">
         <v>347</v>
       </c>
-      <c r="N1" s="108"/>
-      <c r="P1" s="107" t="s">
+      <c r="N1" s="109"/>
+      <c r="P1" s="108" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" s="108"/>
-      <c r="S1" s="107" t="s">
+      <c r="Q1" s="109"/>
+      <c r="S1" s="108" t="s">
         <v>349</v>
       </c>
-      <c r="T1" s="108"/>
-      <c r="V1" s="107" t="s">
+      <c r="T1" s="109"/>
+      <c r="V1" s="108" t="s">
         <v>350</v>
       </c>
-      <c r="W1" s="108"/>
-      <c r="Y1" s="107" t="s">
+      <c r="W1" s="109"/>
+      <c r="Y1" s="108" t="s">
         <v>351</v>
       </c>
-      <c r="Z1" s="108"/>
+      <c r="Z1" s="109"/>
     </row>
     <row r="2" spans="1:31" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/Documents/HU, HT, PB, SB.xlsx
+++ b/Documents/HU, HT, PB, SB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ff47571d30268be/Documentos/6/APLICACIONE II/Proyecto/SIGDCOLTA/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2EBF68-07CF-4AFC-AA75-7B7F2117A3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9E2EBF68-07CF-4AFC-AA75-7B7F2117A3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C5C59B7-1F09-4D4E-859A-4AAE39DF41E9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{D7927580-9A21-4766-84F0-58BE9C7E4DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="9" xr2:uid="{D7927580-9A21-4766-84F0-58BE9C7E4DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="RF y RNF" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="828">
   <si>
     <t>Identificador (ID) de la Historia</t>
   </si>
@@ -2449,6 +2449,84 @@
   </si>
   <si>
     <t>HT16</t>
+  </si>
+  <si>
+    <t>PB6.2</t>
+  </si>
+  <si>
+    <t>Como un Desarrollador, necesito establecer los diagramas de procesos con la finalidad de facilitar el desarrollo de la parte logica</t>
+  </si>
+  <si>
+    <t>Desarrollo de los diagramas de proceso</t>
+  </si>
+  <si>
+    <t>Hecha</t>
+  </si>
+  <si>
+    <t>Edison Gualle</t>
+  </si>
+  <si>
+    <t>Erik Quisnia</t>
+  </si>
+  <si>
+    <t>Angel Melendez</t>
+  </si>
+  <si>
+    <t>Alexander Aucancela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipo </t>
+  </si>
+  <si>
+    <t>Alexander Aucancela, Erik Quisnia</t>
+  </si>
+  <si>
+    <t>Los diagrmas de proceso son fundamentales para entender los que el programa realizara y tambien para desarrollar las reglas de negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se realizon la asigancion de responsabilidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se agrego la creacion de los diagramas de procesos </t>
+  </si>
+  <si>
+    <t>se reorganizo los spring</t>
+  </si>
+  <si>
+    <t>Version 6</t>
+  </si>
+  <si>
+    <t>HCHT6</t>
+  </si>
+  <si>
+    <t>SB4.2</t>
+  </si>
+  <si>
+    <t>Identificar los objetivos y metas del municipio</t>
+  </si>
+  <si>
+    <t>Definir el Alcance del Sistema</t>
+  </si>
+  <si>
+    <t>Crear Diagramas de Flujo de Proceso</t>
+  </si>
+  <si>
+    <t>Definir Reglas de Negocio</t>
+  </si>
+  <si>
+    <t>Revisar los diagramas de flujo y reglas de negocio con el equipo</t>
+  </si>
+  <si>
+    <t>Realizar ajustes basados en la retroalimentación recibida durante la validación</t>
+  </si>
+  <si>
+    <t>Mantener actualizada la documentacion</t>
+  </si>
+  <si>
+    <t>Sprint Backlog</t>
+  </si>
+  <si>
+    <t>Se agregaron las actividades realizadas en cada Sprint Backlog</t>
   </si>
 </sst>
 </file>
@@ -2552,7 +2630,7 @@
       <name val="Calibri "/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2641,6 +2719,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2906,7 +2990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3084,9 +3168,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3277,157 +3358,16 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3460,21 +3400,6 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3524,6 +3449,218 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3847,618 +3984,618 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="114"/>
-    <col min="2" max="2" width="52.7109375" style="115" customWidth="1"/>
-    <col min="3" max="3" width="71.5703125" style="115" customWidth="1"/>
-    <col min="4" max="4" width="69.85546875" style="115" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="114"/>
+    <col min="1" max="1" width="11.42578125" style="113"/>
+    <col min="2" max="2" width="52.7109375" style="114" customWidth="1"/>
+    <col min="3" max="3" width="71.5703125" style="114" customWidth="1"/>
+    <col min="4" max="4" width="69.85546875" style="114" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="113"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>568</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="116" t="s">
         <v>622</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="116" t="s">
         <v>623</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="116" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42.75">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="117" t="s">
         <v>709</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>624</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="118" t="s">
         <v>625</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="118" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="117" t="s">
         <v>710</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="118" t="s">
         <v>627</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="118" t="s">
         <v>628</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="118" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.75">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>711</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>630</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="118" t="s">
         <v>631</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="118" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="117" t="s">
         <v>712</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="118" t="s">
         <v>633</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="118" t="s">
         <v>634</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="118" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="57">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="117" t="s">
         <v>713</v>
       </c>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="118" t="s">
         <v>371</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="118" t="s">
         <v>636</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="118" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="42.75">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="117" t="s">
         <v>714</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="118" t="s">
         <v>638</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="118" t="s">
         <v>639</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="118" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="42.75">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="117" t="s">
         <v>715</v>
       </c>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="118" t="s">
         <v>641</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="118" t="s">
         <v>642</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="118" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="42.75">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="117" t="s">
         <v>716</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="118" t="s">
         <v>644</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="118" t="s">
         <v>645</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="118" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="57">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="117" t="s">
         <v>717</v>
       </c>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="118" t="s">
         <v>647</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="118" t="s">
         <v>648</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="118" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="42.75">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="117" t="s">
         <v>718</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="118" t="s">
         <v>650</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="118" t="s">
         <v>651</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="118" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="42.75">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="117" t="s">
         <v>719</v>
       </c>
-      <c r="B12" s="119" t="s">
+      <c r="B12" s="118" t="s">
         <v>653</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="118" t="s">
         <v>654</v>
       </c>
-      <c r="D12" s="119" t="s">
+      <c r="D12" s="118" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="42.75">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="117" t="s">
         <v>720</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="118" t="s">
         <v>656</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="118" t="s">
         <v>657</v>
       </c>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="118" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="42.75">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="117" t="s">
         <v>721</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="118" t="s">
         <v>659</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="118" t="s">
         <v>660</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="118" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="42.75">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="117" t="s">
         <v>722</v>
       </c>
-      <c r="B15" s="119" t="s">
+      <c r="B15" s="118" t="s">
         <v>662</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="118" t="s">
         <v>663</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="118" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="42.75">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="117" t="s">
         <v>723</v>
       </c>
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="118" t="s">
         <v>665</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="118" t="s">
         <v>666</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="118" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="42.75">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="117" t="s">
         <v>724</v>
       </c>
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="118" t="s">
         <v>668</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="118" t="s">
         <v>669</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="118" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.5">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="117" t="s">
         <v>725</v>
       </c>
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="118" t="s">
         <v>373</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="118" t="s">
         <v>671</v>
       </c>
-      <c r="D18" s="119" t="s">
+      <c r="D18" s="118" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="42.75">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="117" t="s">
         <v>726</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="118" t="s">
         <v>673</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="118" t="s">
         <v>674</v>
       </c>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="118" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="42.75">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="117" t="s">
         <v>727</v>
       </c>
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="118" t="s">
         <v>676</v>
       </c>
-      <c r="C20" s="119" t="s">
+      <c r="C20" s="118" t="s">
         <v>677</v>
       </c>
-      <c r="D20" s="119" t="s">
+      <c r="D20" s="118" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="42.75">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="117" t="s">
         <v>728</v>
       </c>
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="118" t="s">
         <v>679</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="118" t="s">
         <v>680</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="118" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="42.75">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="117" t="s">
         <v>729</v>
       </c>
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="118" t="s">
         <v>682</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="118" t="s">
         <v>683</v>
       </c>
-      <c r="D22" s="119" t="s">
+      <c r="D22" s="118" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="42.75">
-      <c r="A23" s="118" t="s">
+      <c r="A23" s="117" t="s">
         <v>730</v>
       </c>
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="118" t="s">
         <v>685</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="118" t="s">
         <v>686</v>
       </c>
-      <c r="D23" s="119" t="s">
+      <c r="D23" s="118" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="42.75">
-      <c r="A24" s="118" t="s">
+      <c r="A24" s="117" t="s">
         <v>731</v>
       </c>
-      <c r="B24" s="119" t="s">
+      <c r="B24" s="118" t="s">
         <v>688</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="118" t="s">
         <v>689</v>
       </c>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="118" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="42.75">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="117" t="s">
         <v>732</v>
       </c>
-      <c r="B25" s="119" t="s">
+      <c r="B25" s="118" t="s">
         <v>691</v>
       </c>
-      <c r="C25" s="119" t="s">
+      <c r="C25" s="118" t="s">
         <v>692</v>
       </c>
-      <c r="D25" s="119" t="s">
+      <c r="D25" s="118" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="42.75">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="117" t="s">
         <v>733</v>
       </c>
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="118" t="s">
         <v>694</v>
       </c>
-      <c r="C26" s="119" t="s">
+      <c r="C26" s="118" t="s">
         <v>695</v>
       </c>
-      <c r="D26" s="119" t="s">
+      <c r="D26" s="118" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="42.75">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="117" t="s">
         <v>734</v>
       </c>
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="118" t="s">
         <v>697</v>
       </c>
-      <c r="C27" s="119" t="s">
+      <c r="C27" s="118" t="s">
         <v>698</v>
       </c>
-      <c r="D27" s="119" t="s">
+      <c r="D27" s="118" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="28.5">
-      <c r="A28" s="118" t="s">
+      <c r="A28" s="117" t="s">
         <v>735</v>
       </c>
-      <c r="B28" s="119" t="s">
+      <c r="B28" s="118" t="s">
         <v>700</v>
       </c>
-      <c r="C28" s="119" t="s">
+      <c r="C28" s="118" t="s">
         <v>701</v>
       </c>
-      <c r="D28" s="119" t="s">
+      <c r="D28" s="118" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.5">
-      <c r="A29" s="118" t="s">
+      <c r="A29" s="117" t="s">
         <v>736</v>
       </c>
-      <c r="B29" s="119" t="s">
+      <c r="B29" s="118" t="s">
         <v>703</v>
       </c>
-      <c r="C29" s="119" t="s">
+      <c r="C29" s="118" t="s">
         <v>704</v>
       </c>
-      <c r="D29" s="119" t="s">
+      <c r="D29" s="118" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="42.75">
-      <c r="A30" s="118" t="s">
+      <c r="A30" s="117" t="s">
         <v>737</v>
       </c>
-      <c r="B30" s="119" t="s">
+      <c r="B30" s="118" t="s">
         <v>706</v>
       </c>
-      <c r="C30" s="119" t="s">
+      <c r="C30" s="118" t="s">
         <v>707</v>
       </c>
-      <c r="D30" s="119" t="s">
+      <c r="D30" s="118" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="116" t="s">
+      <c r="A34" s="115" t="s">
         <v>568</v>
       </c>
-      <c r="B34" s="117" t="s">
+      <c r="B34" s="116" t="s">
         <v>622</v>
       </c>
-      <c r="C34" s="117" t="s">
+      <c r="C34" s="116" t="s">
         <v>623</v>
       </c>
-      <c r="D34" s="117" t="s">
+      <c r="D34" s="116" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="42.75">
-      <c r="A35" s="121" t="s">
+      <c r="A35" s="120" t="s">
         <v>758</v>
       </c>
-      <c r="B35" s="126" t="s">
+      <c r="B35" s="125" t="s">
         <v>740</v>
       </c>
-      <c r="C35" s="121" t="s">
+      <c r="C35" s="120" t="s">
         <v>741</v>
       </c>
-      <c r="D35" s="121" t="s">
+      <c r="D35" s="120" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="125"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125" t="s">
+      <c r="A36" s="124"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="122"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122" t="s">
+      <c r="A37" s="121"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="42.75">
-      <c r="A38" s="119" t="s">
+      <c r="A38" s="118" t="s">
         <v>759</v>
       </c>
-      <c r="B38" s="119" t="s">
+      <c r="B38" s="118" t="s">
         <v>742</v>
       </c>
-      <c r="C38" s="119" t="s">
+      <c r="C38" s="118" t="s">
         <v>743</v>
       </c>
-      <c r="D38" s="119" t="s">
+      <c r="D38" s="118" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="42.75">
-      <c r="A39" s="119" t="s">
+      <c r="A39" s="118" t="s">
         <v>760</v>
       </c>
-      <c r="B39" s="119" t="s">
+      <c r="B39" s="118" t="s">
         <v>744</v>
       </c>
-      <c r="C39" s="119" t="s">
+      <c r="C39" s="118" t="s">
         <v>745</v>
       </c>
-      <c r="D39" s="119" t="s">
+      <c r="D39" s="118" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.5">
-      <c r="A40" s="119" t="s">
+      <c r="A40" s="118" t="s">
         <v>761</v>
       </c>
-      <c r="B40" s="119" t="s">
+      <c r="B40" s="118" t="s">
         <v>746</v>
       </c>
-      <c r="C40" s="119" t="s">
+      <c r="C40" s="118" t="s">
         <v>747</v>
       </c>
-      <c r="D40" s="119" t="s">
+      <c r="D40" s="118" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="42.75">
-      <c r="A41" s="121" t="s">
+      <c r="A41" s="120" t="s">
         <v>762</v>
       </c>
-      <c r="B41" s="121" t="s">
+      <c r="B41" s="120" t="s">
         <v>748</v>
       </c>
-      <c r="C41" s="121" t="s">
+      <c r="C41" s="120" t="s">
         <v>749</v>
       </c>
-      <c r="D41" s="121" t="s">
+      <c r="D41" s="120" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="122"/>
-      <c r="B42" s="122"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122" t="s">
+      <c r="A42" s="121"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="28.5">
-      <c r="A43" s="121" t="s">
+      <c r="A43" s="120" t="s">
         <v>763</v>
       </c>
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="120" t="s">
         <v>750</v>
       </c>
-      <c r="C43" s="121" t="s">
+      <c r="C43" s="120" t="s">
         <v>751</v>
       </c>
-      <c r="D43" s="121" t="s">
+      <c r="D43" s="120" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="28.5">
-      <c r="A44" s="122"/>
-      <c r="B44" s="122"/>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122" t="s">
+      <c r="A44" s="121"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="42.75">
-      <c r="A45" s="121" t="s">
+      <c r="A45" s="120" t="s">
         <v>764</v>
       </c>
-      <c r="B45" s="121" t="s">
+      <c r="B45" s="120" t="s">
         <v>752</v>
       </c>
-      <c r="C45" s="121" t="s">
+      <c r="C45" s="120" t="s">
         <v>753</v>
       </c>
-      <c r="D45" s="121" t="s">
+      <c r="D45" s="120" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="122"/>
-      <c r="B46" s="122"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122" t="s">
+      <c r="A46" s="121"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="42.75">
-      <c r="A47" s="119" t="s">
+      <c r="A47" s="118" t="s">
         <v>765</v>
       </c>
-      <c r="B47" s="119" t="s">
+      <c r="B47" s="118" t="s">
         <v>754</v>
       </c>
-      <c r="C47" s="119" t="s">
+      <c r="C47" s="118" t="s">
         <v>755</v>
       </c>
-      <c r="D47" s="119" t="s">
+      <c r="D47" s="118" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="28.5">
-      <c r="A48" s="121" t="s">
+      <c r="A48" s="120" t="s">
         <v>766</v>
       </c>
-      <c r="B48" s="121" t="s">
+      <c r="B48" s="120" t="s">
         <v>756</v>
       </c>
-      <c r="C48" s="121" t="s">
+      <c r="C48" s="120" t="s">
         <v>757</v>
       </c>
-      <c r="D48" s="121" t="s">
+      <c r="D48" s="120" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="28.5">
-      <c r="A49" s="124"/>
-      <c r="B49" s="120"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="120" t="s">
+      <c r="A49" s="123"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119" t="s">
         <v>778</v>
       </c>
     </row>
@@ -4471,10 +4608,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7319D34E-C980-405C-B005-218F4118AF08}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4483,110 +4620,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="173" t="s">
         <v>568</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="174" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="175" t="s">
         <v>604</v>
       </c>
-      <c r="D1" s="139" t="s">
+      <c r="D1" s="174" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="138"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="139"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="174"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="38" t="s">
         <v>591</v>
       </c>
-      <c r="B3" s="84">
+      <c r="B3" s="83">
         <v>45254</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="83" t="s">
         <v>581</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="84" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="102"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="98" t="s">
+      <c r="A4" s="101"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="97" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="102" t="s">
         <v>595</v>
       </c>
-      <c r="B5" s="95">
+      <c r="B5" s="94">
         <v>45265</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="71" t="s">
         <v>612</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="76" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="102"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="76" t="s">
+      <c r="A6" s="101"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="75" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>596</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="90">
         <v>45266</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="97" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="88"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="98" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="97" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="81"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="77" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="76" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="137" t="s">
         <v>615</v>
       </c>
-      <c r="B10" s="101">
+      <c r="B10" s="232">
         <v>45272</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="137" t="s">
         <v>614</v>
       </c>
-      <c r="D10" s="77"/>
+      <c r="D10" s="97" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="89"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="97" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="76" t="s">
+        <v>827</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4617,51 +4772,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="173" t="s">
         <v>568</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="174" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="175" t="s">
         <v>580</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="175" t="s">
         <v>738</v>
       </c>
-      <c r="E1" s="140" t="s">
+      <c r="E1" s="175" t="s">
         <v>739</v>
       </c>
-      <c r="F1" s="139" t="s">
+      <c r="F1" s="174" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="138"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="139"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="174"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="141" t="s">
         <v>585</v>
       </c>
-      <c r="B3" s="84">
+      <c r="B3" s="83">
         <v>45239</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="83" t="s">
         <v>581</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="85" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="84" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="141" t="s">
         <v>586</v>
       </c>
       <c r="B4" s="4"/>
@@ -4669,56 +4824,56 @@
         <v>582</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="190"/>
+      <c r="E4" s="142"/>
       <c r="F4" s="4" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="73" t="s">
         <v>587</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="130" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="129" t="s">
         <v>583</v>
       </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="90" t="s">
+      <c r="D5" s="98"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="89" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="198"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="97" t="s">
+      <c r="A6" s="150"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="96" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="74"/>
-      <c r="B7" s="194"/>
-      <c r="C7" s="196" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="148" t="s">
         <v>584</v>
       </c>
-      <c r="D7" s="194"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="76" t="s">
+      <c r="D7" s="146"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="75" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="198" t="s">
+      <c r="A8" s="150" t="s">
         <v>588</v>
       </c>
-      <c r="B8" s="195"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="77" t="s">
+      <c r="B8" s="147"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="76" t="s">
         <v>579</v>
       </c>
     </row>
@@ -4741,7 +4896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9DDE2-59FE-48B0-912A-9F161DB7D708}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -4760,66 +4915,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A1" s="202"/>
-      <c r="B1" s="203" t="s">
+      <c r="A1" s="154"/>
+      <c r="B1" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="205" t="s">
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="207"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="183"/>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="208" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="209" t="s">
+      <c r="A2" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="210" t="s">
+      <c r="E2" s="157" t="s">
         <v>788</v>
       </c>
-      <c r="F2" s="210" t="s">
+      <c r="F2" s="157" t="s">
         <v>790</v>
       </c>
-      <c r="G2" s="210" t="s">
+      <c r="G2" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="158" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="211" t="s">
+      <c r="I2" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="211" t="s">
+      <c r="J2" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="211" t="s">
+      <c r="K2" s="158" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45.75" customHeight="1">
       <c r="A3" s="35"/>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="180" t="s">
         <v>782</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
@@ -4827,22 +4982,22 @@
       <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="185" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="185" t="s">
         <v>463</v>
       </c>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="185" t="s">
         <v>464</v>
       </c>
-      <c r="E4" s="145" t="s">
+      <c r="E4" s="177" t="s">
         <v>791</v>
       </c>
-      <c r="F4" s="145" t="s">
+      <c r="F4" s="177" t="s">
         <v>758</v>
       </c>
       <c r="G4" s="40">
@@ -4862,12 +5017,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A5" s="148"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
+      <c r="A5" s="184"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
       <c r="G5" s="40">
         <v>2</v>
       </c>
@@ -4885,13 +5040,13 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A6" s="148"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="129">
+      <c r="A6" s="184"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="128">
         <v>3</v>
       </c>
       <c r="H6" s="41"/>
@@ -4901,13 +5056,13 @@
     </row>
     <row r="7" spans="1:11" ht="45.75" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="188" t="s">
         <v>783</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
       <c r="G7" s="27"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
@@ -4915,22 +5070,22 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="185" t="s">
         <v>465</v>
       </c>
-      <c r="C8" s="142" t="s">
+      <c r="C8" s="185" t="s">
         <v>466</v>
       </c>
-      <c r="D8" s="142" t="s">
+      <c r="D8" s="185" t="s">
         <v>467</v>
       </c>
-      <c r="E8" s="145" t="s">
+      <c r="E8" s="177" t="s">
         <v>792</v>
       </c>
-      <c r="F8" s="145" t="s">
+      <c r="F8" s="177" t="s">
         <v>758</v>
       </c>
       <c r="G8" s="40">
@@ -4950,12 +5105,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A9" s="148"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
+      <c r="A9" s="184"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
       <c r="G9" s="34">
         <v>2</v>
       </c>
@@ -4973,13 +5128,13 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A10" s="148"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="129">
+      <c r="A10" s="184"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="128">
         <v>3</v>
       </c>
       <c r="H10" s="41"/>
@@ -4989,13 +5144,13 @@
     </row>
     <row r="11" spans="1:11" ht="45.75" customHeight="1">
       <c r="A11" s="35"/>
-      <c r="B11" s="149" t="s">
+      <c r="B11" s="180" t="s">
         <v>371</v>
       </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="199"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
       <c r="G11" s="35"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -5003,22 +5158,22 @@
       <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="185" t="s">
         <v>468</v>
       </c>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="185" t="s">
         <v>469</v>
       </c>
-      <c r="D12" s="142" t="s">
+      <c r="D12" s="185" t="s">
         <v>470</v>
       </c>
-      <c r="E12" s="145" t="s">
+      <c r="E12" s="177" t="s">
         <v>713</v>
       </c>
-      <c r="F12" s="145" t="s">
+      <c r="F12" s="177" t="s">
         <v>793</v>
       </c>
       <c r="G12" s="40">
@@ -5038,12 +5193,12 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A13" s="148"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
+      <c r="A13" s="184"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
       <c r="G13" s="40">
         <v>2</v>
       </c>
@@ -5061,12 +5216,12 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A14" s="148"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
+      <c r="A14" s="184"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
       <c r="G14" s="40">
         <v>3</v>
       </c>
@@ -5084,12 +5239,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A15" s="148"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
+      <c r="A15" s="184"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
       <c r="G15" s="40">
         <v>4</v>
       </c>
@@ -5100,13 +5255,13 @@
     </row>
     <row r="16" spans="1:11" ht="45.75" customHeight="1">
       <c r="A16" s="35"/>
-      <c r="B16" s="149" t="s">
+      <c r="B16" s="180" t="s">
         <v>372</v>
       </c>
-      <c r="C16" s="149"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
       <c r="G16" s="35"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
@@ -5114,22 +5269,22 @@
       <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A17" s="148" t="s">
+      <c r="A17" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="185" t="s">
         <v>468</v>
       </c>
-      <c r="C17" s="142" t="s">
+      <c r="C17" s="185" t="s">
         <v>471</v>
       </c>
-      <c r="D17" s="142" t="s">
+      <c r="D17" s="185" t="s">
         <v>472</v>
       </c>
-      <c r="E17" s="145" t="s">
+      <c r="E17" s="177" t="s">
         <v>794</v>
       </c>
-      <c r="F17" s="145" t="s">
+      <c r="F17" s="177" t="s">
         <v>758</v>
       </c>
       <c r="G17" s="40">
@@ -5149,12 +5304,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A18" s="148"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
+      <c r="A18" s="184"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
       <c r="G18" s="40">
         <v>2</v>
       </c>
@@ -5172,12 +5327,12 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A19" s="148"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
+      <c r="A19" s="184"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
       <c r="G19" s="40">
         <v>3</v>
       </c>
@@ -5195,12 +5350,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A20" s="148"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
+      <c r="A20" s="184"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
       <c r="G20" s="40">
         <v>4</v>
       </c>
@@ -5211,13 +5366,13 @@
     </row>
     <row r="21" spans="1:11" ht="45.75" customHeight="1">
       <c r="A21" s="35"/>
-      <c r="B21" s="149" t="s">
+      <c r="B21" s="180" t="s">
         <v>373</v>
       </c>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
       <c r="G21" s="35"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
@@ -5225,22 +5380,22 @@
       <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A22" s="145" t="s">
+      <c r="A22" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="185" t="s">
         <v>473</v>
       </c>
-      <c r="C22" s="142" t="s">
+      <c r="C22" s="185" t="s">
         <v>474</v>
       </c>
-      <c r="D22" s="142" t="s">
+      <c r="D22" s="185" t="s">
         <v>475</v>
       </c>
-      <c r="E22" s="145" t="s">
+      <c r="E22" s="177" t="s">
         <v>795</v>
       </c>
-      <c r="F22" s="145" t="s">
+      <c r="F22" s="177" t="s">
         <v>758</v>
       </c>
       <c r="G22" s="40">
@@ -5260,12 +5415,12 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A23" s="146"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
+      <c r="A23" s="178"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
       <c r="G23" s="40">
         <v>2</v>
       </c>
@@ -5283,12 +5438,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A24" s="146"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
+      <c r="A24" s="178"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
       <c r="G24" s="40">
         <v>3</v>
       </c>
@@ -5306,12 +5461,12 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A25" s="146"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
+      <c r="A25" s="178"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
       <c r="G25" s="40">
         <v>4</v>
       </c>
@@ -5329,12 +5484,12 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A26" s="146"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
+      <c r="A26" s="178"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
       <c r="G26" s="40">
         <v>5</v>
       </c>
@@ -5352,12 +5507,12 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A27" s="147"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
+      <c r="A27" s="179"/>
+      <c r="B27" s="187"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
       <c r="G27" s="40">
         <v>6</v>
       </c>
@@ -5376,14 +5531,20 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B3:D3"/>
@@ -5399,20 +5560,14 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5435,131 +5590,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="173" t="s">
         <v>568</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="174" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="175" t="s">
         <v>580</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="174" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="138"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="139"/>
-    </row>
-    <row r="3" spans="1:5" s="73" customFormat="1">
-      <c r="A3" s="74" t="s">
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="174"/>
+    </row>
+    <row r="3" spans="1:5" s="72" customFormat="1">
+      <c r="A3" s="73" t="s">
         <v>585</v>
       </c>
-      <c r="B3" s="75">
+      <c r="B3" s="74">
         <v>45244</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>581</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79" t="s">
+      <c r="D3" s="77"/>
+      <c r="E3" s="78" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="193" t="s">
         <v>586</v>
       </c>
-      <c r="B4" s="161">
+      <c r="B4" s="195">
         <v>45245</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="195" t="s">
         <v>582</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="67" t="s">
+      <c r="D4" s="110"/>
+      <c r="E4" s="66" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="160"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="69" t="s">
+      <c r="A5" s="194"/>
+      <c r="B5" s="196"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="68" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="160"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="69" t="s">
+      <c r="A6" s="194"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="68" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="B7" s="161">
+      <c r="B7" s="195">
         <v>45261</v>
       </c>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="195" t="s">
         <v>583</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="67" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="66" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="160"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="69" t="s">
+      <c r="A8" s="194"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="68" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="160"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="69" t="s">
+      <c r="A9" s="194"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="68" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="159" t="s">
+      <c r="A10" s="193" t="s">
         <v>588</v>
       </c>
-      <c r="B10" s="163">
+      <c r="B10" s="197">
         <v>45265</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="195" t="s">
         <v>584</v>
       </c>
-      <c r="D10" s="106"/>
-      <c r="E10" s="76" t="s">
+      <c r="D10" s="105"/>
+      <c r="E10" s="75" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="165"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="77" t="s">
+      <c r="A11" s="199"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="76" t="s">
         <v>579</v>
       </c>
     </row>
@@ -5567,56 +5722,56 @@
       <c r="A12" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="B12" s="214">
+      <c r="B12" s="161">
         <v>45273</v>
       </c>
-      <c r="C12" s="215" t="s">
+      <c r="C12" s="162" t="s">
         <v>594</v>
       </c>
-      <c r="D12" s="216"/>
-      <c r="E12" s="217" t="s">
+      <c r="D12" s="163"/>
+      <c r="E12" s="164" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="212"/>
-      <c r="B13" s="213"/>
-      <c r="C13" s="213"/>
+      <c r="A13" s="159"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
       <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="B14" s="213"/>
-      <c r="C14" s="213"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="B15" s="213"/>
-      <c r="C15" s="213"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
       <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="213"/>
-      <c r="C16" s="213"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="160"/>
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="213"/>
-      <c r="C17" s="213"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="160"/>
       <c r="D17" s="17"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="213"/>
-      <c r="C18" s="213"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
       <c r="D18" s="17"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="213"/>
-      <c r="C19" s="213"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
       <c r="D19" s="17"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="213"/>
-      <c r="C20" s="213"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="160"/>
       <c r="D20" s="17"/>
     </row>
   </sheetData>
@@ -5645,7 +5800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9B023D-957F-4AAE-9E3E-1343C14F2EF3}">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G34" sqref="G34:G38"/>
     </sheetView>
   </sheetViews>
@@ -5666,20 +5821,20 @@
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1">
       <c r="A1" s="19"/>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="153" t="s">
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="211" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="155"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="213"/>
     </row>
     <row r="2" spans="1:11" ht="29.25" customHeight="1">
       <c r="A2" s="18" t="s">
@@ -5694,10 +5849,10 @@
       <c r="D2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="127" t="s">
         <v>788</v>
       </c>
-      <c r="F2" s="128" t="s">
+      <c r="F2" s="127" t="s">
         <v>789</v>
       </c>
       <c r="G2" s="25" t="s">
@@ -5718,13 +5873,13 @@
     </row>
     <row r="3" spans="1:11" s="37" customFormat="1" ht="29.25" customHeight="1">
       <c r="A3" s="35"/>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="35"/>
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
@@ -5732,22 +5887,22 @@
       <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="179" t="s">
+      <c r="C4" s="214" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="180" t="s">
+      <c r="D4" s="215" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="145" t="s">
+      <c r="E4" s="177" t="s">
         <v>714</v>
       </c>
-      <c r="F4" s="145" t="s">
+      <c r="F4" s="177" t="s">
         <v>383</v>
       </c>
       <c r="G4" s="26">
@@ -5767,12 +5922,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A5" s="148"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
+      <c r="A5" s="184"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
       <c r="G5" s="26">
         <v>2</v>
       </c>
@@ -5788,12 +5943,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A6" s="148"/>
-      <c r="B6" s="148"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
       <c r="G6" s="26">
         <v>3</v>
       </c>
@@ -5809,12 +5964,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A7" s="148"/>
-      <c r="B7" s="148"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
       <c r="G7" s="26">
         <v>4</v>
       </c>
@@ -5833,13 +5988,13 @@
     </row>
     <row r="8" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A8" s="31"/>
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="188" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="157"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
       <c r="G8" s="27"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
@@ -5847,22 +6002,22 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A9" s="168" t="s">
+      <c r="A9" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="175" t="s">
+      <c r="D9" s="219" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="168" t="s">
+      <c r="E9" s="202" t="s">
         <v>383</v>
       </c>
-      <c r="F9" s="168" t="s">
+      <c r="F9" s="202" t="s">
         <v>762</v>
       </c>
       <c r="G9" s="26">
@@ -5880,12 +6035,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A10" s="169"/>
-      <c r="B10" s="171"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
+      <c r="A10" s="203"/>
+      <c r="B10" s="220"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="203"/>
       <c r="G10" s="26">
         <v>2</v>
       </c>
@@ -5903,12 +6058,12 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A11" s="169"/>
-      <c r="B11" s="171"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
+      <c r="A11" s="203"/>
+      <c r="B11" s="220"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="203"/>
       <c r="G11" s="26">
         <v>3</v>
       </c>
@@ -5926,13 +6081,13 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A12" s="169"/>
-      <c r="B12" s="171"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="129">
+      <c r="A12" s="203"/>
+      <c r="B12" s="220"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="128">
         <v>4</v>
       </c>
       <c r="H12" s="23" t="s">
@@ -5943,13 +6098,13 @@
       <c r="K12" s="42"/>
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A13" s="169"/>
-      <c r="B13" s="171"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="129">
+      <c r="A13" s="203"/>
+      <c r="B13" s="220"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="203"/>
+      <c r="G13" s="128">
         <v>5</v>
       </c>
       <c r="H13" s="58" t="s">
@@ -5960,13 +6115,13 @@
       <c r="K13" s="42"/>
     </row>
     <row r="14" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A14" s="169"/>
-      <c r="B14" s="171"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="129">
+      <c r="A14" s="203"/>
+      <c r="B14" s="220"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="128">
         <v>6</v>
       </c>
       <c r="H14" s="42" t="s">
@@ -5977,13 +6132,13 @@
       <c r="K14" s="42"/>
     </row>
     <row r="15" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A15" s="170"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="129">
+      <c r="A15" s="204"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="128">
         <v>7</v>
       </c>
       <c r="H15" s="21" t="s">
@@ -6001,13 +6156,13 @@
     </row>
     <row r="16" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A16" s="32"/>
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="216" t="s">
         <v>332</v>
       </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
       <c r="G16" s="27"/>
       <c r="H16" s="59"/>
       <c r="I16" s="28"/>
@@ -6015,22 +6170,22 @@
       <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A17" s="168" t="s">
+      <c r="A17" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="176" t="s">
+      <c r="C17" s="221" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="171" t="s">
+      <c r="D17" s="220" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="168" t="s">
+      <c r="E17" s="202" t="s">
         <v>383</v>
       </c>
-      <c r="F17" s="168" t="s">
+      <c r="F17" s="202" t="s">
         <v>759</v>
       </c>
       <c r="G17" s="26">
@@ -6050,12 +6205,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A18" s="169"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
+      <c r="A18" s="203"/>
+      <c r="B18" s="220"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="220"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="203"/>
       <c r="G18" s="26">
         <v>2</v>
       </c>
@@ -6071,13 +6226,13 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A19" s="169"/>
-      <c r="B19" s="171"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="129">
+      <c r="A19" s="203"/>
+      <c r="B19" s="220"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="220"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="128">
         <v>3</v>
       </c>
       <c r="H19" s="42" t="s">
@@ -6088,13 +6243,13 @@
       <c r="K19" s="42"/>
     </row>
     <row r="20" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A20" s="169"/>
-      <c r="B20" s="171"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="129">
+      <c r="A20" s="203"/>
+      <c r="B20" s="220"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="220"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="128">
         <v>4</v>
       </c>
       <c r="H20" s="23" t="s">
@@ -6111,13 +6266,13 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A21" s="169"/>
-      <c r="B21" s="171"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="129">
+      <c r="A21" s="203"/>
+      <c r="B21" s="220"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="220"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="128">
         <v>5</v>
       </c>
       <c r="H21" s="23" t="s">
@@ -6134,13 +6289,13 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A22" s="170"/>
-      <c r="B22" s="171"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="129">
+      <c r="A22" s="204"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="223"/>
+      <c r="D22" s="220"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="128">
         <v>6</v>
       </c>
       <c r="H22" s="42" t="s">
@@ -6152,13 +6307,13 @@
     </row>
     <row r="23" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="27"/>
-      <c r="B23" s="156" t="s">
+      <c r="B23" s="188" t="s">
         <v>328</v>
       </c>
-      <c r="C23" s="157"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
@@ -6166,22 +6321,22 @@
       <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A24" s="148" t="s">
+      <c r="A24" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="148" t="s">
+      <c r="B24" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="179" t="s">
+      <c r="C24" s="214" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="180" t="s">
+      <c r="D24" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="145" t="s">
+      <c r="E24" s="177" t="s">
         <v>383</v>
       </c>
-      <c r="F24" s="145" t="s">
+      <c r="F24" s="177" t="s">
         <v>761</v>
       </c>
       <c r="G24" s="26">
@@ -6199,12 +6354,12 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A25" s="148"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="180"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
+      <c r="A25" s="184"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="215"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
       <c r="G25" s="34">
         <v>2</v>
       </c>
@@ -6220,12 +6375,12 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A26" s="148"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="180"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
+      <c r="A26" s="184"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
       <c r="G26" s="26">
         <v>3</v>
       </c>
@@ -6241,12 +6396,12 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A27" s="148"/>
-      <c r="B27" s="148"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="180"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
+      <c r="A27" s="184"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="215"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
       <c r="G27" s="26">
         <v>4</v>
       </c>
@@ -6265,13 +6420,13 @@
     </row>
     <row r="28" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A28" s="30"/>
-      <c r="B28" s="156" t="s">
+      <c r="B28" s="188" t="s">
         <v>329</v>
       </c>
-      <c r="C28" s="157"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
+      <c r="C28" s="189"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
       <c r="G28" s="27"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
@@ -6279,22 +6434,22 @@
       <c r="K28" s="28"/>
     </row>
     <row r="29" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="142" t="s">
+      <c r="C29" s="185" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="181" t="s">
+      <c r="D29" s="224" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="145" t="s">
+      <c r="E29" s="177" t="s">
         <v>716</v>
       </c>
-      <c r="F29" s="135"/>
+      <c r="F29" s="134"/>
       <c r="G29" s="26">
         <v>1</v>
       </c>
@@ -6310,12 +6465,12 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A30" s="146"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="136"/>
+      <c r="A30" s="178"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="225"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="135"/>
       <c r="G30" s="26">
         <v>2</v>
       </c>
@@ -6331,12 +6486,12 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A31" s="146"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="136"/>
+      <c r="A31" s="178"/>
+      <c r="B31" s="178"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="225"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="135"/>
       <c r="G31" s="26">
         <v>3</v>
       </c>
@@ -6354,12 +6509,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A32" s="147"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="137"/>
+      <c r="A32" s="179"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="187"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="136"/>
       <c r="G32" s="26">
         <v>4</v>
       </c>
@@ -6378,13 +6533,13 @@
     </row>
     <row r="33" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A33" s="32"/>
-      <c r="B33" s="172" t="s">
+      <c r="B33" s="216" t="s">
         <v>331</v>
       </c>
-      <c r="C33" s="173"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
+      <c r="C33" s="217"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -6392,22 +6547,22 @@
       <c r="K33" s="28"/>
     </row>
     <row r="34" spans="1:11" s="61" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A34" s="168" t="s">
+      <c r="A34" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="171" t="s">
+      <c r="B34" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="171" t="s">
+      <c r="C34" s="220" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="184" t="s">
+      <c r="D34" s="205" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="168" t="s">
+      <c r="E34" s="202" t="s">
         <v>715</v>
       </c>
-      <c r="F34" s="168" t="s">
+      <c r="F34" s="202" t="s">
         <v>383</v>
       </c>
       <c r="G34" s="34">
@@ -6421,12 +6576,12 @@
       <c r="K34" s="60"/>
     </row>
     <row r="35" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A35" s="169"/>
-      <c r="B35" s="171"/>
-      <c r="C35" s="171"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="169"/>
+      <c r="A35" s="203"/>
+      <c r="B35" s="220"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="203"/>
+      <c r="F35" s="203"/>
       <c r="G35" s="26">
         <v>2</v>
       </c>
@@ -6442,12 +6597,12 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A36" s="169"/>
-      <c r="B36" s="171"/>
-      <c r="C36" s="171"/>
-      <c r="D36" s="185"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
+      <c r="A36" s="203"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="206"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
       <c r="G36" s="34">
         <v>3</v>
       </c>
@@ -6463,13 +6618,13 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A37" s="169"/>
-      <c r="B37" s="171"/>
-      <c r="C37" s="171"/>
-      <c r="D37" s="185"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="129">
+      <c r="A37" s="203"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="128">
         <v>4</v>
       </c>
       <c r="H37" s="23" t="s">
@@ -6486,12 +6641,12 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A38" s="170"/>
-      <c r="B38" s="171"/>
-      <c r="C38" s="171"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
+      <c r="A38" s="204"/>
+      <c r="B38" s="220"/>
+      <c r="C38" s="220"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="204"/>
       <c r="G38" s="34">
         <v>5</v>
       </c>
@@ -6510,13 +6665,13 @@
     </row>
     <row r="39" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A39" s="32"/>
-      <c r="B39" s="172" t="s">
+      <c r="B39" s="216" t="s">
         <v>333</v>
       </c>
-      <c r="C39" s="173"/>
-      <c r="D39" s="174"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="218"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
@@ -6524,22 +6679,22 @@
       <c r="K39" s="28"/>
     </row>
     <row r="40" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A40" s="168" t="s">
+      <c r="A40" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="171" t="s">
+      <c r="B40" s="220" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="175" t="s">
+      <c r="C40" s="219" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="175" t="s">
+      <c r="D40" s="219" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="168" t="s">
+      <c r="E40" s="202" t="s">
         <v>720</v>
       </c>
-      <c r="F40" s="168" t="s">
+      <c r="F40" s="202" t="s">
         <v>383</v>
       </c>
       <c r="G40" s="26">
@@ -6557,12 +6712,12 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A41" s="169"/>
-      <c r="B41" s="171"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="175"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="169"/>
+      <c r="A41" s="203"/>
+      <c r="B41" s="220"/>
+      <c r="C41" s="219"/>
+      <c r="D41" s="219"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="203"/>
       <c r="G41" s="26">
         <v>2</v>
       </c>
@@ -6578,12 +6733,12 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A42" s="169"/>
-      <c r="B42" s="171"/>
-      <c r="C42" s="175"/>
-      <c r="D42" s="175"/>
-      <c r="E42" s="169"/>
-      <c r="F42" s="169"/>
+      <c r="A42" s="203"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="219"/>
+      <c r="D42" s="219"/>
+      <c r="E42" s="203"/>
+      <c r="F42" s="203"/>
       <c r="G42" s="26">
         <v>3</v>
       </c>
@@ -6601,12 +6756,12 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A43" s="170"/>
-      <c r="B43" s="171"/>
-      <c r="C43" s="175"/>
-      <c r="D43" s="175"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="170"/>
+      <c r="A43" s="204"/>
+      <c r="B43" s="220"/>
+      <c r="C43" s="219"/>
+      <c r="D43" s="219"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="204"/>
       <c r="G43" s="26">
         <v>4</v>
       </c>
@@ -6625,13 +6780,13 @@
     </row>
     <row r="44" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A44" s="32"/>
-      <c r="B44" s="172" t="s">
+      <c r="B44" s="216" t="s">
         <v>334</v>
       </c>
-      <c r="C44" s="173"/>
-      <c r="D44" s="174"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134"/>
+      <c r="C44" s="217"/>
+      <c r="D44" s="218"/>
+      <c r="E44" s="133"/>
+      <c r="F44" s="133"/>
       <c r="G44" s="27"/>
       <c r="H44" s="33"/>
       <c r="I44" s="33"/>
@@ -6639,22 +6794,22 @@
       <c r="K44" s="33"/>
     </row>
     <row r="45" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A45" s="168" t="s">
+      <c r="A45" s="202" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="171" t="s">
+      <c r="B45" s="220" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="175" t="s">
+      <c r="C45" s="219" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="175" t="s">
+      <c r="D45" s="219" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="168" t="s">
+      <c r="E45" s="202" t="s">
         <v>712</v>
       </c>
-      <c r="F45" s="168" t="s">
+      <c r="F45" s="202" t="s">
         <v>383</v>
       </c>
       <c r="G45" s="26">
@@ -6674,12 +6829,12 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A46" s="169"/>
-      <c r="B46" s="171"/>
-      <c r="C46" s="175"/>
-      <c r="D46" s="175"/>
-      <c r="E46" s="169"/>
-      <c r="F46" s="169"/>
+      <c r="A46" s="203"/>
+      <c r="B46" s="220"/>
+      <c r="C46" s="219"/>
+      <c r="D46" s="219"/>
+      <c r="E46" s="203"/>
+      <c r="F46" s="203"/>
       <c r="G46" s="26">
         <v>2</v>
       </c>
@@ -6697,12 +6852,12 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A47" s="169"/>
-      <c r="B47" s="171"/>
-      <c r="C47" s="175"/>
-      <c r="D47" s="175"/>
-      <c r="E47" s="169"/>
-      <c r="F47" s="169"/>
+      <c r="A47" s="203"/>
+      <c r="B47" s="220"/>
+      <c r="C47" s="219"/>
+      <c r="D47" s="219"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="203"/>
       <c r="G47" s="26">
         <v>3</v>
       </c>
@@ -6720,12 +6875,12 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A48" s="170"/>
-      <c r="B48" s="171"/>
-      <c r="C48" s="175"/>
-      <c r="D48" s="175"/>
-      <c r="E48" s="170"/>
-      <c r="F48" s="170"/>
+      <c r="A48" s="204"/>
+      <c r="B48" s="220"/>
+      <c r="C48" s="219"/>
+      <c r="D48" s="219"/>
+      <c r="E48" s="204"/>
+      <c r="F48" s="204"/>
       <c r="G48" s="26">
         <v>4</v>
       </c>
@@ -6744,13 +6899,13 @@
     </row>
     <row r="49" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A49" s="32"/>
-      <c r="B49" s="172" t="s">
+      <c r="B49" s="216" t="s">
         <v>335</v>
       </c>
-      <c r="C49" s="173"/>
-      <c r="D49" s="174"/>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
+      <c r="C49" s="217"/>
+      <c r="D49" s="218"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
       <c r="G49" s="27"/>
       <c r="H49" s="33"/>
       <c r="I49" s="33"/>
@@ -6758,22 +6913,22 @@
       <c r="K49" s="33"/>
     </row>
     <row r="50" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A50" s="168" t="s">
+      <c r="A50" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="171" t="s">
+      <c r="B50" s="220" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="175" t="s">
+      <c r="C50" s="219" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="175" t="s">
+      <c r="D50" s="219" t="s">
         <v>89</v>
       </c>
-      <c r="E50" s="168" t="s">
+      <c r="E50" s="202" t="s">
         <v>383</v>
       </c>
-      <c r="F50" s="168" t="s">
+      <c r="F50" s="202" t="s">
         <v>762</v>
       </c>
       <c r="G50" s="26">
@@ -6793,12 +6948,12 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A51" s="169"/>
-      <c r="B51" s="171"/>
-      <c r="C51" s="175"/>
-      <c r="D51" s="175"/>
-      <c r="E51" s="169"/>
-      <c r="F51" s="169"/>
+      <c r="A51" s="203"/>
+      <c r="B51" s="220"/>
+      <c r="C51" s="219"/>
+      <c r="D51" s="219"/>
+      <c r="E51" s="203"/>
+      <c r="F51" s="203"/>
       <c r="G51" s="26">
         <v>2</v>
       </c>
@@ -6814,12 +6969,12 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A52" s="169"/>
-      <c r="B52" s="171"/>
-      <c r="C52" s="175"/>
-      <c r="D52" s="175"/>
-      <c r="E52" s="169"/>
-      <c r="F52" s="169"/>
+      <c r="A52" s="203"/>
+      <c r="B52" s="220"/>
+      <c r="C52" s="219"/>
+      <c r="D52" s="219"/>
+      <c r="E52" s="203"/>
+      <c r="F52" s="203"/>
       <c r="G52" s="26">
         <v>3</v>
       </c>
@@ -6837,12 +6992,12 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A53" s="170"/>
-      <c r="B53" s="171"/>
-      <c r="C53" s="175"/>
-      <c r="D53" s="175"/>
-      <c r="E53" s="170"/>
-      <c r="F53" s="170"/>
+      <c r="A53" s="204"/>
+      <c r="B53" s="220"/>
+      <c r="C53" s="219"/>
+      <c r="D53" s="219"/>
+      <c r="E53" s="204"/>
+      <c r="F53" s="204"/>
       <c r="G53" s="26">
         <v>4</v>
       </c>
@@ -6861,13 +7016,13 @@
     </row>
     <row r="54" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A54" s="32"/>
-      <c r="B54" s="172" t="s">
+      <c r="B54" s="216" t="s">
         <v>336</v>
       </c>
-      <c r="C54" s="173"/>
-      <c r="D54" s="174"/>
-      <c r="E54" s="134"/>
-      <c r="F54" s="134"/>
+      <c r="C54" s="217"/>
+      <c r="D54" s="218"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="133"/>
       <c r="G54" s="27"/>
       <c r="H54" s="33"/>
       <c r="I54" s="33"/>
@@ -6875,22 +7030,22 @@
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A55" s="168" t="s">
+      <c r="A55" s="202" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="171" t="s">
+      <c r="B55" s="220" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="175" t="s">
+      <c r="C55" s="219" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="175" t="s">
+      <c r="D55" s="219" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="168" t="s">
+      <c r="E55" s="202" t="s">
         <v>383</v>
       </c>
-      <c r="F55" s="168" t="s">
+      <c r="F55" s="202" t="s">
         <v>759</v>
       </c>
       <c r="G55" s="26">
@@ -6910,12 +7065,12 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A56" s="169"/>
-      <c r="B56" s="171"/>
-      <c r="C56" s="175"/>
-      <c r="D56" s="175"/>
-      <c r="E56" s="169"/>
-      <c r="F56" s="169"/>
+      <c r="A56" s="203"/>
+      <c r="B56" s="220"/>
+      <c r="C56" s="219"/>
+      <c r="D56" s="219"/>
+      <c r="E56" s="203"/>
+      <c r="F56" s="203"/>
       <c r="G56" s="26">
         <v>2</v>
       </c>
@@ -6933,12 +7088,12 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A57" s="169"/>
-      <c r="B57" s="171"/>
-      <c r="C57" s="175"/>
-      <c r="D57" s="175"/>
-      <c r="E57" s="169"/>
-      <c r="F57" s="169"/>
+      <c r="A57" s="203"/>
+      <c r="B57" s="220"/>
+      <c r="C57" s="219"/>
+      <c r="D57" s="219"/>
+      <c r="E57" s="203"/>
+      <c r="F57" s="203"/>
       <c r="G57" s="26">
         <v>3</v>
       </c>
@@ -6956,12 +7111,12 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A58" s="170"/>
-      <c r="B58" s="171"/>
-      <c r="C58" s="175"/>
-      <c r="D58" s="175"/>
-      <c r="E58" s="170"/>
-      <c r="F58" s="170"/>
+      <c r="A58" s="204"/>
+      <c r="B58" s="220"/>
+      <c r="C58" s="219"/>
+      <c r="D58" s="219"/>
+      <c r="E58" s="204"/>
+      <c r="F58" s="204"/>
       <c r="G58" s="26">
         <v>4</v>
       </c>
@@ -6980,13 +7135,13 @@
     </row>
     <row r="59" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A59" s="32"/>
-      <c r="B59" s="172" t="s">
+      <c r="B59" s="216" t="s">
         <v>337</v>
       </c>
-      <c r="C59" s="173"/>
-      <c r="D59" s="174"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
+      <c r="C59" s="217"/>
+      <c r="D59" s="218"/>
+      <c r="E59" s="133"/>
+      <c r="F59" s="133"/>
       <c r="G59" s="27"/>
       <c r="H59" s="33"/>
       <c r="I59" s="33"/>
@@ -6994,22 +7149,22 @@
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A60" s="168" t="s">
+      <c r="A60" s="202" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="171" t="s">
+      <c r="B60" s="220" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="175" t="s">
+      <c r="C60" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="D60" s="175" t="s">
+      <c r="D60" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="E60" s="168" t="s">
+      <c r="E60" s="202" t="s">
         <v>383</v>
       </c>
-      <c r="F60" s="168" t="s">
+      <c r="F60" s="202" t="s">
         <v>721</v>
       </c>
       <c r="G60" s="26">
@@ -7027,12 +7182,12 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A61" s="169"/>
-      <c r="B61" s="171"/>
-      <c r="C61" s="175"/>
-      <c r="D61" s="175"/>
-      <c r="E61" s="169"/>
-      <c r="F61" s="169"/>
+      <c r="A61" s="203"/>
+      <c r="B61" s="220"/>
+      <c r="C61" s="219"/>
+      <c r="D61" s="219"/>
+      <c r="E61" s="203"/>
+      <c r="F61" s="203"/>
       <c r="G61" s="26">
         <v>2</v>
       </c>
@@ -7050,12 +7205,12 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A62" s="169"/>
-      <c r="B62" s="171"/>
-      <c r="C62" s="175"/>
-      <c r="D62" s="175"/>
-      <c r="E62" s="169"/>
-      <c r="F62" s="169"/>
+      <c r="A62" s="203"/>
+      <c r="B62" s="220"/>
+      <c r="C62" s="219"/>
+      <c r="D62" s="219"/>
+      <c r="E62" s="203"/>
+      <c r="F62" s="203"/>
       <c r="G62" s="26">
         <v>3</v>
       </c>
@@ -7073,12 +7228,12 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A63" s="170"/>
-      <c r="B63" s="171"/>
-      <c r="C63" s="175"/>
-      <c r="D63" s="175"/>
-      <c r="E63" s="170"/>
-      <c r="F63" s="170"/>
+      <c r="A63" s="204"/>
+      <c r="B63" s="220"/>
+      <c r="C63" s="219"/>
+      <c r="D63" s="219"/>
+      <c r="E63" s="204"/>
+      <c r="F63" s="204"/>
       <c r="G63" s="26">
         <v>4</v>
       </c>
@@ -7097,13 +7252,13 @@
     </row>
     <row r="64" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A64" s="32"/>
-      <c r="B64" s="172" t="s">
+      <c r="B64" s="216" t="s">
         <v>338</v>
       </c>
-      <c r="C64" s="173"/>
-      <c r="D64" s="174"/>
-      <c r="E64" s="134"/>
-      <c r="F64" s="134"/>
+      <c r="C64" s="217"/>
+      <c r="D64" s="218"/>
+      <c r="E64" s="133"/>
+      <c r="F64" s="133"/>
       <c r="G64" s="27"/>
       <c r="H64" s="33"/>
       <c r="I64" s="33"/>
@@ -7111,22 +7266,22 @@
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A65" s="168" t="s">
+      <c r="A65" s="202" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="171" t="s">
+      <c r="B65" s="220" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="175" t="s">
+      <c r="C65" s="219" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="175" t="s">
+      <c r="D65" s="219" t="s">
         <v>97</v>
       </c>
-      <c r="E65" s="168" t="s">
+      <c r="E65" s="202" t="s">
         <v>383</v>
       </c>
-      <c r="F65" s="168" t="s">
+      <c r="F65" s="202" t="s">
         <v>760</v>
       </c>
       <c r="G65" s="26">
@@ -7146,12 +7301,12 @@
       </c>
     </row>
     <row r="66" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A66" s="169"/>
-      <c r="B66" s="171"/>
-      <c r="C66" s="175"/>
-      <c r="D66" s="175"/>
-      <c r="E66" s="169"/>
-      <c r="F66" s="169"/>
+      <c r="A66" s="203"/>
+      <c r="B66" s="220"/>
+      <c r="C66" s="219"/>
+      <c r="D66" s="219"/>
+      <c r="E66" s="203"/>
+      <c r="F66" s="203"/>
       <c r="G66" s="26">
         <v>2</v>
       </c>
@@ -7169,12 +7324,12 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A67" s="169"/>
-      <c r="B67" s="171"/>
-      <c r="C67" s="175"/>
-      <c r="D67" s="175"/>
-      <c r="E67" s="169"/>
-      <c r="F67" s="169"/>
+      <c r="A67" s="203"/>
+      <c r="B67" s="220"/>
+      <c r="C67" s="219"/>
+      <c r="D67" s="219"/>
+      <c r="E67" s="203"/>
+      <c r="F67" s="203"/>
       <c r="G67" s="26">
         <v>3</v>
       </c>
@@ -7192,12 +7347,12 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A68" s="170"/>
-      <c r="B68" s="171"/>
-      <c r="C68" s="175"/>
-      <c r="D68" s="175"/>
-      <c r="E68" s="170"/>
-      <c r="F68" s="170"/>
+      <c r="A68" s="204"/>
+      <c r="B68" s="220"/>
+      <c r="C68" s="219"/>
+      <c r="D68" s="219"/>
+      <c r="E68" s="204"/>
+      <c r="F68" s="204"/>
       <c r="G68" s="26">
         <v>4</v>
       </c>
@@ -7216,13 +7371,13 @@
     </row>
     <row r="69" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="172" t="s">
+      <c r="B69" s="216" t="s">
         <v>339</v>
       </c>
-      <c r="C69" s="173"/>
-      <c r="D69" s="174"/>
-      <c r="E69" s="134"/>
-      <c r="F69" s="134"/>
+      <c r="C69" s="217"/>
+      <c r="D69" s="218"/>
+      <c r="E69" s="133"/>
+      <c r="F69" s="133"/>
       <c r="G69" s="27"/>
       <c r="H69" s="33"/>
       <c r="I69" s="33"/>
@@ -7230,22 +7385,22 @@
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A70" s="168" t="s">
+      <c r="A70" s="202" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="171" t="s">
+      <c r="B70" s="220" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="175" t="s">
+      <c r="C70" s="219" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="175" t="s">
+      <c r="D70" s="219" t="s">
         <v>101</v>
       </c>
-      <c r="E70" s="168" t="s">
+      <c r="E70" s="202" t="s">
         <v>383</v>
       </c>
-      <c r="F70" s="168" t="s">
+      <c r="F70" s="202" t="s">
         <v>759</v>
       </c>
       <c r="G70" s="26">
@@ -7265,12 +7420,12 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A71" s="169"/>
-      <c r="B71" s="171"/>
-      <c r="C71" s="175"/>
-      <c r="D71" s="175"/>
-      <c r="E71" s="169"/>
-      <c r="F71" s="169"/>
+      <c r="A71" s="203"/>
+      <c r="B71" s="220"/>
+      <c r="C71" s="219"/>
+      <c r="D71" s="219"/>
+      <c r="E71" s="203"/>
+      <c r="F71" s="203"/>
       <c r="G71" s="26">
         <v>2</v>
       </c>
@@ -7286,12 +7441,12 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A72" s="169"/>
-      <c r="B72" s="171"/>
-      <c r="C72" s="175"/>
-      <c r="D72" s="175"/>
-      <c r="E72" s="169"/>
-      <c r="F72" s="169"/>
+      <c r="A72" s="203"/>
+      <c r="B72" s="220"/>
+      <c r="C72" s="219"/>
+      <c r="D72" s="219"/>
+      <c r="E72" s="203"/>
+      <c r="F72" s="203"/>
       <c r="G72" s="26">
         <v>3</v>
       </c>
@@ -7307,12 +7462,12 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A73" s="170"/>
-      <c r="B73" s="171"/>
-      <c r="C73" s="175"/>
-      <c r="D73" s="175"/>
-      <c r="E73" s="170"/>
-      <c r="F73" s="170"/>
+      <c r="A73" s="204"/>
+      <c r="B73" s="220"/>
+      <c r="C73" s="219"/>
+      <c r="D73" s="219"/>
+      <c r="E73" s="204"/>
+      <c r="F73" s="204"/>
       <c r="G73" s="26">
         <v>4</v>
       </c>
@@ -7331,13 +7486,13 @@
     </row>
     <row r="74" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="172" t="s">
+      <c r="B74" s="216" t="s">
         <v>340</v>
       </c>
-      <c r="C74" s="173"/>
-      <c r="D74" s="174"/>
-      <c r="E74" s="134"/>
-      <c r="F74" s="134"/>
+      <c r="C74" s="217"/>
+      <c r="D74" s="218"/>
+      <c r="E74" s="133"/>
+      <c r="F74" s="133"/>
       <c r="G74" s="27"/>
       <c r="H74" s="33"/>
       <c r="I74" s="33"/>
@@ -7345,22 +7500,22 @@
       <c r="K74" s="33"/>
     </row>
     <row r="75" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A75" s="168" t="s">
+      <c r="A75" s="202" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="171" t="s">
+      <c r="B75" s="220" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="175" t="s">
+      <c r="C75" s="219" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="175" t="s">
+      <c r="D75" s="219" t="s">
         <v>105</v>
       </c>
-      <c r="E75" s="168" t="s">
+      <c r="E75" s="202" t="s">
         <v>383</v>
       </c>
-      <c r="F75" s="168" t="s">
+      <c r="F75" s="202" t="s">
         <v>758</v>
       </c>
       <c r="G75" s="26">
@@ -7380,12 +7535,12 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A76" s="169"/>
-      <c r="B76" s="171"/>
-      <c r="C76" s="175"/>
-      <c r="D76" s="175"/>
-      <c r="E76" s="169"/>
-      <c r="F76" s="169"/>
+      <c r="A76" s="203"/>
+      <c r="B76" s="220"/>
+      <c r="C76" s="219"/>
+      <c r="D76" s="219"/>
+      <c r="E76" s="203"/>
+      <c r="F76" s="203"/>
       <c r="G76" s="26">
         <v>2</v>
       </c>
@@ -7403,12 +7558,12 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A77" s="169"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="175"/>
-      <c r="D77" s="175"/>
-      <c r="E77" s="169"/>
-      <c r="F77" s="169"/>
+      <c r="A77" s="203"/>
+      <c r="B77" s="220"/>
+      <c r="C77" s="219"/>
+      <c r="D77" s="219"/>
+      <c r="E77" s="203"/>
+      <c r="F77" s="203"/>
       <c r="G77" s="26">
         <v>3</v>
       </c>
@@ -7426,12 +7581,12 @@
       </c>
     </row>
     <row r="78" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A78" s="170"/>
-      <c r="B78" s="171"/>
-      <c r="C78" s="175"/>
-      <c r="D78" s="175"/>
-      <c r="E78" s="170"/>
-      <c r="F78" s="170"/>
+      <c r="A78" s="204"/>
+      <c r="B78" s="220"/>
+      <c r="C78" s="219"/>
+      <c r="D78" s="219"/>
+      <c r="E78" s="204"/>
+      <c r="F78" s="204"/>
       <c r="G78" s="26">
         <v>4</v>
       </c>
@@ -7450,13 +7605,13 @@
     </row>
     <row r="79" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A79" s="32"/>
-      <c r="B79" s="172" t="s">
+      <c r="B79" s="216" t="s">
         <v>341</v>
       </c>
-      <c r="C79" s="173"/>
-      <c r="D79" s="174"/>
-      <c r="E79" s="134"/>
-      <c r="F79" s="134"/>
+      <c r="C79" s="217"/>
+      <c r="D79" s="218"/>
+      <c r="E79" s="133"/>
+      <c r="F79" s="133"/>
       <c r="G79" s="27"/>
       <c r="H79" s="33"/>
       <c r="I79" s="33"/>
@@ -7464,22 +7619,22 @@
       <c r="K79" s="33"/>
     </row>
     <row r="80" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A80" s="168" t="s">
+      <c r="A80" s="202" t="s">
         <v>106</v>
       </c>
-      <c r="B80" s="171" t="s">
+      <c r="B80" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="C80" s="175" t="s">
+      <c r="C80" s="219" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="175" t="s">
+      <c r="D80" s="219" t="s">
         <v>108</v>
       </c>
-      <c r="E80" s="168" t="s">
+      <c r="E80" s="202" t="s">
         <v>383</v>
       </c>
-      <c r="F80" s="168" t="s">
+      <c r="F80" s="202" t="s">
         <v>383</v>
       </c>
       <c r="G80" s="26">
@@ -7499,12 +7654,12 @@
       </c>
     </row>
     <row r="81" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A81" s="169"/>
-      <c r="B81" s="171"/>
-      <c r="C81" s="175"/>
-      <c r="D81" s="175"/>
-      <c r="E81" s="169"/>
-      <c r="F81" s="169"/>
+      <c r="A81" s="203"/>
+      <c r="B81" s="220"/>
+      <c r="C81" s="219"/>
+      <c r="D81" s="219"/>
+      <c r="E81" s="203"/>
+      <c r="F81" s="203"/>
       <c r="G81" s="26">
         <v>2</v>
       </c>
@@ -7522,12 +7677,12 @@
       </c>
     </row>
     <row r="82" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A82" s="169"/>
-      <c r="B82" s="171"/>
-      <c r="C82" s="175"/>
-      <c r="D82" s="175"/>
-      <c r="E82" s="169"/>
-      <c r="F82" s="169"/>
+      <c r="A82" s="203"/>
+      <c r="B82" s="220"/>
+      <c r="C82" s="219"/>
+      <c r="D82" s="219"/>
+      <c r="E82" s="203"/>
+      <c r="F82" s="203"/>
       <c r="G82" s="26">
         <v>3</v>
       </c>
@@ -7545,12 +7700,12 @@
       </c>
     </row>
     <row r="83" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A83" s="170"/>
-      <c r="B83" s="171"/>
-      <c r="C83" s="175"/>
-      <c r="D83" s="175"/>
-      <c r="E83" s="170"/>
-      <c r="F83" s="170"/>
+      <c r="A83" s="204"/>
+      <c r="B83" s="220"/>
+      <c r="C83" s="219"/>
+      <c r="D83" s="219"/>
+      <c r="E83" s="204"/>
+      <c r="F83" s="204"/>
       <c r="G83" s="26">
         <v>4</v>
       </c>
@@ -7569,13 +7724,13 @@
     </row>
     <row r="84" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A84" s="32"/>
-      <c r="B84" s="172" t="s">
+      <c r="B84" s="216" t="s">
         <v>342</v>
       </c>
-      <c r="C84" s="173"/>
-      <c r="D84" s="174"/>
-      <c r="E84" s="134"/>
-      <c r="F84" s="134"/>
+      <c r="C84" s="217"/>
+      <c r="D84" s="218"/>
+      <c r="E84" s="133"/>
+      <c r="F84" s="133"/>
       <c r="G84" s="27"/>
       <c r="H84" s="33"/>
       <c r="I84" s="33"/>
@@ -7583,22 +7738,22 @@
       <c r="K84" s="33"/>
     </row>
     <row r="85" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A85" s="168" t="s">
+      <c r="A85" s="202" t="s">
         <v>109</v>
       </c>
-      <c r="B85" s="171" t="s">
+      <c r="B85" s="220" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="175" t="s">
+      <c r="C85" s="219" t="s">
         <v>110</v>
       </c>
-      <c r="D85" s="175" t="s">
+      <c r="D85" s="219" t="s">
         <v>111</v>
       </c>
-      <c r="E85" s="168" t="s">
+      <c r="E85" s="202" t="s">
         <v>383</v>
       </c>
-      <c r="F85" s="168" t="s">
+      <c r="F85" s="202" t="s">
         <v>760</v>
       </c>
       <c r="G85" s="26">
@@ -7618,12 +7773,12 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A86" s="169"/>
-      <c r="B86" s="171"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="175"/>
-      <c r="E86" s="169"/>
-      <c r="F86" s="169"/>
+      <c r="A86" s="203"/>
+      <c r="B86" s="220"/>
+      <c r="C86" s="219"/>
+      <c r="D86" s="219"/>
+      <c r="E86" s="203"/>
+      <c r="F86" s="203"/>
       <c r="G86" s="26">
         <v>2</v>
       </c>
@@ -7641,12 +7796,12 @@
       </c>
     </row>
     <row r="87" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A87" s="169"/>
-      <c r="B87" s="171"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="175"/>
-      <c r="E87" s="169"/>
-      <c r="F87" s="169"/>
+      <c r="A87" s="203"/>
+      <c r="B87" s="220"/>
+      <c r="C87" s="219"/>
+      <c r="D87" s="219"/>
+      <c r="E87" s="203"/>
+      <c r="F87" s="203"/>
       <c r="G87" s="26">
         <v>3</v>
       </c>
@@ -7664,12 +7819,12 @@
       </c>
     </row>
     <row r="88" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A88" s="170"/>
-      <c r="B88" s="171"/>
-      <c r="C88" s="175"/>
-      <c r="D88" s="175"/>
-      <c r="E88" s="170"/>
-      <c r="F88" s="170"/>
+      <c r="A88" s="204"/>
+      <c r="B88" s="220"/>
+      <c r="C88" s="219"/>
+      <c r="D88" s="219"/>
+      <c r="E88" s="204"/>
+      <c r="F88" s="204"/>
       <c r="G88" s="26">
         <v>4</v>
       </c>
@@ -7688,31 +7843,73 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="F9:F15"/>
     <mergeCell ref="E9:E15"/>
@@ -7734,73 +7931,31 @@
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E65:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7823,161 +7978,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="173" t="s">
         <v>568</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="174" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="175" t="s">
         <v>580</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="174" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="138"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="139"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="174"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="38" t="s">
         <v>591</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83" t="s">
         <v>581</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="84" t="s">
         <v>574</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="68"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="67"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="67" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="66" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="70" t="s">
         <v>589</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="89" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="88" t="s">
         <v>582</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="90" t="s">
+      <c r="D5" s="112"/>
+      <c r="E5" s="89" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="69" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="68" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="86"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="67" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="66" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="70" t="s">
         <v>595</v>
       </c>
-      <c r="B8" s="91">
+      <c r="B8" s="90">
         <v>45261</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="90" t="s">
+      <c r="D8" s="112"/>
+      <c r="E8" s="89" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="87"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="69" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="68" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="92"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="96" t="s">
+      <c r="A10" s="91"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="95" t="s">
         <v>584</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="76" t="s">
+      <c r="D10" s="95"/>
+      <c r="E10" s="75" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="94"/>
-      <c r="B11" s="95">
+      <c r="A11" s="93"/>
+      <c r="B11" s="94">
         <v>45265</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="77" t="s">
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="76" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="99"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="76" t="s">
+      <c r="A12" s="98"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="75" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="70" t="s">
         <v>596</v>
       </c>
-      <c r="B13" s="91">
+      <c r="B13" s="90">
         <v>45236</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="99" t="s">
         <v>594</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="98" t="s">
+      <c r="D13" s="99"/>
+      <c r="E13" s="97" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="97"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="77" t="s">
+      <c r="A14" s="96"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="76" t="s">
         <v>593</v>
       </c>
     </row>
@@ -7985,14 +8140,14 @@
       <c r="A15" s="38" t="s">
         <v>615</v>
       </c>
-      <c r="B15" s="214">
+      <c r="B15" s="161">
         <v>45273</v>
       </c>
-      <c r="C15" s="215" t="s">
+      <c r="C15" s="162" t="s">
         <v>798</v>
       </c>
-      <c r="D15" s="216"/>
-      <c r="E15" s="217" t="s">
+      <c r="D15" s="163"/>
+      <c r="E15" s="164" t="s">
         <v>797</v>
       </c>
     </row>
@@ -8009,10 +8164,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBA4C7C-1B75-4CC3-9108-DB4740564B4D}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8021,14 +8176,14 @@
     <col min="2" max="2" width="53.7109375" style="43" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" style="53" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="225" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="172" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="20" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="8" customWidth="1"/>
     <col min="10" max="10" width="10.140625" style="11" customWidth="1"/>
     <col min="11" max="11" width="41.85546875" style="8" customWidth="1"/>
-    <col min="12" max="13" width="11.42578125" style="53"/>
+    <col min="12" max="13" width="0" style="53" hidden="1" customWidth="1"/>
     <col min="14" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
@@ -8042,13 +8197,13 @@
       <c r="C1" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="D1" s="218" t="s">
+      <c r="D1" s="165" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="221" t="s">
+      <c r="F1" s="168" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -8083,14 +8238,16 @@
       <c r="C2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="219" t="s">
+      <c r="D2" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="224" t="s">
+      <c r="E2" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="222"/>
-      <c r="G2" s="10"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="51" t="s">
+        <v>806</v>
+      </c>
       <c r="H2" s="51" t="s">
         <v>26</v>
       </c>
@@ -8120,14 +8277,16 @@
       <c r="C3" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="219" t="s">
+      <c r="D3" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="224" t="s">
+      <c r="E3" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="222"/>
-      <c r="G3" s="10"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="51" t="s">
+        <v>807</v>
+      </c>
       <c r="H3" s="51" t="s">
         <v>565</v>
       </c>
@@ -8152,17 +8311,19 @@
       <c r="B4" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="219" t="s">
+      <c r="D4" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="224" t="s">
+      <c r="E4" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="222"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="51" t="s">
+        <v>808</v>
+      </c>
       <c r="H4" s="51" t="s">
         <v>566</v>
       </c>
@@ -8187,17 +8348,19 @@
       <c r="B5" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="D5" s="219" t="s">
+      <c r="D5" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="224" t="s">
+      <c r="E5" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="222"/>
-      <c r="G5" s="10"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="51" t="s">
+        <v>809</v>
+      </c>
       <c r="H5" s="51" t="s">
         <v>358</v>
       </c>
@@ -8227,14 +8390,16 @@
       <c r="C6" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="219" t="s">
+      <c r="D6" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="224" t="s">
+      <c r="E6" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="222"/>
-      <c r="G6" s="10"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="51" t="s">
+        <v>810</v>
+      </c>
       <c r="H6" s="51" t="s">
         <v>26</v>
       </c>
@@ -8256,7 +8421,7 @@
     </row>
     <row r="7" spans="1:13" ht="45">
       <c r="A7" s="10" t="s">
-        <v>408</v>
+        <v>802</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>353</v>
@@ -8264,14 +8429,16 @@
       <c r="C7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="219" t="s">
+      <c r="D7" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="224" t="s">
+      <c r="E7" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="222"/>
-      <c r="G7" s="10"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="51" t="s">
+        <v>810</v>
+      </c>
       <c r="H7" s="51" t="s">
         <v>26</v>
       </c>
@@ -8293,63 +8460,63 @@
     </row>
     <row r="8" spans="1:13" ht="60">
       <c r="A8" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>369</v>
-      </c>
-      <c r="D8" s="220" t="s">
-        <v>406</v>
-      </c>
-      <c r="E8" s="224" t="s">
+        <v>408</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>804</v>
+      </c>
+      <c r="D8" s="229" t="s">
+        <v>805</v>
+      </c>
+      <c r="E8" s="171" t="s">
         <v>383</v>
       </c>
-      <c r="F8" s="223" t="s">
-        <v>378</v>
-      </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="39" t="s">
-        <v>374</v>
+      <c r="F8" s="230" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>811</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>566</v>
       </c>
       <c r="I8" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="J8" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="39" t="s">
+      <c r="J8" s="51" t="s">
+        <v>394</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
+    </row>
+    <row r="9" spans="1:13" ht="60">
+      <c r="A9" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="167" t="s">
+        <v>406</v>
+      </c>
+      <c r="E9" s="171" t="s">
+        <v>383</v>
+      </c>
+      <c r="F9" s="170" t="s">
         <v>378</v>
       </c>
-      <c r="M8" s="39" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="45">
-      <c r="A9" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>400</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" s="220" t="s">
-        <v>406</v>
-      </c>
-      <c r="E9" s="224" t="s">
-        <v>383</v>
-      </c>
-      <c r="F9" s="223" t="s">
-        <v>379</v>
-      </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="140"/>
       <c r="H9" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I9" s="52" t="s">
         <v>386</v>
@@ -8359,71 +8526,71 @@
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45">
+      <c r="A10" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="167" t="s">
+        <v>406</v>
+      </c>
+      <c r="E10" s="171" t="s">
+        <v>383</v>
+      </c>
+      <c r="F10" s="170" t="s">
         <v>379</v>
       </c>
-      <c r="M9" s="39" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="60">
-      <c r="A10" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>371</v>
-      </c>
-      <c r="D10" s="220" t="s">
-        <v>406</v>
-      </c>
-      <c r="E10" s="224" t="s">
-        <v>383</v>
-      </c>
-      <c r="F10" s="223" t="s">
-        <v>380</v>
-      </c>
-      <c r="G10" s="65"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I10" s="52" t="s">
         <v>387</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>394</v>
+        <v>30</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="M10" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="M10" s="39" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="60">
       <c r="A11" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>372</v>
-      </c>
-      <c r="D11" s="220" t="s">
+        <v>371</v>
+      </c>
+      <c r="D11" s="167" t="s">
         <v>406</v>
       </c>
-      <c r="E11" s="224" t="s">
+      <c r="E11" s="171" t="s">
         <v>383</v>
       </c>
-      <c r="F11" s="223" t="s">
-        <v>381</v>
-      </c>
-      <c r="G11" s="65"/>
+      <c r="F11" s="170" t="s">
+        <v>380</v>
+      </c>
+      <c r="G11" s="140"/>
       <c r="H11" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I11" s="52" t="s">
         <v>388</v>
@@ -8433,7 +8600,7 @@
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M11" s="50" t="s">
         <v>383</v>
@@ -8441,24 +8608,24 @@
     </row>
     <row r="12" spans="1:13" ht="60">
       <c r="A12" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>373</v>
-      </c>
-      <c r="D12" s="220" t="s">
+        <v>372</v>
+      </c>
+      <c r="D12" s="167" t="s">
         <v>406</v>
       </c>
-      <c r="E12" s="224" t="s">
+      <c r="E12" s="171" t="s">
         <v>383</v>
       </c>
-      <c r="F12" s="223" t="s">
-        <v>799</v>
-      </c>
-      <c r="G12" s="65"/>
+      <c r="F12" s="170" t="s">
+        <v>381</v>
+      </c>
+      <c r="G12" s="140"/>
       <c r="H12" s="39" t="s">
         <v>377</v>
       </c>
@@ -8470,32 +8637,34 @@
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M12" s="50" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="75">
+    <row r="13" spans="1:13" ht="60">
       <c r="A13" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="D13" s="220" t="s">
+        <v>373</v>
+      </c>
+      <c r="D13" s="167" t="s">
         <v>406</v>
       </c>
-      <c r="E13" s="224" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="223"/>
-      <c r="G13" s="65"/>
+      <c r="E13" s="171" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="170" t="s">
+        <v>799</v>
+      </c>
+      <c r="G13" s="140"/>
       <c r="H13" s="39" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I13" s="52" t="s">
         <v>390</v>
@@ -8505,32 +8674,32 @@
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="M13" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="M13" s="50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="60">
+    </row>
+    <row r="14" spans="1:13" ht="75">
       <c r="A14" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>339</v>
-      </c>
-      <c r="D14" s="220" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" s="167" t="s">
         <v>406</v>
       </c>
-      <c r="E14" s="224" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="223"/>
-      <c r="G14" s="65"/>
+      <c r="E14" s="171" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="170"/>
+      <c r="G14" s="140"/>
       <c r="H14" s="39" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I14" s="52" t="s">
         <v>391</v>
@@ -8543,111 +8712,146 @@
         <v>383</v>
       </c>
       <c r="M14" s="50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="75">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="60">
       <c r="A15" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>340</v>
-      </c>
-      <c r="D15" s="220" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" s="167" t="s">
         <v>406</v>
       </c>
-      <c r="E15" s="224" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="223"/>
-      <c r="G15" s="65"/>
+      <c r="E15" s="171" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="170"/>
+      <c r="G15" s="140"/>
       <c r="H15" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I15" s="52" t="s">
         <v>391</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>30</v>
+        <v>394</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="39" t="s">
         <v>383</v>
       </c>
       <c r="M15" s="50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="75">
       <c r="A16" s="10" t="s">
-        <v>599</v>
+        <v>416</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>341</v>
-      </c>
-      <c r="D16" s="220" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" s="167" t="s">
         <v>406</v>
       </c>
-      <c r="E16" s="224" t="s">
-        <v>800</v>
-      </c>
-      <c r="F16" s="223"/>
-      <c r="G16" s="65"/>
+      <c r="E16" s="171" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="170"/>
+      <c r="G16" s="140"/>
       <c r="H16" s="39" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I16" s="52" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>395</v>
+        <v>30</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="39" t="s">
         <v>383</v>
       </c>
       <c r="M16" s="50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="60">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="45">
       <c r="A17" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="D17" s="220" t="s">
+        <v>341</v>
+      </c>
+      <c r="D17" s="167" t="s">
         <v>406</v>
       </c>
-      <c r="E17" s="224" t="s">
-        <v>801</v>
-      </c>
-      <c r="F17" s="223"/>
-      <c r="G17" s="65"/>
+      <c r="E17" s="171" t="s">
+        <v>800</v>
+      </c>
+      <c r="F17" s="170"/>
+      <c r="G17" s="140"/>
       <c r="H17" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>30</v>
+        <v>395</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="39" t="s">
         <v>383</v>
       </c>
       <c r="M17" s="50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="60">
+      <c r="A18" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" s="167" t="s">
+        <v>406</v>
+      </c>
+      <c r="E18" s="171" t="s">
+        <v>801</v>
+      </c>
+      <c r="F18" s="170"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="M18" s="50" t="s">
         <v>109</v>
       </c>
     </row>
@@ -8660,10 +8864,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA73B892-A011-4BF2-8963-0DEDDBDA9CE4}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8675,46 +8879,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="173" t="s">
         <v>568</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="174" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="175" t="s">
         <v>604</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="139" t="s">
+      <c r="D1" s="107"/>
+      <c r="E1" s="174" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="138"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="139"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="174"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="38" t="s">
         <v>591</v>
       </c>
-      <c r="B3" s="84">
+      <c r="B3" s="83">
         <v>45252</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="83" t="s">
         <v>581</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="84" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="70"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="99" t="s">
+      <c r="B4" s="69"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="98" t="s">
         <v>605</v>
       </c>
     </row>
@@ -8722,94 +8926,94 @@
       <c r="A5" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="B5" s="91">
+      <c r="B5" s="90">
         <v>45254</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="90" t="s">
+      <c r="D5" s="104"/>
+      <c r="E5" s="89" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" s="71"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="90" t="s">
+      <c r="B6" s="70"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="89" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="72"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="97" t="s">
+      <c r="B7" s="71"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="96" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="102"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="98" t="s">
+      <c r="A8" s="101"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="97" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="102" t="s">
         <v>595</v>
       </c>
-      <c r="B9" s="95">
+      <c r="B9" s="94">
         <v>45265</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="71" t="s">
         <v>612</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="77" t="s">
+      <c r="D9" s="106"/>
+      <c r="E9" s="76" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="102"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="76" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="75" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="87" t="s">
         <v>596</v>
       </c>
-      <c r="B11" s="91">
+      <c r="B11" s="90">
         <v>45266</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="98" t="s">
+      <c r="D11" s="104"/>
+      <c r="E11" s="97" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="88"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="98" t="s">
+      <c r="A12" s="87"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="97" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="81"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="77" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="76" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8817,15 +9021,48 @@
       <c r="A14" s="38" t="s">
         <v>615</v>
       </c>
-      <c r="B14" s="101">
+      <c r="B14" s="100">
         <v>45272</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>614</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="77" t="s">
+      <c r="D14" s="106"/>
+      <c r="E14" s="76" t="s">
         <v>611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="137" t="s">
+        <v>817</v>
+      </c>
+      <c r="B15" s="232">
+        <v>45278</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>816</v>
+      </c>
+      <c r="D15" s="137"/>
+      <c r="E15" s="75" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="138"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="97" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="139"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="76" t="s">
+        <v>815</v>
       </c>
     </row>
   </sheetData>
@@ -8841,16 +9078,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E916DD94-D1B0-4F5A-A52B-CD3DDE50A874}">
-  <dimension ref="A1:AE60"/>
+  <dimension ref="A1:AE72"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="72.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="10" style="6" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="5.42578125" style="13" hidden="1" customWidth="1"/>
@@ -8869,41 +9106,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="25.5" customHeight="1">
-      <c r="G1" s="187" t="s">
+      <c r="G1" s="227" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="188"/>
-      <c r="J1" s="187" t="s">
+      <c r="H1" s="228"/>
+      <c r="J1" s="227" t="s">
         <v>346</v>
       </c>
-      <c r="K1" s="188"/>
-      <c r="M1" s="187" t="s">
+      <c r="K1" s="228"/>
+      <c r="M1" s="227" t="s">
         <v>347</v>
       </c>
-      <c r="N1" s="188"/>
-      <c r="P1" s="187" t="s">
+      <c r="N1" s="228"/>
+      <c r="P1" s="227" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" s="188"/>
-      <c r="S1" s="187" t="s">
+      <c r="Q1" s="228"/>
+      <c r="S1" s="227" t="s">
         <v>349</v>
       </c>
-      <c r="T1" s="188"/>
-      <c r="V1" s="187" t="s">
+      <c r="T1" s="228"/>
+      <c r="V1" s="227" t="s">
         <v>350</v>
       </c>
-      <c r="W1" s="188"/>
-      <c r="Y1" s="187" t="s">
+      <c r="W1" s="228"/>
+      <c r="Y1" s="227" t="s">
         <v>351</v>
       </c>
-      <c r="Z1" s="188"/>
+      <c r="Z1" s="228"/>
     </row>
     <row r="2" spans="1:31" s="17" customFormat="1" ht="33.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
+      <c r="B2" s="246" t="s">
+        <v>826</v>
       </c>
       <c r="C2" s="47" t="s">
         <v>44</v>
@@ -9001,37 +9238,37 @@
       <c r="I3" s="15"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14">
-        <f t="shared" ref="K3:K18" si="0">H3-J3</f>
+        <f t="shared" ref="K3:K21" si="0">H3-J3</f>
         <v>0</v>
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14">
-        <f t="shared" ref="N3:N18" si="1">K3-M3</f>
+        <f t="shared" ref="N3:N21" si="1">K3-M3</f>
         <v>0</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14">
-        <f t="shared" ref="Q3:Q18" si="2">N3-P3</f>
+        <f t="shared" ref="Q3:Q21" si="2">N3-P3</f>
         <v>0</v>
       </c>
       <c r="R3" s="15"/>
       <c r="S3" s="14"/>
       <c r="T3" s="14">
-        <f t="shared" ref="T3:T18" si="3">Q3-S3</f>
+        <f t="shared" ref="T3:T21" si="3">Q3-S3</f>
         <v>0</v>
       </c>
       <c r="U3" s="15"/>
       <c r="V3" s="14"/>
       <c r="W3" s="14">
-        <f t="shared" ref="W3:W18" si="4">T3-V3</f>
+        <f t="shared" ref="W3:W21" si="4">T3-V3</f>
         <v>0</v>
       </c>
       <c r="X3" s="15"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="14">
-        <f t="shared" ref="Z3:Z18" si="5">W3-Y3</f>
+        <f t="shared" ref="Z3:Z21" si="5">W3-Y3</f>
         <v>0</v>
       </c>
       <c r="AA3" s="16">
@@ -9039,7 +9276,7 @@
         <v>2</v>
       </c>
       <c r="AB3" s="16">
-        <f t="shared" ref="AB3:AB16" si="6">F3-AA3</f>
+        <f t="shared" ref="AB3:AB19" si="6">F3-AA3</f>
         <v>0</v>
       </c>
     </row>
@@ -9062,7 +9299,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="14">
-        <f t="shared" ref="H4:H60" si="7">F4-G4</f>
+        <f t="shared" ref="H4:H72" si="7">F4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="15"/>
@@ -9102,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="16">
-        <f t="shared" ref="AA4:AA22" si="8">G4+J4+M4+P4+S4+V4+Y4</f>
+        <f t="shared" ref="AA4:AA25" si="8">G4+J4+M4+P4+S4+V4+Y4</f>
         <v>2</v>
       </c>
       <c r="AB4" s="16">
@@ -9245,51 +9482,46 @@
       </c>
       <c r="AE6" s="62"/>
     </row>
-    <row r="7" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:31" s="242" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A7" s="234"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="238"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="241"/>
+      <c r="K7" s="241"/>
+      <c r="L7" s="241"/>
+      <c r="M7" s="241"/>
+      <c r="N7" s="241"/>
+      <c r="O7" s="241"/>
+      <c r="P7" s="241"/>
+      <c r="Q7" s="241"/>
+      <c r="R7" s="241"/>
+      <c r="S7" s="241"/>
+      <c r="T7" s="241"/>
+      <c r="U7" s="241"/>
+      <c r="V7" s="241"/>
+      <c r="W7" s="241"/>
+      <c r="X7" s="241"/>
+      <c r="Y7" s="241"/>
+      <c r="Z7" s="241"/>
+      <c r="AA7" s="241"/>
+      <c r="AB7" s="241"/>
+      <c r="AE7" s="245"/>
+    </row>
+    <row r="8" spans="1:31" ht="25.5" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B8" s="54" t="s">
         <v>356</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C8" s="48" t="s">
         <v>360</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-    </row>
-    <row r="8" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="48" t="s">
-        <v>361</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>27</v>
@@ -9325,7 +9557,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="55"/>
       <c r="C9" s="48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>27</v>
@@ -9361,7 +9593,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="55"/>
       <c r="C10" s="48" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>27</v>
@@ -9394,140 +9626,80 @@
       <c r="AB10" s="16"/>
     </row>
     <row r="11" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="48" t="s">
-        <v>14</v>
+        <v>363</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K11" s="14"/>
       <c r="L11" s="15"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N11" s="14"/>
       <c r="O11" s="15"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="Q11" s="14"/>
       <c r="R11" s="15"/>
       <c r="S11" s="14"/>
-      <c r="T11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="T11" s="14"/>
       <c r="U11" s="15"/>
       <c r="V11" s="14"/>
-      <c r="W11" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="W11" s="14"/>
       <c r="X11" s="15"/>
       <c r="Y11" s="14"/>
-      <c r="Z11" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+    </row>
+    <row r="12" spans="1:31" ht="10.5" customHeight="1">
+      <c r="A12" s="234"/>
+      <c r="B12" s="243"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="237"/>
+      <c r="E12" s="238"/>
       <c r="F12" s="2"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H12" s="14"/>
       <c r="I12" s="15"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K12" s="14"/>
       <c r="L12" s="15"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N12" s="14"/>
       <c r="O12" s="15"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="Q12" s="14"/>
       <c r="R12" s="15"/>
       <c r="S12" s="14"/>
-      <c r="T12" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="T12" s="14"/>
       <c r="U12" s="15"/>
       <c r="V12" s="14"/>
-      <c r="W12" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="W12" s="14"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="14"/>
-      <c r="Z12" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
     </row>
     <row r="13" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>8</v>
+      </c>
       <c r="C13" s="48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>28</v>
@@ -9590,7 +9762,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="55"/>
       <c r="C14" s="48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>28</v>
@@ -9649,18 +9821,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="32.25" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>9</v>
-      </c>
+    <row r="15" spans="1:31" ht="25.5" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>42</v>
@@ -9720,10 +9888,10 @@
       <c r="A16" s="2"/>
       <c r="B16" s="55"/>
       <c r="C16" s="48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>42</v>
@@ -9779,74 +9947,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="38.25" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>42</v>
-      </c>
+    <row r="17" spans="1:28" ht="10.5" customHeight="1">
+      <c r="A17" s="234"/>
+      <c r="B17" s="243"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="237"/>
+      <c r="E17" s="238"/>
       <c r="F17" s="2"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H17" s="14"/>
       <c r="I17" s="15"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K17" s="14"/>
       <c r="L17" s="15"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N17" s="14"/>
       <c r="O17" s="15"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="Q17" s="14"/>
       <c r="R17" s="15"/>
       <c r="S17" s="14"/>
-      <c r="T17" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="T17" s="14"/>
       <c r="U17" s="15"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="W17" s="14"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="14"/>
-      <c r="Z17" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="16">
-        <f t="shared" ref="AB17:AB22" si="9">F17-AA17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="35.25" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="49" t="s">
-        <v>21</v>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+    </row>
+    <row r="18" spans="1:28" ht="32.25" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>18</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>29</v>
@@ -9901,15 +10040,15 @@
         <v>0</v>
       </c>
       <c r="AB18" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="49" t="s">
-        <v>22</v>
+      <c r="A19" s="2"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>29</v>
@@ -9917,44 +10056,62 @@
       <c r="E19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="38"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I19" s="15"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L19" s="15"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O19" s="15"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R19" s="15"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U19" s="15"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="X19" s="15"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AA19" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB19" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="48" t="s">
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="38.25" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="49" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>29</v>
@@ -9962,44 +10119,62 @@
       <c r="E20" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="38"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I20" s="15"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L20" s="15"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O20" s="15"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R20" s="15"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U20" s="15"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="X20" s="15"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AA20" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB20" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="7" t="s">
-        <v>24</v>
+        <f t="shared" ref="AB20:AB25" si="9">F20-AA20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="35.25" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>29</v>
@@ -10007,30 +10182,48 @@
       <c r="E21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="38"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I21" s="15"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L21" s="15"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O21" s="15"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R21" s="15"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U21" s="15"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="X21" s="15"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AA21" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -10043,8 +10236,8 @@
     <row r="22" spans="1:28" ht="25.5" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="56"/>
-      <c r="C22" s="7" t="s">
-        <v>25</v>
+      <c r="C22" s="49" t="s">
+        <v>22</v>
       </c>
       <c r="D22" s="52" t="s">
         <v>29</v>
@@ -10086,20 +10279,16 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>369</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>417</v>
+      <c r="A23" s="4"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="48" t="s">
+        <v>23</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>385</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>406</v>
+        <v>29</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="38"/>
@@ -10126,25 +10315,25 @@
       <c r="Y23" s="38"/>
       <c r="Z23" s="38"/>
       <c r="AA23" s="16">
-        <f t="shared" ref="AA23:AA36" si="10">G23+J23+M23+P23+S23+V23+Y23</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB23" s="16">
-        <f t="shared" ref="AB23:AB36" si="11">F23-AA23</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A24" s="2"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="56"/>
-      <c r="C24" s="50" t="s">
-        <v>418</v>
+      <c r="C24" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>385</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>406</v>
+        <v>29</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="38"/>
@@ -10170,20 +10359,26 @@
       <c r="X24" s="15"/>
       <c r="Y24" s="38"/>
       <c r="Z24" s="38"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
+      <c r="AA24" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A25" s="2"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="56"/>
-      <c r="C25" s="50" t="s">
-        <v>419</v>
+      <c r="C25" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>385</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>406</v>
+        <v>29</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="38"/>
@@ -10209,27 +10404,24 @@
       <c r="X25" s="15"/>
       <c r="Y25" s="38"/>
       <c r="Z25" s="38"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-    </row>
-    <row r="26" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="50" t="s">
-        <v>564</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>385</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>406</v>
-      </c>
+      <c r="AA25" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="10.5" customHeight="1">
+      <c r="A26" s="239"/>
+      <c r="B26" s="235"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="237"/>
+      <c r="E26" s="238"/>
       <c r="F26" s="4"/>
       <c r="G26" s="38"/>
-      <c r="H26" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H26" s="14"/>
       <c r="I26" s="15"/>
       <c r="J26" s="38"/>
       <c r="K26" s="38"/>
@@ -10252,23 +10444,22 @@
       <c r="AB26" s="16"/>
     </row>
     <row r="27" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="50" t="s">
-        <v>458</v>
+      <c r="A27" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B27" s="233" t="s">
+        <v>804</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>819</v>
       </c>
       <c r="D27" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="E27" s="39" t="s">
-        <v>406</v>
-      </c>
+      <c r="E27" s="10"/>
       <c r="F27" s="4"/>
       <c r="G27" s="38"/>
-      <c r="H27" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H27" s="14"/>
       <c r="I27" s="15"/>
       <c r="J27" s="38"/>
       <c r="K27" s="38"/>
@@ -10293,21 +10484,16 @@
     <row r="28" spans="1:28" ht="25.5" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="56"/>
-      <c r="C28" s="50" t="s">
-        <v>459</v>
+      <c r="C28" s="7" t="s">
+        <v>820</v>
       </c>
       <c r="D28" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="E28" s="39" t="s">
-        <v>406</v>
-      </c>
+      <c r="E28" s="10"/>
       <c r="F28" s="4"/>
       <c r="G28" s="38"/>
-      <c r="H28" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H28" s="14"/>
       <c r="I28" s="15"/>
       <c r="J28" s="38"/>
       <c r="K28" s="38"/>
@@ -10330,23 +10516,18 @@
       <c r="AB28" s="16"/>
     </row>
     <row r="29" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A29" s="4"/>
+      <c r="A29" s="2"/>
       <c r="B29" s="56"/>
       <c r="C29" s="7" t="s">
-        <v>418</v>
+        <v>821</v>
       </c>
       <c r="D29" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="E29" s="39" t="s">
-        <v>406</v>
-      </c>
+      <c r="E29" s="10"/>
       <c r="F29" s="4"/>
       <c r="G29" s="38"/>
-      <c r="H29" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H29" s="14"/>
       <c r="I29" s="15"/>
       <c r="J29" s="38"/>
       <c r="K29" s="38"/>
@@ -10365,33 +10546,22 @@
       <c r="X29" s="15"/>
       <c r="Y29" s="38"/>
       <c r="Z29" s="38"/>
-      <c r="AA29" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
     </row>
     <row r="30" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A30" s="4"/>
+      <c r="A30" s="2"/>
       <c r="B30" s="56"/>
       <c r="C30" s="7" t="s">
-        <v>419</v>
+        <v>823</v>
       </c>
       <c r="D30" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="E30" s="39" t="s">
-        <v>406</v>
-      </c>
+      <c r="E30" s="10"/>
       <c r="F30" s="4"/>
       <c r="G30" s="38"/>
-      <c r="H30" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H30" s="14"/>
       <c r="I30" s="15"/>
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
@@ -10410,37 +10580,22 @@
       <c r="X30" s="15"/>
       <c r="Y30" s="38"/>
       <c r="Z30" s="38"/>
-      <c r="AA30" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
     </row>
     <row r="31" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>370</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="7" t="s">
-        <v>420</v>
+        <v>824</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>406</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="E31" s="10"/>
       <c r="F31" s="4"/>
       <c r="G31" s="38"/>
-      <c r="H31" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H31" s="14"/>
       <c r="I31" s="15"/>
       <c r="J31" s="38"/>
       <c r="K31" s="38"/>
@@ -10459,33 +10614,22 @@
       <c r="X31" s="15"/>
       <c r="Y31" s="38"/>
       <c r="Z31" s="38"/>
-      <c r="AA31" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
     </row>
     <row r="32" spans="1:28" ht="25.5" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="56"/>
       <c r="C32" s="7" t="s">
-        <v>421</v>
+        <v>822</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>406</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="E32" s="10"/>
       <c r="F32" s="4"/>
       <c r="G32" s="38"/>
-      <c r="H32" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H32" s="14"/>
       <c r="I32" s="15"/>
       <c r="J32" s="38"/>
       <c r="K32" s="38"/>
@@ -10504,33 +10648,22 @@
       <c r="X32" s="15"/>
       <c r="Y32" s="38"/>
       <c r="Z32" s="38"/>
-      <c r="AA32" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
     </row>
     <row r="33" spans="1:28" ht="25.5" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="56"/>
       <c r="C33" s="7" t="s">
-        <v>422</v>
+        <v>825</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>406</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="E33" s="10"/>
       <c r="F33" s="4"/>
       <c r="G33" s="38"/>
-      <c r="H33" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H33" s="14"/>
       <c r="I33" s="15"/>
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
@@ -10549,71 +10682,51 @@
       <c r="X33" s="15"/>
       <c r="Y33" s="38"/>
       <c r="Z33" s="38"/>
-      <c r="AA33" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B34" s="56" t="s">
-        <v>371</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>387</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+    </row>
+    <row r="34" spans="1:28" s="242" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A34" s="234"/>
+      <c r="B34" s="235"/>
+      <c r="C34" s="236"/>
+      <c r="D34" s="237"/>
+      <c r="E34" s="238"/>
+      <c r="F34" s="239"/>
+      <c r="G34" s="240"/>
+      <c r="H34" s="241"/>
+      <c r="I34" s="241"/>
+      <c r="J34" s="240"/>
+      <c r="K34" s="240"/>
+      <c r="L34" s="241"/>
+      <c r="M34" s="240"/>
+      <c r="N34" s="240"/>
+      <c r="O34" s="241"/>
+      <c r="P34" s="240"/>
+      <c r="Q34" s="240"/>
+      <c r="R34" s="241"/>
+      <c r="S34" s="240"/>
+      <c r="T34" s="240"/>
+      <c r="U34" s="241"/>
+      <c r="V34" s="240"/>
+      <c r="W34" s="240"/>
+      <c r="X34" s="241"/>
+      <c r="Y34" s="240"/>
+      <c r="Z34" s="240"/>
+      <c r="AA34" s="241"/>
+      <c r="AB34" s="241"/>
     </row>
     <row r="35" spans="1:28" ht="25.5" customHeight="1">
-      <c r="B35" s="56"/>
+      <c r="A35" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>369</v>
+      </c>
       <c r="C35" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E35" s="39" t="s">
         <v>406</v>
@@ -10643,21 +10756,22 @@
       <c r="Y35" s="38"/>
       <c r="Z35" s="38"/>
       <c r="AA35" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AA35:AA48" si="10">G35+J35+M35+P35+S35+V35+Y35</f>
         <v>0</v>
       </c>
       <c r="AB35" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AB35:AB48" si="11">F35-AA35</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A36" s="2"/>
       <c r="B36" s="56"/>
-      <c r="C36" s="7" t="s">
-        <v>425</v>
+      <c r="C36" s="50" t="s">
+        <v>418</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E36" s="39" t="s">
         <v>406</v>
@@ -10686,27 +10800,17 @@
       <c r="X36" s="15"/>
       <c r="Y36" s="38"/>
       <c r="Z36" s="38"/>
-      <c r="AA36" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
     </row>
     <row r="37" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B37" s="56" t="s">
-        <v>372</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>426</v>
+      <c r="A37" s="2"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="50" t="s">
+        <v>419</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E37" s="39" t="s">
         <v>406</v>
@@ -10735,23 +10839,17 @@
       <c r="X37" s="15"/>
       <c r="Y37" s="38"/>
       <c r="Z37" s="38"/>
-      <c r="AA37" s="16">
-        <f t="shared" ref="AA37:AA60" si="12">G37+J37+M37+P37+S37+V37+Y37</f>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="16">
-        <f t="shared" ref="AB37:AB60" si="13">F37-AA37</f>
-        <v>0</v>
-      </c>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
     </row>
     <row r="38" spans="1:28" ht="25.5" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="56"/>
-      <c r="C38" s="7" t="s">
-        <v>427</v>
+      <c r="C38" s="50" t="s">
+        <v>564</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E38" s="39" t="s">
         <v>406</v>
@@ -10780,23 +10878,17 @@
       <c r="X38" s="15"/>
       <c r="Y38" s="38"/>
       <c r="Z38" s="38"/>
-      <c r="AA38" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
     </row>
     <row r="39" spans="1:28" ht="25.5" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="56"/>
-      <c r="C39" s="7" t="s">
-        <v>428</v>
+      <c r="C39" s="50" t="s">
+        <v>458</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E39" s="39" t="s">
         <v>406</v>
@@ -10825,23 +10917,17 @@
       <c r="X39" s="15"/>
       <c r="Y39" s="38"/>
       <c r="Z39" s="38"/>
-      <c r="AA39" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
     </row>
     <row r="40" spans="1:28" ht="25.5" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="56"/>
-      <c r="C40" s="7" t="s">
-        <v>429</v>
+      <c r="C40" s="50" t="s">
+        <v>459</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E40" s="39" t="s">
         <v>406</v>
@@ -10870,27 +10956,17 @@
       <c r="X40" s="15"/>
       <c r="Y40" s="38"/>
       <c r="Z40" s="38"/>
-      <c r="AA40" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
     </row>
     <row r="41" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B41" s="56" t="s">
-        <v>373</v>
-      </c>
+      <c r="A41" s="4"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E41" s="39" t="s">
         <v>406</v>
@@ -10920,21 +10996,22 @@
       <c r="Y41" s="38"/>
       <c r="Z41" s="38"/>
       <c r="AA41" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB41" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A42" s="4"/>
       <c r="B42" s="56"/>
       <c r="C42" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>406</v>
@@ -10964,21 +11041,26 @@
       <c r="Y42" s="38"/>
       <c r="Z42" s="38"/>
       <c r="AA42" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB42" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="25.5" customHeight="1">
-      <c r="B43" s="56"/>
+      <c r="A43" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>370</v>
+      </c>
       <c r="C43" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E43" s="39" t="s">
         <v>406</v>
@@ -11008,26 +11090,22 @@
       <c r="Y43" s="38"/>
       <c r="Z43" s="38"/>
       <c r="AA43" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB43" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B44" s="56" t="s">
-        <v>338</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E44" s="39" t="s">
         <v>406</v>
@@ -11057,11 +11135,11 @@
       <c r="Y44" s="38"/>
       <c r="Z44" s="38"/>
       <c r="AA44" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB44" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11069,10 +11147,10 @@
       <c r="A45" s="2"/>
       <c r="B45" s="56"/>
       <c r="C45" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E45" s="39" t="s">
         <v>406</v>
@@ -11102,22 +11180,26 @@
       <c r="Y45" s="38"/>
       <c r="Z45" s="38"/>
       <c r="AA45" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB45" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="56"/>
+      <c r="A46" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B46" s="56" t="s">
+        <v>371</v>
+      </c>
       <c r="C46" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E46" s="39" t="s">
         <v>406</v>
@@ -11147,26 +11229,21 @@
       <c r="Y46" s="38"/>
       <c r="Z46" s="38"/>
       <c r="AA46" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB46" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A47" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B47" s="56" t="s">
-        <v>339</v>
-      </c>
+      <c r="B47" s="56"/>
       <c r="C47" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E47" s="39" t="s">
         <v>406</v>
@@ -11196,22 +11273,21 @@
       <c r="Y47" s="38"/>
       <c r="Z47" s="38"/>
       <c r="AA47" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB47" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A48" s="46"/>
       <c r="B48" s="56"/>
       <c r="C48" s="7" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E48" s="39" t="s">
         <v>406</v>
@@ -11240,16 +11316,27 @@
       <c r="X48" s="15"/>
       <c r="Y48" s="38"/>
       <c r="Z48" s="38"/>
-      <c r="AA48" s="16"/>
-      <c r="AB48" s="16"/>
+      <c r="AA48" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB48" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:28" ht="25.5" customHeight="1">
-      <c r="B49" s="56"/>
+      <c r="A49" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B49" s="56" t="s">
+        <v>372</v>
+      </c>
       <c r="C49" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E49" s="39" t="s">
         <v>406</v>
@@ -11279,21 +11366,22 @@
       <c r="Y49" s="38"/>
       <c r="Z49" s="38"/>
       <c r="AA49" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AA49:AA72" si="12">G49+J49+M49+P49+S49+V49+Y49</f>
         <v>0</v>
       </c>
       <c r="AB49" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AB49:AB72" si="13">F49-AA49</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A50" s="2"/>
       <c r="B50" s="56"/>
       <c r="C50" s="7" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E50" s="39" t="s">
         <v>406</v>
@@ -11322,16 +11410,23 @@
       <c r="X50" s="15"/>
       <c r="Y50" s="38"/>
       <c r="Z50" s="38"/>
-      <c r="AA50" s="16"/>
-      <c r="AB50" s="16"/>
+      <c r="AA50" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A51" s="2"/>
       <c r="B51" s="56"/>
       <c r="C51" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E51" s="39" t="s">
         <v>406</v>
@@ -11370,17 +11465,13 @@
       </c>
     </row>
     <row r="52" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B52" s="56" t="s">
-        <v>340</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E52" s="39" t="s">
         <v>406</v>
@@ -11419,13 +11510,17 @@
       </c>
     </row>
     <row r="53" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="56"/>
+      <c r="A53" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B53" s="56" t="s">
+        <v>373</v>
+      </c>
       <c r="C53" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E53" s="39" t="s">
         <v>406</v>
@@ -11464,13 +11559,12 @@
       </c>
     </row>
     <row r="54" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A54" s="2"/>
       <c r="B54" s="56"/>
       <c r="C54" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E54" s="39" t="s">
         <v>406</v>
@@ -11509,17 +11603,12 @@
       </c>
     </row>
     <row r="55" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A55" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B55" s="56" t="s">
-        <v>341</v>
-      </c>
+      <c r="B55" s="56"/>
       <c r="C55" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E55" s="39" t="s">
         <v>406</v>
@@ -11558,12 +11647,17 @@
       </c>
     </row>
     <row r="56" spans="1:28" ht="25.5" customHeight="1">
-      <c r="B56" s="56"/>
+      <c r="A56" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>338</v>
+      </c>
       <c r="C56" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E56" s="39" t="s">
         <v>406</v>
@@ -11605,10 +11699,10 @@
       <c r="A57" s="2"/>
       <c r="B57" s="56"/>
       <c r="C57" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E57" s="39" t="s">
         <v>406</v>
@@ -11647,17 +11741,13 @@
       </c>
     </row>
     <row r="58" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A58" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B58" s="56" t="s">
-        <v>342</v>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E58" s="39" t="s">
         <v>406</v>
@@ -11696,13 +11786,17 @@
       </c>
     </row>
     <row r="59" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B59" s="56" t="s">
+        <v>339</v>
+      </c>
       <c r="C59" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E59" s="39" t="s">
         <v>406</v>
@@ -11741,13 +11835,13 @@
       </c>
     </row>
     <row r="60" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E60" s="39" t="s">
         <v>406</v>
@@ -11776,11 +11870,547 @@
       <c r="X60" s="15"/>
       <c r="Y60" s="38"/>
       <c r="Z60" s="38"/>
-      <c r="AA60" s="16">
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="16"/>
+    </row>
+    <row r="61" spans="1:28" ht="25.5" customHeight="1">
+      <c r="B61" s="56"/>
+      <c r="C61" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D61" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E61" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="15"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="38"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="38"/>
+      <c r="Z61" s="38"/>
+      <c r="AA61" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB60" s="16">
+      <c r="AB61" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" ht="25.5" customHeight="1">
+      <c r="B62" s="56"/>
+      <c r="C62" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D62" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="15"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="38"/>
+      <c r="Z62" s="38"/>
+      <c r="AA62" s="16"/>
+      <c r="AB62" s="16"/>
+    </row>
+    <row r="63" spans="1:28" ht="25.5" customHeight="1">
+      <c r="B63" s="56"/>
+      <c r="C63" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D63" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="15"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="38"/>
+      <c r="Z63" s="38"/>
+      <c r="AA63" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB63" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B64" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="15"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="38"/>
+      <c r="Z64" s="38"/>
+      <c r="AA64" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D65" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="15"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB65" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D66" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E66" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="15"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="38"/>
+      <c r="Z66" s="38"/>
+      <c r="AA66" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B67" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="15"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="38"/>
+      <c r="W67" s="38"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="38"/>
+      <c r="Z67" s="38"/>
+      <c r="AA67" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" ht="25.5" customHeight="1">
+      <c r="B68" s="56"/>
+      <c r="C68" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D68" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="E68" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="15"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="38"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="38"/>
+      <c r="Z68" s="38"/>
+      <c r="AA68" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="38"/>
+      <c r="Z69" s="38"/>
+      <c r="AA69" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B70" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="15"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="38"/>
+      <c r="Z70" s="38"/>
+      <c r="AA70" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="15"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="38"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="15"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="38"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="38"/>
+      <c r="Z71" s="38"/>
+      <c r="AA71" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB71" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="E72" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="15"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="15"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="15"/>
+      <c r="Y72" s="38"/>
+      <c r="Z72" s="38"/>
+      <c r="AA72" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB72" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>

--- a/Documents/HU, HT, PB, SB.xlsx
+++ b/Documents/HU, HT, PB, SB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ff47571d30268be/Documentos/6/APLICACIONE II/Proyecto/SIGDCOLTA/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9E2EBF68-07CF-4AFC-AA75-7B7F2117A3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C5C59B7-1F09-4D4E-859A-4AAE39DF41E9}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9E2EBF68-07CF-4AFC-AA75-7B7F2117A3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73C3792F-E1A4-4730-92DD-D98E3BE22DDD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="9" xr2:uid="{D7927580-9A21-4766-84F0-58BE9C7E4DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="8" xr2:uid="{D7927580-9A21-4766-84F0-58BE9C7E4DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="RF y RNF" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="828">
   <si>
     <t>Identificador (ID) de la Historia</t>
   </si>
@@ -3450,174 +3450,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3660,6 +3492,174 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4610,7 +4610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7319D34E-C980-405C-B005-218F4118AF08}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -4620,24 +4620,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="191" t="s">
         <v>568</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="192" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="175" t="s">
+      <c r="C1" s="193" t="s">
         <v>604</v>
       </c>
-      <c r="D1" s="174" t="s">
+      <c r="D1" s="192" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="173"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="174"/>
+      <c r="A2" s="191"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="192"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="38" t="s">
@@ -4717,7 +4717,7 @@
       <c r="A10" s="137" t="s">
         <v>615</v>
       </c>
-      <c r="B10" s="232">
+      <c r="B10" s="176">
         <v>45272</v>
       </c>
       <c r="C10" s="137" t="s">
@@ -4772,32 +4772,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="191" t="s">
         <v>568</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="192" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="175" t="s">
+      <c r="C1" s="193" t="s">
         <v>580</v>
       </c>
-      <c r="D1" s="175" t="s">
+      <c r="D1" s="193" t="s">
         <v>738</v>
       </c>
-      <c r="E1" s="175" t="s">
+      <c r="E1" s="193" t="s">
         <v>739</v>
       </c>
-      <c r="F1" s="174" t="s">
+      <c r="F1" s="192" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="173"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="174"/>
+      <c r="A2" s="191"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="192"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="141" t="s">
@@ -4916,20 +4916,20 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45.75" customHeight="1">
       <c r="A1" s="154"/>
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
       <c r="E1" s="152"/>
       <c r="F1" s="152"/>
       <c r="G1" s="153"/>
-      <c r="H1" s="181" t="s">
+      <c r="H1" s="203" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="183"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="205"/>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1">
       <c r="A2" s="155" t="s">
@@ -4968,11 +4968,11 @@
     </row>
     <row r="3" spans="1:11" ht="45.75" customHeight="1">
       <c r="A3" s="35"/>
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="202" t="s">
         <v>782</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
       <c r="E3" s="131"/>
       <c r="F3" s="131"/>
       <c r="G3" s="36"/>
@@ -4982,22 +4982,22 @@
       <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="195" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="185" t="s">
+      <c r="C4" s="195" t="s">
         <v>463</v>
       </c>
-      <c r="D4" s="185" t="s">
+      <c r="D4" s="195" t="s">
         <v>464</v>
       </c>
-      <c r="E4" s="177" t="s">
+      <c r="E4" s="198" t="s">
         <v>791</v>
       </c>
-      <c r="F4" s="177" t="s">
+      <c r="F4" s="198" t="s">
         <v>758</v>
       </c>
       <c r="G4" s="40">
@@ -5017,12 +5017,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A5" s="184"/>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
+      <c r="A5" s="201"/>
+      <c r="B5" s="196"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
       <c r="G5" s="40">
         <v>2</v>
       </c>
@@ -5040,12 +5040,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A6" s="184"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
+      <c r="A6" s="201"/>
+      <c r="B6" s="197"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
       <c r="G6" s="128">
         <v>3</v>
       </c>
@@ -5056,11 +5056,11 @@
     </row>
     <row r="7" spans="1:11" ht="45.75" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="206" t="s">
         <v>783</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="190"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="208"/>
       <c r="E7" s="132"/>
       <c r="F7" s="132"/>
       <c r="G7" s="27"/>
@@ -5070,22 +5070,22 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A8" s="184" t="s">
+      <c r="A8" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="195" t="s">
         <v>465</v>
       </c>
-      <c r="C8" s="185" t="s">
+      <c r="C8" s="195" t="s">
         <v>466</v>
       </c>
-      <c r="D8" s="185" t="s">
+      <c r="D8" s="195" t="s">
         <v>467</v>
       </c>
-      <c r="E8" s="177" t="s">
+      <c r="E8" s="198" t="s">
         <v>792</v>
       </c>
-      <c r="F8" s="177" t="s">
+      <c r="F8" s="198" t="s">
         <v>758</v>
       </c>
       <c r="G8" s="40">
@@ -5105,12 +5105,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A9" s="184"/>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
+      <c r="A9" s="201"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
       <c r="G9" s="34">
         <v>2</v>
       </c>
@@ -5128,12 +5128,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A10" s="184"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
+      <c r="A10" s="201"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
       <c r="G10" s="128">
         <v>3</v>
       </c>
@@ -5144,11 +5144,11 @@
     </row>
     <row r="11" spans="1:11" ht="45.75" customHeight="1">
       <c r="A11" s="35"/>
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="202" t="s">
         <v>371</v>
       </c>
-      <c r="C11" s="180"/>
-      <c r="D11" s="180"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202"/>
       <c r="E11" s="151"/>
       <c r="F11" s="151"/>
       <c r="G11" s="35"/>
@@ -5158,22 +5158,22 @@
       <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A12" s="184" t="s">
+      <c r="A12" s="201" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="185" t="s">
+      <c r="B12" s="195" t="s">
         <v>468</v>
       </c>
-      <c r="C12" s="185" t="s">
+      <c r="C12" s="195" t="s">
         <v>469</v>
       </c>
-      <c r="D12" s="185" t="s">
+      <c r="D12" s="195" t="s">
         <v>470</v>
       </c>
-      <c r="E12" s="177" t="s">
+      <c r="E12" s="198" t="s">
         <v>713</v>
       </c>
-      <c r="F12" s="177" t="s">
+      <c r="F12" s="198" t="s">
         <v>793</v>
       </c>
       <c r="G12" s="40">
@@ -5193,12 +5193,12 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A13" s="184"/>
-      <c r="B13" s="186"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
+      <c r="A13" s="201"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
       <c r="G13" s="40">
         <v>2</v>
       </c>
@@ -5216,12 +5216,12 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A14" s="184"/>
-      <c r="B14" s="186"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
+      <c r="A14" s="201"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
       <c r="G14" s="40">
         <v>3</v>
       </c>
@@ -5239,12 +5239,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A15" s="184"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
+      <c r="A15" s="201"/>
+      <c r="B15" s="197"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
       <c r="G15" s="40">
         <v>4</v>
       </c>
@@ -5255,11 +5255,11 @@
     </row>
     <row r="16" spans="1:11" ht="45.75" customHeight="1">
       <c r="A16" s="35"/>
-      <c r="B16" s="180" t="s">
+      <c r="B16" s="202" t="s">
         <v>372</v>
       </c>
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="202"/>
       <c r="E16" s="151"/>
       <c r="F16" s="151"/>
       <c r="G16" s="35"/>
@@ -5269,22 +5269,22 @@
       <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A17" s="184" t="s">
+      <c r="A17" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="185" t="s">
+      <c r="B17" s="195" t="s">
         <v>468</v>
       </c>
-      <c r="C17" s="185" t="s">
+      <c r="C17" s="195" t="s">
         <v>471</v>
       </c>
-      <c r="D17" s="185" t="s">
+      <c r="D17" s="195" t="s">
         <v>472</v>
       </c>
-      <c r="E17" s="177" t="s">
+      <c r="E17" s="198" t="s">
         <v>794</v>
       </c>
-      <c r="F17" s="177" t="s">
+      <c r="F17" s="198" t="s">
         <v>758</v>
       </c>
       <c r="G17" s="40">
@@ -5304,12 +5304,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A18" s="184"/>
-      <c r="B18" s="186"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
+      <c r="A18" s="201"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
       <c r="G18" s="40">
         <v>2</v>
       </c>
@@ -5327,12 +5327,12 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A19" s="184"/>
-      <c r="B19" s="186"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
+      <c r="A19" s="201"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
       <c r="G19" s="40">
         <v>3</v>
       </c>
@@ -5350,12 +5350,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A20" s="184"/>
-      <c r="B20" s="187"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
+      <c r="A20" s="201"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="197"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="200"/>
       <c r="G20" s="40">
         <v>4</v>
       </c>
@@ -5366,11 +5366,11 @@
     </row>
     <row r="21" spans="1:11" ht="45.75" customHeight="1">
       <c r="A21" s="35"/>
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="202" t="s">
         <v>373</v>
       </c>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="202"/>
       <c r="E21" s="151"/>
       <c r="F21" s="151"/>
       <c r="G21" s="35"/>
@@ -5380,22 +5380,22 @@
       <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A22" s="177" t="s">
+      <c r="A22" s="198" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="185" t="s">
+      <c r="B22" s="195" t="s">
         <v>473</v>
       </c>
-      <c r="C22" s="185" t="s">
+      <c r="C22" s="195" t="s">
         <v>474</v>
       </c>
-      <c r="D22" s="185" t="s">
+      <c r="D22" s="195" t="s">
         <v>475</v>
       </c>
-      <c r="E22" s="177" t="s">
+      <c r="E22" s="198" t="s">
         <v>795</v>
       </c>
-      <c r="F22" s="177" t="s">
+      <c r="F22" s="198" t="s">
         <v>758</v>
       </c>
       <c r="G22" s="40">
@@ -5415,12 +5415,12 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A23" s="178"/>
-      <c r="B23" s="186"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
+      <c r="A23" s="199"/>
+      <c r="B23" s="196"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
       <c r="G23" s="40">
         <v>2</v>
       </c>
@@ -5438,12 +5438,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A24" s="178"/>
-      <c r="B24" s="186"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
+      <c r="A24" s="199"/>
+      <c r="B24" s="196"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="199"/>
       <c r="G24" s="40">
         <v>3</v>
       </c>
@@ -5461,12 +5461,12 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A25" s="178"/>
-      <c r="B25" s="186"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
+      <c r="A25" s="199"/>
+      <c r="B25" s="196"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
       <c r="G25" s="40">
         <v>4</v>
       </c>
@@ -5484,12 +5484,12 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A26" s="178"/>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
+      <c r="A26" s="199"/>
+      <c r="B26" s="196"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
       <c r="G26" s="40">
         <v>5</v>
       </c>
@@ -5507,12 +5507,12 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A27" s="179"/>
-      <c r="B27" s="187"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
+      <c r="A27" s="200"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="200"/>
       <c r="G27" s="40">
         <v>6</v>
       </c>
@@ -5531,20 +5531,14 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B3:D3"/>
@@ -5560,14 +5554,20 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5590,28 +5590,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="191" t="s">
         <v>568</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="192" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="175" t="s">
+      <c r="C1" s="193" t="s">
         <v>580</v>
       </c>
-      <c r="D1" s="175" t="s">
+      <c r="D1" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="174" t="s">
+      <c r="E1" s="192" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="173"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="174"/>
+      <c r="A2" s="191"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="192"/>
     </row>
     <row r="3" spans="1:5" s="72" customFormat="1">
       <c r="A3" s="73" t="s">
@@ -5629,13 +5629,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="211" t="s">
         <v>586</v>
       </c>
-      <c r="B4" s="195">
+      <c r="B4" s="213">
         <v>45245</v>
       </c>
-      <c r="C4" s="195" t="s">
+      <c r="C4" s="213" t="s">
         <v>582</v>
       </c>
       <c r="D4" s="110"/>
@@ -5644,31 +5644,31 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="194"/>
-      <c r="B5" s="196"/>
-      <c r="C5" s="200"/>
+      <c r="A5" s="212"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="218"/>
       <c r="D5" s="111"/>
       <c r="E5" s="68" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="194"/>
-      <c r="B6" s="196"/>
-      <c r="C6" s="201"/>
+      <c r="A6" s="212"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="219"/>
       <c r="D6" s="111"/>
       <c r="E6" s="68" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="193" t="s">
+      <c r="A7" s="211" t="s">
         <v>587</v>
       </c>
-      <c r="B7" s="195">
+      <c r="B7" s="213">
         <v>45261</v>
       </c>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="213" t="s">
         <v>583</v>
       </c>
       <c r="D7" s="110"/>
@@ -5677,31 +5677,31 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="194"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="200"/>
+      <c r="A8" s="212"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="218"/>
       <c r="D8" s="111"/>
       <c r="E8" s="68" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="194"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="201"/>
+      <c r="A9" s="212"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="219"/>
       <c r="D9" s="111"/>
       <c r="E9" s="68" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="193" t="s">
+      <c r="A10" s="211" t="s">
         <v>588</v>
       </c>
-      <c r="B10" s="197">
+      <c r="B10" s="215">
         <v>45265</v>
       </c>
-      <c r="C10" s="195" t="s">
+      <c r="C10" s="213" t="s">
         <v>584</v>
       </c>
       <c r="D10" s="105"/>
@@ -5710,9 +5710,9 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="199"/>
-      <c r="B11" s="198"/>
-      <c r="C11" s="201"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="219"/>
       <c r="D11" s="109"/>
       <c r="E11" s="76" t="s">
         <v>579</v>
@@ -5821,20 +5821,20 @@
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1">
       <c r="A1" s="19"/>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="211" t="s">
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="213"/>
+      <c r="I1" s="243"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="244"/>
     </row>
     <row r="2" spans="1:11" ht="29.25" customHeight="1">
       <c r="A2" s="18" t="s">
@@ -5873,11 +5873,11 @@
     </row>
     <row r="3" spans="1:11" s="37" customFormat="1" ht="29.25" customHeight="1">
       <c r="A3" s="35"/>
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
       <c r="E3" s="151"/>
       <c r="F3" s="151"/>
       <c r="G3" s="35"/>
@@ -5887,22 +5887,22 @@
       <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="201" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="214" t="s">
+      <c r="C4" s="231" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="215" t="s">
+      <c r="D4" s="232" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="177" t="s">
+      <c r="E4" s="198" t="s">
         <v>714</v>
       </c>
-      <c r="F4" s="177" t="s">
+      <c r="F4" s="198" t="s">
         <v>383</v>
       </c>
       <c r="G4" s="26">
@@ -5922,12 +5922,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A5" s="184"/>
-      <c r="B5" s="184"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
+      <c r="A5" s="201"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="231"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
       <c r="G5" s="26">
         <v>2</v>
       </c>
@@ -5943,12 +5943,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A6" s="184"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
+      <c r="A6" s="201"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
       <c r="G6" s="26">
         <v>3</v>
       </c>
@@ -5964,12 +5964,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A7" s="184"/>
-      <c r="B7" s="184"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
+      <c r="A7" s="201"/>
+      <c r="B7" s="201"/>
+      <c r="C7" s="231"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
       <c r="G7" s="26">
         <v>4</v>
       </c>
@@ -5988,11 +5988,11 @@
     </row>
     <row r="8" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A8" s="31"/>
-      <c r="B8" s="188" t="s">
+      <c r="B8" s="206" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="189"/>
-      <c r="D8" s="190"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="208"/>
       <c r="E8" s="132"/>
       <c r="F8" s="132"/>
       <c r="G8" s="27"/>
@@ -6002,22 +6002,22 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A9" s="202" t="s">
+      <c r="A9" s="220" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="220" t="s">
+      <c r="B9" s="223" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="219" t="s">
+      <c r="C9" s="227" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="219" t="s">
+      <c r="D9" s="227" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="202" t="s">
+      <c r="E9" s="220" t="s">
         <v>383</v>
       </c>
-      <c r="F9" s="202" t="s">
+      <c r="F9" s="220" t="s">
         <v>762</v>
       </c>
       <c r="G9" s="26">
@@ -6035,12 +6035,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A10" s="203"/>
-      <c r="B10" s="220"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="223"/>
+      <c r="C10" s="227"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
       <c r="G10" s="26">
         <v>2</v>
       </c>
@@ -6058,12 +6058,12 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A11" s="203"/>
-      <c r="B11" s="220"/>
-      <c r="C11" s="219"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
+      <c r="A11" s="221"/>
+      <c r="B11" s="223"/>
+      <c r="C11" s="227"/>
+      <c r="D11" s="227"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="221"/>
       <c r="G11" s="26">
         <v>3</v>
       </c>
@@ -6081,12 +6081,12 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A12" s="203"/>
-      <c r="B12" s="220"/>
-      <c r="C12" s="219"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="203"/>
+      <c r="A12" s="221"/>
+      <c r="B12" s="223"/>
+      <c r="C12" s="227"/>
+      <c r="D12" s="227"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="221"/>
       <c r="G12" s="128">
         <v>4</v>
       </c>
@@ -6098,12 +6098,12 @@
       <c r="K12" s="42"/>
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A13" s="203"/>
-      <c r="B13" s="220"/>
-      <c r="C13" s="219"/>
-      <c r="D13" s="219"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="203"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="223"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="221"/>
       <c r="G13" s="128">
         <v>5</v>
       </c>
@@ -6115,12 +6115,12 @@
       <c r="K13" s="42"/>
     </row>
     <row r="14" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A14" s="203"/>
-      <c r="B14" s="220"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="219"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
+      <c r="A14" s="221"/>
+      <c r="B14" s="223"/>
+      <c r="C14" s="227"/>
+      <c r="D14" s="227"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="221"/>
       <c r="G14" s="128">
         <v>6</v>
       </c>
@@ -6132,12 +6132,12 @@
       <c r="K14" s="42"/>
     </row>
     <row r="15" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A15" s="204"/>
-      <c r="B15" s="220"/>
-      <c r="C15" s="219"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="204"/>
+      <c r="A15" s="222"/>
+      <c r="B15" s="223"/>
+      <c r="C15" s="227"/>
+      <c r="D15" s="227"/>
+      <c r="E15" s="222"/>
+      <c r="F15" s="222"/>
       <c r="G15" s="128">
         <v>7</v>
       </c>
@@ -6156,11 +6156,11 @@
     </row>
     <row r="16" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A16" s="32"/>
-      <c r="B16" s="216" t="s">
+      <c r="B16" s="224" t="s">
         <v>332</v>
       </c>
-      <c r="C16" s="217"/>
-      <c r="D16" s="218"/>
+      <c r="C16" s="225"/>
+      <c r="D16" s="226"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="27"/>
@@ -6170,22 +6170,22 @@
       <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A17" s="202" t="s">
+      <c r="A17" s="220" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="220" t="s">
+      <c r="B17" s="223" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="221" t="s">
+      <c r="C17" s="228" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="220" t="s">
+      <c r="D17" s="223" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="202" t="s">
+      <c r="E17" s="220" t="s">
         <v>383</v>
       </c>
-      <c r="F17" s="202" t="s">
+      <c r="F17" s="220" t="s">
         <v>759</v>
       </c>
       <c r="G17" s="26">
@@ -6205,12 +6205,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A18" s="203"/>
-      <c r="B18" s="220"/>
-      <c r="C18" s="222"/>
-      <c r="D18" s="220"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
+      <c r="A18" s="221"/>
+      <c r="B18" s="223"/>
+      <c r="C18" s="229"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
       <c r="G18" s="26">
         <v>2</v>
       </c>
@@ -6226,12 +6226,12 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A19" s="203"/>
-      <c r="B19" s="220"/>
-      <c r="C19" s="222"/>
-      <c r="D19" s="220"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
+      <c r="A19" s="221"/>
+      <c r="B19" s="223"/>
+      <c r="C19" s="229"/>
+      <c r="D19" s="223"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="221"/>
       <c r="G19" s="128">
         <v>3</v>
       </c>
@@ -6243,12 +6243,12 @@
       <c r="K19" s="42"/>
     </row>
     <row r="20" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A20" s="203"/>
-      <c r="B20" s="220"/>
-      <c r="C20" s="222"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
+      <c r="A20" s="221"/>
+      <c r="B20" s="223"/>
+      <c r="C20" s="229"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="221"/>
+      <c r="F20" s="221"/>
       <c r="G20" s="128">
         <v>4</v>
       </c>
@@ -6266,12 +6266,12 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A21" s="203"/>
-      <c r="B21" s="220"/>
-      <c r="C21" s="222"/>
-      <c r="D21" s="220"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
+      <c r="A21" s="221"/>
+      <c r="B21" s="223"/>
+      <c r="C21" s="229"/>
+      <c r="D21" s="223"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="221"/>
       <c r="G21" s="128">
         <v>5</v>
       </c>
@@ -6289,12 +6289,12 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A22" s="204"/>
-      <c r="B22" s="220"/>
-      <c r="C22" s="223"/>
-      <c r="D22" s="220"/>
-      <c r="E22" s="204"/>
-      <c r="F22" s="204"/>
+      <c r="A22" s="222"/>
+      <c r="B22" s="223"/>
+      <c r="C22" s="230"/>
+      <c r="D22" s="223"/>
+      <c r="E22" s="222"/>
+      <c r="F22" s="222"/>
       <c r="G22" s="128">
         <v>6</v>
       </c>
@@ -6307,11 +6307,11 @@
     </row>
     <row r="23" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="27"/>
-      <c r="B23" s="188" t="s">
+      <c r="B23" s="206" t="s">
         <v>328</v>
       </c>
-      <c r="C23" s="189"/>
-      <c r="D23" s="190"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="208"/>
       <c r="E23" s="132"/>
       <c r="F23" s="132"/>
       <c r="G23" s="27"/>
@@ -6321,22 +6321,22 @@
       <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A24" s="184" t="s">
+      <c r="A24" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="184" t="s">
+      <c r="B24" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="214" t="s">
+      <c r="C24" s="231" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="215" t="s">
+      <c r="D24" s="232" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="177" t="s">
+      <c r="E24" s="198" t="s">
         <v>383</v>
       </c>
-      <c r="F24" s="177" t="s">
+      <c r="F24" s="198" t="s">
         <v>761</v>
       </c>
       <c r="G24" s="26">
@@ -6354,12 +6354,12 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A25" s="184"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="214"/>
-      <c r="D25" s="215"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
+      <c r="A25" s="201"/>
+      <c r="B25" s="201"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="232"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
       <c r="G25" s="34">
         <v>2</v>
       </c>
@@ -6375,12 +6375,12 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A26" s="184"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="214"/>
-      <c r="D26" s="215"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
+      <c r="A26" s="201"/>
+      <c r="B26" s="201"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
       <c r="G26" s="26">
         <v>3</v>
       </c>
@@ -6396,12 +6396,12 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A27" s="184"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="214"/>
-      <c r="D27" s="215"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
+      <c r="A27" s="201"/>
+      <c r="B27" s="201"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="200"/>
       <c r="G27" s="26">
         <v>4</v>
       </c>
@@ -6420,11 +6420,11 @@
     </row>
     <row r="28" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A28" s="30"/>
-      <c r="B28" s="188" t="s">
+      <c r="B28" s="206" t="s">
         <v>329</v>
       </c>
-      <c r="C28" s="189"/>
-      <c r="D28" s="190"/>
+      <c r="C28" s="207"/>
+      <c r="D28" s="208"/>
       <c r="E28" s="132"/>
       <c r="F28" s="132"/>
       <c r="G28" s="27"/>
@@ -6434,19 +6434,19 @@
       <c r="K28" s="28"/>
     </row>
     <row r="29" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="177" t="s">
+      <c r="B29" s="198" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="195" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="224" t="s">
+      <c r="D29" s="233" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="177" t="s">
+      <c r="E29" s="198" t="s">
         <v>716</v>
       </c>
       <c r="F29" s="134"/>
@@ -6465,11 +6465,11 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A30" s="178"/>
-      <c r="B30" s="178"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="225"/>
-      <c r="E30" s="178"/>
+      <c r="A30" s="199"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="234"/>
+      <c r="E30" s="199"/>
       <c r="F30" s="135"/>
       <c r="G30" s="26">
         <v>2</v>
@@ -6486,11 +6486,11 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A31" s="178"/>
-      <c r="B31" s="178"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="225"/>
-      <c r="E31" s="178"/>
+      <c r="A31" s="199"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="234"/>
+      <c r="E31" s="199"/>
       <c r="F31" s="135"/>
       <c r="G31" s="26">
         <v>3</v>
@@ -6509,11 +6509,11 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A32" s="179"/>
-      <c r="B32" s="179"/>
-      <c r="C32" s="187"/>
-      <c r="D32" s="226"/>
-      <c r="E32" s="179"/>
+      <c r="A32" s="200"/>
+      <c r="B32" s="200"/>
+      <c r="C32" s="197"/>
+      <c r="D32" s="235"/>
+      <c r="E32" s="200"/>
       <c r="F32" s="136"/>
       <c r="G32" s="26">
         <v>4</v>
@@ -6533,11 +6533,11 @@
     </row>
     <row r="33" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A33" s="32"/>
-      <c r="B33" s="216" t="s">
+      <c r="B33" s="224" t="s">
         <v>331</v>
       </c>
-      <c r="C33" s="217"/>
-      <c r="D33" s="218"/>
+      <c r="C33" s="225"/>
+      <c r="D33" s="226"/>
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="27"/>
@@ -6547,22 +6547,22 @@
       <c r="K33" s="28"/>
     </row>
     <row r="34" spans="1:11" s="61" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A34" s="202" t="s">
+      <c r="A34" s="220" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="220" t="s">
+      <c r="B34" s="223" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="220" t="s">
+      <c r="C34" s="223" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="205" t="s">
+      <c r="D34" s="236" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="202" t="s">
+      <c r="E34" s="220" t="s">
         <v>715</v>
       </c>
-      <c r="F34" s="202" t="s">
+      <c r="F34" s="220" t="s">
         <v>383</v>
       </c>
       <c r="G34" s="34">
@@ -6576,12 +6576,12 @@
       <c r="K34" s="60"/>
     </row>
     <row r="35" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A35" s="203"/>
-      <c r="B35" s="220"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="203"/>
+      <c r="A35" s="221"/>
+      <c r="B35" s="223"/>
+      <c r="C35" s="223"/>
+      <c r="D35" s="237"/>
+      <c r="E35" s="221"/>
+      <c r="F35" s="221"/>
       <c r="G35" s="26">
         <v>2</v>
       </c>
@@ -6597,12 +6597,12 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A36" s="203"/>
-      <c r="B36" s="220"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="206"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
+      <c r="A36" s="221"/>
+      <c r="B36" s="223"/>
+      <c r="C36" s="223"/>
+      <c r="D36" s="237"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="221"/>
       <c r="G36" s="34">
         <v>3</v>
       </c>
@@ -6618,12 +6618,12 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A37" s="203"/>
-      <c r="B37" s="220"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="206"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="203"/>
+      <c r="A37" s="221"/>
+      <c r="B37" s="223"/>
+      <c r="C37" s="223"/>
+      <c r="D37" s="237"/>
+      <c r="E37" s="221"/>
+      <c r="F37" s="221"/>
       <c r="G37" s="128">
         <v>4</v>
       </c>
@@ -6641,12 +6641,12 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A38" s="204"/>
-      <c r="B38" s="220"/>
-      <c r="C38" s="220"/>
-      <c r="D38" s="207"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="204"/>
+      <c r="A38" s="222"/>
+      <c r="B38" s="223"/>
+      <c r="C38" s="223"/>
+      <c r="D38" s="238"/>
+      <c r="E38" s="222"/>
+      <c r="F38" s="222"/>
       <c r="G38" s="34">
         <v>5</v>
       </c>
@@ -6665,11 +6665,11 @@
     </row>
     <row r="39" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A39" s="32"/>
-      <c r="B39" s="216" t="s">
+      <c r="B39" s="224" t="s">
         <v>333</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="218"/>
+      <c r="C39" s="225"/>
+      <c r="D39" s="226"/>
       <c r="E39" s="133"/>
       <c r="F39" s="133"/>
       <c r="G39" s="27"/>
@@ -6679,22 +6679,22 @@
       <c r="K39" s="28"/>
     </row>
     <row r="40" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A40" s="202" t="s">
+      <c r="A40" s="220" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="220" t="s">
+      <c r="B40" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="219" t="s">
+      <c r="C40" s="227" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="219" t="s">
+      <c r="D40" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="202" t="s">
+      <c r="E40" s="220" t="s">
         <v>720</v>
       </c>
-      <c r="F40" s="202" t="s">
+      <c r="F40" s="220" t="s">
         <v>383</v>
       </c>
       <c r="G40" s="26">
@@ -6712,12 +6712,12 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A41" s="203"/>
-      <c r="B41" s="220"/>
-      <c r="C41" s="219"/>
-      <c r="D41" s="219"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="203"/>
+      <c r="A41" s="221"/>
+      <c r="B41" s="223"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="227"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="221"/>
       <c r="G41" s="26">
         <v>2</v>
       </c>
@@ -6733,12 +6733,12 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A42" s="203"/>
-      <c r="B42" s="220"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="219"/>
-      <c r="E42" s="203"/>
-      <c r="F42" s="203"/>
+      <c r="A42" s="221"/>
+      <c r="B42" s="223"/>
+      <c r="C42" s="227"/>
+      <c r="D42" s="227"/>
+      <c r="E42" s="221"/>
+      <c r="F42" s="221"/>
       <c r="G42" s="26">
         <v>3</v>
       </c>
@@ -6756,12 +6756,12 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A43" s="204"/>
-      <c r="B43" s="220"/>
-      <c r="C43" s="219"/>
-      <c r="D43" s="219"/>
-      <c r="E43" s="204"/>
-      <c r="F43" s="204"/>
+      <c r="A43" s="222"/>
+      <c r="B43" s="223"/>
+      <c r="C43" s="227"/>
+      <c r="D43" s="227"/>
+      <c r="E43" s="222"/>
+      <c r="F43" s="222"/>
       <c r="G43" s="26">
         <v>4</v>
       </c>
@@ -6780,11 +6780,11 @@
     </row>
     <row r="44" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A44" s="32"/>
-      <c r="B44" s="216" t="s">
+      <c r="B44" s="224" t="s">
         <v>334</v>
       </c>
-      <c r="C44" s="217"/>
-      <c r="D44" s="218"/>
+      <c r="C44" s="225"/>
+      <c r="D44" s="226"/>
       <c r="E44" s="133"/>
       <c r="F44" s="133"/>
       <c r="G44" s="27"/>
@@ -6794,22 +6794,22 @@
       <c r="K44" s="33"/>
     </row>
     <row r="45" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A45" s="202" t="s">
+      <c r="A45" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="220" t="s">
+      <c r="B45" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="219" t="s">
+      <c r="C45" s="227" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="219" t="s">
+      <c r="D45" s="227" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="202" t="s">
+      <c r="E45" s="220" t="s">
         <v>712</v>
       </c>
-      <c r="F45" s="202" t="s">
+      <c r="F45" s="220" t="s">
         <v>383</v>
       </c>
       <c r="G45" s="26">
@@ -6829,12 +6829,12 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A46" s="203"/>
-      <c r="B46" s="220"/>
-      <c r="C46" s="219"/>
-      <c r="D46" s="219"/>
-      <c r="E46" s="203"/>
-      <c r="F46" s="203"/>
+      <c r="A46" s="221"/>
+      <c r="B46" s="223"/>
+      <c r="C46" s="227"/>
+      <c r="D46" s="227"/>
+      <c r="E46" s="221"/>
+      <c r="F46" s="221"/>
       <c r="G46" s="26">
         <v>2</v>
       </c>
@@ -6852,12 +6852,12 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A47" s="203"/>
-      <c r="B47" s="220"/>
-      <c r="C47" s="219"/>
-      <c r="D47" s="219"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="203"/>
+      <c r="A47" s="221"/>
+      <c r="B47" s="223"/>
+      <c r="C47" s="227"/>
+      <c r="D47" s="227"/>
+      <c r="E47" s="221"/>
+      <c r="F47" s="221"/>
       <c r="G47" s="26">
         <v>3</v>
       </c>
@@ -6875,12 +6875,12 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A48" s="204"/>
-      <c r="B48" s="220"/>
-      <c r="C48" s="219"/>
-      <c r="D48" s="219"/>
-      <c r="E48" s="204"/>
-      <c r="F48" s="204"/>
+      <c r="A48" s="222"/>
+      <c r="B48" s="223"/>
+      <c r="C48" s="227"/>
+      <c r="D48" s="227"/>
+      <c r="E48" s="222"/>
+      <c r="F48" s="222"/>
       <c r="G48" s="26">
         <v>4</v>
       </c>
@@ -6899,11 +6899,11 @@
     </row>
     <row r="49" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A49" s="32"/>
-      <c r="B49" s="216" t="s">
+      <c r="B49" s="224" t="s">
         <v>335</v>
       </c>
-      <c r="C49" s="217"/>
-      <c r="D49" s="218"/>
+      <c r="C49" s="225"/>
+      <c r="D49" s="226"/>
       <c r="E49" s="133"/>
       <c r="F49" s="133"/>
       <c r="G49" s="27"/>
@@ -6913,22 +6913,22 @@
       <c r="K49" s="33"/>
     </row>
     <row r="50" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A50" s="202" t="s">
+      <c r="A50" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="220" t="s">
+      <c r="B50" s="223" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="219" t="s">
+      <c r="C50" s="227" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="219" t="s">
+      <c r="D50" s="227" t="s">
         <v>89</v>
       </c>
-      <c r="E50" s="202" t="s">
+      <c r="E50" s="220" t="s">
         <v>383</v>
       </c>
-      <c r="F50" s="202" t="s">
+      <c r="F50" s="220" t="s">
         <v>762</v>
       </c>
       <c r="G50" s="26">
@@ -6948,12 +6948,12 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A51" s="203"/>
-      <c r="B51" s="220"/>
-      <c r="C51" s="219"/>
-      <c r="D51" s="219"/>
-      <c r="E51" s="203"/>
-      <c r="F51" s="203"/>
+      <c r="A51" s="221"/>
+      <c r="B51" s="223"/>
+      <c r="C51" s="227"/>
+      <c r="D51" s="227"/>
+      <c r="E51" s="221"/>
+      <c r="F51" s="221"/>
       <c r="G51" s="26">
         <v>2</v>
       </c>
@@ -6969,12 +6969,12 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A52" s="203"/>
-      <c r="B52" s="220"/>
-      <c r="C52" s="219"/>
-      <c r="D52" s="219"/>
-      <c r="E52" s="203"/>
-      <c r="F52" s="203"/>
+      <c r="A52" s="221"/>
+      <c r="B52" s="223"/>
+      <c r="C52" s="227"/>
+      <c r="D52" s="227"/>
+      <c r="E52" s="221"/>
+      <c r="F52" s="221"/>
       <c r="G52" s="26">
         <v>3</v>
       </c>
@@ -6992,12 +6992,12 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A53" s="204"/>
-      <c r="B53" s="220"/>
-      <c r="C53" s="219"/>
-      <c r="D53" s="219"/>
-      <c r="E53" s="204"/>
-      <c r="F53" s="204"/>
+      <c r="A53" s="222"/>
+      <c r="B53" s="223"/>
+      <c r="C53" s="227"/>
+      <c r="D53" s="227"/>
+      <c r="E53" s="222"/>
+      <c r="F53" s="222"/>
       <c r="G53" s="26">
         <v>4</v>
       </c>
@@ -7016,11 +7016,11 @@
     </row>
     <row r="54" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A54" s="32"/>
-      <c r="B54" s="216" t="s">
+      <c r="B54" s="224" t="s">
         <v>336</v>
       </c>
-      <c r="C54" s="217"/>
-      <c r="D54" s="218"/>
+      <c r="C54" s="225"/>
+      <c r="D54" s="226"/>
       <c r="E54" s="133"/>
       <c r="F54" s="133"/>
       <c r="G54" s="27"/>
@@ -7030,22 +7030,22 @@
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A55" s="202" t="s">
+      <c r="A55" s="220" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="220" t="s">
+      <c r="B55" s="223" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="219" t="s">
+      <c r="C55" s="227" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="219" t="s">
+      <c r="D55" s="227" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="202" t="s">
+      <c r="E55" s="220" t="s">
         <v>383</v>
       </c>
-      <c r="F55" s="202" t="s">
+      <c r="F55" s="220" t="s">
         <v>759</v>
       </c>
       <c r="G55" s="26">
@@ -7065,12 +7065,12 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A56" s="203"/>
-      <c r="B56" s="220"/>
-      <c r="C56" s="219"/>
-      <c r="D56" s="219"/>
-      <c r="E56" s="203"/>
-      <c r="F56" s="203"/>
+      <c r="A56" s="221"/>
+      <c r="B56" s="223"/>
+      <c r="C56" s="227"/>
+      <c r="D56" s="227"/>
+      <c r="E56" s="221"/>
+      <c r="F56" s="221"/>
       <c r="G56" s="26">
         <v>2</v>
       </c>
@@ -7088,12 +7088,12 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A57" s="203"/>
-      <c r="B57" s="220"/>
-      <c r="C57" s="219"/>
-      <c r="D57" s="219"/>
-      <c r="E57" s="203"/>
-      <c r="F57" s="203"/>
+      <c r="A57" s="221"/>
+      <c r="B57" s="223"/>
+      <c r="C57" s="227"/>
+      <c r="D57" s="227"/>
+      <c r="E57" s="221"/>
+      <c r="F57" s="221"/>
       <c r="G57" s="26">
         <v>3</v>
       </c>
@@ -7111,12 +7111,12 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A58" s="204"/>
-      <c r="B58" s="220"/>
-      <c r="C58" s="219"/>
-      <c r="D58" s="219"/>
-      <c r="E58" s="204"/>
-      <c r="F58" s="204"/>
+      <c r="A58" s="222"/>
+      <c r="B58" s="223"/>
+      <c r="C58" s="227"/>
+      <c r="D58" s="227"/>
+      <c r="E58" s="222"/>
+      <c r="F58" s="222"/>
       <c r="G58" s="26">
         <v>4</v>
       </c>
@@ -7135,11 +7135,11 @@
     </row>
     <row r="59" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A59" s="32"/>
-      <c r="B59" s="216" t="s">
+      <c r="B59" s="224" t="s">
         <v>337</v>
       </c>
-      <c r="C59" s="217"/>
-      <c r="D59" s="218"/>
+      <c r="C59" s="225"/>
+      <c r="D59" s="226"/>
       <c r="E59" s="133"/>
       <c r="F59" s="133"/>
       <c r="G59" s="27"/>
@@ -7149,22 +7149,22 @@
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A60" s="202" t="s">
+      <c r="A60" s="220" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="220" t="s">
+      <c r="B60" s="223" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="219" t="s">
+      <c r="C60" s="227" t="s">
         <v>93</v>
       </c>
-      <c r="D60" s="219" t="s">
+      <c r="D60" s="227" t="s">
         <v>94</v>
       </c>
-      <c r="E60" s="202" t="s">
+      <c r="E60" s="220" t="s">
         <v>383</v>
       </c>
-      <c r="F60" s="202" t="s">
+      <c r="F60" s="220" t="s">
         <v>721</v>
       </c>
       <c r="G60" s="26">
@@ -7182,12 +7182,12 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A61" s="203"/>
-      <c r="B61" s="220"/>
-      <c r="C61" s="219"/>
-      <c r="D61" s="219"/>
-      <c r="E61" s="203"/>
-      <c r="F61" s="203"/>
+      <c r="A61" s="221"/>
+      <c r="B61" s="223"/>
+      <c r="C61" s="227"/>
+      <c r="D61" s="227"/>
+      <c r="E61" s="221"/>
+      <c r="F61" s="221"/>
       <c r="G61" s="26">
         <v>2</v>
       </c>
@@ -7205,12 +7205,12 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A62" s="203"/>
-      <c r="B62" s="220"/>
-      <c r="C62" s="219"/>
-      <c r="D62" s="219"/>
-      <c r="E62" s="203"/>
-      <c r="F62" s="203"/>
+      <c r="A62" s="221"/>
+      <c r="B62" s="223"/>
+      <c r="C62" s="227"/>
+      <c r="D62" s="227"/>
+      <c r="E62" s="221"/>
+      <c r="F62" s="221"/>
       <c r="G62" s="26">
         <v>3</v>
       </c>
@@ -7228,12 +7228,12 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A63" s="204"/>
-      <c r="B63" s="220"/>
-      <c r="C63" s="219"/>
-      <c r="D63" s="219"/>
-      <c r="E63" s="204"/>
-      <c r="F63" s="204"/>
+      <c r="A63" s="222"/>
+      <c r="B63" s="223"/>
+      <c r="C63" s="227"/>
+      <c r="D63" s="227"/>
+      <c r="E63" s="222"/>
+      <c r="F63" s="222"/>
       <c r="G63" s="26">
         <v>4</v>
       </c>
@@ -7252,11 +7252,11 @@
     </row>
     <row r="64" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A64" s="32"/>
-      <c r="B64" s="216" t="s">
+      <c r="B64" s="224" t="s">
         <v>338</v>
       </c>
-      <c r="C64" s="217"/>
-      <c r="D64" s="218"/>
+      <c r="C64" s="225"/>
+      <c r="D64" s="226"/>
       <c r="E64" s="133"/>
       <c r="F64" s="133"/>
       <c r="G64" s="27"/>
@@ -7266,22 +7266,22 @@
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A65" s="202" t="s">
+      <c r="A65" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="220" t="s">
+      <c r="B65" s="223" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="219" t="s">
+      <c r="C65" s="227" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="219" t="s">
+      <c r="D65" s="227" t="s">
         <v>97</v>
       </c>
-      <c r="E65" s="202" t="s">
+      <c r="E65" s="220" t="s">
         <v>383</v>
       </c>
-      <c r="F65" s="202" t="s">
+      <c r="F65" s="220" t="s">
         <v>760</v>
       </c>
       <c r="G65" s="26">
@@ -7301,12 +7301,12 @@
       </c>
     </row>
     <row r="66" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A66" s="203"/>
-      <c r="B66" s="220"/>
-      <c r="C66" s="219"/>
-      <c r="D66" s="219"/>
-      <c r="E66" s="203"/>
-      <c r="F66" s="203"/>
+      <c r="A66" s="221"/>
+      <c r="B66" s="223"/>
+      <c r="C66" s="227"/>
+      <c r="D66" s="227"/>
+      <c r="E66" s="221"/>
+      <c r="F66" s="221"/>
       <c r="G66" s="26">
         <v>2</v>
       </c>
@@ -7324,12 +7324,12 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A67" s="203"/>
-      <c r="B67" s="220"/>
-      <c r="C67" s="219"/>
-      <c r="D67" s="219"/>
-      <c r="E67" s="203"/>
-      <c r="F67" s="203"/>
+      <c r="A67" s="221"/>
+      <c r="B67" s="223"/>
+      <c r="C67" s="227"/>
+      <c r="D67" s="227"/>
+      <c r="E67" s="221"/>
+      <c r="F67" s="221"/>
       <c r="G67" s="26">
         <v>3</v>
       </c>
@@ -7347,12 +7347,12 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A68" s="204"/>
-      <c r="B68" s="220"/>
-      <c r="C68" s="219"/>
-      <c r="D68" s="219"/>
-      <c r="E68" s="204"/>
-      <c r="F68" s="204"/>
+      <c r="A68" s="222"/>
+      <c r="B68" s="223"/>
+      <c r="C68" s="227"/>
+      <c r="D68" s="227"/>
+      <c r="E68" s="222"/>
+      <c r="F68" s="222"/>
       <c r="G68" s="26">
         <v>4</v>
       </c>
@@ -7371,11 +7371,11 @@
     </row>
     <row r="69" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="216" t="s">
+      <c r="B69" s="224" t="s">
         <v>339</v>
       </c>
-      <c r="C69" s="217"/>
-      <c r="D69" s="218"/>
+      <c r="C69" s="225"/>
+      <c r="D69" s="226"/>
       <c r="E69" s="133"/>
       <c r="F69" s="133"/>
       <c r="G69" s="27"/>
@@ -7385,22 +7385,22 @@
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A70" s="202" t="s">
+      <c r="A70" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="220" t="s">
+      <c r="B70" s="223" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="219" t="s">
+      <c r="C70" s="227" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="219" t="s">
+      <c r="D70" s="227" t="s">
         <v>101</v>
       </c>
-      <c r="E70" s="202" t="s">
+      <c r="E70" s="220" t="s">
         <v>383</v>
       </c>
-      <c r="F70" s="202" t="s">
+      <c r="F70" s="220" t="s">
         <v>759</v>
       </c>
       <c r="G70" s="26">
@@ -7420,12 +7420,12 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A71" s="203"/>
-      <c r="B71" s="220"/>
-      <c r="C71" s="219"/>
-      <c r="D71" s="219"/>
-      <c r="E71" s="203"/>
-      <c r="F71" s="203"/>
+      <c r="A71" s="221"/>
+      <c r="B71" s="223"/>
+      <c r="C71" s="227"/>
+      <c r="D71" s="227"/>
+      <c r="E71" s="221"/>
+      <c r="F71" s="221"/>
       <c r="G71" s="26">
         <v>2</v>
       </c>
@@ -7441,12 +7441,12 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A72" s="203"/>
-      <c r="B72" s="220"/>
-      <c r="C72" s="219"/>
-      <c r="D72" s="219"/>
-      <c r="E72" s="203"/>
-      <c r="F72" s="203"/>
+      <c r="A72" s="221"/>
+      <c r="B72" s="223"/>
+      <c r="C72" s="227"/>
+      <c r="D72" s="227"/>
+      <c r="E72" s="221"/>
+      <c r="F72" s="221"/>
       <c r="G72" s="26">
         <v>3</v>
       </c>
@@ -7462,12 +7462,12 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A73" s="204"/>
-      <c r="B73" s="220"/>
-      <c r="C73" s="219"/>
-      <c r="D73" s="219"/>
-      <c r="E73" s="204"/>
-      <c r="F73" s="204"/>
+      <c r="A73" s="222"/>
+      <c r="B73" s="223"/>
+      <c r="C73" s="227"/>
+      <c r="D73" s="227"/>
+      <c r="E73" s="222"/>
+      <c r="F73" s="222"/>
       <c r="G73" s="26">
         <v>4</v>
       </c>
@@ -7486,11 +7486,11 @@
     </row>
     <row r="74" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="216" t="s">
+      <c r="B74" s="224" t="s">
         <v>340</v>
       </c>
-      <c r="C74" s="217"/>
-      <c r="D74" s="218"/>
+      <c r="C74" s="225"/>
+      <c r="D74" s="226"/>
       <c r="E74" s="133"/>
       <c r="F74" s="133"/>
       <c r="G74" s="27"/>
@@ -7500,22 +7500,22 @@
       <c r="K74" s="33"/>
     </row>
     <row r="75" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A75" s="202" t="s">
+      <c r="A75" s="220" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="220" t="s">
+      <c r="B75" s="223" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="219" t="s">
+      <c r="C75" s="227" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="219" t="s">
+      <c r="D75" s="227" t="s">
         <v>105</v>
       </c>
-      <c r="E75" s="202" t="s">
+      <c r="E75" s="220" t="s">
         <v>383</v>
       </c>
-      <c r="F75" s="202" t="s">
+      <c r="F75" s="220" t="s">
         <v>758</v>
       </c>
       <c r="G75" s="26">
@@ -7535,12 +7535,12 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A76" s="203"/>
-      <c r="B76" s="220"/>
-      <c r="C76" s="219"/>
-      <c r="D76" s="219"/>
-      <c r="E76" s="203"/>
-      <c r="F76" s="203"/>
+      <c r="A76" s="221"/>
+      <c r="B76" s="223"/>
+      <c r="C76" s="227"/>
+      <c r="D76" s="227"/>
+      <c r="E76" s="221"/>
+      <c r="F76" s="221"/>
       <c r="G76" s="26">
         <v>2</v>
       </c>
@@ -7558,12 +7558,12 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A77" s="203"/>
-      <c r="B77" s="220"/>
-      <c r="C77" s="219"/>
-      <c r="D77" s="219"/>
-      <c r="E77" s="203"/>
-      <c r="F77" s="203"/>
+      <c r="A77" s="221"/>
+      <c r="B77" s="223"/>
+      <c r="C77" s="227"/>
+      <c r="D77" s="227"/>
+      <c r="E77" s="221"/>
+      <c r="F77" s="221"/>
       <c r="G77" s="26">
         <v>3</v>
       </c>
@@ -7581,12 +7581,12 @@
       </c>
     </row>
     <row r="78" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A78" s="204"/>
-      <c r="B78" s="220"/>
-      <c r="C78" s="219"/>
-      <c r="D78" s="219"/>
-      <c r="E78" s="204"/>
-      <c r="F78" s="204"/>
+      <c r="A78" s="222"/>
+      <c r="B78" s="223"/>
+      <c r="C78" s="227"/>
+      <c r="D78" s="227"/>
+      <c r="E78" s="222"/>
+      <c r="F78" s="222"/>
       <c r="G78" s="26">
         <v>4</v>
       </c>
@@ -7605,11 +7605,11 @@
     </row>
     <row r="79" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A79" s="32"/>
-      <c r="B79" s="216" t="s">
+      <c r="B79" s="224" t="s">
         <v>341</v>
       </c>
-      <c r="C79" s="217"/>
-      <c r="D79" s="218"/>
+      <c r="C79" s="225"/>
+      <c r="D79" s="226"/>
       <c r="E79" s="133"/>
       <c r="F79" s="133"/>
       <c r="G79" s="27"/>
@@ -7619,22 +7619,22 @@
       <c r="K79" s="33"/>
     </row>
     <row r="80" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A80" s="202" t="s">
+      <c r="A80" s="220" t="s">
         <v>106</v>
       </c>
-      <c r="B80" s="220" t="s">
+      <c r="B80" s="223" t="s">
         <v>68</v>
       </c>
-      <c r="C80" s="219" t="s">
+      <c r="C80" s="227" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="219" t="s">
+      <c r="D80" s="227" t="s">
         <v>108</v>
       </c>
-      <c r="E80" s="202" t="s">
+      <c r="E80" s="220" t="s">
         <v>383</v>
       </c>
-      <c r="F80" s="202" t="s">
+      <c r="F80" s="220" t="s">
         <v>383</v>
       </c>
       <c r="G80" s="26">
@@ -7654,12 +7654,12 @@
       </c>
     </row>
     <row r="81" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A81" s="203"/>
-      <c r="B81" s="220"/>
-      <c r="C81" s="219"/>
-      <c r="D81" s="219"/>
-      <c r="E81" s="203"/>
-      <c r="F81" s="203"/>
+      <c r="A81" s="221"/>
+      <c r="B81" s="223"/>
+      <c r="C81" s="227"/>
+      <c r="D81" s="227"/>
+      <c r="E81" s="221"/>
+      <c r="F81" s="221"/>
       <c r="G81" s="26">
         <v>2</v>
       </c>
@@ -7677,12 +7677,12 @@
       </c>
     </row>
     <row r="82" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A82" s="203"/>
-      <c r="B82" s="220"/>
-      <c r="C82" s="219"/>
-      <c r="D82" s="219"/>
-      <c r="E82" s="203"/>
-      <c r="F82" s="203"/>
+      <c r="A82" s="221"/>
+      <c r="B82" s="223"/>
+      <c r="C82" s="227"/>
+      <c r="D82" s="227"/>
+      <c r="E82" s="221"/>
+      <c r="F82" s="221"/>
       <c r="G82" s="26">
         <v>3</v>
       </c>
@@ -7700,12 +7700,12 @@
       </c>
     </row>
     <row r="83" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A83" s="204"/>
-      <c r="B83" s="220"/>
-      <c r="C83" s="219"/>
-      <c r="D83" s="219"/>
-      <c r="E83" s="204"/>
-      <c r="F83" s="204"/>
+      <c r="A83" s="222"/>
+      <c r="B83" s="223"/>
+      <c r="C83" s="227"/>
+      <c r="D83" s="227"/>
+      <c r="E83" s="222"/>
+      <c r="F83" s="222"/>
       <c r="G83" s="26">
         <v>4</v>
       </c>
@@ -7724,11 +7724,11 @@
     </row>
     <row r="84" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A84" s="32"/>
-      <c r="B84" s="216" t="s">
+      <c r="B84" s="224" t="s">
         <v>342</v>
       </c>
-      <c r="C84" s="217"/>
-      <c r="D84" s="218"/>
+      <c r="C84" s="225"/>
+      <c r="D84" s="226"/>
       <c r="E84" s="133"/>
       <c r="F84" s="133"/>
       <c r="G84" s="27"/>
@@ -7738,22 +7738,22 @@
       <c r="K84" s="33"/>
     </row>
     <row r="85" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A85" s="202" t="s">
+      <c r="A85" s="220" t="s">
         <v>109</v>
       </c>
-      <c r="B85" s="220" t="s">
+      <c r="B85" s="223" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="219" t="s">
+      <c r="C85" s="227" t="s">
         <v>110</v>
       </c>
-      <c r="D85" s="219" t="s">
+      <c r="D85" s="227" t="s">
         <v>111</v>
       </c>
-      <c r="E85" s="202" t="s">
+      <c r="E85" s="220" t="s">
         <v>383</v>
       </c>
-      <c r="F85" s="202" t="s">
+      <c r="F85" s="220" t="s">
         <v>760</v>
       </c>
       <c r="G85" s="26">
@@ -7773,12 +7773,12 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A86" s="203"/>
-      <c r="B86" s="220"/>
-      <c r="C86" s="219"/>
-      <c r="D86" s="219"/>
-      <c r="E86" s="203"/>
-      <c r="F86" s="203"/>
+      <c r="A86" s="221"/>
+      <c r="B86" s="223"/>
+      <c r="C86" s="227"/>
+      <c r="D86" s="227"/>
+      <c r="E86" s="221"/>
+      <c r="F86" s="221"/>
       <c r="G86" s="26">
         <v>2</v>
       </c>
@@ -7796,12 +7796,12 @@
       </c>
     </row>
     <row r="87" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A87" s="203"/>
-      <c r="B87" s="220"/>
-      <c r="C87" s="219"/>
-      <c r="D87" s="219"/>
-      <c r="E87" s="203"/>
-      <c r="F87" s="203"/>
+      <c r="A87" s="221"/>
+      <c r="B87" s="223"/>
+      <c r="C87" s="227"/>
+      <c r="D87" s="227"/>
+      <c r="E87" s="221"/>
+      <c r="F87" s="221"/>
       <c r="G87" s="26">
         <v>3</v>
       </c>
@@ -7819,12 +7819,12 @@
       </c>
     </row>
     <row r="88" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A88" s="204"/>
-      <c r="B88" s="220"/>
-      <c r="C88" s="219"/>
-      <c r="D88" s="219"/>
-      <c r="E88" s="204"/>
-      <c r="F88" s="204"/>
+      <c r="A88" s="222"/>
+      <c r="B88" s="223"/>
+      <c r="C88" s="227"/>
+      <c r="D88" s="227"/>
+      <c r="E88" s="222"/>
+      <c r="F88" s="222"/>
       <c r="G88" s="26">
         <v>4</v>
       </c>
@@ -7843,49 +7843,52 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="F17:F22"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="E4:E7"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A17:A22"/>
@@ -7910,52 +7913,49 @@
     <mergeCell ref="D40:D43"/>
     <mergeCell ref="C40:C43"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="F17:F22"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="C85:C88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7978,28 +7978,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="191" t="s">
         <v>568</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="192" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="175" t="s">
+      <c r="C1" s="193" t="s">
         <v>580</v>
       </c>
       <c r="D1" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="174" t="s">
+      <c r="E1" s="192" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="173"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="176"/>
+      <c r="A2" s="191"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="194"/>
       <c r="D2" s="108"/>
-      <c r="E2" s="174"/>
+      <c r="E2" s="192"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="38" t="s">
@@ -8468,13 +8468,13 @@
       <c r="C8" s="52" t="s">
         <v>804</v>
       </c>
-      <c r="D8" s="229" t="s">
+      <c r="D8" s="173" t="s">
         <v>805</v>
       </c>
       <c r="E8" s="171" t="s">
         <v>383</v>
       </c>
-      <c r="F8" s="230" t="s">
+      <c r="F8" s="174" t="s">
         <v>383</v>
       </c>
       <c r="G8" s="51" t="s">
@@ -8879,26 +8879,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="191" t="s">
         <v>568</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="192" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="175" t="s">
+      <c r="C1" s="193" t="s">
         <v>604</v>
       </c>
       <c r="D1" s="107"/>
-      <c r="E1" s="174" t="s">
+      <c r="E1" s="192" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="173"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="176"/>
+      <c r="A2" s="191"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="194"/>
       <c r="D2" s="108"/>
-      <c r="E2" s="174"/>
+      <c r="E2" s="192"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="38" t="s">
@@ -9036,7 +9036,7 @@
       <c r="A15" s="137" t="s">
         <v>817</v>
       </c>
-      <c r="B15" s="232">
+      <c r="B15" s="176">
         <v>45278</v>
       </c>
       <c r="C15" s="92" t="s">
@@ -9059,7 +9059,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="139"/>
       <c r="B17" s="139"/>
-      <c r="C17" s="231"/>
+      <c r="C17" s="175"/>
       <c r="D17" s="139"/>
       <c r="E17" s="76" t="s">
         <v>815</v>
@@ -9080,8 +9080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E916DD94-D1B0-4F5A-A52B-CD3DDE50A874}">
   <dimension ref="A1:AE72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1"/>
@@ -9106,40 +9106,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="25.5" customHeight="1">
-      <c r="G1" s="227" t="s">
+      <c r="G1" s="245" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="228"/>
-      <c r="J1" s="227" t="s">
+      <c r="H1" s="246"/>
+      <c r="J1" s="245" t="s">
         <v>346</v>
       </c>
-      <c r="K1" s="228"/>
-      <c r="M1" s="227" t="s">
+      <c r="K1" s="246"/>
+      <c r="M1" s="245" t="s">
         <v>347</v>
       </c>
-      <c r="N1" s="228"/>
-      <c r="P1" s="227" t="s">
+      <c r="N1" s="246"/>
+      <c r="P1" s="245" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" s="228"/>
-      <c r="S1" s="227" t="s">
+      <c r="Q1" s="246"/>
+      <c r="S1" s="245" t="s">
         <v>349</v>
       </c>
-      <c r="T1" s="228"/>
-      <c r="V1" s="227" t="s">
+      <c r="T1" s="246"/>
+      <c r="V1" s="245" t="s">
         <v>350</v>
       </c>
-      <c r="W1" s="228"/>
-      <c r="Y1" s="227" t="s">
+      <c r="W1" s="246"/>
+      <c r="Y1" s="245" t="s">
         <v>351</v>
       </c>
-      <c r="Z1" s="228"/>
+      <c r="Z1" s="246"/>
     </row>
     <row r="2" spans="1:31" s="17" customFormat="1" ht="33.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="190" t="s">
         <v>826</v>
       </c>
       <c r="C2" s="47" t="s">
@@ -9482,36 +9482,36 @@
       </c>
       <c r="AE6" s="62"/>
     </row>
-    <row r="7" spans="1:31" s="242" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A7" s="234"/>
-      <c r="B7" s="243"/>
-      <c r="C7" s="244"/>
-      <c r="D7" s="237"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="234"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="241"/>
-      <c r="J7" s="241"/>
-      <c r="K7" s="241"/>
-      <c r="L7" s="241"/>
-      <c r="M7" s="241"/>
-      <c r="N7" s="241"/>
-      <c r="O7" s="241"/>
-      <c r="P7" s="241"/>
-      <c r="Q7" s="241"/>
-      <c r="R7" s="241"/>
-      <c r="S7" s="241"/>
-      <c r="T7" s="241"/>
-      <c r="U7" s="241"/>
-      <c r="V7" s="241"/>
-      <c r="W7" s="241"/>
-      <c r="X7" s="241"/>
-      <c r="Y7" s="241"/>
-      <c r="Z7" s="241"/>
-      <c r="AA7" s="241"/>
-      <c r="AB7" s="241"/>
-      <c r="AE7" s="245"/>
+    <row r="7" spans="1:31" s="186" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A7" s="178"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185"/>
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AE7" s="189"/>
     </row>
     <row r="8" spans="1:31" ht="25.5" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -9662,11 +9662,11 @@
       <c r="AB11" s="16"/>
     </row>
     <row r="12" spans="1:31" ht="10.5" customHeight="1">
-      <c r="A12" s="234"/>
-      <c r="B12" s="243"/>
-      <c r="C12" s="244"/>
-      <c r="D12" s="237"/>
-      <c r="E12" s="238"/>
+      <c r="A12" s="178"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="182"/>
       <c r="F12" s="2"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -9948,11 +9948,11 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="10.5" customHeight="1">
-      <c r="A17" s="234"/>
-      <c r="B17" s="243"/>
-      <c r="C17" s="244"/>
-      <c r="D17" s="237"/>
-      <c r="E17" s="238"/>
+      <c r="A17" s="178"/>
+      <c r="B17" s="187"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="182"/>
       <c r="F17" s="2"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -10414,11 +10414,11 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="10.5" customHeight="1">
-      <c r="A26" s="239"/>
-      <c r="B26" s="235"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="237"/>
-      <c r="E26" s="238"/>
+      <c r="A26" s="183"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="182"/>
       <c r="F26" s="4"/>
       <c r="G26" s="38"/>
       <c r="H26" s="14"/>
@@ -10447,7 +10447,7 @@
       <c r="A27" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="B27" s="233" t="s">
+      <c r="B27" s="177" t="s">
         <v>804</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -10456,7 +10456,9 @@
       <c r="D27" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="38"/>
       <c r="H27" s="14"/>
@@ -10490,7 +10492,9 @@
       <c r="D28" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="38"/>
       <c r="H28" s="14"/>
@@ -10524,7 +10528,9 @@
       <c r="D29" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="38"/>
       <c r="H29" s="14"/>
@@ -10558,7 +10564,9 @@
       <c r="D30" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="38"/>
       <c r="H30" s="14"/>
@@ -10592,7 +10600,9 @@
       <c r="D31" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="38"/>
       <c r="H31" s="14"/>
@@ -10626,7 +10636,9 @@
       <c r="D32" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="E32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="38"/>
       <c r="H32" s="14"/>
@@ -10660,7 +10672,9 @@
       <c r="D33" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="E33" s="10"/>
+      <c r="E33" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="38"/>
       <c r="H33" s="14"/>
@@ -10685,35 +10699,35 @@
       <c r="AA33" s="16"/>
       <c r="AB33" s="16"/>
     </row>
-    <row r="34" spans="1:28" s="242" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A34" s="234"/>
-      <c r="B34" s="235"/>
-      <c r="C34" s="236"/>
-      <c r="D34" s="237"/>
-      <c r="E34" s="238"/>
-      <c r="F34" s="239"/>
-      <c r="G34" s="240"/>
-      <c r="H34" s="241"/>
-      <c r="I34" s="241"/>
-      <c r="J34" s="240"/>
-      <c r="K34" s="240"/>
-      <c r="L34" s="241"/>
-      <c r="M34" s="240"/>
-      <c r="N34" s="240"/>
-      <c r="O34" s="241"/>
-      <c r="P34" s="240"/>
-      <c r="Q34" s="240"/>
-      <c r="R34" s="241"/>
-      <c r="S34" s="240"/>
-      <c r="T34" s="240"/>
-      <c r="U34" s="241"/>
-      <c r="V34" s="240"/>
-      <c r="W34" s="240"/>
-      <c r="X34" s="241"/>
-      <c r="Y34" s="240"/>
-      <c r="Z34" s="240"/>
-      <c r="AA34" s="241"/>
-      <c r="AB34" s="241"/>
+    <row r="34" spans="1:28" s="186" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A34" s="178"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="180"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="185"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="184"/>
+      <c r="K34" s="184"/>
+      <c r="L34" s="185"/>
+      <c r="M34" s="184"/>
+      <c r="N34" s="184"/>
+      <c r="O34" s="185"/>
+      <c r="P34" s="184"/>
+      <c r="Q34" s="184"/>
+      <c r="R34" s="185"/>
+      <c r="S34" s="184"/>
+      <c r="T34" s="184"/>
+      <c r="U34" s="185"/>
+      <c r="V34" s="184"/>
+      <c r="W34" s="184"/>
+      <c r="X34" s="185"/>
+      <c r="Y34" s="184"/>
+      <c r="Z34" s="184"/>
+      <c r="AA34" s="185"/>
+      <c r="AB34" s="185"/>
     </row>
     <row r="35" spans="1:28" ht="25.5" customHeight="1">
       <c r="A35" s="2" t="s">

--- a/Documents/HU, HT, PB, SB.xlsx
+++ b/Documents/HU, HT, PB, SB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ff47571d30268be/Documentos/6/APLICACIONE II/Proyecto/SIGDCOLTA/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{9E2EBF68-07CF-4AFC-AA75-7B7F2117A3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABDEB44B-359B-4379-BACC-DC0333DEF1AE}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{9E2EBF68-07CF-4AFC-AA75-7B7F2117A3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EE97145-B975-47B7-B2F9-6852BEBB353C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{D7927580-9A21-4766-84F0-58BE9C7E4DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="8" xr2:uid="{D7927580-9A21-4766-84F0-58BE9C7E4DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="RF y RNF" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="975">
   <si>
     <t>Identificador (ID) de la Historia</t>
   </si>
@@ -2595,9 +2595,6 @@
     <t>El sistema enviara un correo al empleado</t>
   </si>
   <si>
-    <t>Ht6</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Version 7</t>
   </si>
   <si>
@@ -2764,13 +2761,220 @@
   </si>
   <si>
     <t>Se agrego la Revision de Validacion y Verificacion de Fuciones</t>
+  </si>
+  <si>
+    <t>Se implemento la solicitudes de perimiso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se modifico la Base de datos para tener mas Tablas </t>
+  </si>
+  <si>
+    <t>HCH3.2</t>
+  </si>
+  <si>
+    <t>Version 2.2</t>
+  </si>
+  <si>
+    <t>Version 4.2</t>
+  </si>
+  <si>
+    <t>HCH3.3</t>
+  </si>
+  <si>
+    <t>Version 4.3</t>
+  </si>
+  <si>
+    <t>HCH6</t>
+  </si>
+  <si>
+    <t>HCH7</t>
+  </si>
+  <si>
+    <t>Registro de Asistencia</t>
+  </si>
+  <si>
+    <t>5 Dias</t>
+  </si>
+  <si>
+    <t>Segunda Revision de las Verificaciones y Validaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Dias </t>
+  </si>
+  <si>
+    <t>Crear formulario para Asistenia</t>
+  </si>
+  <si>
+    <t>Implementar proceso de asistencia</t>
+  </si>
+  <si>
+    <t>Registrar historial de asistencia</t>
+  </si>
+  <si>
+    <t>SB9.2</t>
+  </si>
+  <si>
+    <t>Se agrego el registro de Asistencia</t>
+  </si>
+  <si>
+    <t>Segunda Revisión de las Verificaciones y Validaciones</t>
+  </si>
+  <si>
+    <t>Se agrego la segunda Revision de Validacion y Verificacion de Fuciones</t>
+  </si>
+  <si>
+    <t>HCHT8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se modifico la Base de datos para tener mas Tablas  en permisos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se modifico la Base de datos para tener mas Tablas en ubicaciion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitud de Permisos </t>
+  </si>
+  <si>
+    <t>Genracion de Infomes</t>
+  </si>
+  <si>
+    <t>Como un Desarrollador, necesito desarrollar la funcionalidad de Registro de Asistencia con la finalidad de permitir a los empleados registrar su asistencia de manera eficiente en el sistema.</t>
+  </si>
+  <si>
+    <t>Como un Desarrollador, necesito revisar la validaciones y verificaciones con la finalidad de que la logica de negocio sea mas eficiente en el sistema.</t>
+  </si>
+  <si>
+    <t>Como un Desarrollador, necesito desarrollar la funcionalidad de generar informes en formato PDF con la finalidad de permitir a los empleados tener una forma facil de visualizar la informacion</t>
+  </si>
+  <si>
+    <t>Se agrego el Registro de Asistencia</t>
+  </si>
+  <si>
+    <t>Se agrego la Segunda Revision de las Verificaciones y Validaciones</t>
+  </si>
+  <si>
+    <t>Se agrego la Genracion de Infomes</t>
+  </si>
+  <si>
+    <t>PB11.2</t>
+  </si>
+  <si>
+    <t>PB11.3</t>
+  </si>
+  <si>
+    <t>PB11.4</t>
+  </si>
+  <si>
+    <t>Version 9</t>
+  </si>
+  <si>
+    <t>Version 10</t>
+  </si>
+  <si>
+    <t>Version 11</t>
+  </si>
+  <si>
+    <t>HCHT9</t>
+  </si>
+  <si>
+    <t>HCHT10</t>
+  </si>
+  <si>
+    <t>Como un Desarrollador Frontend, necesito crear mockups en forma de tabla para visualizar la estructura y diseño de la interfaz de usuario. Esto facilitará la comprensión de los requisitos por parte del equipo y permitirá una colaboración más efectiva durante el proceso de desarrollo.</t>
+  </si>
+  <si>
+    <t>PB11.5</t>
+  </si>
+  <si>
+    <t>Elaboración de Mockups</t>
+  </si>
+  <si>
+    <t>SB9.3</t>
+  </si>
+  <si>
+    <t>SB9.4</t>
+  </si>
+  <si>
+    <t>Revisar los requisitos, digramas de procesos, casos de usos.</t>
+  </si>
+  <si>
+    <t>Identificar pantallas clave que requieran mockups</t>
+  </si>
+  <si>
+    <t>Utilizar herramientas de diseño para crear mockups</t>
+  </si>
+  <si>
+    <t>Compartir los mockups con el equipo interno para revisión</t>
+  </si>
+  <si>
+    <t>Realizar ajustes según la retroalimentación recibida</t>
+  </si>
+  <si>
+    <t>Subir los archivos de los mockups al repositorio</t>
+  </si>
+  <si>
+    <t>Revisar especificaciones del informe para comprender los datos a incluir</t>
+  </si>
+  <si>
+    <t>Diseñar la estructura y el formato del informe</t>
+  </si>
+  <si>
+    <t>Extraer los datos necesarios para el informe desde la Base de Datos</t>
+  </si>
+  <si>
+    <t>Utilizar la herramienta seleccionada para generar el informe en formato PDF</t>
+  </si>
+  <si>
+    <t>Diseño de Interfaz</t>
+  </si>
+  <si>
+    <t>Creación de Formularios</t>
+  </si>
+  <si>
+    <t>Validación de Formularios</t>
+  </si>
+  <si>
+    <t>Recuperación de Contraseña</t>
+  </si>
+  <si>
+    <t>Estilos y Animaciones</t>
+  </si>
+  <si>
+    <t>Integración con Sistema de Correo Electrónico</t>
+  </si>
+  <si>
+    <t>Diseño del Login y Recuperacion</t>
+  </si>
+  <si>
+    <t>SB9.5</t>
+  </si>
+  <si>
+    <t>Como Desarrollador Frontend, necesito crear un mockup detallado para la pantalla de inicio de sesión (Login). Esto incluirá la disposición de los campos de entrada, botones, y cualquier otro elemento necesario para proporcionar una experiencia de usuario intuitiva.</t>
+  </si>
+  <si>
+    <t>4 Dias</t>
+  </si>
+  <si>
+    <t>PB11.6</t>
+  </si>
+  <si>
+    <t>Se agrego Diseño del Login y Recuperacion</t>
+  </si>
+  <si>
+    <t>Version 12</t>
+  </si>
+  <si>
+    <t>HCHT11</t>
+  </si>
+  <si>
+    <t>SB9.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2865,6 +3069,13 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -3227,7 +3438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3773,6 +3984,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3785,6 +4024,33 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3806,18 +4072,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3834,21 +4088,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3881,6 +4120,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3908,55 +4186,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4905,36 +5154,36 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7319D34E-C980-405C-B005-218F4118AF08}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="217" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="218" t="s">
         <v>560</v>
       </c>
-      <c r="C1" s="209" t="s">
+      <c r="C1" s="219" t="s">
         <v>595</v>
       </c>
-      <c r="D1" s="208" t="s">
+      <c r="D1" s="218" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="207"/>
-      <c r="B2" s="208"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="208"/>
+      <c r="A2" s="217"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="218"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="38" t="s">
@@ -5051,7 +5300,7 @@
         <v>807</v>
       </c>
       <c r="D13" s="161" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5059,7 +5308,7 @@
       <c r="B14" s="89"/>
       <c r="C14" s="89"/>
       <c r="D14" s="161" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5067,7 +5316,35 @@
       <c r="B15" s="96"/>
       <c r="C15" s="96"/>
       <c r="D15" s="161" t="s">
-        <v>906</v>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="38" t="s">
+        <v>892</v>
+      </c>
+      <c r="B16" s="158">
+        <v>45297</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>866</v>
+      </c>
+      <c r="D16" s="161" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="38" t="s">
+        <v>926</v>
+      </c>
+      <c r="B17" s="158">
+        <v>45299</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>891</v>
+      </c>
+      <c r="D17" s="161" t="s">
+        <v>925</v>
       </c>
     </row>
   </sheetData>
@@ -5099,32 +5376,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="217" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="218" t="s">
         <v>560</v>
       </c>
-      <c r="C1" s="209" t="s">
+      <c r="C1" s="219" t="s">
         <v>571</v>
       </c>
-      <c r="D1" s="209" t="s">
+      <c r="D1" s="219" t="s">
         <v>729</v>
       </c>
-      <c r="E1" s="209" t="s">
+      <c r="E1" s="219" t="s">
         <v>730</v>
       </c>
-      <c r="F1" s="208" t="s">
+      <c r="F1" s="218" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="207"/>
-      <c r="B2" s="208"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="208"/>
+      <c r="A2" s="217"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="218"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="139" t="s">
@@ -5223,8 +5500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9DDE2-59FE-48B0-912A-9F161DB7D708}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A32"/>
+    <sheetView topLeftCell="A22" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="45.75" customHeight="1"/>
@@ -5243,20 +5520,20 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45.75" customHeight="1">
       <c r="A1" s="152"/>
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="240" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
       <c r="E1" s="150"/>
       <c r="F1" s="150"/>
       <c r="G1" s="151"/>
-      <c r="H1" s="215" t="s">
+      <c r="H1" s="234" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="217"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="236"/>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1">
       <c r="A2" s="153" t="s">
@@ -5295,11 +5572,11 @@
     </row>
     <row r="3" spans="1:11" ht="45.75" customHeight="1">
       <c r="A3" s="35"/>
-      <c r="B3" s="214" t="s">
+      <c r="B3" s="233" t="s">
         <v>773</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
       <c r="E3" s="129"/>
       <c r="F3" s="129"/>
       <c r="G3" s="36"/>
@@ -5309,22 +5586,22 @@
       <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A4" s="218" t="s">
+      <c r="A4" s="222" t="s">
         <v>378</v>
       </c>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="227" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="219" t="s">
+      <c r="C4" s="227" t="s">
         <v>463</v>
       </c>
-      <c r="D4" s="219" t="s">
+      <c r="D4" s="227" t="s">
         <v>464</v>
       </c>
-      <c r="E4" s="211" t="s">
+      <c r="E4" s="230" t="s">
         <v>782</v>
       </c>
-      <c r="F4" s="211" t="s">
+      <c r="F4" s="230" t="s">
         <v>749</v>
       </c>
       <c r="G4" s="40">
@@ -5344,12 +5621,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A5" s="218"/>
-      <c r="B5" s="220"/>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="212"/>
+      <c r="A5" s="222"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
       <c r="G5" s="40">
         <v>2</v>
       </c>
@@ -5367,12 +5644,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A6" s="218"/>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
+      <c r="A6" s="222"/>
+      <c r="B6" s="229"/>
+      <c r="C6" s="229"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="232"/>
       <c r="G6" s="126">
         <v>3</v>
       </c>
@@ -5383,11 +5660,11 @@
     </row>
     <row r="7" spans="1:11" ht="45.75" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="222" t="s">
+      <c r="B7" s="237" t="s">
         <v>774</v>
       </c>
-      <c r="C7" s="223"/>
-      <c r="D7" s="224"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="239"/>
       <c r="E7" s="130"/>
       <c r="F7" s="130"/>
       <c r="G7" s="27"/>
@@ -5397,22 +5674,22 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A8" s="218" t="s">
+      <c r="A8" s="222" t="s">
         <v>379</v>
       </c>
-      <c r="B8" s="219" t="s">
+      <c r="B8" s="227" t="s">
         <v>819</v>
       </c>
-      <c r="C8" s="219" t="s">
+      <c r="C8" s="227" t="s">
         <v>465</v>
       </c>
-      <c r="D8" s="219" t="s">
+      <c r="D8" s="227" t="s">
         <v>466</v>
       </c>
-      <c r="E8" s="211" t="s">
+      <c r="E8" s="230" t="s">
         <v>783</v>
       </c>
-      <c r="F8" s="211" t="s">
+      <c r="F8" s="230" t="s">
         <v>749</v>
       </c>
       <c r="G8" s="40">
@@ -5432,12 +5709,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A9" s="218"/>
-      <c r="B9" s="220"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="212"/>
-      <c r="F9" s="212"/>
+      <c r="A9" s="222"/>
+      <c r="B9" s="228"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
       <c r="G9" s="34">
         <v>2</v>
       </c>
@@ -5455,12 +5732,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A10" s="218"/>
-      <c r="B10" s="221"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="213"/>
-      <c r="F10" s="213"/>
+      <c r="A10" s="222"/>
+      <c r="B10" s="229"/>
+      <c r="C10" s="229"/>
+      <c r="D10" s="229"/>
+      <c r="E10" s="232"/>
+      <c r="F10" s="232"/>
       <c r="G10" s="126">
         <v>3</v>
       </c>
@@ -5479,11 +5756,11 @@
     </row>
     <row r="11" spans="1:11" ht="45.75" customHeight="1">
       <c r="A11" s="35"/>
-      <c r="B11" s="214" t="s">
+      <c r="B11" s="233" t="s">
         <v>371</v>
       </c>
-      <c r="C11" s="214"/>
-      <c r="D11" s="214"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="149"/>
       <c r="F11" s="149"/>
       <c r="G11" s="35"/>
@@ -5493,22 +5770,22 @@
       <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="222" t="s">
         <v>380</v>
       </c>
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="227" t="s">
         <v>827</v>
       </c>
-      <c r="C12" s="219" t="s">
+      <c r="C12" s="227" t="s">
         <v>467</v>
       </c>
-      <c r="D12" s="219" t="s">
+      <c r="D12" s="227" t="s">
         <v>468</v>
       </c>
-      <c r="E12" s="211" t="s">
+      <c r="E12" s="230" t="s">
         <v>704</v>
       </c>
-      <c r="F12" s="211" t="s">
+      <c r="F12" s="230" t="s">
         <v>784</v>
       </c>
       <c r="G12" s="40">
@@ -5528,12 +5805,12 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A13" s="218"/>
-      <c r="B13" s="220"/>
-      <c r="C13" s="220"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="212"/>
+      <c r="A13" s="222"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="228"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="231"/>
       <c r="G13" s="40">
         <v>2</v>
       </c>
@@ -5551,12 +5828,12 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A14" s="218"/>
-      <c r="B14" s="220"/>
-      <c r="C14" s="220"/>
-      <c r="D14" s="220"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
+      <c r="A14" s="222"/>
+      <c r="B14" s="228"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="228"/>
+      <c r="E14" s="231"/>
+      <c r="F14" s="231"/>
       <c r="G14" s="40">
         <v>3</v>
       </c>
@@ -5574,12 +5851,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A15" s="218"/>
-      <c r="B15" s="221"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="221"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="213"/>
+      <c r="A15" s="222"/>
+      <c r="B15" s="229"/>
+      <c r="C15" s="229"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="232"/>
+      <c r="F15" s="232"/>
       <c r="G15" s="40">
         <v>4</v>
       </c>
@@ -5590,11 +5867,11 @@
     </row>
     <row r="16" spans="1:11" ht="45.75" customHeight="1">
       <c r="A16" s="35"/>
-      <c r="B16" s="214" t="s">
+      <c r="B16" s="233" t="s">
         <v>372</v>
       </c>
-      <c r="C16" s="214"/>
-      <c r="D16" s="214"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="233"/>
       <c r="E16" s="149"/>
       <c r="F16" s="149"/>
       <c r="G16" s="35"/>
@@ -5604,22 +5881,22 @@
       <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A17" s="218" t="s">
+      <c r="A17" s="222" t="s">
         <v>381</v>
       </c>
-      <c r="B17" s="219" t="s">
+      <c r="B17" s="227" t="s">
         <v>831</v>
       </c>
-      <c r="C17" s="219" t="s">
+      <c r="C17" s="227" t="s">
         <v>469</v>
       </c>
-      <c r="D17" s="219" t="s">
+      <c r="D17" s="227" t="s">
         <v>470</v>
       </c>
-      <c r="E17" s="211" t="s">
+      <c r="E17" s="230" t="s">
         <v>785</v>
       </c>
-      <c r="F17" s="211" t="s">
+      <c r="F17" s="230" t="s">
         <v>749</v>
       </c>
       <c r="G17" s="40">
@@ -5629,7 +5906,7 @@
         <v>498</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J17" s="41" t="s">
         <v>499</v>
@@ -5639,12 +5916,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A18" s="218"/>
-      <c r="B18" s="220"/>
-      <c r="C18" s="220"/>
-      <c r="D18" s="220"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
+      <c r="A18" s="222"/>
+      <c r="B18" s="228"/>
+      <c r="C18" s="228"/>
+      <c r="D18" s="228"/>
+      <c r="E18" s="231"/>
+      <c r="F18" s="231"/>
       <c r="G18" s="40">
         <v>2</v>
       </c>
@@ -5652,7 +5929,7 @@
         <v>501</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J18" s="41" t="s">
         <v>502</v>
@@ -5662,12 +5939,12 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A19" s="218"/>
-      <c r="B19" s="220"/>
-      <c r="C19" s="220"/>
-      <c r="D19" s="220"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="212"/>
+      <c r="A19" s="222"/>
+      <c r="B19" s="228"/>
+      <c r="C19" s="228"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="231"/>
+      <c r="F19" s="231"/>
       <c r="G19" s="40">
         <v>3</v>
       </c>
@@ -5675,7 +5952,7 @@
         <v>504</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J19" s="41" t="s">
         <v>505</v>
@@ -5685,35 +5962,35 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A20" s="218"/>
-      <c r="B20" s="221"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
+      <c r="A20" s="222"/>
+      <c r="B20" s="229"/>
+      <c r="C20" s="229"/>
+      <c r="D20" s="229"/>
+      <c r="E20" s="232"/>
+      <c r="F20" s="232"/>
       <c r="G20" s="40">
         <v>4</v>
       </c>
       <c r="H20" s="41" t="s">
+        <v>871</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>874</v>
+      </c>
+      <c r="J20" s="41" t="s">
         <v>872</v>
       </c>
-      <c r="I20" s="41" t="s">
-        <v>875</v>
-      </c>
-      <c r="J20" s="41" t="s">
+      <c r="K20" s="41" t="s">
         <v>873</v>
-      </c>
-      <c r="K20" s="41" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45.75" customHeight="1">
       <c r="A21" s="35"/>
-      <c r="B21" s="214" t="s">
+      <c r="B21" s="233" t="s">
         <v>373</v>
       </c>
-      <c r="C21" s="214"/>
-      <c r="D21" s="214"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
       <c r="E21" s="149"/>
       <c r="F21" s="149"/>
       <c r="G21" s="35"/>
@@ -5723,22 +6000,22 @@
       <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A22" s="211" t="s">
+      <c r="A22" s="230" t="s">
         <v>790</v>
       </c>
-      <c r="B22" s="219" t="s">
+      <c r="B22" s="227" t="s">
         <v>471</v>
       </c>
-      <c r="C22" s="219" t="s">
+      <c r="C22" s="227" t="s">
         <v>472</v>
       </c>
-      <c r="D22" s="219" t="s">
+      <c r="D22" s="227" t="s">
         <v>473</v>
       </c>
-      <c r="E22" s="211" t="s">
+      <c r="E22" s="230" t="s">
         <v>786</v>
       </c>
-      <c r="F22" s="211" t="s">
+      <c r="F22" s="230" t="s">
         <v>749</v>
       </c>
       <c r="G22" s="40">
@@ -5758,12 +6035,12 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A23" s="212"/>
-      <c r="B23" s="220"/>
-      <c r="C23" s="220"/>
-      <c r="D23" s="220"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="212"/>
+      <c r="A23" s="231"/>
+      <c r="B23" s="228"/>
+      <c r="C23" s="228"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="231"/>
+      <c r="F23" s="231"/>
       <c r="G23" s="40">
         <v>2</v>
       </c>
@@ -5781,12 +6058,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A24" s="212"/>
-      <c r="B24" s="220"/>
-      <c r="C24" s="220"/>
-      <c r="D24" s="220"/>
-      <c r="E24" s="212"/>
-      <c r="F24" s="212"/>
+      <c r="A24" s="231"/>
+      <c r="B24" s="228"/>
+      <c r="C24" s="228"/>
+      <c r="D24" s="228"/>
+      <c r="E24" s="231"/>
+      <c r="F24" s="231"/>
       <c r="G24" s="40">
         <v>3</v>
       </c>
@@ -5804,12 +6081,12 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A25" s="212"/>
-      <c r="B25" s="220"/>
-      <c r="C25" s="220"/>
-      <c r="D25" s="220"/>
-      <c r="E25" s="212"/>
-      <c r="F25" s="212"/>
+      <c r="A25" s="231"/>
+      <c r="B25" s="228"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="231"/>
       <c r="G25" s="40">
         <v>4</v>
       </c>
@@ -5827,12 +6104,12 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A26" s="212"/>
-      <c r="B26" s="220"/>
-      <c r="C26" s="220"/>
-      <c r="D26" s="220"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="212"/>
+      <c r="A26" s="231"/>
+      <c r="B26" s="228"/>
+      <c r="C26" s="228"/>
+      <c r="D26" s="228"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="231"/>
       <c r="G26" s="40">
         <v>5</v>
       </c>
@@ -5850,12 +6127,12 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A27" s="213"/>
-      <c r="B27" s="221"/>
-      <c r="C27" s="221"/>
-      <c r="D27" s="221"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
+      <c r="A27" s="232"/>
+      <c r="B27" s="229"/>
+      <c r="C27" s="229"/>
+      <c r="D27" s="229"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="232"/>
       <c r="G27" s="40">
         <v>6</v>
       </c>
@@ -5874,11 +6151,11 @@
     </row>
     <row r="28" spans="1:11" ht="45.75" customHeight="1">
       <c r="A28" s="35"/>
-      <c r="B28" s="230" t="s">
+      <c r="B28" s="226" t="s">
         <v>832</v>
       </c>
-      <c r="C28" s="230"/>
-      <c r="D28" s="230"/>
+      <c r="C28" s="226"/>
+      <c r="D28" s="226"/>
       <c r="E28" s="149"/>
       <c r="F28" s="149"/>
       <c r="G28" s="35"/>
@@ -5888,22 +6165,22 @@
       <c r="K28" s="36"/>
     </row>
     <row r="29" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A29" s="231" t="s">
+      <c r="A29" s="221" t="s">
         <v>382</v>
       </c>
-      <c r="B29" s="218" t="s">
+      <c r="B29" s="222" t="s">
         <v>819</v>
       </c>
-      <c r="C29" s="218" t="s">
+      <c r="C29" s="222" t="s">
         <v>833</v>
       </c>
-      <c r="D29" s="218" t="s">
+      <c r="D29" s="222" t="s">
         <v>834</v>
       </c>
-      <c r="E29" s="231" t="s">
+      <c r="E29" s="221" t="s">
         <v>704</v>
       </c>
-      <c r="F29" s="227" t="s">
+      <c r="F29" s="223" t="s">
         <v>383</v>
       </c>
       <c r="G29" s="194">
@@ -5923,12 +6200,12 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A30" s="231"/>
-      <c r="B30" s="218"/>
-      <c r="C30" s="218"/>
-      <c r="D30" s="218"/>
-      <c r="E30" s="231"/>
-      <c r="F30" s="228"/>
+      <c r="A30" s="221"/>
+      <c r="B30" s="222"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="222"/>
+      <c r="E30" s="221"/>
+      <c r="F30" s="224"/>
       <c r="G30" s="194">
         <v>2</v>
       </c>
@@ -5946,12 +6223,12 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A31" s="231"/>
-      <c r="B31" s="218"/>
-      <c r="C31" s="218"/>
-      <c r="D31" s="218"/>
-      <c r="E31" s="231"/>
-      <c r="F31" s="228"/>
+      <c r="A31" s="221"/>
+      <c r="B31" s="222"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="221"/>
+      <c r="F31" s="224"/>
       <c r="G31" s="194">
         <v>3</v>
       </c>
@@ -5969,12 +6246,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A32" s="231"/>
-      <c r="B32" s="218"/>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="231"/>
-      <c r="F32" s="229"/>
+      <c r="A32" s="221"/>
+      <c r="B32" s="222"/>
+      <c r="C32" s="222"/>
+      <c r="D32" s="222"/>
+      <c r="E32" s="221"/>
+      <c r="F32" s="225"/>
       <c r="G32" s="188">
         <v>4</v>
       </c>
@@ -5993,29 +6270,11 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B3:D3"/>
@@ -6032,11 +6291,29 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6048,7 +6325,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6058,28 +6335,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="217" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="218" t="s">
         <v>560</v>
       </c>
-      <c r="C1" s="209" t="s">
+      <c r="C1" s="219" t="s">
         <v>571</v>
       </c>
-      <c r="D1" s="209" t="s">
+      <c r="D1" s="219" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="208" t="s">
+      <c r="E1" s="218" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="207"/>
-      <c r="B2" s="208"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="208"/>
+      <c r="A2" s="217"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="218"/>
     </row>
     <row r="3" spans="1:5" s="72" customFormat="1">
       <c r="A3" s="73" t="s">
@@ -6097,13 +6374,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="242" t="s">
         <v>577</v>
       </c>
-      <c r="B4" s="234">
+      <c r="B4" s="244">
         <v>45245</v>
       </c>
-      <c r="C4" s="234" t="s">
+      <c r="C4" s="244" t="s">
         <v>573</v>
       </c>
       <c r="D4" s="108"/>
@@ -6112,31 +6389,31 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="233"/>
-      <c r="B5" s="228"/>
-      <c r="C5" s="238"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="248"/>
       <c r="D5" s="109"/>
       <c r="E5" s="68" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="233"/>
-      <c r="B6" s="228"/>
-      <c r="C6" s="239"/>
+      <c r="A6" s="243"/>
+      <c r="B6" s="224"/>
+      <c r="C6" s="249"/>
       <c r="D6" s="109"/>
       <c r="E6" s="68" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="232" t="s">
+      <c r="A7" s="242" t="s">
         <v>578</v>
       </c>
-      <c r="B7" s="234">
+      <c r="B7" s="244">
         <v>45261</v>
       </c>
-      <c r="C7" s="234" t="s">
+      <c r="C7" s="244" t="s">
         <v>574</v>
       </c>
       <c r="D7" s="108"/>
@@ -6145,31 +6422,31 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="233"/>
-      <c r="B8" s="228"/>
-      <c r="C8" s="238"/>
+      <c r="A8" s="243"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="248"/>
       <c r="D8" s="109"/>
       <c r="E8" s="68" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="233"/>
-      <c r="B9" s="228"/>
-      <c r="C9" s="239"/>
+      <c r="A9" s="243"/>
+      <c r="B9" s="224"/>
+      <c r="C9" s="249"/>
       <c r="D9" s="109"/>
       <c r="E9" s="68" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="232" t="s">
+      <c r="A10" s="242" t="s">
         <v>579</v>
       </c>
-      <c r="B10" s="235">
+      <c r="B10" s="245">
         <v>45265</v>
       </c>
-      <c r="C10" s="234" t="s">
+      <c r="C10" s="244" t="s">
         <v>575</v>
       </c>
       <c r="D10" s="190"/>
@@ -6178,9 +6455,9 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="237"/>
-      <c r="B11" s="236"/>
-      <c r="C11" s="239"/>
+      <c r="A11" s="247"/>
+      <c r="B11" s="246"/>
+      <c r="C11" s="249"/>
       <c r="D11" s="191"/>
       <c r="E11" s="76" t="s">
         <v>570</v>
@@ -6203,7 +6480,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="196" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B13" s="158">
         <v>45287</v>
@@ -6220,13 +6497,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="196" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B14" s="158">
         <v>45287</v>
       </c>
       <c r="C14" s="159" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D14" s="159" t="s">
         <v>380</v>
@@ -6237,13 +6514,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="196" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B15" s="158">
         <v>45287</v>
       </c>
       <c r="C15" s="159" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D15" s="159" t="s">
         <v>381</v>
@@ -6254,36 +6531,36 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="196" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B16" s="158">
         <v>45289</v>
       </c>
       <c r="C16" s="159" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D16" s="159" t="s">
         <v>382</v>
       </c>
       <c r="E16" s="161" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="196" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B17" s="158">
         <v>45290</v>
       </c>
       <c r="C17" s="159" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D17" s="159" t="s">
         <v>381</v>
       </c>
       <c r="E17" s="97" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6327,8 +6604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9B023D-957F-4AAE-9E3E-1343C14F2EF3}">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29.25" customHeight="1"/>
@@ -6348,20 +6625,20 @@
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1">
       <c r="A1" s="19"/>
-      <c r="B1" s="246" t="s">
+      <c r="B1" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="249" t="s">
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="272" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="251"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="274"/>
     </row>
     <row r="2" spans="1:11" ht="29.25" customHeight="1">
       <c r="A2" s="18" t="s">
@@ -6400,11 +6677,11 @@
     </row>
     <row r="3" spans="1:11" s="37" customFormat="1" ht="29.25" customHeight="1">
       <c r="A3" s="35"/>
-      <c r="B3" s="214" t="s">
+      <c r="B3" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
       <c r="G3" s="35"/>
@@ -6414,22 +6691,22 @@
       <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A4" s="218" t="s">
+      <c r="A4" s="222" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="252" t="s">
+      <c r="C4" s="261" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="253" t="s">
+      <c r="D4" s="262" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="211" t="s">
+      <c r="E4" s="230" t="s">
         <v>705</v>
       </c>
-      <c r="F4" s="211" t="s">
+      <c r="F4" s="230" t="s">
         <v>383</v>
       </c>
       <c r="G4" s="26">
@@ -6449,12 +6726,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A5" s="218"/>
-      <c r="B5" s="218"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="212"/>
+      <c r="A5" s="222"/>
+      <c r="B5" s="222"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
       <c r="G5" s="26">
         <v>2</v>
       </c>
@@ -6470,12 +6747,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A6" s="218"/>
-      <c r="B6" s="218"/>
-      <c r="C6" s="252"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="212"/>
-      <c r="F6" s="212"/>
+      <c r="A6" s="222"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="231"/>
       <c r="G6" s="26">
         <v>3</v>
       </c>
@@ -6491,12 +6768,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A7" s="218"/>
-      <c r="B7" s="218"/>
-      <c r="C7" s="252"/>
-      <c r="D7" s="253"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
+      <c r="A7" s="222"/>
+      <c r="B7" s="222"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="262"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="232"/>
       <c r="G7" s="26">
         <v>4</v>
       </c>
@@ -6515,11 +6792,11 @@
     </row>
     <row r="8" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A8" s="31"/>
-      <c r="B8" s="222" t="s">
+      <c r="B8" s="237" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="223"/>
-      <c r="D8" s="224"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
       <c r="E8" s="130"/>
       <c r="F8" s="130"/>
       <c r="G8" s="27"/>
@@ -6529,10 +6806,10 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A9" s="240" t="s">
+      <c r="A9" s="250" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="258" t="s">
+      <c r="B9" s="253" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="257" t="s">
@@ -6541,10 +6818,10 @@
       <c r="D9" s="257" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="240" t="s">
+      <c r="E9" s="250" t="s">
         <v>383</v>
       </c>
-      <c r="F9" s="240" t="s">
+      <c r="F9" s="250" t="s">
         <v>753</v>
       </c>
       <c r="G9" s="26">
@@ -6562,12 +6839,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A10" s="241"/>
-      <c r="B10" s="258"/>
+      <c r="A10" s="251"/>
+      <c r="B10" s="253"/>
       <c r="C10" s="257"/>
       <c r="D10" s="257"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
       <c r="G10" s="26">
         <v>2</v>
       </c>
@@ -6585,12 +6862,12 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A11" s="241"/>
-      <c r="B11" s="258"/>
+      <c r="A11" s="251"/>
+      <c r="B11" s="253"/>
       <c r="C11" s="257"/>
       <c r="D11" s="257"/>
-      <c r="E11" s="241"/>
-      <c r="F11" s="241"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="251"/>
       <c r="G11" s="26">
         <v>3</v>
       </c>
@@ -6608,12 +6885,12 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A12" s="241"/>
-      <c r="B12" s="258"/>
+      <c r="A12" s="251"/>
+      <c r="B12" s="253"/>
       <c r="C12" s="257"/>
       <c r="D12" s="257"/>
-      <c r="E12" s="241"/>
-      <c r="F12" s="241"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="251"/>
       <c r="G12" s="126">
         <v>4</v>
       </c>
@@ -6625,12 +6902,12 @@
       <c r="K12" s="42"/>
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A13" s="241"/>
-      <c r="B13" s="258"/>
+      <c r="A13" s="251"/>
+      <c r="B13" s="253"/>
       <c r="C13" s="257"/>
       <c r="D13" s="257"/>
-      <c r="E13" s="241"/>
-      <c r="F13" s="241"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
       <c r="G13" s="126">
         <v>5</v>
       </c>
@@ -6642,12 +6919,12 @@
       <c r="K13" s="42"/>
     </row>
     <row r="14" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A14" s="241"/>
-      <c r="B14" s="258"/>
+      <c r="A14" s="251"/>
+      <c r="B14" s="253"/>
       <c r="C14" s="257"/>
       <c r="D14" s="257"/>
-      <c r="E14" s="241"/>
-      <c r="F14" s="241"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="251"/>
       <c r="G14" s="126">
         <v>6</v>
       </c>
@@ -6659,12 +6936,12 @@
       <c r="K14" s="42"/>
     </row>
     <row r="15" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A15" s="242"/>
-      <c r="B15" s="258"/>
+      <c r="A15" s="252"/>
+      <c r="B15" s="253"/>
       <c r="C15" s="257"/>
       <c r="D15" s="257"/>
-      <c r="E15" s="242"/>
-      <c r="F15" s="242"/>
+      <c r="E15" s="252"/>
+      <c r="F15" s="252"/>
       <c r="G15" s="126">
         <v>7</v>
       </c>
@@ -6697,22 +6974,22 @@
       <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A17" s="240" t="s">
+      <c r="A17" s="250" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="258" t="s">
+      <c r="B17" s="253" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="259" t="s">
+      <c r="C17" s="258" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="258" t="s">
+      <c r="D17" s="253" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="240" t="s">
+      <c r="E17" s="250" t="s">
         <v>383</v>
       </c>
-      <c r="F17" s="240" t="s">
+      <c r="F17" s="250" t="s">
         <v>750</v>
       </c>
       <c r="G17" s="26">
@@ -6732,12 +7009,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A18" s="241"/>
-      <c r="B18" s="258"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="258"/>
-      <c r="E18" s="241"/>
-      <c r="F18" s="241"/>
+      <c r="A18" s="251"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="259"/>
+      <c r="D18" s="253"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
       <c r="G18" s="26">
         <v>2</v>
       </c>
@@ -6753,12 +7030,12 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A19" s="241"/>
-      <c r="B19" s="258"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="258"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="241"/>
+      <c r="A19" s="251"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="259"/>
+      <c r="D19" s="253"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="251"/>
       <c r="G19" s="126">
         <v>3</v>
       </c>
@@ -6770,12 +7047,12 @@
       <c r="K19" s="42"/>
     </row>
     <row r="20" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A20" s="241"/>
-      <c r="B20" s="258"/>
-      <c r="C20" s="260"/>
-      <c r="D20" s="258"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="241"/>
+      <c r="A20" s="251"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="259"/>
+      <c r="D20" s="253"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="251"/>
       <c r="G20" s="126">
         <v>4</v>
       </c>
@@ -6793,12 +7070,12 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A21" s="241"/>
-      <c r="B21" s="258"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="241"/>
-      <c r="F21" s="241"/>
+      <c r="A21" s="251"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="259"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="251"/>
       <c r="G21" s="126">
         <v>5</v>
       </c>
@@ -6816,12 +7093,12 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A22" s="242"/>
-      <c r="B22" s="258"/>
-      <c r="C22" s="261"/>
-      <c r="D22" s="258"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="242"/>
+      <c r="A22" s="252"/>
+      <c r="B22" s="253"/>
+      <c r="C22" s="260"/>
+      <c r="D22" s="253"/>
+      <c r="E22" s="252"/>
+      <c r="F22" s="252"/>
       <c r="G22" s="126">
         <v>6</v>
       </c>
@@ -6834,11 +7111,11 @@
     </row>
     <row r="23" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="27"/>
-      <c r="B23" s="222" t="s">
+      <c r="B23" s="237" t="s">
         <v>328</v>
       </c>
-      <c r="C23" s="223"/>
-      <c r="D23" s="224"/>
+      <c r="C23" s="238"/>
+      <c r="D23" s="239"/>
       <c r="E23" s="130"/>
       <c r="F23" s="130"/>
       <c r="G23" s="27"/>
@@ -6848,22 +7125,22 @@
       <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A24" s="218" t="s">
+      <c r="A24" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="218" t="s">
+      <c r="B24" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="252" t="s">
+      <c r="C24" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="253" t="s">
+      <c r="D24" s="262" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="211" t="s">
+      <c r="E24" s="230" t="s">
         <v>383</v>
       </c>
-      <c r="F24" s="211" t="s">
+      <c r="F24" s="230" t="s">
         <v>752</v>
       </c>
       <c r="G24" s="26">
@@ -6881,12 +7158,12 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A25" s="218"/>
-      <c r="B25" s="218"/>
-      <c r="C25" s="252"/>
-      <c r="D25" s="253"/>
-      <c r="E25" s="212"/>
-      <c r="F25" s="212"/>
+      <c r="A25" s="222"/>
+      <c r="B25" s="222"/>
+      <c r="C25" s="261"/>
+      <c r="D25" s="262"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="231"/>
       <c r="G25" s="34">
         <v>2</v>
       </c>
@@ -6902,12 +7179,12 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A26" s="218"/>
-      <c r="B26" s="218"/>
-      <c r="C26" s="252"/>
-      <c r="D26" s="253"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="212"/>
+      <c r="A26" s="222"/>
+      <c r="B26" s="222"/>
+      <c r="C26" s="261"/>
+      <c r="D26" s="262"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="231"/>
       <c r="G26" s="26">
         <v>3</v>
       </c>
@@ -6923,12 +7200,12 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A27" s="218"/>
-      <c r="B27" s="218"/>
-      <c r="C27" s="252"/>
-      <c r="D27" s="253"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
+      <c r="A27" s="222"/>
+      <c r="B27" s="222"/>
+      <c r="C27" s="261"/>
+      <c r="D27" s="262"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="232"/>
       <c r="G27" s="26">
         <v>4</v>
       </c>
@@ -6947,11 +7224,11 @@
     </row>
     <row r="28" spans="1:11" s="29" customFormat="1" ht="29.25" customHeight="1">
       <c r="A28" s="30"/>
-      <c r="B28" s="222" t="s">
+      <c r="B28" s="237" t="s">
         <v>329</v>
       </c>
-      <c r="C28" s="223"/>
-      <c r="D28" s="224"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="239"/>
       <c r="E28" s="130"/>
       <c r="F28" s="130"/>
       <c r="G28" s="27"/>
@@ -6961,19 +7238,19 @@
       <c r="K28" s="28"/>
     </row>
     <row r="29" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A29" s="211" t="s">
+      <c r="A29" s="230" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="211" t="s">
+      <c r="B29" s="230" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="219" t="s">
+      <c r="C29" s="227" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="262" t="s">
+      <c r="D29" s="263" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="211" t="s">
+      <c r="E29" s="230" t="s">
         <v>707</v>
       </c>
       <c r="F29" s="132"/>
@@ -6992,11 +7269,11 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A30" s="212"/>
-      <c r="B30" s="212"/>
-      <c r="C30" s="220"/>
-      <c r="D30" s="263"/>
-      <c r="E30" s="212"/>
+      <c r="A30" s="231"/>
+      <c r="B30" s="231"/>
+      <c r="C30" s="228"/>
+      <c r="D30" s="264"/>
+      <c r="E30" s="231"/>
       <c r="F30" s="133"/>
       <c r="G30" s="26">
         <v>2</v>
@@ -7013,11 +7290,11 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A31" s="212"/>
-      <c r="B31" s="212"/>
-      <c r="C31" s="220"/>
-      <c r="D31" s="263"/>
-      <c r="E31" s="212"/>
+      <c r="A31" s="231"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="228"/>
+      <c r="D31" s="264"/>
+      <c r="E31" s="231"/>
       <c r="F31" s="133"/>
       <c r="G31" s="26">
         <v>3</v>
@@ -7036,11 +7313,11 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A32" s="213"/>
-      <c r="B32" s="213"/>
-      <c r="C32" s="221"/>
-      <c r="D32" s="264"/>
-      <c r="E32" s="213"/>
+      <c r="A32" s="232"/>
+      <c r="B32" s="232"/>
+      <c r="C32" s="229"/>
+      <c r="D32" s="265"/>
+      <c r="E32" s="232"/>
       <c r="F32" s="134"/>
       <c r="G32" s="26">
         <v>4</v>
@@ -7074,22 +7351,22 @@
       <c r="K33" s="28"/>
     </row>
     <row r="34" spans="1:11" s="61" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A34" s="240" t="s">
+      <c r="A34" s="250" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="258" t="s">
+      <c r="B34" s="253" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="258" t="s">
+      <c r="C34" s="253" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="243" t="s">
+      <c r="D34" s="266" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="240" t="s">
+      <c r="E34" s="250" t="s">
         <v>706</v>
       </c>
-      <c r="F34" s="240" t="s">
+      <c r="F34" s="250" t="s">
         <v>383</v>
       </c>
       <c r="G34" s="34">
@@ -7103,12 +7380,12 @@
       <c r="K34" s="60"/>
     </row>
     <row r="35" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A35" s="241"/>
-      <c r="B35" s="258"/>
-      <c r="C35" s="258"/>
-      <c r="D35" s="244"/>
-      <c r="E35" s="241"/>
-      <c r="F35" s="241"/>
+      <c r="A35" s="251"/>
+      <c r="B35" s="253"/>
+      <c r="C35" s="253"/>
+      <c r="D35" s="267"/>
+      <c r="E35" s="251"/>
+      <c r="F35" s="251"/>
       <c r="G35" s="26">
         <v>2</v>
       </c>
@@ -7124,12 +7401,12 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A36" s="241"/>
-      <c r="B36" s="258"/>
-      <c r="C36" s="258"/>
-      <c r="D36" s="244"/>
-      <c r="E36" s="241"/>
-      <c r="F36" s="241"/>
+      <c r="A36" s="251"/>
+      <c r="B36" s="253"/>
+      <c r="C36" s="253"/>
+      <c r="D36" s="267"/>
+      <c r="E36" s="251"/>
+      <c r="F36" s="251"/>
       <c r="G36" s="34">
         <v>3</v>
       </c>
@@ -7145,12 +7422,12 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A37" s="241"/>
-      <c r="B37" s="258"/>
-      <c r="C37" s="258"/>
-      <c r="D37" s="244"/>
-      <c r="E37" s="241"/>
-      <c r="F37" s="241"/>
+      <c r="A37" s="251"/>
+      <c r="B37" s="253"/>
+      <c r="C37" s="253"/>
+      <c r="D37" s="267"/>
+      <c r="E37" s="251"/>
+      <c r="F37" s="251"/>
       <c r="G37" s="126">
         <v>4</v>
       </c>
@@ -7168,12 +7445,12 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A38" s="242"/>
-      <c r="B38" s="258"/>
-      <c r="C38" s="258"/>
-      <c r="D38" s="245"/>
-      <c r="E38" s="242"/>
-      <c r="F38" s="242"/>
+      <c r="A38" s="252"/>
+      <c r="B38" s="253"/>
+      <c r="C38" s="253"/>
+      <c r="D38" s="268"/>
+      <c r="E38" s="252"/>
+      <c r="F38" s="252"/>
       <c r="G38" s="34">
         <v>5</v>
       </c>
@@ -7206,10 +7483,10 @@
       <c r="K39" s="28"/>
     </row>
     <row r="40" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A40" s="240" t="s">
+      <c r="A40" s="250" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="258" t="s">
+      <c r="B40" s="253" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="257" t="s">
@@ -7218,10 +7495,10 @@
       <c r="D40" s="257" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="240" t="s">
+      <c r="E40" s="250" t="s">
         <v>711</v>
       </c>
-      <c r="F40" s="240" t="s">
+      <c r="F40" s="250" t="s">
         <v>383</v>
       </c>
       <c r="G40" s="26">
@@ -7239,12 +7516,12 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A41" s="241"/>
-      <c r="B41" s="258"/>
+      <c r="A41" s="251"/>
+      <c r="B41" s="253"/>
       <c r="C41" s="257"/>
       <c r="D41" s="257"/>
-      <c r="E41" s="241"/>
-      <c r="F41" s="241"/>
+      <c r="E41" s="251"/>
+      <c r="F41" s="251"/>
       <c r="G41" s="26">
         <v>2</v>
       </c>
@@ -7260,12 +7537,12 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A42" s="241"/>
-      <c r="B42" s="258"/>
+      <c r="A42" s="251"/>
+      <c r="B42" s="253"/>
       <c r="C42" s="257"/>
       <c r="D42" s="257"/>
-      <c r="E42" s="241"/>
-      <c r="F42" s="241"/>
+      <c r="E42" s="251"/>
+      <c r="F42" s="251"/>
       <c r="G42" s="26">
         <v>3</v>
       </c>
@@ -7283,12 +7560,12 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A43" s="242"/>
-      <c r="B43" s="258"/>
+      <c r="A43" s="252"/>
+      <c r="B43" s="253"/>
       <c r="C43" s="257"/>
       <c r="D43" s="257"/>
-      <c r="E43" s="242"/>
-      <c r="F43" s="242"/>
+      <c r="E43" s="252"/>
+      <c r="F43" s="252"/>
       <c r="G43" s="26">
         <v>4</v>
       </c>
@@ -7321,10 +7598,10 @@
       <c r="K44" s="33"/>
     </row>
     <row r="45" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A45" s="240" t="s">
+      <c r="A45" s="250" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="258" t="s">
+      <c r="B45" s="253" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="257" t="s">
@@ -7333,10 +7610,10 @@
       <c r="D45" s="257" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="240" t="s">
+      <c r="E45" s="250" t="s">
         <v>703</v>
       </c>
-      <c r="F45" s="240" t="s">
+      <c r="F45" s="250" t="s">
         <v>383</v>
       </c>
       <c r="G45" s="26">
@@ -7356,12 +7633,12 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A46" s="241"/>
-      <c r="B46" s="258"/>
+      <c r="A46" s="251"/>
+      <c r="B46" s="253"/>
       <c r="C46" s="257"/>
       <c r="D46" s="257"/>
-      <c r="E46" s="241"/>
-      <c r="F46" s="241"/>
+      <c r="E46" s="251"/>
+      <c r="F46" s="251"/>
       <c r="G46" s="26">
         <v>2</v>
       </c>
@@ -7379,12 +7656,12 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A47" s="241"/>
-      <c r="B47" s="258"/>
+      <c r="A47" s="251"/>
+      <c r="B47" s="253"/>
       <c r="C47" s="257"/>
       <c r="D47" s="257"/>
-      <c r="E47" s="241"/>
-      <c r="F47" s="241"/>
+      <c r="E47" s="251"/>
+      <c r="F47" s="251"/>
       <c r="G47" s="26">
         <v>3</v>
       </c>
@@ -7402,12 +7679,12 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A48" s="242"/>
-      <c r="B48" s="258"/>
+      <c r="A48" s="252"/>
+      <c r="B48" s="253"/>
       <c r="C48" s="257"/>
       <c r="D48" s="257"/>
-      <c r="E48" s="242"/>
-      <c r="F48" s="242"/>
+      <c r="E48" s="252"/>
+      <c r="F48" s="252"/>
       <c r="G48" s="26">
         <v>4</v>
       </c>
@@ -7440,10 +7717,10 @@
       <c r="K49" s="33"/>
     </row>
     <row r="50" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A50" s="240" t="s">
+      <c r="A50" s="250" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="258" t="s">
+      <c r="B50" s="253" t="s">
         <v>87</v>
       </c>
       <c r="C50" s="257" t="s">
@@ -7452,10 +7729,10 @@
       <c r="D50" s="257" t="s">
         <v>89</v>
       </c>
-      <c r="E50" s="240" t="s">
+      <c r="E50" s="250" t="s">
         <v>383</v>
       </c>
-      <c r="F50" s="240" t="s">
+      <c r="F50" s="250" t="s">
         <v>753</v>
       </c>
       <c r="G50" s="26">
@@ -7475,12 +7752,12 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A51" s="241"/>
-      <c r="B51" s="258"/>
+      <c r="A51" s="251"/>
+      <c r="B51" s="253"/>
       <c r="C51" s="257"/>
       <c r="D51" s="257"/>
-      <c r="E51" s="241"/>
-      <c r="F51" s="241"/>
+      <c r="E51" s="251"/>
+      <c r="F51" s="251"/>
       <c r="G51" s="26">
         <v>2</v>
       </c>
@@ -7496,12 +7773,12 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A52" s="241"/>
-      <c r="B52" s="258"/>
+      <c r="A52" s="251"/>
+      <c r="B52" s="253"/>
       <c r="C52" s="257"/>
       <c r="D52" s="257"/>
-      <c r="E52" s="241"/>
-      <c r="F52" s="241"/>
+      <c r="E52" s="251"/>
+      <c r="F52" s="251"/>
       <c r="G52" s="26">
         <v>3</v>
       </c>
@@ -7519,12 +7796,12 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A53" s="242"/>
-      <c r="B53" s="258"/>
+      <c r="A53" s="252"/>
+      <c r="B53" s="253"/>
       <c r="C53" s="257"/>
       <c r="D53" s="257"/>
-      <c r="E53" s="242"/>
-      <c r="F53" s="242"/>
+      <c r="E53" s="252"/>
+      <c r="F53" s="252"/>
       <c r="G53" s="26">
         <v>4</v>
       </c>
@@ -7557,10 +7834,10 @@
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A55" s="240" t="s">
+      <c r="A55" s="250" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="258" t="s">
+      <c r="B55" s="253" t="s">
         <v>90</v>
       </c>
       <c r="C55" s="257" t="s">
@@ -7569,10 +7846,10 @@
       <c r="D55" s="257" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="240" t="s">
+      <c r="E55" s="250" t="s">
         <v>383</v>
       </c>
-      <c r="F55" s="240" t="s">
+      <c r="F55" s="250" t="s">
         <v>750</v>
       </c>
       <c r="G55" s="26">
@@ -7592,12 +7869,12 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A56" s="241"/>
-      <c r="B56" s="258"/>
+      <c r="A56" s="251"/>
+      <c r="B56" s="253"/>
       <c r="C56" s="257"/>
       <c r="D56" s="257"/>
-      <c r="E56" s="241"/>
-      <c r="F56" s="241"/>
+      <c r="E56" s="251"/>
+      <c r="F56" s="251"/>
       <c r="G56" s="26">
         <v>2</v>
       </c>
@@ -7615,12 +7892,12 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A57" s="241"/>
-      <c r="B57" s="258"/>
+      <c r="A57" s="251"/>
+      <c r="B57" s="253"/>
       <c r="C57" s="257"/>
       <c r="D57" s="257"/>
-      <c r="E57" s="241"/>
-      <c r="F57" s="241"/>
+      <c r="E57" s="251"/>
+      <c r="F57" s="251"/>
       <c r="G57" s="26">
         <v>3</v>
       </c>
@@ -7638,12 +7915,12 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A58" s="242"/>
-      <c r="B58" s="258"/>
+      <c r="A58" s="252"/>
+      <c r="B58" s="253"/>
       <c r="C58" s="257"/>
       <c r="D58" s="257"/>
-      <c r="E58" s="242"/>
-      <c r="F58" s="242"/>
+      <c r="E58" s="252"/>
+      <c r="F58" s="252"/>
       <c r="G58" s="26">
         <v>4</v>
       </c>
@@ -7676,10 +7953,10 @@
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A60" s="240" t="s">
+      <c r="A60" s="250" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="258" t="s">
+      <c r="B60" s="253" t="s">
         <v>90</v>
       </c>
       <c r="C60" s="257" t="s">
@@ -7688,10 +7965,10 @@
       <c r="D60" s="257" t="s">
         <v>94</v>
       </c>
-      <c r="E60" s="240" t="s">
+      <c r="E60" s="250" t="s">
         <v>383</v>
       </c>
-      <c r="F60" s="240" t="s">
+      <c r="F60" s="250" t="s">
         <v>712</v>
       </c>
       <c r="G60" s="26">
@@ -7709,12 +7986,12 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A61" s="241"/>
-      <c r="B61" s="258"/>
+      <c r="A61" s="251"/>
+      <c r="B61" s="253"/>
       <c r="C61" s="257"/>
       <c r="D61" s="257"/>
-      <c r="E61" s="241"/>
-      <c r="F61" s="241"/>
+      <c r="E61" s="251"/>
+      <c r="F61" s="251"/>
       <c r="G61" s="26">
         <v>2</v>
       </c>
@@ -7732,12 +8009,12 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A62" s="241"/>
-      <c r="B62" s="258"/>
+      <c r="A62" s="251"/>
+      <c r="B62" s="253"/>
       <c r="C62" s="257"/>
       <c r="D62" s="257"/>
-      <c r="E62" s="241"/>
-      <c r="F62" s="241"/>
+      <c r="E62" s="251"/>
+      <c r="F62" s="251"/>
       <c r="G62" s="26">
         <v>3</v>
       </c>
@@ -7755,12 +8032,12 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A63" s="242"/>
-      <c r="B63" s="258"/>
+      <c r="A63" s="252"/>
+      <c r="B63" s="253"/>
       <c r="C63" s="257"/>
       <c r="D63" s="257"/>
-      <c r="E63" s="242"/>
-      <c r="F63" s="242"/>
+      <c r="E63" s="252"/>
+      <c r="F63" s="252"/>
       <c r="G63" s="26">
         <v>4</v>
       </c>
@@ -7793,10 +8070,10 @@
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A65" s="240" t="s">
+      <c r="A65" s="250" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="258" t="s">
+      <c r="B65" s="253" t="s">
         <v>95</v>
       </c>
       <c r="C65" s="257" t="s">
@@ -7805,10 +8082,10 @@
       <c r="D65" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="E65" s="240" t="s">
+      <c r="E65" s="250" t="s">
         <v>383</v>
       </c>
-      <c r="F65" s="240" t="s">
+      <c r="F65" s="250" t="s">
         <v>751</v>
       </c>
       <c r="G65" s="26">
@@ -7828,12 +8105,12 @@
       </c>
     </row>
     <row r="66" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A66" s="241"/>
-      <c r="B66" s="258"/>
+      <c r="A66" s="251"/>
+      <c r="B66" s="253"/>
       <c r="C66" s="257"/>
       <c r="D66" s="257"/>
-      <c r="E66" s="241"/>
-      <c r="F66" s="241"/>
+      <c r="E66" s="251"/>
+      <c r="F66" s="251"/>
       <c r="G66" s="26">
         <v>2</v>
       </c>
@@ -7851,12 +8128,12 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A67" s="241"/>
-      <c r="B67" s="258"/>
+      <c r="A67" s="251"/>
+      <c r="B67" s="253"/>
       <c r="C67" s="257"/>
       <c r="D67" s="257"/>
-      <c r="E67" s="241"/>
-      <c r="F67" s="241"/>
+      <c r="E67" s="251"/>
+      <c r="F67" s="251"/>
       <c r="G67" s="26">
         <v>3</v>
       </c>
@@ -7874,12 +8151,12 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A68" s="242"/>
-      <c r="B68" s="258"/>
+      <c r="A68" s="252"/>
+      <c r="B68" s="253"/>
       <c r="C68" s="257"/>
       <c r="D68" s="257"/>
-      <c r="E68" s="242"/>
-      <c r="F68" s="242"/>
+      <c r="E68" s="252"/>
+      <c r="F68" s="252"/>
       <c r="G68" s="26">
         <v>4</v>
       </c>
@@ -7912,10 +8189,10 @@
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A70" s="240" t="s">
+      <c r="A70" s="250" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="258" t="s">
+      <c r="B70" s="253" t="s">
         <v>99</v>
       </c>
       <c r="C70" s="257" t="s">
@@ -7924,10 +8201,10 @@
       <c r="D70" s="257" t="s">
         <v>101</v>
       </c>
-      <c r="E70" s="240" t="s">
+      <c r="E70" s="250" t="s">
         <v>383</v>
       </c>
-      <c r="F70" s="240" t="s">
+      <c r="F70" s="250" t="s">
         <v>750</v>
       </c>
       <c r="G70" s="26">
@@ -7947,12 +8224,12 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A71" s="241"/>
-      <c r="B71" s="258"/>
+      <c r="A71" s="251"/>
+      <c r="B71" s="253"/>
       <c r="C71" s="257"/>
       <c r="D71" s="257"/>
-      <c r="E71" s="241"/>
-      <c r="F71" s="241"/>
+      <c r="E71" s="251"/>
+      <c r="F71" s="251"/>
       <c r="G71" s="26">
         <v>2</v>
       </c>
@@ -7968,12 +8245,12 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A72" s="241"/>
-      <c r="B72" s="258"/>
+      <c r="A72" s="251"/>
+      <c r="B72" s="253"/>
       <c r="C72" s="257"/>
       <c r="D72" s="257"/>
-      <c r="E72" s="241"/>
-      <c r="F72" s="241"/>
+      <c r="E72" s="251"/>
+      <c r="F72" s="251"/>
       <c r="G72" s="26">
         <v>3</v>
       </c>
@@ -7989,12 +8266,12 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A73" s="242"/>
-      <c r="B73" s="258"/>
+      <c r="A73" s="252"/>
+      <c r="B73" s="253"/>
       <c r="C73" s="257"/>
       <c r="D73" s="257"/>
-      <c r="E73" s="242"/>
-      <c r="F73" s="242"/>
+      <c r="E73" s="252"/>
+      <c r="F73" s="252"/>
       <c r="G73" s="26">
         <v>4</v>
       </c>
@@ -8027,10 +8304,10 @@
       <c r="K74" s="33"/>
     </row>
     <row r="75" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A75" s="240" t="s">
+      <c r="A75" s="250" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="258" t="s">
+      <c r="B75" s="253" t="s">
         <v>103</v>
       </c>
       <c r="C75" s="257" t="s">
@@ -8039,10 +8316,10 @@
       <c r="D75" s="257" t="s">
         <v>105</v>
       </c>
-      <c r="E75" s="240" t="s">
+      <c r="E75" s="250" t="s">
         <v>383</v>
       </c>
-      <c r="F75" s="240" t="s">
+      <c r="F75" s="250" t="s">
         <v>749</v>
       </c>
       <c r="G75" s="26">
@@ -8062,12 +8339,12 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A76" s="241"/>
-      <c r="B76" s="258"/>
+      <c r="A76" s="251"/>
+      <c r="B76" s="253"/>
       <c r="C76" s="257"/>
       <c r="D76" s="257"/>
-      <c r="E76" s="241"/>
-      <c r="F76" s="241"/>
+      <c r="E76" s="251"/>
+      <c r="F76" s="251"/>
       <c r="G76" s="26">
         <v>2</v>
       </c>
@@ -8085,12 +8362,12 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A77" s="241"/>
-      <c r="B77" s="258"/>
+      <c r="A77" s="251"/>
+      <c r="B77" s="253"/>
       <c r="C77" s="257"/>
       <c r="D77" s="257"/>
-      <c r="E77" s="241"/>
-      <c r="F77" s="241"/>
+      <c r="E77" s="251"/>
+      <c r="F77" s="251"/>
       <c r="G77" s="26">
         <v>3</v>
       </c>
@@ -8108,12 +8385,12 @@
       </c>
     </row>
     <row r="78" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A78" s="242"/>
-      <c r="B78" s="258"/>
+      <c r="A78" s="252"/>
+      <c r="B78" s="253"/>
       <c r="C78" s="257"/>
       <c r="D78" s="257"/>
-      <c r="E78" s="242"/>
-      <c r="F78" s="242"/>
+      <c r="E78" s="252"/>
+      <c r="F78" s="252"/>
       <c r="G78" s="26">
         <v>4</v>
       </c>
@@ -8146,10 +8423,10 @@
       <c r="K79" s="33"/>
     </row>
     <row r="80" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A80" s="240" t="s">
+      <c r="A80" s="250" t="s">
         <v>106</v>
       </c>
-      <c r="B80" s="258" t="s">
+      <c r="B80" s="253" t="s">
         <v>68</v>
       </c>
       <c r="C80" s="257" t="s">
@@ -8158,10 +8435,10 @@
       <c r="D80" s="257" t="s">
         <v>108</v>
       </c>
-      <c r="E80" s="240" t="s">
+      <c r="E80" s="250" t="s">
         <v>383</v>
       </c>
-      <c r="F80" s="240" t="s">
+      <c r="F80" s="250" t="s">
         <v>383</v>
       </c>
       <c r="G80" s="26">
@@ -8181,12 +8458,12 @@
       </c>
     </row>
     <row r="81" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A81" s="241"/>
-      <c r="B81" s="258"/>
+      <c r="A81" s="251"/>
+      <c r="B81" s="253"/>
       <c r="C81" s="257"/>
       <c r="D81" s="257"/>
-      <c r="E81" s="241"/>
-      <c r="F81" s="241"/>
+      <c r="E81" s="251"/>
+      <c r="F81" s="251"/>
       <c r="G81" s="26">
         <v>2</v>
       </c>
@@ -8204,12 +8481,12 @@
       </c>
     </row>
     <row r="82" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A82" s="241"/>
-      <c r="B82" s="258"/>
+      <c r="A82" s="251"/>
+      <c r="B82" s="253"/>
       <c r="C82" s="257"/>
       <c r="D82" s="257"/>
-      <c r="E82" s="241"/>
-      <c r="F82" s="241"/>
+      <c r="E82" s="251"/>
+      <c r="F82" s="251"/>
       <c r="G82" s="26">
         <v>3</v>
       </c>
@@ -8227,12 +8504,12 @@
       </c>
     </row>
     <row r="83" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A83" s="242"/>
-      <c r="B83" s="258"/>
+      <c r="A83" s="252"/>
+      <c r="B83" s="253"/>
       <c r="C83" s="257"/>
       <c r="D83" s="257"/>
-      <c r="E83" s="242"/>
-      <c r="F83" s="242"/>
+      <c r="E83" s="252"/>
+      <c r="F83" s="252"/>
       <c r="G83" s="26">
         <v>4</v>
       </c>
@@ -8265,10 +8542,10 @@
       <c r="K84" s="33"/>
     </row>
     <row r="85" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A85" s="240" t="s">
+      <c r="A85" s="250" t="s">
         <v>109</v>
       </c>
-      <c r="B85" s="258" t="s">
+      <c r="B85" s="253" t="s">
         <v>95</v>
       </c>
       <c r="C85" s="257" t="s">
@@ -8277,10 +8554,10 @@
       <c r="D85" s="257" t="s">
         <v>111</v>
       </c>
-      <c r="E85" s="240" t="s">
+      <c r="E85" s="250" t="s">
         <v>383</v>
       </c>
-      <c r="F85" s="240" t="s">
+      <c r="F85" s="250" t="s">
         <v>751</v>
       </c>
       <c r="G85" s="26">
@@ -8300,12 +8577,12 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A86" s="241"/>
-      <c r="B86" s="258"/>
+      <c r="A86" s="251"/>
+      <c r="B86" s="253"/>
       <c r="C86" s="257"/>
       <c r="D86" s="257"/>
-      <c r="E86" s="241"/>
-      <c r="F86" s="241"/>
+      <c r="E86" s="251"/>
+      <c r="F86" s="251"/>
       <c r="G86" s="26">
         <v>2</v>
       </c>
@@ -8323,12 +8600,12 @@
       </c>
     </row>
     <row r="87" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A87" s="241"/>
-      <c r="B87" s="258"/>
+      <c r="A87" s="251"/>
+      <c r="B87" s="253"/>
       <c r="C87" s="257"/>
       <c r="D87" s="257"/>
-      <c r="E87" s="241"/>
-      <c r="F87" s="241"/>
+      <c r="E87" s="251"/>
+      <c r="F87" s="251"/>
       <c r="G87" s="26">
         <v>3</v>
       </c>
@@ -8346,12 +8623,12 @@
       </c>
     </row>
     <row r="88" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A88" s="242"/>
-      <c r="B88" s="258"/>
+      <c r="A88" s="252"/>
+      <c r="B88" s="253"/>
       <c r="C88" s="257"/>
       <c r="D88" s="257"/>
-      <c r="E88" s="242"/>
-      <c r="F88" s="242"/>
+      <c r="E88" s="252"/>
+      <c r="F88" s="252"/>
       <c r="G88" s="26">
         <v>4</v>
       </c>
@@ -8370,49 +8647,52 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="F17:F22"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="E4:E7"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A17:A22"/>
@@ -8437,52 +8717,49 @@
     <mergeCell ref="D40:D43"/>
     <mergeCell ref="C40:C43"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="F17:F22"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="C85:C88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8491,10 +8768,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3FC349-12B2-41E4-8F78-EB5FDFECD7F7}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8505,28 +8782,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="217" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="218" t="s">
         <v>560</v>
       </c>
-      <c r="C1" s="209" t="s">
+      <c r="C1" s="219" t="s">
         <v>571</v>
       </c>
       <c r="D1" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="208" t="s">
+      <c r="E1" s="218" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="207"/>
-      <c r="B2" s="208"/>
-      <c r="C2" s="210"/>
+      <c r="A2" s="217"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="220"/>
       <c r="D2" s="107"/>
-      <c r="E2" s="208"/>
+      <c r="E2" s="218"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="38" t="s">
@@ -8576,107 +8853,198 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="85"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="66" t="s">
+      <c r="A7" s="209" t="s">
+        <v>908</v>
+      </c>
+      <c r="B7" s="210"/>
+      <c r="C7" s="211" t="s">
+        <v>909</v>
+      </c>
+      <c r="D7" s="212"/>
+      <c r="E7" s="213" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="85"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="66" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="70" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="70" t="s">
         <v>586</v>
       </c>
-      <c r="B8" s="90">
+      <c r="B9" s="90">
         <v>45261</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C9" s="88" t="s">
         <v>574</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="89" t="s">
+      <c r="D9" s="110"/>
+      <c r="E9" s="89" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="86"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="68" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="86"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="68" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="91"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="95" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="91"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="95" t="s">
         <v>575</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="75" t="s">
+      <c r="D11" s="95"/>
+      <c r="E11" s="75" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94">
+    <row r="12" spans="1:8">
+      <c r="A12" s="93"/>
+      <c r="B12" s="94">
         <v>45265</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="76" t="s">
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="76" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="98"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="75" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="209" t="s">
+        <v>908</v>
+      </c>
+      <c r="B13" s="94">
+        <v>45265</v>
+      </c>
+      <c r="C13" s="211" t="s">
+        <v>910</v>
+      </c>
+      <c r="D13" s="212"/>
+      <c r="E13" s="213" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="209" t="s">
+        <v>911</v>
+      </c>
+      <c r="B14" s="94">
+        <v>45265</v>
+      </c>
+      <c r="C14" s="211" t="s">
+        <v>912</v>
+      </c>
+      <c r="D14" s="212"/>
+      <c r="E14" s="213" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="98"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="75" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="70" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="70" t="s">
         <v>587</v>
       </c>
-      <c r="B13" s="90">
+      <c r="B16" s="90">
         <v>45236</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C16" s="99" t="s">
         <v>585</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="97" t="s">
+      <c r="D16" s="99"/>
+      <c r="E16" s="97" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="96"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="76" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="96"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="76" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="38" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="38" t="s">
         <v>606</v>
       </c>
-      <c r="B15" s="158">
+      <c r="B18" s="158">
         <v>45273</v>
       </c>
-      <c r="C15" s="159" t="s">
+      <c r="C18" s="159" t="s">
         <v>789</v>
       </c>
-      <c r="D15" s="160"/>
-      <c r="E15" s="161" t="s">
+      <c r="D18" s="160"/>
+      <c r="E18" s="161" t="s">
         <v>788</v>
       </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="209" t="s">
+        <v>913</v>
+      </c>
+      <c r="B19" s="158">
+        <v>45274</v>
+      </c>
+      <c r="C19" s="211" t="s">
+        <v>866</v>
+      </c>
+      <c r="D19" s="212"/>
+      <c r="E19" s="213" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="B20" s="158">
+        <v>45275</v>
+      </c>
+      <c r="C20" s="207" t="s">
+        <v>851</v>
+      </c>
+      <c r="D20" s="212"/>
+      <c r="E20" s="213" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="209" t="s">
+        <v>914</v>
+      </c>
+      <c r="B21" s="214">
+        <v>45298</v>
+      </c>
+      <c r="C21" s="211" t="s">
+        <v>852</v>
+      </c>
+      <c r="D21" s="212"/>
+      <c r="E21" s="213" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8685,16 +9053,18 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBA4C7C-1B75-4CC3-9108-DB4740564B4D}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9027,10 +9397,10 @@
         <v>793</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>887</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>888</v>
       </c>
       <c r="D9" s="170" t="s">
         <v>796</v>
@@ -9042,7 +9412,7 @@
         <v>383</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H9" s="51" t="s">
         <v>557</v>
@@ -9054,7 +9424,7 @@
         <v>394</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L9" s="192"/>
       <c r="M9" s="192"/>
@@ -9217,13 +9587,13 @@
     </row>
     <row r="14" spans="1:13" ht="30">
       <c r="A14" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B14" s="45" t="s">
+        <v>860</v>
+      </c>
+      <c r="C14" s="50" t="s">
         <v>861</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>862</v>
       </c>
       <c r="D14" s="164" t="s">
         <v>796</v>
@@ -9232,13 +9602,13 @@
         <v>63</v>
       </c>
       <c r="F14" s="167" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G14" s="192" t="s">
         <v>799</v>
       </c>
       <c r="H14" s="192" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I14" s="52" t="s">
         <v>389</v>
@@ -9250,24 +9620,24 @@
       <c r="L14" s="192"/>
       <c r="M14" s="50"/>
     </row>
-    <row r="15" spans="1:13" ht="45">
+    <row r="15" spans="1:13" ht="50.25" customHeight="1">
       <c r="A15" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="B15" s="45" t="s">
         <v>859</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>860</v>
-      </c>
       <c r="C15" s="50" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D15" s="164" t="s">
         <v>796</v>
       </c>
       <c r="E15" s="168" t="s">
-        <v>850</v>
+        <v>63</v>
       </c>
       <c r="F15" s="167" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G15" s="192" t="s">
         <v>800</v>
@@ -9282,7 +9652,7 @@
         <v>30</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="L15" s="192"/>
       <c r="M15" s="50"/>
@@ -9295,10 +9665,10 @@
         <v>403</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>373</v>
+        <v>929</v>
       </c>
       <c r="D16" s="164" t="s">
-        <v>406</v>
+        <v>796</v>
       </c>
       <c r="E16" s="168" t="s">
         <v>383</v>
@@ -9306,7 +9676,9 @@
       <c r="F16" s="167" t="s">
         <v>790</v>
       </c>
-      <c r="G16" s="138"/>
+      <c r="G16" s="138" t="s">
+        <v>797</v>
+      </c>
       <c r="H16" s="39" t="s">
         <v>377</v>
       </c>
@@ -9314,9 +9686,11 @@
         <v>390</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="K16" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>906</v>
+      </c>
       <c r="L16" s="39" t="s">
         <v>382</v>
       </c>
@@ -9324,178 +9698,364 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="75">
+    <row r="17" spans="1:13" ht="61.5" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>414</v>
+        <v>937</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>398</v>
+        <v>931</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>338</v>
+        <v>915</v>
       </c>
       <c r="D17" s="164" t="s">
-        <v>406</v>
-      </c>
-      <c r="E17" s="168" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="167"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="39" t="s">
-        <v>374</v>
+        <v>796</v>
+      </c>
+      <c r="E17" s="168"/>
+      <c r="F17" s="167" t="s">
+        <v>381</v>
+      </c>
+      <c r="G17" s="208" t="s">
+        <v>799</v>
+      </c>
+      <c r="H17" s="208" t="s">
+        <v>916</v>
       </c>
       <c r="I17" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="J17" s="208" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="208"/>
+      <c r="M17" s="50"/>
+    </row>
+    <row r="18" spans="1:13" ht="45" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>932</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>917</v>
+      </c>
+      <c r="D18" s="164" t="s">
+        <v>796</v>
+      </c>
+      <c r="E18" s="168" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="167" t="s">
+        <v>878</v>
+      </c>
+      <c r="G18" s="208" t="s">
+        <v>800</v>
+      </c>
+      <c r="H18" s="208" t="s">
+        <v>918</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="J18" s="208" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="208"/>
+      <c r="M18" s="50"/>
+    </row>
+    <row r="19" spans="1:13" ht="64.5" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>933</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>930</v>
+      </c>
+      <c r="D19" s="164" t="s">
+        <v>796</v>
+      </c>
+      <c r="E19" s="168" t="s">
+        <v>383</v>
+      </c>
+      <c r="F19" s="167" t="s">
+        <v>790</v>
+      </c>
+      <c r="G19" s="216" t="s">
+        <v>800</v>
+      </c>
+      <c r="H19" s="216" t="s">
+        <v>918</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="J19" s="216" t="s">
+        <v>394</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="216"/>
+      <c r="M19" s="50"/>
+    </row>
+    <row r="20" spans="1:13" ht="76.5" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>947</v>
+      </c>
+      <c r="D20" s="164" t="s">
+        <v>796</v>
+      </c>
+      <c r="E20" s="168" t="s">
+        <v>383</v>
+      </c>
+      <c r="F20" s="168" t="s">
+        <v>383</v>
+      </c>
+      <c r="G20" s="216" t="s">
+        <v>798</v>
+      </c>
+      <c r="H20" s="216" t="s">
+        <v>375</v>
+      </c>
+      <c r="I20" s="52" t="s">
         <v>391</v>
       </c>
-      <c r="J17" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="M17" s="50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="60">
-      <c r="A18" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>397</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>339</v>
-      </c>
-      <c r="D18" s="164" t="s">
-        <v>406</v>
-      </c>
-      <c r="E18" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="167"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="39" t="s">
-        <v>376</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="M18" s="50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="75">
-      <c r="A19" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>340</v>
-      </c>
-      <c r="D19" s="164" t="s">
-        <v>406</v>
-      </c>
-      <c r="E19" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="167"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="I19" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="J19" s="39" t="s">
+      <c r="J20" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="M19" s="50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="45">
-      <c r="A20" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>396</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>341</v>
-      </c>
-      <c r="D20" s="164" t="s">
-        <v>406</v>
-      </c>
-      <c r="E20" s="168" t="s">
-        <v>791</v>
-      </c>
-      <c r="F20" s="167"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="I20" s="52" t="s">
-        <v>392</v>
-      </c>
-      <c r="J20" s="39" t="s">
-        <v>395</v>
-      </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="M20" s="50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="60">
+      <c r="L20" s="216"/>
+      <c r="M20" s="50"/>
+    </row>
+    <row r="21" spans="1:13" ht="75.75" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>591</v>
+        <v>970</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>405</v>
+        <v>968</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>342</v>
+        <v>966</v>
       </c>
       <c r="D21" s="164" t="s">
         <v>406</v>
       </c>
       <c r="E21" s="168" t="s">
+        <v>383</v>
+      </c>
+      <c r="F21" s="168" t="s">
+        <v>383</v>
+      </c>
+      <c r="G21" s="216"/>
+      <c r="H21" s="216" t="s">
+        <v>969</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="J21" s="216" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="216"/>
+      <c r="M21" s="50"/>
+    </row>
+    <row r="22" spans="1:13" ht="45" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="216"/>
+      <c r="H22" s="216"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="216"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="216"/>
+      <c r="M22" s="50"/>
+    </row>
+    <row r="23" spans="1:13" ht="75">
+      <c r="A23" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="D23" s="164" t="s">
+        <v>406</v>
+      </c>
+      <c r="E23" s="168" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="167"/>
+      <c r="G23" s="215"/>
+      <c r="H23" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="60">
+      <c r="A24" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" s="164" t="s">
+        <v>406</v>
+      </c>
+      <c r="E24" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="167"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="75">
+      <c r="A25" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="D25" s="164" t="s">
+        <v>406</v>
+      </c>
+      <c r="E25" s="168" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="167"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="M25" s="50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="45">
+      <c r="A26" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>341</v>
+      </c>
+      <c r="D26" s="164" t="s">
+        <v>406</v>
+      </c>
+      <c r="E26" s="168" t="s">
+        <v>791</v>
+      </c>
+      <c r="F26" s="167"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="J26" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="M26" s="50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="60">
+      <c r="A27" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" s="164" t="s">
+        <v>406</v>
+      </c>
+      <c r="E27" s="168" t="s">
         <v>792</v>
       </c>
-      <c r="F21" s="167"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="39" t="s">
+      <c r="F27" s="167"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I27" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J27" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="39" t="s">
+      <c r="K27" s="5"/>
+      <c r="L27" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="M21" s="50" t="s">
+      <c r="M27" s="50" t="s">
         <v>109</v>
       </c>
     </row>
@@ -9508,10 +10068,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA73B892-A011-4BF2-8963-0DEDDBDA9CE4}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9523,28 +10083,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="217" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="218" t="s">
         <v>560</v>
       </c>
-      <c r="C1" s="209" t="s">
+      <c r="C1" s="219" t="s">
         <v>595</v>
       </c>
-      <c r="D1" s="209" t="s">
-        <v>882</v>
-      </c>
-      <c r="E1" s="208" t="s">
+      <c r="D1" s="219" t="s">
+        <v>881</v>
+      </c>
+      <c r="E1" s="218" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="207"/>
-      <c r="B2" s="208"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="208"/>
+      <c r="A2" s="217"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="218"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="38" t="s">
@@ -9708,7 +10268,7 @@
       <c r="C17" s="172"/>
       <c r="D17" s="137"/>
       <c r="E17" s="76" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30">
@@ -9719,30 +10279,98 @@
         <v>45290</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E18" s="195" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="38" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B19" s="197">
         <v>45290</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D19" s="38" t="s">
         <v>408</v>
       </c>
       <c r="E19" s="161" t="s">
-        <v>891</v>
+        <v>890</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="38" t="s">
+        <v>926</v>
+      </c>
+      <c r="B20" s="197">
+        <v>45303</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>940</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>937</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="38" t="s">
+        <v>943</v>
+      </c>
+      <c r="B21" s="197">
+        <v>45303</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>941</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="38" t="s">
+        <v>944</v>
+      </c>
+      <c r="B22" s="197">
+        <v>45303</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>942</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="38" t="s">
+        <v>973</v>
+      </c>
+      <c r="B23" s="197">
+        <v>45303</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>972</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="E23" s="278" t="s">
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -9753,16 +10381,17 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E916DD94-D1B0-4F5A-A52B-CD3DDE50A874}">
-  <dimension ref="A1:AE83"/>
+  <dimension ref="A1:AE115"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D63"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1"/>
@@ -9787,34 +10416,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="25.5" customHeight="1">
-      <c r="G1" s="267" t="s">
+      <c r="G1" s="275" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="268"/>
-      <c r="J1" s="267" t="s">
+      <c r="H1" s="276"/>
+      <c r="J1" s="275" t="s">
         <v>346</v>
       </c>
-      <c r="K1" s="268"/>
-      <c r="M1" s="267" t="s">
+      <c r="K1" s="276"/>
+      <c r="M1" s="275" t="s">
         <v>347</v>
       </c>
-      <c r="N1" s="268"/>
-      <c r="P1" s="267" t="s">
+      <c r="N1" s="276"/>
+      <c r="P1" s="275" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" s="268"/>
-      <c r="S1" s="267" t="s">
+      <c r="Q1" s="276"/>
+      <c r="S1" s="275" t="s">
         <v>349</v>
       </c>
-      <c r="T1" s="268"/>
-      <c r="V1" s="267" t="s">
+      <c r="T1" s="276"/>
+      <c r="V1" s="275" t="s">
         <v>350</v>
       </c>
-      <c r="W1" s="268"/>
-      <c r="Y1" s="267" t="s">
+      <c r="W1" s="276"/>
+      <c r="Y1" s="275" t="s">
         <v>351</v>
       </c>
-      <c r="Z1" s="268"/>
+      <c r="Z1" s="276"/>
     </row>
     <row r="2" spans="1:31" s="17" customFormat="1" ht="33.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -9980,7 +10609,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="14">
-        <f t="shared" ref="H4:H83" si="7">F4-G4</f>
+        <f t="shared" ref="H4:H115" si="7">F4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="15"/>
@@ -11413,10 +12042,10 @@
     <row r="35" spans="1:28" s="205" customFormat="1" ht="25.5" customHeight="1">
       <c r="A35" s="198"/>
       <c r="B35" s="174" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C35" s="200" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D35" s="201"/>
       <c r="E35" s="202" t="s">
@@ -11450,7 +12079,7 @@
       <c r="A36" s="198"/>
       <c r="B36" s="199"/>
       <c r="C36" s="200" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D36" s="201"/>
       <c r="E36" s="202" t="s">
@@ -11484,7 +12113,7 @@
       <c r="A37" s="198"/>
       <c r="B37" s="199"/>
       <c r="C37" s="206" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D37" s="201"/>
       <c r="E37" s="202" t="s">
@@ -11518,7 +12147,7 @@
       <c r="A38" s="198"/>
       <c r="B38" s="199"/>
       <c r="C38" s="200" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D38" s="201"/>
       <c r="E38" s="202" t="s">
@@ -11548,60 +12177,45 @@
       <c r="AA38" s="204"/>
       <c r="AB38" s="204"/>
     </row>
-    <row r="39" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:28" s="205" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A39" s="280"/>
+      <c r="B39" s="281"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="178"/>
+      <c r="E39" s="179"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="203"/>
+      <c r="H39" s="204"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="203"/>
+      <c r="K39" s="203"/>
+      <c r="L39" s="204"/>
+      <c r="M39" s="203"/>
+      <c r="N39" s="203"/>
+      <c r="O39" s="204"/>
+      <c r="P39" s="203"/>
+      <c r="Q39" s="203"/>
+      <c r="R39" s="204"/>
+      <c r="S39" s="203"/>
+      <c r="T39" s="203"/>
+      <c r="U39" s="204"/>
+      <c r="V39" s="203"/>
+      <c r="W39" s="203"/>
+      <c r="X39" s="204"/>
+      <c r="Y39" s="203"/>
+      <c r="Z39" s="203"/>
+      <c r="AA39" s="204"/>
+      <c r="AB39" s="204"/>
+    </row>
+    <row r="40" spans="1:28" ht="30" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B39" s="265" t="s">
+      <c r="B40" s="277" t="s">
         <v>369</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="E39" s="202" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="16">
-        <f t="shared" ref="AA39:AA52" si="10">G39+J39+M39+P39+S39+V39+Y39</f>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="16">
-        <f t="shared" ref="AB39:AB52" si="11">F39-AA39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="266"/>
-      <c r="C40" s="50" t="s">
-        <v>418</v>
       </c>
       <c r="D40" s="52" t="s">
         <v>386</v>
@@ -11633,14 +12247,20 @@
       <c r="X40" s="15"/>
       <c r="Y40" s="38"/>
       <c r="Z40" s="38"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
+      <c r="AA40" s="16">
+        <f t="shared" ref="AA40:AA55" si="10">G40+J40+M40+P40+S40+V40+Y40</f>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="16">
+        <f t="shared" ref="AB40:AB55" si="11">F40-AA40</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:28" ht="25.5" customHeight="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="56"/>
+      <c r="B41" s="279"/>
       <c r="C41" s="50" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D41" s="52" t="s">
         <v>386</v>
@@ -11679,7 +12299,7 @@
       <c r="A42" s="2"/>
       <c r="B42" s="56"/>
       <c r="C42" s="50" t="s">
-        <v>555</v>
+        <v>419</v>
       </c>
       <c r="D42" s="52" t="s">
         <v>386</v>
@@ -11718,7 +12338,7 @@
       <c r="A43" s="2"/>
       <c r="B43" s="56"/>
       <c r="C43" s="50" t="s">
-        <v>458</v>
+        <v>555</v>
       </c>
       <c r="D43" s="52" t="s">
         <v>386</v>
@@ -11757,7 +12377,7 @@
       <c r="A44" s="2"/>
       <c r="B44" s="56"/>
       <c r="C44" s="50" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D44" s="52" t="s">
         <v>386</v>
@@ -11793,10 +12413,10 @@
       <c r="AB44" s="16"/>
     </row>
     <row r="45" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A45" s="4"/>
+      <c r="A45" s="2"/>
       <c r="B45" s="56"/>
-      <c r="C45" s="7" t="s">
-        <v>418</v>
+      <c r="C45" s="50" t="s">
+        <v>459</v>
       </c>
       <c r="D45" s="52" t="s">
         <v>386</v>
@@ -11828,20 +12448,14 @@
       <c r="X45" s="15"/>
       <c r="Y45" s="38"/>
       <c r="Z45" s="38"/>
-      <c r="AA45" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB45" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
     </row>
     <row r="46" spans="1:28" ht="25.5" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="56"/>
       <c r="C46" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D46" s="52" t="s">
         <v>386</v>
@@ -11883,17 +12497,13 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A47" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B47" s="56" t="s">
-        <v>370</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E47" s="202" t="s">
         <v>42</v>
@@ -11931,24 +12541,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>387</v>
-      </c>
-      <c r="E48" s="202" t="s">
-        <v>42</v>
-      </c>
+    <row r="48" spans="1:28" ht="10.5" customHeight="1">
+      <c r="A48" s="180"/>
+      <c r="B48" s="176"/>
+      <c r="C48" s="177"/>
+      <c r="D48" s="178"/>
+      <c r="E48" s="179"/>
       <c r="F48" s="4"/>
       <c r="G48" s="38"/>
-      <c r="H48" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H48" s="14"/>
       <c r="I48" s="15"/>
       <c r="J48" s="38"/>
       <c r="K48" s="38"/>
@@ -11967,20 +12568,18 @@
       <c r="X48" s="15"/>
       <c r="Y48" s="38"/>
       <c r="Z48" s="38"/>
-      <c r="AA48" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB48" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
     </row>
     <row r="49" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="56"/>
+      <c r="A49" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B49" s="56" t="s">
+        <v>370</v>
+      </c>
       <c r="C49" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D49" s="52" t="s">
         <v>387</v>
@@ -12022,17 +12621,13 @@
       </c>
     </row>
     <row r="50" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B50" s="56" t="s">
-        <v>371</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E50" s="202" t="s">
         <v>42</v>
@@ -12071,12 +12666,13 @@
       </c>
     </row>
     <row r="51" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A51" s="2"/>
       <c r="B51" s="56"/>
       <c r="C51" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E51" s="202" t="s">
         <v>42</v>
@@ -12114,23 +12710,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="25.5" customHeight="1">
-      <c r="B52" s="56"/>
-      <c r="C52" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>388</v>
-      </c>
-      <c r="E52" s="202" t="s">
-        <v>42</v>
-      </c>
+    <row r="52" spans="1:28" ht="10.5" customHeight="1">
+      <c r="A52" s="175"/>
+      <c r="B52" s="176"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="179"/>
       <c r="F52" s="4"/>
       <c r="G52" s="38"/>
-      <c r="H52" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H52" s="14"/>
       <c r="I52" s="15"/>
       <c r="J52" s="38"/>
       <c r="K52" s="38"/>
@@ -12149,27 +12737,21 @@
       <c r="X52" s="15"/>
       <c r="Y52" s="38"/>
       <c r="Z52" s="38"/>
-      <c r="AA52" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB52" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
     </row>
     <row r="53" spans="1:28" ht="25.5" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B53" s="56" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E53" s="202" t="s">
         <v>42</v>
@@ -12199,22 +12781,21 @@
       <c r="Y53" s="38"/>
       <c r="Z53" s="38"/>
       <c r="AA53" s="16">
-        <f t="shared" ref="AA53:AA83" si="12">G53+J53+M53+P53+S53+V53+Y53</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB53" s="16">
-        <f t="shared" ref="AB53:AB83" si="13">F53-AA53</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A54" s="2"/>
       <c r="B54" s="56"/>
       <c r="C54" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E54" s="202" t="s">
         <v>42</v>
@@ -12244,22 +12825,22 @@
       <c r="Y54" s="38"/>
       <c r="Z54" s="38"/>
       <c r="AA54" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB54" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A55" s="2"/>
+      <c r="A55" s="4"/>
       <c r="B55" s="56"/>
       <c r="C55" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E55" s="202" t="s">
         <v>42</v>
@@ -12289,32 +12870,23 @@
       <c r="Y55" s="38"/>
       <c r="Z55" s="38"/>
       <c r="AA55" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB55" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>389</v>
-      </c>
-      <c r="E56" s="202" t="s">
-        <v>42</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="10.5" customHeight="1">
+      <c r="A56" s="180"/>
+      <c r="B56" s="176"/>
+      <c r="C56" s="177"/>
+      <c r="D56" s="178"/>
+      <c r="E56" s="179"/>
       <c r="F56" s="4"/>
       <c r="G56" s="38"/>
-      <c r="H56" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H56" s="14"/>
       <c r="I56" s="15"/>
       <c r="J56" s="38"/>
       <c r="K56" s="38"/>
@@ -12333,24 +12905,18 @@
       <c r="X56" s="15"/>
       <c r="Y56" s="38"/>
       <c r="Z56" s="38"/>
-      <c r="AA56" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB56" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
     </row>
     <row r="57" spans="1:28" ht="25.5" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>903</v>
+        <v>451</v>
       </c>
       <c r="B57" s="56" t="s">
-        <v>862</v>
+        <v>372</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>895</v>
+        <v>426</v>
       </c>
       <c r="D57" s="52" t="s">
         <v>389</v>
@@ -12360,7 +12926,10 @@
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="38"/>
-      <c r="H57" s="14"/>
+      <c r="H57" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I57" s="15"/>
       <c r="J57" s="38"/>
       <c r="K57" s="38"/>
@@ -12379,14 +12948,20 @@
       <c r="X57" s="15"/>
       <c r="Y57" s="38"/>
       <c r="Z57" s="38"/>
-      <c r="AA57" s="16"/>
-      <c r="AB57" s="16"/>
+      <c r="AA57" s="16">
+        <f t="shared" ref="AA57:AA115" si="12">G57+J57+M57+P57+S57+V57+Y57</f>
+        <v>0</v>
+      </c>
+      <c r="AB57" s="16">
+        <f t="shared" ref="AB57:AB115" si="13">F57-AA57</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:28" ht="25.5" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="56"/>
       <c r="C58" s="7" t="s">
-        <v>896</v>
+        <v>427</v>
       </c>
       <c r="D58" s="52" t="s">
         <v>389</v>
@@ -12396,7 +12971,10 @@
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="38"/>
-      <c r="H58" s="14"/>
+      <c r="H58" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I58" s="15"/>
       <c r="J58" s="38"/>
       <c r="K58" s="38"/>
@@ -12415,14 +12993,20 @@
       <c r="X58" s="15"/>
       <c r="Y58" s="38"/>
       <c r="Z58" s="38"/>
-      <c r="AA58" s="16"/>
-      <c r="AB58" s="16"/>
+      <c r="AA58" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB58" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:28" ht="25.5" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="56"/>
       <c r="C59" s="7" t="s">
-        <v>897</v>
+        <v>428</v>
       </c>
       <c r="D59" s="52" t="s">
         <v>389</v>
@@ -12432,7 +13016,10 @@
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="38"/>
-      <c r="H59" s="14"/>
+      <c r="H59" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I59" s="15"/>
       <c r="J59" s="38"/>
       <c r="K59" s="38"/>
@@ -12451,18 +13038,20 @@
       <c r="X59" s="15"/>
       <c r="Y59" s="38"/>
       <c r="Z59" s="38"/>
-      <c r="AA59" s="16"/>
-      <c r="AB59" s="16"/>
+      <c r="AA59" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB59" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A60" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="B60" s="56" t="s">
-        <v>898</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="7" t="s">
-        <v>899</v>
+        <v>429</v>
       </c>
       <c r="D60" s="52" t="s">
         <v>389</v>
@@ -12472,7 +13061,10 @@
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="38"/>
-      <c r="H60" s="14"/>
+      <c r="H60" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I60" s="15"/>
       <c r="J60" s="38"/>
       <c r="K60" s="38"/>
@@ -12491,21 +13083,21 @@
       <c r="X60" s="15"/>
       <c r="Y60" s="38"/>
       <c r="Z60" s="38"/>
-      <c r="AA60" s="16"/>
-      <c r="AB60" s="16"/>
-    </row>
-    <row r="61" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="7" t="s">
-        <v>900</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>389</v>
-      </c>
-      <c r="E61" s="202" t="s">
-        <v>42</v>
-      </c>
+      <c r="AA60" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB60" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" ht="10.5" customHeight="1">
+      <c r="A61" s="175"/>
+      <c r="B61" s="176"/>
+      <c r="C61" s="177"/>
+      <c r="D61" s="178"/>
+      <c r="E61" s="179"/>
       <c r="F61" s="4"/>
       <c r="G61" s="38"/>
       <c r="H61" s="14"/>
@@ -12531,10 +13123,14 @@
       <c r="AB61" s="16"/>
     </row>
     <row r="62" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="56"/>
+      <c r="A62" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B62" s="56" t="s">
+        <v>861</v>
+      </c>
       <c r="C62" s="7" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="D62" s="52" t="s">
         <v>389</v>
@@ -12570,7 +13166,7 @@
       <c r="A63" s="2"/>
       <c r="B63" s="56"/>
       <c r="C63" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="D63" s="52" t="s">
         <v>389</v>
@@ -12603,27 +13199,20 @@
       <c r="AB63" s="16"/>
     </row>
     <row r="64" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B64" s="56" t="s">
-        <v>373</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="56"/>
       <c r="C64" s="7" t="s">
-        <v>430</v>
+        <v>896</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>390</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>406</v>
+        <v>389</v>
+      </c>
+      <c r="E64" s="202" t="s">
+        <v>42</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="38"/>
-      <c r="H64" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H64" s="14"/>
       <c r="I64" s="15"/>
       <c r="J64" s="38"/>
       <c r="K64" s="38"/>
@@ -12642,32 +13231,18 @@
       <c r="X64" s="15"/>
       <c r="Y64" s="38"/>
       <c r="Z64" s="38"/>
-      <c r="AA64" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB64" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" ht="25.5" customHeight="1">
-      <c r="B65" s="56"/>
-      <c r="C65" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>390</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>406</v>
-      </c>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+    </row>
+    <row r="65" spans="1:28" ht="10.5" customHeight="1">
+      <c r="A65" s="175"/>
+      <c r="B65" s="176"/>
+      <c r="C65" s="177"/>
+      <c r="D65" s="178"/>
+      <c r="E65" s="179"/>
       <c r="F65" s="4"/>
       <c r="G65" s="38"/>
-      <c r="H65" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H65" s="14"/>
       <c r="I65" s="15"/>
       <c r="J65" s="38"/>
       <c r="K65" s="38"/>
@@ -12686,32 +13261,28 @@
       <c r="X65" s="15"/>
       <c r="Y65" s="38"/>
       <c r="Z65" s="38"/>
-      <c r="AA65" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB65" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
     </row>
     <row r="66" spans="1:28" ht="25.5" customHeight="1">
-      <c r="B66" s="56"/>
+      <c r="A66" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B66" s="56" t="s">
+        <v>897</v>
+      </c>
       <c r="C66" s="7" t="s">
-        <v>432</v>
+        <v>898</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>390</v>
-      </c>
-      <c r="E66" s="39" t="s">
-        <v>406</v>
+        <v>389</v>
+      </c>
+      <c r="E66" s="202" t="s">
+        <v>42</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="38"/>
-      <c r="H66" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H66" s="14"/>
       <c r="I66" s="15"/>
       <c r="J66" s="38"/>
       <c r="K66" s="38"/>
@@ -12730,37 +13301,24 @@
       <c r="X66" s="15"/>
       <c r="Y66" s="38"/>
       <c r="Z66" s="38"/>
-      <c r="AA66" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB66" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA66" s="16"/>
+      <c r="AB66" s="16"/>
     </row>
     <row r="67" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A67" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B67" s="56" t="s">
-        <v>338</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="7" t="s">
-        <v>433</v>
+        <v>899</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>406</v>
+        <v>389</v>
+      </c>
+      <c r="E67" s="202" t="s">
+        <v>42</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="38"/>
-      <c r="H67" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H67" s="14"/>
       <c r="I67" s="15"/>
       <c r="J67" s="38"/>
       <c r="K67" s="38"/>
@@ -12779,33 +13337,24 @@
       <c r="X67" s="15"/>
       <c r="Y67" s="38"/>
       <c r="Z67" s="38"/>
-      <c r="AA67" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB67" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA67" s="16"/>
+      <c r="AB67" s="16"/>
     </row>
     <row r="68" spans="1:28" ht="25.5" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="56"/>
       <c r="C68" s="7" t="s">
-        <v>434</v>
+        <v>900</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="E68" s="39" t="s">
-        <v>406</v>
+        <v>389</v>
+      </c>
+      <c r="E68" s="202" t="s">
+        <v>42</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="38"/>
-      <c r="H68" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H68" s="14"/>
       <c r="I68" s="15"/>
       <c r="J68" s="38"/>
       <c r="K68" s="38"/>
@@ -12824,33 +13373,24 @@
       <c r="X68" s="15"/>
       <c r="Y68" s="38"/>
       <c r="Z68" s="38"/>
-      <c r="AA68" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB68" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="16"/>
     </row>
     <row r="69" spans="1:28" ht="25.5" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="56"/>
       <c r="C69" s="7" t="s">
-        <v>435</v>
+        <v>901</v>
       </c>
       <c r="D69" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="E69" s="39" t="s">
-        <v>406</v>
+        <v>389</v>
+      </c>
+      <c r="E69" s="202" t="s">
+        <v>42</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="38"/>
-      <c r="H69" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H69" s="14"/>
       <c r="I69" s="15"/>
       <c r="J69" s="38"/>
       <c r="K69" s="38"/>
@@ -12869,37 +13409,18 @@
       <c r="X69" s="15"/>
       <c r="Y69" s="38"/>
       <c r="Z69" s="38"/>
-      <c r="AA69" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB69" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A70" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B70" s="56" t="s">
-        <v>339</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="D70" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="E70" s="39" t="s">
-        <v>406</v>
-      </c>
+      <c r="AA69" s="16"/>
+      <c r="AB69" s="16"/>
+    </row>
+    <row r="70" spans="1:28" ht="10.5" customHeight="1">
+      <c r="A70" s="175"/>
+      <c r="B70" s="176"/>
+      <c r="C70" s="177"/>
+      <c r="D70" s="178"/>
+      <c r="E70" s="179"/>
       <c r="F70" s="4"/>
       <c r="G70" s="38"/>
-      <c r="H70" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H70" s="14"/>
       <c r="I70" s="15"/>
       <c r="J70" s="38"/>
       <c r="K70" s="38"/>
@@ -12918,26 +13439,24 @@
       <c r="X70" s="15"/>
       <c r="Y70" s="38"/>
       <c r="Z70" s="38"/>
-      <c r="AA70" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB70" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA70" s="16"/>
+      <c r="AB70" s="16"/>
     </row>
     <row r="71" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A71" s="46"/>
-      <c r="B71" s="56"/>
+      <c r="A71" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B71" s="56" t="s">
+        <v>929</v>
+      </c>
       <c r="C71" s="7" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E71" s="39" t="s">
-        <v>406</v>
+        <v>42</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="38"/>
@@ -12963,19 +13482,26 @@
       <c r="X71" s="15"/>
       <c r="Y71" s="38"/>
       <c r="Z71" s="38"/>
-      <c r="AA71" s="16"/>
-      <c r="AB71" s="16"/>
+      <c r="AA71" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB71" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A72" s="4"/>
       <c r="B72" s="56"/>
       <c r="C72" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="E72" s="39" t="s">
-        <v>406</v>
+        <v>390</v>
+      </c>
+      <c r="E72" s="208" t="s">
+        <v>42</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="38"/>
@@ -13011,15 +13537,16 @@
       </c>
     </row>
     <row r="73" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A73" s="4"/>
       <c r="B73" s="56"/>
       <c r="C73" s="7" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="E73" s="39" t="s">
-        <v>406</v>
+        <v>390</v>
+      </c>
+      <c r="E73" s="208" t="s">
+        <v>42</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="38"/>
@@ -13045,26 +13572,24 @@
       <c r="X73" s="15"/>
       <c r="Y73" s="38"/>
       <c r="Z73" s="38"/>
-      <c r="AA73" s="16"/>
-      <c r="AB73" s="16"/>
-    </row>
-    <row r="74" spans="1:28" ht="25.5" customHeight="1">
-      <c r="B74" s="56"/>
-      <c r="C74" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="D74" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>406</v>
-      </c>
+      <c r="AA73" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB73" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" ht="10.5" customHeight="1">
+      <c r="A74" s="180"/>
+      <c r="B74" s="176"/>
+      <c r="C74" s="177"/>
+      <c r="D74" s="178"/>
+      <c r="E74" s="282"/>
       <c r="F74" s="4"/>
       <c r="G74" s="38"/>
-      <c r="H74" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H74" s="14"/>
       <c r="I74" s="15"/>
       <c r="J74" s="38"/>
       <c r="K74" s="38"/>
@@ -13083,37 +13608,28 @@
       <c r="X74" s="15"/>
       <c r="Y74" s="38"/>
       <c r="Z74" s="38"/>
-      <c r="AA74" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB74" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA74" s="16"/>
+      <c r="AB74" s="16"/>
     </row>
     <row r="75" spans="1:28" ht="25.5" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>455</v>
+        <v>974</v>
       </c>
       <c r="B75" s="56" t="s">
-        <v>340</v>
+        <v>915</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>439</v>
+        <v>919</v>
       </c>
       <c r="D75" s="52" t="s">
-        <v>392</v>
-      </c>
-      <c r="E75" s="39" t="s">
-        <v>406</v>
+        <v>390</v>
+      </c>
+      <c r="E75" s="208" t="s">
+        <v>42</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="38"/>
-      <c r="H75" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H75" s="14"/>
       <c r="I75" s="15"/>
       <c r="J75" s="38"/>
       <c r="K75" s="38"/>
@@ -13132,33 +13648,24 @@
       <c r="X75" s="15"/>
       <c r="Y75" s="38"/>
       <c r="Z75" s="38"/>
-      <c r="AA75" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB75" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA75" s="16"/>
+      <c r="AB75" s="16"/>
     </row>
     <row r="76" spans="1:28" ht="25.5" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="56"/>
       <c r="C76" s="7" t="s">
-        <v>440</v>
+        <v>920</v>
       </c>
       <c r="D76" s="52" t="s">
-        <v>392</v>
-      </c>
-      <c r="E76" s="39" t="s">
-        <v>406</v>
+        <v>390</v>
+      </c>
+      <c r="E76" s="208" t="s">
+        <v>42</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="38"/>
-      <c r="H76" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H76" s="14"/>
       <c r="I76" s="15"/>
       <c r="J76" s="38"/>
       <c r="K76" s="38"/>
@@ -13177,33 +13684,24 @@
       <c r="X76" s="15"/>
       <c r="Y76" s="38"/>
       <c r="Z76" s="38"/>
-      <c r="AA76" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB76" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA76" s="16"/>
+      <c r="AB76" s="16"/>
     </row>
     <row r="77" spans="1:28" ht="25.5" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="56"/>
       <c r="C77" s="7" t="s">
-        <v>441</v>
+        <v>921</v>
       </c>
       <c r="D77" s="52" t="s">
-        <v>392</v>
-      </c>
-      <c r="E77" s="39" t="s">
-        <v>406</v>
+        <v>390</v>
+      </c>
+      <c r="E77" s="208" t="s">
+        <v>42</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="38"/>
-      <c r="H77" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H77" s="14"/>
       <c r="I77" s="15"/>
       <c r="J77" s="38"/>
       <c r="K77" s="38"/>
@@ -13222,37 +13720,28 @@
       <c r="X77" s="15"/>
       <c r="Y77" s="38"/>
       <c r="Z77" s="38"/>
-      <c r="AA77" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB77" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA77" s="16"/>
+      <c r="AB77" s="16"/>
     </row>
     <row r="78" spans="1:28" ht="25.5" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>456</v>
+        <v>922</v>
       </c>
       <c r="B78" s="56" t="s">
-        <v>341</v>
+        <v>924</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>442</v>
+        <v>898</v>
       </c>
       <c r="D78" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="E78" s="39" t="s">
-        <v>406</v>
+        <v>390</v>
+      </c>
+      <c r="E78" s="202" t="s">
+        <v>42</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="38"/>
-      <c r="H78" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H78" s="14"/>
       <c r="I78" s="15"/>
       <c r="J78" s="38"/>
       <c r="K78" s="38"/>
@@ -13271,32 +13760,24 @@
       <c r="X78" s="15"/>
       <c r="Y78" s="38"/>
       <c r="Z78" s="38"/>
-      <c r="AA78" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB78" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA78" s="16"/>
+      <c r="AB78" s="16"/>
     </row>
     <row r="79" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A79" s="2"/>
       <c r="B79" s="56"/>
       <c r="C79" s="7" t="s">
-        <v>443</v>
+        <v>899</v>
       </c>
       <c r="D79" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>406</v>
+        <v>390</v>
+      </c>
+      <c r="E79" s="202" t="s">
+        <v>42</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="38"/>
-      <c r="H79" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H79" s="14"/>
       <c r="I79" s="15"/>
       <c r="J79" s="38"/>
       <c r="K79" s="38"/>
@@ -13315,33 +13796,24 @@
       <c r="X79" s="15"/>
       <c r="Y79" s="38"/>
       <c r="Z79" s="38"/>
-      <c r="AA79" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB79" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA79" s="16"/>
+      <c r="AB79" s="16"/>
     </row>
     <row r="80" spans="1:28" ht="25.5" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="56"/>
       <c r="C80" s="7" t="s">
-        <v>444</v>
+        <v>900</v>
       </c>
       <c r="D80" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="E80" s="39" t="s">
-        <v>406</v>
+        <v>390</v>
+      </c>
+      <c r="E80" s="202" t="s">
+        <v>42</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="38"/>
-      <c r="H80" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H80" s="14"/>
       <c r="I80" s="15"/>
       <c r="J80" s="38"/>
       <c r="K80" s="38"/>
@@ -13360,37 +13832,24 @@
       <c r="X80" s="15"/>
       <c r="Y80" s="38"/>
       <c r="Z80" s="38"/>
-      <c r="AA80" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB80" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA80" s="16"/>
+      <c r="AB80" s="16"/>
     </row>
     <row r="81" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A81" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B81" s="56" t="s">
-        <v>342</v>
-      </c>
+      <c r="A81" s="2"/>
+      <c r="B81" s="56"/>
       <c r="C81" s="7" t="s">
-        <v>445</v>
+        <v>901</v>
       </c>
       <c r="D81" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="E81" s="39" t="s">
-        <v>406</v>
+        <v>390</v>
+      </c>
+      <c r="E81" s="202" t="s">
+        <v>42</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="38"/>
-      <c r="H81" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H81" s="14"/>
       <c r="I81" s="15"/>
       <c r="J81" s="38"/>
       <c r="K81" s="38"/>
@@ -13409,33 +13868,28 @@
       <c r="X81" s="15"/>
       <c r="Y81" s="38"/>
       <c r="Z81" s="38"/>
-      <c r="AA81" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB81" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA81" s="16"/>
+      <c r="AB81" s="16"/>
     </row>
     <row r="82" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
+      <c r="A82" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B82" s="277" t="s">
+        <v>930</v>
+      </c>
       <c r="C82" s="7" t="s">
-        <v>446</v>
+        <v>956</v>
       </c>
       <c r="D82" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="E82" s="39" t="s">
-        <v>406</v>
+        <v>390</v>
+      </c>
+      <c r="E82" s="202" t="s">
+        <v>42</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="38"/>
-      <c r="H82" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H82" s="14"/>
       <c r="I82" s="15"/>
       <c r="J82" s="38"/>
       <c r="K82" s="38"/>
@@ -13454,33 +13908,24 @@
       <c r="X82" s="15"/>
       <c r="Y82" s="38"/>
       <c r="Z82" s="38"/>
-      <c r="AA82" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB82" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AA82" s="16"/>
+      <c r="AB82" s="16"/>
     </row>
     <row r="83" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
+      <c r="A83" s="2"/>
+      <c r="B83" s="277"/>
       <c r="C83" s="7" t="s">
-        <v>447</v>
+        <v>957</v>
       </c>
       <c r="D83" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="E83" s="39" t="s">
-        <v>406</v>
+        <v>390</v>
+      </c>
+      <c r="E83" s="202" t="s">
+        <v>42</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="38"/>
-      <c r="H83" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H83" s="14"/>
       <c r="I83" s="15"/>
       <c r="J83" s="38"/>
       <c r="K83" s="38"/>
@@ -13499,18 +13944,1322 @@
       <c r="X83" s="15"/>
       <c r="Y83" s="38"/>
       <c r="Z83" s="38"/>
-      <c r="AA83" s="16">
+      <c r="AA83" s="16"/>
+      <c r="AB83" s="16"/>
+    </row>
+    <row r="84" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A84" s="2"/>
+      <c r="B84" s="277"/>
+      <c r="C84" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="D84" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="E84" s="202" t="s">
+        <v>42</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="38"/>
+      <c r="T84" s="38"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="38"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="38"/>
+      <c r="Z84" s="38"/>
+      <c r="AA84" s="16"/>
+      <c r="AB84" s="16"/>
+    </row>
+    <row r="85" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A85" s="2"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D85" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="E85" s="202" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="15"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="38"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="38"/>
+      <c r="Z85" s="38"/>
+      <c r="AA85" s="16"/>
+      <c r="AB85" s="16"/>
+    </row>
+    <row r="86" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A86" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B86" s="277" t="s">
+        <v>947</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="D86" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E86" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="38"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="38"/>
+      <c r="Q86" s="38"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="38"/>
+      <c r="T86" s="38"/>
+      <c r="U86" s="15"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="38"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="38"/>
+      <c r="Z86" s="38"/>
+      <c r="AA86" s="16"/>
+      <c r="AB86" s="16"/>
+    </row>
+    <row r="87" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A87" s="2"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="D87" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E87" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="38"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="38"/>
+      <c r="Q87" s="38"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="38"/>
+      <c r="T87" s="38"/>
+      <c r="U87" s="15"/>
+      <c r="V87" s="38"/>
+      <c r="W87" s="38"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="38"/>
+      <c r="Z87" s="38"/>
+      <c r="AA87" s="16"/>
+      <c r="AB87" s="16"/>
+    </row>
+    <row r="88" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A88" s="2"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="D88" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E88" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="15"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="15"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="38"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="38"/>
+      <c r="Z88" s="38"/>
+      <c r="AA88" s="16"/>
+      <c r="AB88" s="16"/>
+    </row>
+    <row r="89" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A89" s="2"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="D89" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E89" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="38"/>
+      <c r="N89" s="38"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="38"/>
+      <c r="Q89" s="38"/>
+      <c r="R89" s="15"/>
+      <c r="S89" s="38"/>
+      <c r="T89" s="38"/>
+      <c r="U89" s="15"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="38"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="38"/>
+      <c r="Z89" s="38"/>
+      <c r="AA89" s="16"/>
+      <c r="AB89" s="16"/>
+    </row>
+    <row r="90" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A90" s="2"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="D90" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E90" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="38"/>
+      <c r="Q90" s="38"/>
+      <c r="R90" s="15"/>
+      <c r="S90" s="38"/>
+      <c r="T90" s="38"/>
+      <c r="U90" s="15"/>
+      <c r="V90" s="38"/>
+      <c r="W90" s="38"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="38"/>
+      <c r="Z90" s="38"/>
+      <c r="AA90" s="16"/>
+      <c r="AB90" s="16"/>
+    </row>
+    <row r="91" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A91" s="2"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="D91" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E91" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="38"/>
+      <c r="Q91" s="38"/>
+      <c r="R91" s="15"/>
+      <c r="S91" s="38"/>
+      <c r="T91" s="38"/>
+      <c r="U91" s="15"/>
+      <c r="V91" s="38"/>
+      <c r="W91" s="38"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="38"/>
+      <c r="Z91" s="38"/>
+      <c r="AA91" s="16"/>
+      <c r="AB91" s="16"/>
+    </row>
+    <row r="92" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A92" s="55" t="s">
+        <v>967</v>
+      </c>
+      <c r="B92" s="277" t="s">
+        <v>966</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="D92" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E92" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="38"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="15"/>
+      <c r="S92" s="38"/>
+      <c r="T92" s="38"/>
+      <c r="U92" s="15"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="38"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="38"/>
+      <c r="Z92" s="38"/>
+      <c r="AA92" s="16"/>
+      <c r="AB92" s="16"/>
+    </row>
+    <row r="93" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A93" s="2"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="D93" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E93" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="38"/>
+      <c r="N93" s="38"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="15"/>
+      <c r="S93" s="38"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="15"/>
+      <c r="V93" s="38"/>
+      <c r="W93" s="38"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="38"/>
+      <c r="Z93" s="38"/>
+      <c r="AA93" s="16"/>
+      <c r="AB93" s="16"/>
+    </row>
+    <row r="94" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A94" s="2"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="D94" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E94" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="38"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="38"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="15"/>
+      <c r="S94" s="38"/>
+      <c r="T94" s="38"/>
+      <c r="U94" s="15"/>
+      <c r="V94" s="38"/>
+      <c r="W94" s="38"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="38"/>
+      <c r="Z94" s="38"/>
+      <c r="AA94" s="16"/>
+      <c r="AB94" s="16"/>
+    </row>
+    <row r="95" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A95" s="2"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="D95" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E95" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="38"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="38"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="38"/>
+      <c r="Q95" s="38"/>
+      <c r="R95" s="15"/>
+      <c r="S95" s="38"/>
+      <c r="T95" s="38"/>
+      <c r="U95" s="15"/>
+      <c r="V95" s="38"/>
+      <c r="W95" s="38"/>
+      <c r="X95" s="15"/>
+      <c r="Y95" s="38"/>
+      <c r="Z95" s="38"/>
+      <c r="AA95" s="16"/>
+      <c r="AB95" s="16"/>
+    </row>
+    <row r="96" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A96" s="2"/>
+      <c r="B96" s="50"/>
+      <c r="C96" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="D96" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E96" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="38"/>
+      <c r="K96" s="38"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="38"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="38"/>
+      <c r="Q96" s="38"/>
+      <c r="R96" s="15"/>
+      <c r="S96" s="38"/>
+      <c r="T96" s="38"/>
+      <c r="U96" s="15"/>
+      <c r="V96" s="38"/>
+      <c r="W96" s="38"/>
+      <c r="X96" s="15"/>
+      <c r="Y96" s="38"/>
+      <c r="Z96" s="38"/>
+      <c r="AA96" s="16"/>
+      <c r="AB96" s="16"/>
+    </row>
+    <row r="97" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A97" s="2"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="D97" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E97" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" s="4"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="38"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="38"/>
+      <c r="O97" s="15"/>
+      <c r="P97" s="38"/>
+      <c r="Q97" s="38"/>
+      <c r="R97" s="15"/>
+      <c r="S97" s="38"/>
+      <c r="T97" s="38"/>
+      <c r="U97" s="15"/>
+      <c r="V97" s="38"/>
+      <c r="W97" s="38"/>
+      <c r="X97" s="15"/>
+      <c r="Y97" s="38"/>
+      <c r="Z97" s="38"/>
+      <c r="AA97" s="16"/>
+      <c r="AB97" s="16"/>
+    </row>
+    <row r="98" spans="1:28" ht="10.5" customHeight="1">
+      <c r="A98" s="175"/>
+      <c r="B98" s="176"/>
+      <c r="C98" s="177"/>
+      <c r="D98" s="178"/>
+      <c r="E98" s="179"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="38"/>
+      <c r="K98" s="38"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="38"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="38"/>
+      <c r="Q98" s="38"/>
+      <c r="R98" s="15"/>
+      <c r="S98" s="38"/>
+      <c r="T98" s="38"/>
+      <c r="U98" s="15"/>
+      <c r="V98" s="38"/>
+      <c r="W98" s="38"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="38"/>
+      <c r="Z98" s="38"/>
+      <c r="AA98" s="16"/>
+      <c r="AB98" s="16"/>
+    </row>
+    <row r="99" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A99" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B99" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D99" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E99" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="15"/>
+      <c r="J99" s="38"/>
+      <c r="K99" s="38"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="38"/>
+      <c r="N99" s="38"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="38"/>
+      <c r="Q99" s="38"/>
+      <c r="R99" s="15"/>
+      <c r="S99" s="38"/>
+      <c r="T99" s="38"/>
+      <c r="U99" s="15"/>
+      <c r="V99" s="38"/>
+      <c r="W99" s="38"/>
+      <c r="X99" s="15"/>
+      <c r="Y99" s="38"/>
+      <c r="Z99" s="38"/>
+      <c r="AA99" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB83" s="16">
+      <c r="AB99" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
+    <row r="100" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A100" s="2"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D100" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E100" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="15"/>
+      <c r="J100" s="38"/>
+      <c r="K100" s="38"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="38"/>
+      <c r="N100" s="38"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="38"/>
+      <c r="Q100" s="38"/>
+      <c r="R100" s="15"/>
+      <c r="S100" s="38"/>
+      <c r="T100" s="38"/>
+      <c r="U100" s="15"/>
+      <c r="V100" s="38"/>
+      <c r="W100" s="38"/>
+      <c r="X100" s="15"/>
+      <c r="Y100" s="38"/>
+      <c r="Z100" s="38"/>
+      <c r="AA100" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB100" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A101" s="2"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D101" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E101" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F101" s="4"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="15"/>
+      <c r="J101" s="38"/>
+      <c r="K101" s="38"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="38"/>
+      <c r="N101" s="38"/>
+      <c r="O101" s="15"/>
+      <c r="P101" s="38"/>
+      <c r="Q101" s="38"/>
+      <c r="R101" s="15"/>
+      <c r="S101" s="38"/>
+      <c r="T101" s="38"/>
+      <c r="U101" s="15"/>
+      <c r="V101" s="38"/>
+      <c r="W101" s="38"/>
+      <c r="X101" s="15"/>
+      <c r="Y101" s="38"/>
+      <c r="Z101" s="38"/>
+      <c r="AA101" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB101" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A102" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B102" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D102" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E102" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="15"/>
+      <c r="J102" s="38"/>
+      <c r="K102" s="38"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="38"/>
+      <c r="N102" s="38"/>
+      <c r="O102" s="15"/>
+      <c r="P102" s="38"/>
+      <c r="Q102" s="38"/>
+      <c r="R102" s="15"/>
+      <c r="S102" s="38"/>
+      <c r="T102" s="38"/>
+      <c r="U102" s="15"/>
+      <c r="V102" s="38"/>
+      <c r="W102" s="38"/>
+      <c r="X102" s="15"/>
+      <c r="Y102" s="38"/>
+      <c r="Z102" s="38"/>
+      <c r="AA102" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB102" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A103" s="46"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D103" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E103" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F103" s="4"/>
+      <c r="G103" s="38"/>
+      <c r="H103" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I103" s="15"/>
+      <c r="J103" s="38"/>
+      <c r="K103" s="38"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="38"/>
+      <c r="N103" s="38"/>
+      <c r="O103" s="15"/>
+      <c r="P103" s="38"/>
+      <c r="Q103" s="38"/>
+      <c r="R103" s="15"/>
+      <c r="S103" s="38"/>
+      <c r="T103" s="38"/>
+      <c r="U103" s="15"/>
+      <c r="V103" s="38"/>
+      <c r="W103" s="38"/>
+      <c r="X103" s="15"/>
+      <c r="Y103" s="38"/>
+      <c r="Z103" s="38"/>
+      <c r="AA103" s="16"/>
+      <c r="AB103" s="16"/>
+    </row>
+    <row r="104" spans="1:28" ht="25.5" customHeight="1">
+      <c r="B104" s="56"/>
+      <c r="C104" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D104" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E104" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I104" s="15"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="38"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="38"/>
+      <c r="N104" s="38"/>
+      <c r="O104" s="15"/>
+      <c r="P104" s="38"/>
+      <c r="Q104" s="38"/>
+      <c r="R104" s="15"/>
+      <c r="S104" s="38"/>
+      <c r="T104" s="38"/>
+      <c r="U104" s="15"/>
+      <c r="V104" s="38"/>
+      <c r="W104" s="38"/>
+      <c r="X104" s="15"/>
+      <c r="Y104" s="38"/>
+      <c r="Z104" s="38"/>
+      <c r="AA104" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB104" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="25.5" customHeight="1">
+      <c r="B105" s="56"/>
+      <c r="C105" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D105" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E105" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F105" s="4"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="15"/>
+      <c r="J105" s="38"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="38"/>
+      <c r="N105" s="38"/>
+      <c r="O105" s="15"/>
+      <c r="P105" s="38"/>
+      <c r="Q105" s="38"/>
+      <c r="R105" s="15"/>
+      <c r="S105" s="38"/>
+      <c r="T105" s="38"/>
+      <c r="U105" s="15"/>
+      <c r="V105" s="38"/>
+      <c r="W105" s="38"/>
+      <c r="X105" s="15"/>
+      <c r="Y105" s="38"/>
+      <c r="Z105" s="38"/>
+      <c r="AA105" s="16"/>
+      <c r="AB105" s="16"/>
+    </row>
+    <row r="106" spans="1:28" ht="25.5" customHeight="1">
+      <c r="B106" s="56"/>
+      <c r="C106" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D106" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E106" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="15"/>
+      <c r="J106" s="38"/>
+      <c r="K106" s="38"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="38"/>
+      <c r="N106" s="38"/>
+      <c r="O106" s="15"/>
+      <c r="P106" s="38"/>
+      <c r="Q106" s="38"/>
+      <c r="R106" s="15"/>
+      <c r="S106" s="38"/>
+      <c r="T106" s="38"/>
+      <c r="U106" s="15"/>
+      <c r="V106" s="38"/>
+      <c r="W106" s="38"/>
+      <c r="X106" s="15"/>
+      <c r="Y106" s="38"/>
+      <c r="Z106" s="38"/>
+      <c r="AA106" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB106" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A107" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B107" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D107" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E107" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F107" s="4"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="15"/>
+      <c r="J107" s="38"/>
+      <c r="K107" s="38"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="38"/>
+      <c r="N107" s="38"/>
+      <c r="O107" s="15"/>
+      <c r="P107" s="38"/>
+      <c r="Q107" s="38"/>
+      <c r="R107" s="15"/>
+      <c r="S107" s="38"/>
+      <c r="T107" s="38"/>
+      <c r="U107" s="15"/>
+      <c r="V107" s="38"/>
+      <c r="W107" s="38"/>
+      <c r="X107" s="15"/>
+      <c r="Y107" s="38"/>
+      <c r="Z107" s="38"/>
+      <c r="AA107" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB107" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A108" s="2"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D108" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E108" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="15"/>
+      <c r="J108" s="38"/>
+      <c r="K108" s="38"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="38"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="38"/>
+      <c r="Q108" s="38"/>
+      <c r="R108" s="15"/>
+      <c r="S108" s="38"/>
+      <c r="T108" s="38"/>
+      <c r="U108" s="15"/>
+      <c r="V108" s="38"/>
+      <c r="W108" s="38"/>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="38"/>
+      <c r="Z108" s="38"/>
+      <c r="AA108" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB108" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A109" s="2"/>
+      <c r="B109" s="56"/>
+      <c r="C109" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D109" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E109" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F109" s="4"/>
+      <c r="G109" s="38"/>
+      <c r="H109" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="15"/>
+      <c r="J109" s="38"/>
+      <c r="K109" s="38"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="38"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="38"/>
+      <c r="Q109" s="38"/>
+      <c r="R109" s="15"/>
+      <c r="S109" s="38"/>
+      <c r="T109" s="38"/>
+      <c r="U109" s="15"/>
+      <c r="V109" s="38"/>
+      <c r="W109" s="38"/>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="38"/>
+      <c r="Z109" s="38"/>
+      <c r="AA109" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB109" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A110" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B110" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D110" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="E110" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F110" s="4"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="15"/>
+      <c r="J110" s="38"/>
+      <c r="K110" s="38"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="38"/>
+      <c r="N110" s="38"/>
+      <c r="O110" s="15"/>
+      <c r="P110" s="38"/>
+      <c r="Q110" s="38"/>
+      <c r="R110" s="15"/>
+      <c r="S110" s="38"/>
+      <c r="T110" s="38"/>
+      <c r="U110" s="15"/>
+      <c r="V110" s="38"/>
+      <c r="W110" s="38"/>
+      <c r="X110" s="15"/>
+      <c r="Y110" s="38"/>
+      <c r="Z110" s="38"/>
+      <c r="AA110" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB110" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" ht="25.5" customHeight="1">
+      <c r="B111" s="56"/>
+      <c r="C111" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D111" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="E111" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F111" s="4"/>
+      <c r="G111" s="38"/>
+      <c r="H111" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="15"/>
+      <c r="J111" s="38"/>
+      <c r="K111" s="38"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="38"/>
+      <c r="N111" s="38"/>
+      <c r="O111" s="15"/>
+      <c r="P111" s="38"/>
+      <c r="Q111" s="38"/>
+      <c r="R111" s="15"/>
+      <c r="S111" s="38"/>
+      <c r="T111" s="38"/>
+      <c r="U111" s="15"/>
+      <c r="V111" s="38"/>
+      <c r="W111" s="38"/>
+      <c r="X111" s="15"/>
+      <c r="Y111" s="38"/>
+      <c r="Z111" s="38"/>
+      <c r="AA111" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB111" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A112" s="2"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D112" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="E112" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F112" s="4"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="15"/>
+      <c r="J112" s="38"/>
+      <c r="K112" s="38"/>
+      <c r="L112" s="15"/>
+      <c r="M112" s="38"/>
+      <c r="N112" s="38"/>
+      <c r="O112" s="15"/>
+      <c r="P112" s="38"/>
+      <c r="Q112" s="38"/>
+      <c r="R112" s="15"/>
+      <c r="S112" s="38"/>
+      <c r="T112" s="38"/>
+      <c r="U112" s="15"/>
+      <c r="V112" s="38"/>
+      <c r="W112" s="38"/>
+      <c r="X112" s="15"/>
+      <c r="Y112" s="38"/>
+      <c r="Z112" s="38"/>
+      <c r="AA112" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB112" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A113" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B113" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D113" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="E113" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F113" s="4"/>
+      <c r="G113" s="38"/>
+      <c r="H113" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="15"/>
+      <c r="J113" s="38"/>
+      <c r="K113" s="38"/>
+      <c r="L113" s="15"/>
+      <c r="M113" s="38"/>
+      <c r="N113" s="38"/>
+      <c r="O113" s="15"/>
+      <c r="P113" s="38"/>
+      <c r="Q113" s="38"/>
+      <c r="R113" s="15"/>
+      <c r="S113" s="38"/>
+      <c r="T113" s="38"/>
+      <c r="U113" s="15"/>
+      <c r="V113" s="38"/>
+      <c r="W113" s="38"/>
+      <c r="X113" s="15"/>
+      <c r="Y113" s="38"/>
+      <c r="Z113" s="38"/>
+      <c r="AA113" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB113" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D114" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="E114" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F114" s="4"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="15"/>
+      <c r="J114" s="38"/>
+      <c r="K114" s="38"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="38"/>
+      <c r="N114" s="38"/>
+      <c r="O114" s="15"/>
+      <c r="P114" s="38"/>
+      <c r="Q114" s="38"/>
+      <c r="R114" s="15"/>
+      <c r="S114" s="38"/>
+      <c r="T114" s="38"/>
+      <c r="U114" s="15"/>
+      <c r="V114" s="38"/>
+      <c r="W114" s="38"/>
+      <c r="X114" s="15"/>
+      <c r="Y114" s="38"/>
+      <c r="Z114" s="38"/>
+      <c r="AA114" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB114" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" ht="25.5" customHeight="1">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D115" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="E115" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F115" s="4"/>
+      <c r="G115" s="38"/>
+      <c r="H115" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="15"/>
+      <c r="J115" s="38"/>
+      <c r="K115" s="38"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="38"/>
+      <c r="N115" s="38"/>
+      <c r="O115" s="15"/>
+      <c r="P115" s="38"/>
+      <c r="Q115" s="38"/>
+      <c r="R115" s="15"/>
+      <c r="S115" s="38"/>
+      <c r="T115" s="38"/>
+      <c r="U115" s="15"/>
+      <c r="V115" s="38"/>
+      <c r="W115" s="38"/>
+      <c r="X115" s="15"/>
+      <c r="Y115" s="38"/>
+      <c r="Z115" s="38"/>
+      <c r="AA115" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB115" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B39:B40"/>
+  <mergeCells count="7">
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
